--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30860" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="8260" yWindow="0" windowWidth="30860" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="42">
   <si>
     <t>F</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>MuSK KO</t>
-  </si>
-  <si>
-    <t>MuSK WT</t>
   </si>
   <si>
     <t>E1</t>
@@ -154,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,6 +234,21 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -306,7 +318,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -334,8 +346,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,7 +419,6 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -432,15 +445,38 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -454,6 +490,7 @@
     <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -467,9 +504,116 @@
     <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
@@ -799,7 +943,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -856,12 +1000,8 @@
       <c r="Q1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="18">
@@ -881,8 +1021,8 @@
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="20">
-        <f ca="1">IF(F2, F2-D2, TODAY()-D2)</f>
-        <v>259</v>
+        <f t="shared" ref="G2:G24" ca="1" si="0">IF(F2, F2-D2, TODAY()-D2)</f>
+        <v>261</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>22</v>
@@ -908,14 +1048,8 @@
         <f>SUM(O2:P2)</f>
         <v>9</v>
       </c>
-      <c r="S2" s="28">
-        <f>COUNTIFS(B:B, "F",C:C, S1)</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="28">
-        <f>COUNTIFS(C:C, "F",D:D,T1)</f>
-        <v>0</v>
-      </c>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="22">
@@ -935,8 +1069,8 @@
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="20">
-        <f ca="1">IF(F3, F3-D3, TODAY()-D3)</f>
-        <v>204</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>206</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>22</v>
@@ -962,14 +1096,8 @@
         <f>SUM(O3:P3)</f>
         <v>4</v>
       </c>
-      <c r="S3" s="28">
-        <f>COUNTIFS(B:B, "M",C:C, S1)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="28">
-        <f>COUNTIFS(C:C, "M",D:D, T1)</f>
-        <v>0</v>
-      </c>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="18">
@@ -989,8 +1117,8 @@
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="20">
-        <f ca="1">IF(F4, F4-D4, TODAY()-D4)</f>
-        <v>204</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>206</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>22</v>
@@ -1035,8 +1163,8 @@
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="20">
-        <f ca="1">IF(F5, F5-D5, TODAY()-D5)</f>
-        <v>202</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>204</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>22</v>
@@ -1069,7 +1197,7 @@
         <v>43124</v>
       </c>
       <c r="G6" s="23">
-        <f ca="1">IF(F6, F6-D6, TODAY()-D6)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
       <c r="H6" s="17" t="s">
@@ -1083,6 +1211,17 @@
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
+      <c r="N6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="3">
+        <f>COUNTIFS(C:C, O1,L:L, N6)</f>
+        <v>2</v>
+      </c>
+      <c r="P6" s="3">
+        <f>COUNTIFS(C:C, P1,L:L, N6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="10">
@@ -1105,7 +1244,7 @@
         <v>43124</v>
       </c>
       <c r="G7" s="17">
-        <f ca="1">IF(F7, F7-D7, TODAY()-D7)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
       <c r="H7" s="17" t="s">
@@ -1119,13 +1258,6 @@
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="6"/>
-      <c r="N7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="26">
-        <f ca="1">IF(G:G="E", "", AVERAGEIF(F:F, "&lt;&gt;",G:G))</f>
-        <v>32.363636363636367</v>
-      </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="10">
@@ -1135,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="10" t="str">
-        <f t="shared" ref="C8:C9" si="0">$P$1</f>
+        <f t="shared" ref="C8:C9" si="1">$P$1</f>
         <v>WT</v>
       </c>
       <c r="D8" s="11">
@@ -1148,7 +1280,7 @@
         <v>43147</v>
       </c>
       <c r="G8" s="17">
-        <f ca="1">IF(F8, F8-D8, TODAY()-D8)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
       <c r="H8" s="17" t="s">
@@ -1160,7 +1292,13 @@
         <v>7</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="O8" s="25"/>
+      <c r="N8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="25">
+        <f ca="1">IF(G:G="E", "", AVERAGEIF(F:F, "&lt;&gt;",G:G))</f>
+        <v>32.363636363636367</v>
+      </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="10">
@@ -1170,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>WT</v>
       </c>
       <c r="D9" s="11">
@@ -1183,7 +1321,7 @@
         <v>43146</v>
       </c>
       <c r="G9" s="17">
-        <f ca="1">IF(F9, F9-D9, TODAY()-D9)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="H9" s="17" t="s">
@@ -1217,10 +1355,10 @@
         <v>43146</v>
       </c>
       <c r="G10" s="24">
-        <f ca="1">IF(F10, F10-D10, TODAY()-D10)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="29" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="1"/>
@@ -1228,19 +1366,19 @@
         <v>30</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <v>443</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f t="shared" ref="C11:C12" si="1">$O$1</f>
+        <f t="shared" ref="C11:C12" si="2">$O$1</f>
         <v>Mut</v>
       </c>
       <c r="D11" s="14">
@@ -1253,10 +1391,10 @@
         <v>43146</v>
       </c>
       <c r="G11" s="24">
-        <f ca="1">IF(F11, F11-D11, TODAY()-D11)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="29" t="s">
         <v>22</v>
       </c>
       <c r="I11" s="1"/>
@@ -1264,7 +1402,7 @@
         <v>29</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="32" t="s">
+      <c r="L11" s="31" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1276,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Mut</v>
       </c>
       <c r="D12" s="8">
@@ -1289,7 +1427,7 @@
         <v>43146</v>
       </c>
       <c r="G12" s="23">
-        <f ca="1">IF(F12, F12-D12, TODAY()-D12)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
       <c r="H12" s="17" t="s">
@@ -1312,7 +1450,7 @@
       <c r="C13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>43130</v>
       </c>
       <c r="E13" s="11">
@@ -1322,7 +1460,7 @@
         <v>43165</v>
       </c>
       <c r="G13" s="17">
-        <f ca="1">IF(F13, F13-D13, TODAY()-D13)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="H13" s="15" t="s">
@@ -1332,7 +1470,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1345,7 +1483,7 @@
       <c r="C14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>43130</v>
       </c>
       <c r="E14" s="11">
@@ -1355,7 +1493,7 @@
         <v>43165</v>
       </c>
       <c r="G14" s="17">
-        <f ca="1">IF(F14, F14-D14, TODAY()-D14)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="H14" s="15" t="s">
@@ -1365,7 +1503,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1378,7 +1516,7 @@
       <c r="C15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>43130</v>
       </c>
       <c r="E15" s="11">
@@ -1388,7 +1526,7 @@
         <v>43165</v>
       </c>
       <c r="G15" s="17">
-        <f ca="1">IF(F15, F15-D15, TODAY()-D15)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="H15" s="15" t="s">
@@ -1398,7 +1536,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,7 +1549,7 @@
       <c r="C16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <v>43130</v>
       </c>
       <c r="E16" s="11">
@@ -1421,7 +1559,7 @@
         <v>43165</v>
       </c>
       <c r="G16" s="17">
-        <f ca="1">IF(F16, F16-D16, TODAY()-D16)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="H16" s="15" t="s">
@@ -1431,7 +1569,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1453,8 +1591,8 @@
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="23">
-        <f ca="1">IF(F17, F17-D17, TODAY()-D17)</f>
-        <v>34</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
       </c>
       <c r="H17" s="17" t="s">
         <v>22</v>
@@ -1474,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="4" t="str">
-        <f t="shared" ref="C18:C19" si="2">$O$1</f>
+        <f t="shared" ref="C18:C19" si="3">$O$1</f>
         <v>Mut</v>
       </c>
       <c r="D18" s="8">
@@ -1485,8 +1623,8 @@
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="23">
-        <f ca="1">IF(F18, F18-D18, TODAY()-D18)</f>
-        <v>34</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
       </c>
       <c r="H18" s="17" t="s">
         <v>22</v>
@@ -1506,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Mut</v>
       </c>
       <c r="D19" s="8">
@@ -1517,8 +1655,8 @@
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="23">
-        <f ca="1">IF(F19, F19-D19, TODAY()-D19)</f>
-        <v>34</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>22</v>
@@ -1548,8 +1686,8 @@
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="20">
-        <f ca="1">IF(F20, F20-D20, TODAY()-D20)</f>
-        <v>34</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>22</v>
@@ -1580,8 +1718,8 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="17">
-        <f ca="1">IF(F21, F21-D21, TODAY()-D21)</f>
-        <v>34</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>22</v>
@@ -1611,8 +1749,8 @@
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="20">
-        <f ca="1">IF(F22, F22-D22, TODAY()-D22)</f>
-        <v>34</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>22</v>
@@ -1643,8 +1781,8 @@
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="17">
-        <f ca="1">IF(F23, F23-D23, TODAY()-D23)</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
       </c>
       <c r="H23" s="17" t="s">
         <v>22</v>
@@ -1675,8 +1813,8 @@
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="23">
-        <f ca="1">IF(F24, F24-D24, TODAY()-D24)</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>22</v>
@@ -1689,164 +1827,200 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40">
+        <v>43166</v>
+      </c>
+      <c r="F25" s="39"/>
+      <c r="G25" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37">
+      <c r="B26" s="43"/>
+      <c r="C26" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="43"/>
+      <c r="E26" s="45">
         <v>43166</v>
       </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="33" t="s">
+      <c r="F26" s="43"/>
+      <c r="G26" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="37">
+      <c r="B27" s="43"/>
+      <c r="C27" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="43"/>
+      <c r="E27" s="45">
         <v>43166</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="33" t="s">
+      <c r="F27" s="43"/>
+      <c r="G27" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="37">
+      <c r="B28" s="46"/>
+      <c r="C28" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="43"/>
+      <c r="E28" s="45">
         <v>43166</v>
       </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="33" t="s">
+      <c r="F28" s="43"/>
+      <c r="G28" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="37">
+      <c r="B29" s="34"/>
+      <c r="C29" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35">
         <v>43166</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="33" t="s">
+      <c r="F29" s="34"/>
+      <c r="G29" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="37">
+      <c r="B30" s="43"/>
+      <c r="C30" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="43"/>
+      <c r="E30" s="45">
         <v>43166</v>
       </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="33" t="s">
+      <c r="F30" s="43"/>
+      <c r="G30" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="37">
+      <c r="B31" s="41"/>
+      <c r="C31" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="40">
         <v>43166</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="33" t="s">
+      <c r="F31" s="41"/>
+      <c r="G31" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="37">
-        <v>43166</v>
-      </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
+      <c r="H31" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="38" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:L24">
     <sortCondition ref="D2:D24"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="A1:L1048576">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>$C:$C="Het"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$C:$C="Mut"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Cours\M2\Stage M2\Rapport\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8260" yWindow="0" windowWidth="30860" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="9210" yWindow="0" windowWidth="30855" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="46">
   <si>
     <t>F</t>
   </si>
@@ -145,12 +150,24 @@
   </si>
   <si>
     <t>C57BL/e Pour IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Prévue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -196,27 +213,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -232,6 +229,30 @@
       <sz val="12"/>
       <color theme="6" tint="-0.249977111117893"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,6 +260,7 @@
       <sz val="12"/>
       <color theme="6" tint="-0.249977111117893"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,10 +269,11 @@
       <sz val="12"/>
       <color theme="6" tint="-0.249977111117893"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +289,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +349,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -349,7 +386,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,81 +435,99 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,17 +562,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -558,63 +603,16 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -940,20 +938,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="8" width="10.83203125" style="16"/>
-    <col min="12" max="12" width="18.33203125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="19.5" customWidth="1"/>
+    <col min="7" max="8" width="10.875" style="16"/>
+    <col min="10" max="10" width="20.625" customWidth="1"/>
+    <col min="13" max="13" width="44.875" style="13" customWidth="1"/>
+    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="15" max="15" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
@@ -988,195 +988,211 @@
         <v>10</v>
       </c>
       <c r="L1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="18">
+      <c r="S1" s="26"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="41">
         <v>415</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="42">
         <v>42907</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="42">
         <v>43123</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20">
+      <c r="F2" s="42"/>
+      <c r="G2" s="43">
         <f t="shared" ref="G2:G24" ca="1" si="0">IF(F2, F2-D2, TODAY()-D2)</f>
         <v>261</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21" t="s">
+      <c r="H2" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="3">
-        <f>COUNTIFS(B:B, "F",C:C, O1)</f>
+      <c r="P2" s="3">
+        <f>COUNTIFS(B:B, "F",C:C, P1)</f>
         <v>4</v>
       </c>
-      <c r="P2" s="3">
-        <f>COUNTIFS(B:B, "F",C:C,P1)</f>
+      <c r="Q2" s="3">
+        <f>COUNTIFS(B:B, "F",C:C,Q1)</f>
         <v>5</v>
       </c>
-      <c r="Q2" s="5">
-        <f>SUM(O2:P2)</f>
+      <c r="R2" s="5">
+        <f>SUM(P2:Q2)</f>
         <v>9</v>
       </c>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="22">
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
         <v>417</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="42">
         <v>42962</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="42">
         <v>43123</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20">
+      <c r="F3" s="42"/>
+      <c r="G3" s="43">
         <f t="shared" ca="1" si="0"/>
         <v>206</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21" t="s">
+      <c r="H3" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="3">
-        <f>COUNTIFS(B:B, "M",C:C, O1)</f>
+      <c r="P3" s="3">
+        <f>COUNTIFS(B:B, "M",C:C, P1)</f>
         <v>4</v>
       </c>
-      <c r="P3" s="3">
-        <f>COUNTIFS(B:B, "M",C:C,P1)</f>
+      <c r="Q3" s="3">
+        <f>COUNTIFS(B:B, "M",C:C,Q1)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="5">
-        <f>SUM(O3:P3)</f>
+      <c r="R3" s="5">
+        <f>SUM(P3:Q3)</f>
         <v>4</v>
       </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="18">
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
         <v>422</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="42">
         <v>42962</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="42">
         <v>43123</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20">
+      <c r="F4" s="42"/>
+      <c r="G4" s="43">
         <f t="shared" ca="1" si="0"/>
         <v>206</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21" t="s">
+      <c r="H4" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="O4" s="5">
-        <f>SUM(O2:O3)</f>
-        <v>8</v>
       </c>
       <c r="P4" s="5">
         <f>SUM(P2:P3)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q4" s="5">
         <f>SUM(Q2:Q3)</f>
+        <v>5</v>
+      </c>
+      <c r="R4" s="5">
+        <f>SUM(R2:R3)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="22">
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
         <v>425</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="42">
         <v>42964</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="42">
         <v>43123</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20">
+      <c r="F5" s="42"/>
+      <c r="G5" s="43">
         <f t="shared" ca="1" si="0"/>
         <v>204</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21" t="s">
+      <c r="H5" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>435</v>
       </c>
@@ -1184,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>$O$1</f>
+        <f>$P$1</f>
         <v>Mut</v>
       </c>
       <c r="D6" s="8">
@@ -1196,11 +1212,11 @@
       <c r="F6" s="8">
         <v>43124</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="32" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -1211,19 +1227,20 @@
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="N6" s="9" t="s">
+      <c r="M6" s="5"/>
+      <c r="O6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="3">
-        <f>COUNTIFS(C:C, O1,L:L, N6)</f>
+      <c r="P6" s="3">
+        <f>COUNTIFS(C:C, P1,M:M, O6)</f>
         <v>2</v>
       </c>
-      <c r="P6" s="3">
-        <f>COUNTIFS(C:C, P1,L:L, N6)</f>
+      <c r="Q6" s="3">
+        <f>COUNTIFS(C:C, Q1,M:M, O6)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>437</v>
       </c>
@@ -1231,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f>$P$1</f>
+        <f>$Q$1</f>
         <v>WT</v>
       </c>
       <c r="D7" s="11">
@@ -1257,9 +1274,10 @@
         <v>9</v>
       </c>
       <c r="K7" s="12"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="L7" s="12"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>440</v>
       </c>
@@ -1267,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="10" t="str">
-        <f t="shared" ref="C8:C9" si="1">$P$1</f>
+        <f t="shared" ref="C8:C9" si="1">$Q$1</f>
         <v>WT</v>
       </c>
       <c r="D8" s="11">
@@ -1291,16 +1309,17 @@
       <c r="K8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="N8" s="9" t="s">
+      <c r="L8" s="12"/>
+      <c r="M8" s="6"/>
+      <c r="O8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="25">
+      <c r="P8" s="18">
         <f ca="1">IF(G:G="E", "", AVERAGEIF(F:F, "&lt;&gt;",G:G))</f>
         <v>32.363636363636367</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>441</v>
       </c>
@@ -1330,19 +1349,20 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="12"/>
+      <c r="M9" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>439</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="str">
-        <f>$O$1</f>
+      <c r="C10" s="28" t="str">
+        <f>$P$1</f>
         <v>Mut</v>
       </c>
       <c r="D10" s="14">
@@ -1354,31 +1374,34 @@
       <c r="F10" s="14">
         <v>43146</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-      <c r="H10" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="1"/>
+      <c r="H10" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="1"/>
+      <c r="M10" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="26">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
         <v>443</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f t="shared" ref="C11:C12" si="2">$O$1</f>
+        <f t="shared" ref="C11:C12" si="2">$P$1</f>
         <v>Mut</v>
       </c>
       <c r="D11" s="14">
@@ -1390,11 +1413,11 @@
       <c r="F11" s="14">
         <v>43146</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="33" t="s">
         <v>22</v>
       </c>
       <c r="I11" s="1"/>
@@ -1402,18 +1425,19 @@
         <v>29</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>442</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="4" t="str">
+      <c r="C12" s="28" t="str">
         <f t="shared" si="2"/>
         <v>Mut</v>
       </c>
@@ -1426,11 +1450,11 @@
       <c r="F12" s="8">
         <v>43146</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="32" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="5" t="s">
@@ -1438,9 +1462,10 @@
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>1</v>
       </c>
@@ -1450,7 +1475,7 @@
       <c r="C13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="20">
         <v>43130</v>
       </c>
       <c r="E13" s="11">
@@ -1470,10 +1495,13 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -1483,7 +1511,7 @@
       <c r="C14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="20">
         <v>43130</v>
       </c>
       <c r="E14" s="11">
@@ -1503,10 +1531,13 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>3</v>
       </c>
@@ -1516,7 +1547,7 @@
       <c r="C15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="20">
         <v>43130</v>
       </c>
       <c r="E15" s="11">
@@ -1536,10 +1567,13 @@
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>4</v>
       </c>
@@ -1549,7 +1583,7 @@
       <c r="C16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="20">
         <v>43130</v>
       </c>
       <c r="E16" s="11">
@@ -1569,18 +1603,21 @@
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>444</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="4" t="str">
-        <f>$O$1</f>
+      <c r="C17" s="28" t="str">
+        <f>$P$1</f>
         <v>Mut</v>
       </c>
       <c r="D17" s="8">
@@ -1590,29 +1627,30 @@
         <v>43166</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="23">
+      <c r="G17" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="32" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>445</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="4" t="str">
-        <f t="shared" ref="C18:C19" si="3">$O$1</f>
+      <c r="C18" s="28" t="str">
+        <f t="shared" ref="C18:C19" si="3">$P$1</f>
         <v>Mut</v>
       </c>
       <c r="D18" s="8">
@@ -1622,21 +1660,22 @@
         <v>43166</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="23">
+      <c r="G18" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="32" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="5"/>
+      <c r="M18" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>448</v>
       </c>
@@ -1654,52 +1693,54 @@
         <v>43166</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="23">
+      <c r="G19" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="32" t="s">
         <v>22</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="5"/>
+      <c r="M19" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="18">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="41">
         <v>449</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="42">
         <v>43132</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="42">
         <v>43166</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20">
+      <c r="F20" s="42"/>
+      <c r="G20" s="43">
         <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
-      <c r="H20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21" t="s">
+      <c r="H20" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>450</v>
       </c>
@@ -1707,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="10" t="str">
-        <f>$P$1</f>
+        <f>$Q$1</f>
         <v>WT</v>
       </c>
       <c r="D21" s="11">
@@ -1727,42 +1768,44 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="18">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="41">
         <v>451</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="42">
         <v>43132</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="42">
         <v>43166</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20">
+      <c r="F22" s="42"/>
+      <c r="G22" s="43">
         <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
-      <c r="H22" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21" t="s">
+      <c r="H22" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>455</v>
       </c>
@@ -1770,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="10" t="str">
-        <f>$P$1</f>
+        <f>$Q$1</f>
         <v>WT</v>
       </c>
       <c r="D23" s="11">
@@ -1790,11 +1833,12 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="12"/>
+      <c r="M23" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>457</v>
       </c>
@@ -1802,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f>$O$1</f>
+        <f>$P$1</f>
         <v>Mut</v>
       </c>
       <c r="D24" s="8">
@@ -1812,217 +1856,236 @@
         <v>43166</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="23">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="H24" s="17" t="s">
+      <c r="G24" s="32">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H24" s="32" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="5"/>
+      <c r="M24" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="37" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="38" t="s">
+      <c r="B25" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40">
+      <c r="D25" s="40"/>
+      <c r="E25" s="37">
         <v>43166</v>
       </c>
-      <c r="F25" s="39"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="38" t="s">
+      <c r="H25" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="42" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44" t="s">
+      <c r="B26" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="45">
+      <c r="D26" s="49"/>
+      <c r="E26" s="50">
         <v>43166</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44" t="s">
+      <c r="F26" s="49"/>
+      <c r="G26" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="44" t="s">
+      <c r="H26" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="51" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="42" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44" t="s">
+      <c r="B27" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="45">
+      <c r="D27" s="49"/>
+      <c r="E27" s="50">
         <v>43166</v>
       </c>
-      <c r="F27" s="43"/>
-      <c r="G27" s="44" t="s">
+      <c r="F27" s="49"/>
+      <c r="G27" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="44" t="s">
+      <c r="H27" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="51" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="42" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="44" t="s">
+      <c r="B28" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="45">
+      <c r="D28" s="49"/>
+      <c r="E28" s="50">
         <v>43166</v>
       </c>
-      <c r="F28" s="43"/>
-      <c r="G28" s="44" t="s">
+      <c r="F28" s="49"/>
+      <c r="G28" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="44" t="s">
+      <c r="H28" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="51" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="32" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="36" t="s">
+      <c r="B29" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="35">
+      <c r="D29" s="22"/>
+      <c r="E29" s="23">
         <v>43166</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="36" t="s">
+      <c r="F29" s="22"/>
+      <c r="G29" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="36" t="s">
+      <c r="H29" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="42" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44" t="s">
+      <c r="B30" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="45">
+      <c r="D30" s="49"/>
+      <c r="E30" s="50">
         <v>43166</v>
       </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44" t="s">
+      <c r="F30" s="49"/>
+      <c r="G30" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="44" t="s">
+      <c r="H30" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="51" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="37" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="38" t="s">
+      <c r="B31" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="40">
+      <c r="D31" s="36"/>
+      <c r="E31" s="37">
         <v>43166</v>
       </c>
-      <c r="F31" s="41"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="38" t="s">
+      <c r="H31" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="38" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L24">
+  <sortState ref="A2:M24">
     <sortCondition ref="D2:D24"/>
   </sortState>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A1:L1048576">
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>$C:$C="Het"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>$C:$C="Mut"</formula>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="A1:M1048576">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$C$2="Mut"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Cours\M2\Stage M2\Rapport\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9210" yWindow="0" windowWidth="30855" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="56">
   <si>
     <t>F</t>
   </si>
@@ -53,9 +48,6 @@
     <t>Reçu le</t>
   </si>
   <si>
-    <t>NeuN</t>
-  </si>
-  <si>
     <t>qPCR</t>
   </si>
   <si>
@@ -86,9 +78,6 @@
     <t>Age (jours)</t>
   </si>
   <si>
-    <t>Moyenne Age sacrifice</t>
-  </si>
-  <si>
     <t>Origine</t>
   </si>
   <si>
@@ -162,13 +151,49 @@
   </si>
   <si>
     <t>Prévue</t>
+  </si>
+  <si>
+    <t>Moy Age sacrifice (jour)</t>
+  </si>
+  <si>
+    <t>Mâle</t>
+  </si>
+  <si>
+    <t>Femelle</t>
+  </si>
+  <si>
+    <t>NeuN/MuSK</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>E19</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>E23</t>
+  </si>
+  <si>
+    <t>E24</t>
+  </si>
+  <si>
+    <t>Prévu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -272,8 +297,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,12 +327,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +387,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -385,8 +417,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -458,19 +494,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -482,7 +512,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -511,13 +541,13 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -530,8 +560,31 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="33">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -546,6 +599,8 @@
     <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -560,36 +615,11 @@
     <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -938,261 +968,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="7" max="8" width="10.875" style="16"/>
-    <col min="10" max="10" width="20.625" customWidth="1"/>
-    <col min="13" max="13" width="44.875" style="13" customWidth="1"/>
-    <col min="14" max="14" width="13.375" customWidth="1"/>
-    <col min="15" max="15" width="21.125" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="16"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="44.83203125" style="13" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:22" s="58" customFormat="1" ht="18">
+      <c r="A1" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="9" t="s">
+      <c r="N1" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="59"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="39">
+        <v>415</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="40">
+        <v>42907</v>
+      </c>
+      <c r="E2" s="40">
+        <v>43123</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41">
+        <f t="shared" ref="G2:G27" ca="1" si="0">IF(F2, F2-D2, TODAY()-D2)</f>
+        <v>264</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
-        <v>415</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="42">
-        <v>42907</v>
-      </c>
-      <c r="E2" s="42">
-        <v>43123</v>
-      </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43">
-        <f t="shared" ref="G2:G24" ca="1" si="0">IF(F2, F2-D2, TODAY()-D2)</f>
-        <v>261</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="3">
-        <f>COUNTIFS(B:B, "F",C:C, P1)</f>
-        <v>4</v>
-      </c>
-      <c r="Q2" s="3">
-        <f>COUNTIFS(B:B, "F",C:C,Q1)</f>
-        <v>5</v>
-      </c>
-      <c r="R2" s="5">
-        <f>SUM(P2:Q2)</f>
-        <v>9</v>
-      </c>
-      <c r="S2" s="26"/>
+      <c r="S2" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="T2" s="26"/>
       <c r="U2" s="26"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
+      <c r="V2" s="26"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="43">
         <v>417</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="42">
+      <c r="C3" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="40">
         <v>42962</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="40">
         <v>43123</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43">
-        <f t="shared" ca="1" si="0"/>
-        <v>206</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="3">
-        <f>COUNTIFS(B:B, "M",C:C, P1)</f>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>209</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>COUNTIFS(B:B, "F",C:C, Q2)</f>
         <v>4</v>
       </c>
-      <c r="Q3" s="3">
-        <f>COUNTIFS(B:B, "M",C:C,Q1)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="5">
-        <f>SUM(P3:Q3)</f>
-        <v>4</v>
-      </c>
-      <c r="S3" s="26"/>
+      <c r="R3" s="3">
+        <f>COUNTIFS(B:B, "F",C:C,R2)</f>
+        <v>5</v>
+      </c>
+      <c r="S3" s="5">
+        <f>SUM(Q3:R3)</f>
+        <v>9</v>
+      </c>
       <c r="T3" s="26"/>
       <c r="U3" s="26"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="V3" s="26"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="39">
         <v>422</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="42">
+      <c r="C4" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="40">
         <v>42962</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="40">
         <v>43123</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43">
-        <f t="shared" ca="1" si="0"/>
-        <v>206</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="5">
-        <f>SUM(P2:P3)</f>
-        <v>8</v>
-      </c>
-      <c r="Q4" s="5">
-        <f>SUM(Q2:Q3)</f>
-        <v>5</v>
-      </c>
-      <c r="R4" s="5">
-        <f>SUM(R2:R3)</f>
-        <v>13</v>
-      </c>
-      <c r="S4" s="26"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>209</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>COUNTIFS(B:B, "M",C:C, Q2)</f>
+        <v>4</v>
+      </c>
+      <c r="R4" s="3">
+        <f>COUNTIFS(B:B, "M",C:C,R2)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="5">
+        <f>SUM(Q4:R4)</f>
+        <v>4</v>
+      </c>
       <c r="T4" s="26"/>
       <c r="U4" s="26"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="V4" s="26"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="43">
         <v>425</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="42">
+      <c r="C5" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="40">
         <v>42964</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="40">
         <v>43123</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43">
-        <f t="shared" ca="1" si="0"/>
-        <v>204</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="26"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="5">
+        <f>SUM(Q3:Q4)</f>
+        <v>8</v>
+      </c>
+      <c r="R5" s="5">
+        <f>SUM(R3:R4)</f>
+        <v>5</v>
+      </c>
+      <c r="S5" s="5">
+        <f>SUM(S3:S4)</f>
+        <v>13</v>
+      </c>
       <c r="T5" s="26"/>
       <c r="U5" s="26"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5" s="26"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="4">
         <v>435</v>
       </c>
@@ -1200,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>$P$1</f>
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D6" s="8">
@@ -1212,35 +1251,25 @@
       <c r="F6" s="8">
         <v>43124</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="30">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="H6" s="32" t="s">
-        <v>22</v>
+      <c r="H6" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="3">
-        <f>COUNTIFS(C:C, P1,M:M, O6)</f>
-        <v>2</v>
-      </c>
-      <c r="Q6" s="3">
-        <f>COUNTIFS(C:C, Q1,M:M, O6)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="10">
         <v>437</v>
       </c>
@@ -1248,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f>$Q$1</f>
+        <f>$R$2</f>
         <v>WT</v>
       </c>
       <c r="D7" s="11">
@@ -1265,19 +1294,31 @@
         <v>27</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M7" s="12"/>
+      <c r="N7" s="6"/>
+      <c r="P7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>COUNTIFS(N:N, P7,C:C, Q2,N:N, P7)</f>
+        <v>2</v>
+      </c>
+      <c r="R7" s="3">
+        <f>COUNTIFS(N:N, P7,C:C, R2,N:N, P7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="10">
         <v>440</v>
       </c>
@@ -1285,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="10" t="str">
-        <f t="shared" ref="C8:C9" si="1">$Q$1</f>
+        <f>$R$2</f>
         <v>WT</v>
       </c>
       <c r="D8" s="11">
@@ -1302,7 +1343,7 @@
         <v>36</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -1310,16 +1351,10 @@
         <v>7</v>
       </c>
       <c r="L8" s="12"/>
-      <c r="M8" s="6"/>
-      <c r="O8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="18">
-        <f ca="1">IF(G:G="E", "", AVERAGEIF(F:F, "&lt;&gt;",G:G))</f>
-        <v>32.363636363636367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M8" s="12"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="10">
         <v>441</v>
       </c>
@@ -1327,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>$R$2</f>
         <v>WT</v>
       </c>
       <c r="D9" s="11">
@@ -1344,25 +1379,33 @@
         <v>35</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M9" s="12"/>
+      <c r="N9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="18">
+        <f ca="1">IF(G:G="E", "", AVERAGEIF(F:F, "&lt;&gt;",G:G))</f>
+        <v>32.363636363636367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="2">
         <v>439</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="28" t="str">
-        <f>$P$1</f>
+      <c r="C10" s="7" t="str">
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D10" s="14">
@@ -1374,26 +1417,27 @@
       <c r="F10" s="14">
         <v>43146</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-      <c r="H10" s="33" t="s">
-        <v>22</v>
+      <c r="H10" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M10" s="1"/>
+      <c r="N10" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="19">
         <v>443</v>
       </c>
@@ -1401,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f t="shared" ref="C11:C12" si="2">$P$1</f>
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D11" s="14">
@@ -1413,32 +1457,33 @@
       <c r="F11" s="14">
         <v>43146</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
-      <c r="H11" s="33" t="s">
-        <v>22</v>
+      <c r="H11" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="7">
         <v>442</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="28" t="str">
-        <f t="shared" si="2"/>
+      <c r="C12" s="7" t="str">
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D12" s="8">
@@ -1450,12 +1495,12 @@
       <c r="F12" s="8">
         <v>43146</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="30">
         <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
-      <c r="H12" s="32" t="s">
-        <v>22</v>
+      <c r="H12" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>7</v>
@@ -1464,8 +1509,12 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N12" s="5"/>
+      <c r="P12" s="51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="10">
         <v>1</v>
       </c>
@@ -1473,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="20">
         <v>43130</v>
@@ -1489,19 +1538,23 @@
         <v>35</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -1509,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="20">
         <v>43130</v>
@@ -1525,19 +1578,23 @@
         <v>35</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="10">
         <v>3</v>
       </c>
@@ -1545,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="20">
         <v>43130</v>
@@ -1561,19 +1618,20 @@
         <v>35</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="10">
         <v>4</v>
       </c>
@@ -1581,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="20">
         <v>43130</v>
@@ -1597,27 +1655,28 @@
         <v>35</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="7">
         <v>444</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="28" t="str">
-        <f>$P$1</f>
+      <c r="C17" s="7" t="str">
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D17" s="8">
@@ -1627,30 +1686,33 @@
         <v>43166</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>22</v>
+      <c r="G17" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="7">
         <v>445</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="28" t="str">
-        <f t="shared" ref="C18:C19" si="3">$P$1</f>
+      <c r="C18" s="7" t="str">
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D18" s="8">
@@ -1660,22 +1722,25 @@
         <v>43166</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>22</v>
+      <c r="G18" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="4">
         <v>448</v>
       </c>
@@ -1683,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D19" s="8">
@@ -1693,54 +1758,58 @@
         <v>43166</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>22</v>
+      <c r="G19" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="41">
+        <v>55</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="39">
         <v>449</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="42">
+      <c r="C20" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="40">
         <v>43132</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="40">
         <v>43166</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F20" s="40"/>
+      <c r="G20" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="10">
         <v>450</v>
       </c>
@@ -1748,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="10" t="str">
-        <f>$Q$1</f>
+        <f>$R$2</f>
         <v>WT</v>
       </c>
       <c r="D21" s="11">
@@ -1760,52 +1829,56 @@
       <c r="F21" s="11"/>
       <c r="G21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+        <v>55</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="39">
         <v>451</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="42">
+      <c r="C22" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="40">
         <v>43132</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="40">
         <v>43166</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="H22" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F22" s="40"/>
+      <c r="G22" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="10">
         <v>455</v>
       </c>
@@ -1813,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="10" t="str">
-        <f>$Q$1</f>
+        <f>$R$2</f>
         <v>WT</v>
       </c>
       <c r="D23" s="11">
@@ -1825,20 +1898,23 @@
       <c r="F23" s="11"/>
       <c r="G23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="4">
         <v>457</v>
       </c>
@@ -1846,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f>$P$1</f>
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D24" s="8">
@@ -1856,236 +1932,398 @@
         <v>43166</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>22</v>
+      <c r="G24" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="54">
+        <v>43147</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="54">
+        <v>43150</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="54">
+        <v>43150</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="35">
+        <v>43166</v>
+      </c>
+      <c r="E28" s="35">
+        <v>43166</v>
+      </c>
+      <c r="F28" s="38"/>
+      <c r="G28" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="48">
+        <v>43166</v>
+      </c>
+      <c r="E29" s="48">
+        <v>43166</v>
+      </c>
+      <c r="F29" s="47"/>
+      <c r="G29" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="31" t="s">
+      <c r="B30" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="48">
+        <v>43166</v>
+      </c>
+      <c r="E30" s="48">
+        <v>43166</v>
+      </c>
+      <c r="F30" s="47"/>
+      <c r="G30" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="48">
+        <v>43166</v>
+      </c>
+      <c r="E31" s="48">
+        <v>43166</v>
+      </c>
+      <c r="F31" s="47"/>
+      <c r="G31" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="23">
+        <v>43166</v>
+      </c>
+      <c r="E32" s="23">
+        <v>43166</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="48">
+        <v>43166</v>
+      </c>
+      <c r="E33" s="48">
+        <v>43166</v>
+      </c>
+      <c r="F33" s="47"/>
+      <c r="G33" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="37">
+      <c r="D34" s="35">
         <v>43166</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50">
+      <c r="E34" s="35">
         <v>43166</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50">
-        <v>43166</v>
-      </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50">
-        <v>43166</v>
-      </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="30" t="s">
+      <c r="F34" s="34"/>
+      <c r="G34" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="54">
+        <v>43168</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="30">
+        <f ca="1">IF(F35, F35-D35, TODAY()-D35)</f>
         <v>3</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23">
-        <v>43166</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="50">
-        <v>43166</v>
-      </c>
-      <c r="F30" s="49"/>
-      <c r="G30" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="37">
-        <v>43166</v>
-      </c>
-      <c r="F31" s="36"/>
-      <c r="G31" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="38" t="s">
-        <v>32</v>
-      </c>
+      <c r="H35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="54">
+        <v>43168</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="30">
+        <f ca="1">IF(F36, F36-D36, TODAY()-D36)</f>
+        <v>3</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="54">
+        <v>43168</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="30">
+        <f ca="1">IF(F37, F37-D37, TODAY()-D37)</f>
+        <v>3</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:M24">
-    <sortCondition ref="D2:D24"/>
+  <sortState ref="A2:M37">
+    <sortCondition ref="D2:D37"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="A1:M1048576">
+  <conditionalFormatting sqref="A1:N1048576">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$C$2="Mut"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27440" windowHeight="17080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -281,23 +281,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="6" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="6" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -307,6 +290,21 @@
     <font>
       <b/>
       <sz val="14"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="6" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="6" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -541,48 +539,48 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -972,7 +970,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -985,52 +983,52 @@
     <col min="16" max="16" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="58" customFormat="1" ht="18">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:22" s="51" customFormat="1" ht="18">
+      <c r="A1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="39">
@@ -1051,7 +1049,7 @@
       <c r="F2" s="40"/>
       <c r="G2" s="41">
         <f t="shared" ref="G2:G27" ca="1" si="0">IF(F2, F2-D2, TODAY()-D2)</f>
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H2" s="41" t="s">
         <v>20</v>
@@ -1097,7 +1095,7 @@
       <c r="F3" s="40"/>
       <c r="G3" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H3" s="41" t="s">
         <v>20</v>
@@ -1148,7 +1146,7 @@
       <c r="F4" s="40"/>
       <c r="G4" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H4" s="41" t="s">
         <v>20</v>
@@ -1199,7 +1197,7 @@
       <c r="F5" s="40"/>
       <c r="G5" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H5" s="41" t="s">
         <v>20</v>
@@ -1510,7 +1508,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="P12" s="51" t="s">
+      <c r="P12" s="44" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1550,7 +1548,7 @@
       <c r="N13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="P13" s="52" t="s">
+      <c r="P13" s="45" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1590,7 +1588,7 @@
       <c r="N14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="53" t="s">
+      <c r="P14" s="46" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1688,7 +1686,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>20</v>
@@ -1724,7 +1722,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>20</v>
@@ -1760,7 +1758,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="30" t="s">
         <v>20</v>
@@ -1795,7 +1793,7 @@
       <c r="F20" s="40"/>
       <c r="G20" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H20" s="41" t="s">
         <v>20</v>
@@ -1829,7 +1827,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>20</v>
@@ -1864,7 +1862,7 @@
       <c r="F22" s="40"/>
       <c r="G22" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H22" s="41" t="s">
         <v>20</v>
@@ -1898,7 +1896,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H23" s="17" t="s">
         <v>20</v>
@@ -1934,7 +1932,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H24" s="30" t="s">
         <v>20</v>
@@ -1954,14 +1952,14 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="54">
+      <c r="D25" s="47">
         <v>43147</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>48</v>
@@ -1977,14 +1975,14 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="54">
+      <c r="D26" s="47">
         <v>43150</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>48</v>
@@ -2000,14 +1998,14 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="54">
+      <c r="D27" s="47">
         <v>43150</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>48</v>
@@ -2052,98 +2050,98 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="56">
         <v>43166</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="56">
         <v>43166</v>
       </c>
-      <c r="F29" s="47"/>
-      <c r="G29" s="50" t="s">
+      <c r="F29" s="57"/>
+      <c r="G29" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="H29" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="49" t="s">
+      <c r="H29" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="59" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="48">
+      <c r="D30" s="56">
         <v>43166</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="56">
         <v>43166</v>
       </c>
-      <c r="F30" s="47"/>
-      <c r="G30" s="50" t="s">
+      <c r="F30" s="57"/>
+      <c r="G30" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="49" t="s">
+      <c r="H30" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="59" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="56">
         <v>43166</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="56">
         <v>43166</v>
       </c>
-      <c r="F31" s="47"/>
-      <c r="G31" s="50" t="s">
+      <c r="F31" s="57"/>
+      <c r="G31" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="49" t="s">
+      <c r="H31" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="59" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2180,34 +2178,34 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="56">
         <v>43166</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E33" s="56">
         <v>43166</v>
       </c>
-      <c r="F33" s="47"/>
-      <c r="G33" s="50" t="s">
+      <c r="F33" s="57"/>
+      <c r="G33" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="49" t="s">
+      <c r="H33" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="59" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2247,14 +2245,14 @@
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="54">
+      <c r="D35" s="47">
         <v>43168</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="30">
         <f ca="1">IF(F35, F35-D35, TODAY()-D35)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>48</v>
@@ -2270,14 +2268,14 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="54">
+      <c r="D36" s="47">
         <v>43168</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="30">
         <f ca="1">IF(F36, F36-D36, TODAY()-D36)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>48</v>
@@ -2293,14 +2291,14 @@
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="54">
+      <c r="D37" s="47">
         <v>43168</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="30">
         <f ca="1">IF(F37, F37-D37, TODAY()-D37)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>48</v>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27440" windowHeight="17080" tabRatio="500"/>
+    <workbookView xWindow="280" yWindow="420" windowWidth="27440" windowHeight="17080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -970,7 +970,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1049,7 +1049,7 @@
       <c r="F2" s="40"/>
       <c r="G2" s="41">
         <f t="shared" ref="G2:G27" ca="1" si="0">IF(F2, F2-D2, TODAY()-D2)</f>
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H2" s="41" t="s">
         <v>20</v>
@@ -1095,7 +1095,7 @@
       <c r="F3" s="40"/>
       <c r="G3" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H3" s="41" t="s">
         <v>20</v>
@@ -1146,7 +1146,7 @@
       <c r="F4" s="40"/>
       <c r="G4" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H4" s="41" t="s">
         <v>20</v>
@@ -1197,7 +1197,7 @@
       <c r="F5" s="40"/>
       <c r="G5" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H5" s="41" t="s">
         <v>20</v>
@@ -1686,7 +1686,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>20</v>
@@ -1722,7 +1722,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>20</v>
@@ -1758,7 +1758,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H19" s="30" t="s">
         <v>20</v>
@@ -1793,7 +1793,7 @@
       <c r="F20" s="40"/>
       <c r="G20" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H20" s="41" t="s">
         <v>20</v>
@@ -1827,7 +1827,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>20</v>
@@ -1862,7 +1862,7 @@
       <c r="F22" s="40"/>
       <c r="G22" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22" s="41" t="s">
         <v>20</v>
@@ -1896,7 +1896,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H23" s="17" t="s">
         <v>20</v>
@@ -1932,7 +1932,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H24" s="30" t="s">
         <v>20</v>
@@ -1959,7 +1959,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>48</v>
@@ -1982,7 +1982,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>48</v>
@@ -2005,7 +2005,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>48</v>
@@ -2252,7 +2252,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="30">
         <f ca="1">IF(F35, F35-D35, TODAY()-D35)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>48</v>
@@ -2275,7 +2275,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="30">
         <f ca="1">IF(F36, F36-D36, TODAY()-D36)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>48</v>
@@ -2298,7 +2298,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="30">
         <f ca="1">IF(F37, F37-D37, TODAY()-D37)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>48</v>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="420" windowWidth="27440" windowHeight="17080" tabRatio="500"/>
+    <workbookView xWindow="280" yWindow="420" windowWidth="28540" windowHeight="17080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="58">
   <si>
     <t>F</t>
   </si>
@@ -114,27 +114,6 @@
     <t>MuSK KO</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
     <t>E18</t>
   </si>
   <si>
@@ -187,13 +166,40 @@
   </si>
   <si>
     <t>Prévu</t>
+  </si>
+  <si>
+    <t>Mutant (Mut)</t>
+  </si>
+  <si>
+    <t>Sauvage(WT)</t>
+  </si>
+  <si>
+    <t>Hétérozygote (Het)</t>
+  </si>
+  <si>
+    <t>1+ : Origine P5</t>
+  </si>
+  <si>
+    <t>100+ : Origine Pascale</t>
+  </si>
+  <si>
+    <t>400+ : Origine ICM</t>
+  </si>
+  <si>
+    <t>200+ : Embryon</t>
+  </si>
+  <si>
+    <t>Nombre souris utilisées</t>
+  </si>
+  <si>
+    <t>C57BL/6 IP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -308,8 +314,16 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +345,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +405,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -419,8 +439,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -537,15 +591,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -581,8 +626,41 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="67">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -599,6 +677,23 @@
     <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -615,9 +710,143 @@
     <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -966,11 +1195,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -983,52 +1212,52 @@
     <col min="16" max="16" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="51" customFormat="1" ht="18">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:22" s="48" customFormat="1" ht="18">
+      <c r="A1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="49" t="s">
+      <c r="L1" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="52"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="39">
@@ -1048,8 +1277,8 @@
       </c>
       <c r="F2" s="40"/>
       <c r="G2" s="41">
-        <f t="shared" ref="G2:G27" ca="1" si="0">IF(F2, F2-D2, TODAY()-D2)</f>
-        <v>266</v>
+        <f ca="1">IF(F2, F2-D2, TODAY()-D2)</f>
+        <v>273</v>
       </c>
       <c r="H2" s="41" t="s">
         <v>20</v>
@@ -1094,8 +1323,8 @@
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="41">
-        <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <f ca="1">IF(F3, F3-D3, TODAY()-D3)</f>
+        <v>218</v>
       </c>
       <c r="H3" s="41" t="s">
         <v>20</v>
@@ -1145,8 +1374,8 @@
       </c>
       <c r="F4" s="40"/>
       <c r="G4" s="41">
-        <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <f ca="1">IF(F4, F4-D4, TODAY()-D4)</f>
+        <v>218</v>
       </c>
       <c r="H4" s="41" t="s">
         <v>20</v>
@@ -1168,11 +1397,11 @@
       </c>
       <c r="R4" s="3">
         <f>COUNTIFS(B:B, "M",C:C,R2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4" s="5">
         <f>SUM(Q4:R4)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T4" s="26"/>
       <c r="U4" s="26"/>
@@ -1196,8 +1425,8 @@
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="41">
-        <f t="shared" ca="1" si="0"/>
-        <v>209</v>
+        <f ca="1">IF(F5, F5-D5, TODAY()-D5)</f>
+        <v>216</v>
       </c>
       <c r="H5" s="41" t="s">
         <v>20</v>
@@ -1219,11 +1448,11 @@
       </c>
       <c r="R5" s="5">
         <f>SUM(R3:R4)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S5" s="5">
         <f>SUM(S3:S4)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T5" s="26"/>
       <c r="U5" s="26"/>
@@ -1250,7 +1479,7 @@
         <v>43124</v>
       </c>
       <c r="G6" s="30">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(F6, F6-D6, TODAY()-D6)</f>
         <v>27</v>
       </c>
       <c r="H6" s="30" t="s">
@@ -1260,7 +1489,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -1288,7 +1517,7 @@
         <v>43124</v>
       </c>
       <c r="G7" s="17">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(F7, F7-D7, TODAY()-D7)</f>
         <v>27</v>
       </c>
       <c r="H7" s="17" t="s">
@@ -1298,7 +1527,7 @@
         <v>7</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
@@ -1337,7 +1566,7 @@
         <v>43147</v>
       </c>
       <c r="G8" s="17">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(F8, F8-D8, TODAY()-D8)</f>
         <v>36</v>
       </c>
       <c r="H8" s="17" t="s">
@@ -1373,7 +1602,7 @@
         <v>43146</v>
       </c>
       <c r="G9" s="17">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(F9, F9-D9, TODAY()-D9)</f>
         <v>35</v>
       </c>
       <c r="H9" s="17" t="s">
@@ -1388,11 +1617,11 @@
         <v>14</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="18">
         <f ca="1">IF(G:G="E", "", AVERAGEIF(F:F, "&lt;&gt;",G:G))</f>
-        <v>32.363636363636367</v>
+        <v>31.857142857142858</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1416,14 +1645,14 @@
         <v>43146</v>
       </c>
       <c r="G10" s="31">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(F10, F10-D10, TODAY()-D10)</f>
         <v>35</v>
       </c>
       <c r="H10" s="31" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>28</v>
@@ -1456,7 +1685,7 @@
         <v>43146</v>
       </c>
       <c r="G11" s="31">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(F11, F11-D11, TODAY()-D11)</f>
         <v>28</v>
       </c>
       <c r="H11" s="31" t="s">
@@ -1472,6 +1701,13 @@
       <c r="N11" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="P11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="12">
+        <f>COUNTIF(A:A, "&lt;&gt;")-1</f>
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="7">
@@ -1494,7 +1730,7 @@
         <v>43146</v>
       </c>
       <c r="G12" s="30">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(F12, F12-D12, TODAY()-D12)</f>
         <v>28</v>
       </c>
       <c r="H12" s="30" t="s">
@@ -1508,18 +1744,15 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="P12" s="44" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="10">
-        <v>1</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="66">
+        <v>101</v>
+      </c>
+      <c r="B13" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="66" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="20">
@@ -1532,7 +1765,7 @@
         <v>43165</v>
       </c>
       <c r="G13" s="17">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(F13, F13-D13, TODAY()-D13)</f>
         <v>35</v>
       </c>
       <c r="H13" s="15" t="s">
@@ -1542,24 +1775,24 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="45" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="P13" s="57" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="10">
-        <v>2</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="66">
+        <v>102</v>
+      </c>
+      <c r="B14" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="66" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="20">
@@ -1572,7 +1805,7 @@
         <v>43165</v>
       </c>
       <c r="G14" s="17">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(F14, F14-D14, TODAY()-D14)</f>
         <v>35</v>
       </c>
       <c r="H14" s="15" t="s">
@@ -1582,24 +1815,24 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="46" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="10">
-        <v>3</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="66">
+        <v>103</v>
+      </c>
+      <c r="B15" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="66" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="20">
@@ -1612,7 +1845,7 @@
         <v>43165</v>
       </c>
       <c r="G15" s="17">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(F15, F15-D15, TODAY()-D15)</f>
         <v>35</v>
       </c>
       <c r="H15" s="15" t="s">
@@ -1622,21 +1855,24 @@
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M15" s="12"/>
       <c r="N15" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="P15" s="60" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="10">
-        <v>4</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="66">
+        <v>104</v>
+      </c>
+      <c r="B16" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="66" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="20">
@@ -1649,7 +1885,7 @@
         <v>43165</v>
       </c>
       <c r="G16" s="17">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(F16, F16-D16, TODAY()-D16)</f>
         <v>35</v>
       </c>
       <c r="H16" s="15" t="s">
@@ -1659,14 +1895,17 @@
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M16" s="12"/>
       <c r="N16" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>32</v>
+      </c>
+      <c r="P16" s="66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="7">
         <v>444</v>
       </c>
@@ -1685,8 +1924,8 @@
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="30">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <f ca="1">IF(F17, F17-D17, TODAY()-D17)</f>
+        <v>48</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>20</v>
@@ -1696,13 +1935,13 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:17">
       <c r="A18" s="7">
         <v>445</v>
       </c>
@@ -1721,8 +1960,8 @@
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="30">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <f ca="1">IF(F18, F18-D18, TODAY()-D18)</f>
+        <v>48</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>20</v>
@@ -1732,13 +1971,16 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="P18" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="4">
         <v>448</v>
       </c>
@@ -1757,8 +1999,8 @@
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="30">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <f ca="1">IF(F19, F19-D19, TODAY()-D19)</f>
+        <v>48</v>
       </c>
       <c r="H19" s="30" t="s">
         <v>20</v>
@@ -1768,13 +2010,16 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="P19" s="61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="39">
         <v>449</v>
       </c>
@@ -1792,8 +2037,8 @@
       </c>
       <c r="F20" s="40"/>
       <c r="G20" s="41">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <f ca="1">IF(F20, F20-D20, TODAY()-D20)</f>
+        <v>48</v>
       </c>
       <c r="H20" s="41" t="s">
         <v>20</v>
@@ -1806,8 +2051,11 @@
       <c r="N20" s="42" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="P20" s="62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="10">
         <v>450</v>
       </c>
@@ -1826,8 +2074,8 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="17">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <f ca="1">IF(F21, F21-D21, TODAY()-D21)</f>
+        <v>48</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>20</v>
@@ -1837,13 +2085,13 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N21" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:17">
       <c r="A22" s="39">
         <v>451</v>
       </c>
@@ -1861,8 +2109,8 @@
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="41">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <f ca="1">IF(F22, F22-D22, TODAY()-D22)</f>
+        <v>48</v>
       </c>
       <c r="H22" s="41" t="s">
         <v>20</v>
@@ -1875,8 +2123,9 @@
       <c r="N22" s="42" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="Q22" s="63"/>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="10">
         <v>455</v>
       </c>
@@ -1895,8 +2144,8 @@
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="17">
-        <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <f ca="1">IF(F23, F23-D23, TODAY()-D23)</f>
+        <v>34</v>
       </c>
       <c r="H23" s="17" t="s">
         <v>20</v>
@@ -1906,13 +2155,17 @@
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N23" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="P23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="59"/>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="4">
         <v>457</v>
       </c>
@@ -1931,8 +2184,8 @@
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="30">
-        <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <f ca="1">IF(F24, F24-D24, TODAY()-D24)</f>
+        <v>34</v>
       </c>
       <c r="H24" s="30" t="s">
         <v>20</v>
@@ -1942,50 +2195,74 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="47">
+      <c r="P24" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q24" s="59"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="43">
+        <v>1</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="40">
         <v>43147</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="30">
-        <f t="shared" ca="1" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="47">
+      <c r="E25" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="41">
+        <f ca="1">IF(F25, F25-D25, TODAY()-D25)</f>
+        <v>33</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="P25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" s="63"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="57">
+        <v>2</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="44">
         <v>43150</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="30">
-        <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+      <c r="E26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="17">
+        <f ca="1">IF(F26, F26-D26, TODAY()-D26)</f>
+        <v>30</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -1993,329 +2270,447 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="47">
+      <c r="P26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="39">
+        <v>3</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="40">
         <v>43150</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="30">
-        <f t="shared" ca="1" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="33" t="s">
+      <c r="E27" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="41">
+        <f ca="1">IF(F27, F27-D27, TODAY()-D27)</f>
+        <v>30</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="P27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="67">
+        <v>105</v>
+      </c>
+      <c r="B28" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="65">
+        <v>43150</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="65">
+        <v>43180</v>
+      </c>
+      <c r="G28" s="17">
+        <f ca="1">IF(F28, F28-D28, TODAY()-D28)</f>
+        <v>30</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="67">
+        <v>106</v>
+      </c>
+      <c r="B29" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="65">
+        <v>43150</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="65">
+        <v>43180</v>
+      </c>
+      <c r="G29" s="17">
+        <f ca="1">IF(F29, F29-D29, TODAY()-D29)</f>
+        <v>30</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="67">
+        <v>107</v>
+      </c>
+      <c r="B30" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="65">
+        <v>43150</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="65">
+        <v>43180</v>
+      </c>
+      <c r="G30" s="17">
+        <f ca="1">IF(F30, F30-D30, TODAY()-D30)</f>
+        <v>30</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="33">
+        <v>201</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="35">
+        <v>43166</v>
+      </c>
+      <c r="E31" s="35">
+        <v>43166</v>
+      </c>
+      <c r="F31" s="38"/>
+      <c r="G31" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="H31" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="50">
+        <v>202</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="53">
+        <v>43166</v>
+      </c>
+      <c r="E32" s="53">
+        <v>43166</v>
+      </c>
+      <c r="F32" s="54"/>
+      <c r="G32" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="50">
+        <v>203</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="53">
+        <v>43166</v>
+      </c>
+      <c r="E33" s="53">
+        <v>43166</v>
+      </c>
+      <c r="F33" s="54"/>
+      <c r="G33" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="50">
+        <v>204</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="53">
+        <v>43166</v>
+      </c>
+      <c r="E34" s="53">
+        <v>43166</v>
+      </c>
+      <c r="F34" s="54"/>
+      <c r="G34" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="27">
+        <v>205</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="23">
+        <v>43166</v>
+      </c>
+      <c r="E35" s="23">
+        <v>43166</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="50">
+        <v>206</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="53">
+        <v>43166</v>
+      </c>
+      <c r="E36" s="53">
+        <v>43166</v>
+      </c>
+      <c r="F36" s="54"/>
+      <c r="G36" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="33">
+        <v>207</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="35">
+        <v>43166</v>
+      </c>
+      <c r="E37" s="35">
+        <v>43166</v>
+      </c>
+      <c r="F37" s="34"/>
+      <c r="G37" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="57">
+        <v>4</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="44">
+        <v>43168</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="30">
+        <f ca="1">IF(F38, F38-D38, TODAY()-D38)</f>
+        <v>12</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="35">
-        <v>43166</v>
-      </c>
-      <c r="E28" s="35">
-        <v>43166</v>
-      </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="54" t="s">
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="43">
+        <v>5</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="40">
+        <v>43168</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="42"/>
+      <c r="G39" s="64">
+        <f ca="1">IF(F39, F39-D39, TODAY()-D39)</f>
+        <v>12</v>
+      </c>
+      <c r="H39" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="56">
-        <v>43166</v>
-      </c>
-      <c r="E29" s="56">
-        <v>43166</v>
-      </c>
-      <c r="F29" s="57"/>
-      <c r="G29" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="59" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="56">
-        <v>43166</v>
-      </c>
-      <c r="E30" s="56">
-        <v>43166</v>
-      </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="59" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="56">
-        <v>43166</v>
-      </c>
-      <c r="E31" s="56">
-        <v>43166</v>
-      </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="59" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="23">
-        <v>43166</v>
-      </c>
-      <c r="E32" s="23">
-        <v>43166</v>
-      </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="56">
-        <v>43166</v>
-      </c>
-      <c r="E33" s="56">
-        <v>43166</v>
-      </c>
-      <c r="F33" s="57"/>
-      <c r="G33" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="H33" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="59" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="35">
-        <v>43166</v>
-      </c>
-      <c r="E34" s="35">
-        <v>43166</v>
-      </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="H34" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="47">
-        <v>43168</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="30">
-        <f ca="1">IF(F35, F35-D35, TODAY()-D35)</f>
-        <v>5</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="47">
-        <v>43168</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="30">
-        <f ca="1">IF(F36, F36-D36, TODAY()-D36)</f>
-        <v>5</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="47">
-        <v>43168</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="30">
-        <f ca="1">IF(F37, F37-D37, TODAY()-D37)</f>
-        <v>5</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="12"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
     </row>
   </sheetData>
-  <sortState ref="A2:M37">
-    <sortCondition ref="D2:D37"/>
+  <sortState ref="A2:N39">
+    <sortCondition ref="D2:D39"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="A1:N1048576">
+  <conditionalFormatting sqref="P19:P20 Q23:Q24 A1:N1048576">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$C$2="Mut"</formula>
     </cfRule>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="52">
   <si>
     <t>F</t>
   </si>
@@ -145,24 +145,6 @@
   </si>
   <si>
     <t>P5</t>
-  </si>
-  <si>
-    <t>E19</t>
-  </si>
-  <si>
-    <t>E20</t>
-  </si>
-  <si>
-    <t>E21</t>
-  </si>
-  <si>
-    <t>E22</t>
-  </si>
-  <si>
-    <t>E23</t>
-  </si>
-  <si>
-    <t>E24</t>
   </si>
   <si>
     <t>Prévu</t>
@@ -729,20 +711,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <b/>
@@ -1199,7 +1168,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1702,7 +1671,7 @@
         <v>16</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="12">
         <f>COUNTIF(A:A, "&lt;&gt;")-1</f>
@@ -1935,7 +1904,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>24</v>
@@ -1971,13 +1940,13 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2010,13 +1979,13 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P19" s="61" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2052,7 +2021,7 @@
         <v>29</v>
       </c>
       <c r="P20" s="62" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2085,7 +2054,7 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N21" s="12" t="s">
         <v>24</v>
@@ -2155,7 +2124,7 @@
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N23" s="12" t="s">
         <v>24</v>
@@ -2195,13 +2164,13 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P24" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q24" s="59"/>
     </row>
@@ -2236,7 +2205,7 @@
       <c r="M25" s="42"/>
       <c r="N25" s="42"/>
       <c r="P25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q25" s="63"/>
     </row>
@@ -2271,7 +2240,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="P26" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2305,7 +2274,7 @@
       <c r="M27" s="42"/>
       <c r="N27" s="42"/>
       <c r="P27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2342,7 +2311,7 @@
       </c>
       <c r="M28" s="15"/>
       <c r="N28" s="15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2379,7 +2348,7 @@
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2416,7 +2385,7 @@
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2469,7 +2438,7 @@
       </c>
       <c r="F32" s="54"/>
       <c r="G32" s="55" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H32" s="55" t="s">
         <v>20</v>
@@ -2501,7 +2470,7 @@
       </c>
       <c r="F33" s="54"/>
       <c r="G33" s="55" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H33" s="55" t="s">
         <v>20</v>
@@ -2533,7 +2502,7 @@
       </c>
       <c r="F34" s="54"/>
       <c r="G34" s="55" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H34" s="55" t="s">
         <v>20</v>
@@ -2565,7 +2534,7 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="21" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H35" s="21" t="s">
         <v>20</v>
@@ -2597,7 +2566,7 @@
       </c>
       <c r="F36" s="54"/>
       <c r="G36" s="55" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H36" s="55" t="s">
         <v>20</v>
@@ -2629,7 +2598,7 @@
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="37" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H37" s="37" t="s">
         <v>20</v>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="52">
   <si>
     <t>F</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Commentaires</t>
   </si>
   <si>
-    <t>Coupés cryostats 20µ, peu concluant. Sotckés -20°C</t>
-  </si>
-  <si>
     <t>Het</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>C57BL/6 IP</t>
+  </si>
+  <si>
+    <t>Coupés cryostats 20µ, peu concluant. -20°C</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -455,8 +455,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -479,48 +489,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,12 +523,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,32 +530,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -598,13 +562,7 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -629,20 +587,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="77">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -676,6 +709,11 @@
     <cellStyle name="Lien hypertexte" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -709,9 +747,40 @@
     <cellStyle name="Lien hypertexte visité" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1168,143 +1237,147 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="7" max="8" width="10.83203125" style="16"/>
-    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="13"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
     <col min="13" max="13" width="17.33203125" customWidth="1"/>
-    <col min="14" max="14" width="44.83203125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="36.5" style="11" customWidth="1"/>
     <col min="15" max="15" width="13.33203125" customWidth="1"/>
     <col min="16" max="16" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="48" customFormat="1" ht="18">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:22" s="32" customFormat="1" ht="18">
+      <c r="A1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="47" t="s">
+      <c r="N1" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="33"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="26">
+        <v>415</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D2" s="50">
+        <v>42907</v>
+      </c>
+      <c r="E2" s="50">
+        <v>43123</v>
+      </c>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51">
+        <f ca="1">IF(F2, F2-D2, TODAY()-D2)</f>
+        <v>274</v>
+      </c>
+      <c r="H2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="49"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="39">
-        <v>415</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="40">
-        <v>42907</v>
-      </c>
-      <c r="E2" s="40">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="28">
+        <v>417</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26" t="str">
+        <f t="shared" ref="C3:C5" si="0">$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D3" s="62">
+        <v>42962</v>
+      </c>
+      <c r="E3" s="62">
         <v>43123</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41">
-        <f ca="1">IF(F2, F2-D2, TODAY()-D2)</f>
-        <v>273</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="43">
-        <v>417</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="40">
-        <v>42962</v>
-      </c>
-      <c r="E3" s="40">
-        <v>43123</v>
-      </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41">
+      <c r="F3" s="62"/>
+      <c r="G3" s="63">
         <f ca="1">IF(F3, F3-D3, TODAY()-D3)</f>
-        <v>218</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42" t="s">
-        <v>29</v>
+        <v>219</v>
+      </c>
+      <c r="H3" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>10</v>
@@ -1321,41 +1394,45 @@
         <f>SUM(Q3:R3)</f>
         <v>9</v>
       </c>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
+      <c r="T3" s="27">
+        <f>COUNTIFS(B:B, "F",C:C,T2)</f>
+        <v>5</v>
+      </c>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="39">
+      <c r="A4" s="26">
         <v>422</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="40">
+      <c r="C4" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Het</v>
+      </c>
+      <c r="D4" s="50">
         <v>42962</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="50">
         <v>43123</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41">
+      <c r="F4" s="50"/>
+      <c r="G4" s="51">
         <f ca="1">IF(F4, F4-D4, TODAY()-D4)</f>
-        <v>218</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42" t="s">
-        <v>29</v>
+        <v>219</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>11</v>
@@ -1372,41 +1449,45 @@
         <f>SUM(Q4:R4)</f>
         <v>6</v>
       </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
+      <c r="T4" s="27">
+        <f>COUNTIFS(B:B, "M",C:C, T2)</f>
+        <v>4</v>
+      </c>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="43">
+      <c r="A5" s="28">
         <v>425</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="40">
+      <c r="C5" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Het</v>
+      </c>
+      <c r="D5" s="62">
         <v>42964</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="62">
         <v>43123</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41">
+      <c r="F5" s="62"/>
+      <c r="G5" s="63">
         <f ca="1">IF(F5, F5-D5, TODAY()-D5)</f>
-        <v>216</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42" t="s">
-        <v>29</v>
+        <v>217</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>12</v>
@@ -1423,9 +1504,12 @@
         <f>SUM(S3:S4)</f>
         <v>15</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="49">
+        <f>SUM(T3:T4)</f>
+        <v>9</v>
+      </c>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="4">
@@ -1438,27 +1522,27 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="52">
         <v>43097</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="52">
         <v>43123</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="52">
         <v>43124</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="53">
         <f ca="1">IF(F6, F6-D6, TODAY()-D6)</f>
         <v>27</v>
       </c>
-      <c r="H6" s="30" t="s">
-        <v>20</v>
+      <c r="H6" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -1466,44 +1550,44 @@
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>437</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="10" t="str">
+      <c r="C7" s="9" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="54">
         <v>43097</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="54">
         <v>43123</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="54">
         <v>43124</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="55">
         <f ca="1">IF(F7, F7-D7, TODAY()-D7)</f>
         <v>27</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="12" t="s">
+      <c r="H7" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="J7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
       <c r="N7" s="6"/>
-      <c r="P7" s="9" t="s">
-        <v>30</v>
+      <c r="P7" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="Q7" s="3">
         <f>COUNTIFS(N:N, P7,C:C, Q2,N:N, P7)</f>
@@ -1515,363 +1599,363 @@
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
+        <v>439</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="str">
+        <f>$Q$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D8" s="66">
+        <v>43111</v>
+      </c>
+      <c r="E8" s="66">
+        <v>43145</v>
+      </c>
+      <c r="F8" s="66">
+        <v>43146</v>
+      </c>
+      <c r="G8" s="67">
+        <f ca="1">IF(F8, F8-D8, TODAY()-D8)</f>
+        <v>35</v>
+      </c>
+      <c r="H8" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="9">
         <v>440</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="10" t="str">
+      <c r="C9" s="9" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="54">
         <v>43111</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="54">
         <v>43145</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F9" s="54">
         <v>43147</v>
       </c>
-      <c r="G8" s="17">
-        <f ca="1">IF(F8, F8-D8, TODAY()-D8)</f>
+      <c r="G9" s="55">
+        <f ca="1">IF(F9, F9-D9, TODAY()-D9)</f>
         <v>36</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12" t="s">
+      <c r="H9" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="10">
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="6"/>
+      <c r="P9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="14">
+        <f ca="1">IF(G:G="E", "", AVERAGEIF(F:F, "&lt;&gt;",G:G))</f>
+        <v>31.857142857142858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="71">
         <v>441</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="10" t="str">
+      <c r="C10" s="9" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="72">
         <v>43111</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="72">
         <v>43145</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="72">
         <v>43146</v>
       </c>
-      <c r="G9" s="17">
-        <f ca="1">IF(F9, F9-D9, TODAY()-D9)</f>
+      <c r="G10" s="73">
+        <f ca="1">IF(F10, F10-D10, TODAY()-D10)</f>
         <v>35</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="18">
-        <f ca="1">IF(G:G="E", "", AVERAGEIF(F:F, "&lt;&gt;",G:G))</f>
-        <v>31.857142857142858</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="2">
-        <v>439</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="H10" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="2">
+        <v>442</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="7" t="str">
+      <c r="C11" s="7" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D10" s="14">
-        <v>43111</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="D11" s="64">
+        <v>43118</v>
+      </c>
+      <c r="E11" s="64">
         <v>43145</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F11" s="64">
         <v>43146</v>
       </c>
-      <c r="G10" s="31">
-        <f ca="1">IF(F10, F10-D10, TODAY()-D10)</f>
-        <v>35</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="19">
-        <v>443</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="str">
-        <f>$Q$2</f>
-        <v>Mut</v>
-      </c>
-      <c r="D11" s="14">
-        <v>43118</v>
-      </c>
-      <c r="E11" s="14">
-        <v>43145</v>
-      </c>
-      <c r="F11" s="14">
-        <v>43146</v>
-      </c>
-      <c r="G11" s="31">
+      <c r="G11" s="65">
         <f ca="1">IF(F11, F11-D11, TODAY()-D11)</f>
         <v>28</v>
       </c>
-      <c r="H11" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="H11" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="N11" s="1"/>
       <c r="P11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="12">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="10">
         <f>COUNTIF(A:A, "&lt;&gt;")-1</f>
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="7">
-        <v>442</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="str">
+      <c r="A12" s="4">
+        <v>443</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="52">
         <v>43118</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="52">
         <v>43145</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="52">
         <v>43146</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="53">
         <f ca="1">IF(F12, F12-D12, TODAY()-D12)</f>
         <v>28</v>
       </c>
-      <c r="H12" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="5"/>
+      <c r="H12" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="N12" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="66">
+      <c r="A13" s="46">
         <v>101</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="20">
+      <c r="C13" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="56">
         <v>43130</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="56">
         <v>43165</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="56">
         <v>43165</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="57">
         <f ca="1">IF(F13, F13-D13, TODAY()-D13)</f>
         <v>35</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="57" t="s">
-        <v>38</v>
+      <c r="H13" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="66">
+      <c r="A14" s="46">
         <v>102</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="C14" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="56">
         <v>43130</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="56">
         <v>43165</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="56">
         <v>43165</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="57">
         <f ca="1">IF(F14, F14-D14, TODAY()-D14)</f>
         <v>35</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="58" t="s">
-        <v>39</v>
+      <c r="H14" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="40" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="66">
+      <c r="A15" s="46">
         <v>103</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="20">
+      <c r="C15" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="56">
         <v>43130</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="56">
         <v>43165</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="56">
         <v>43165</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="57">
         <f ca="1">IF(F15, F15-D15, TODAY()-D15)</f>
         <v>35</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="60" t="s">
-        <v>30</v>
+      <c r="H15" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="42" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="66">
+      <c r="A16" s="46">
         <v>104</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="20">
+      <c r="C16" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="56">
         <v>43130</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="56">
         <v>43165</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="56">
         <v>43165</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="57">
         <f ca="1">IF(F16, F16-D16, TODAY()-D16)</f>
         <v>35</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="66" t="s">
-        <v>26</v>
+      <c r="H16" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="46" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1885,29 +1969,29 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="66">
         <v>43132</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="66">
         <v>43166</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="30">
+      <c r="F17" s="66"/>
+      <c r="G17" s="67">
         <f ca="1">IF(F17, F17-D17, TODAY()-D17)</f>
-        <v>48</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="H17" s="67" t="s">
+        <v>19</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1921,32 +2005,32 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="66">
         <v>43132</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="66">
         <v>43166</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="30">
+      <c r="F18" s="66"/>
+      <c r="G18" s="67">
         <f ca="1">IF(F18, F18-D18, TODAY()-D18)</f>
-        <v>48</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="H18" s="67" t="s">
+        <v>19</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1960,179 +2044,181 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="52">
         <v>43132</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="52">
         <v>43166</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="30">
+      <c r="F19" s="52"/>
+      <c r="G19" s="53">
         <f ca="1">IF(F19, F19-D19, TODAY()-D19)</f>
-        <v>48</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P19" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="26">
+        <v>449</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="26" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D20" s="50">
+        <v>43132</v>
+      </c>
+      <c r="E20" s="50">
+        <v>43166</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51">
+        <f ca="1">IF(F20, F20-D20, TODAY()-D20)</f>
+        <v>49</v>
+      </c>
+      <c r="H20" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="39">
-        <v>449</v>
-      </c>
-      <c r="B20" s="39" t="s">
+    <row r="21" spans="1:17">
+      <c r="A21" s="9">
+        <v>450</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="40">
-        <v>43132</v>
-      </c>
-      <c r="E20" s="40">
-        <v>43166</v>
-      </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41">
-        <f ca="1">IF(F20, F20-D20, TODAY()-D20)</f>
-        <v>48</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="P20" s="62" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="10">
-        <v>450</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="10" t="str">
+      <c r="C21" s="9" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="54">
         <v>43132</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="54">
         <v>43166</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="17">
+      <c r="F21" s="54"/>
+      <c r="G21" s="55">
         <f ca="1">IF(F21, F21-D21, TODAY()-D21)</f>
-        <v>48</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>24</v>
+        <v>49</v>
+      </c>
+      <c r="H21" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="39">
+      <c r="A22" s="26">
         <v>451</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="40">
+      <c r="C22" s="26" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D22" s="50">
         <v>43132</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="50">
         <v>43166</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41">
+      <c r="F22" s="50"/>
+      <c r="G22" s="51">
         <f ca="1">IF(F22, F22-D22, TODAY()-D22)</f>
-        <v>48</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q22" s="63"/>
+        <v>49</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22" s="45"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>455</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="10" t="str">
+      <c r="C23" s="9" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="54">
         <v>43146</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="54">
         <v>43166</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="17">
+      <c r="F23" s="54"/>
+      <c r="G23" s="55">
         <f ca="1">IF(F23, F23-D23, TODAY()-D23)</f>
-        <v>34</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="H23" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="P23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q23" s="59"/>
+        <v>21</v>
+      </c>
+      <c r="Q23" s="41"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="4">
@@ -2145,496 +2231,523 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="52">
         <v>43146</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="52">
         <v>43166</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="30">
+      <c r="F24" s="52"/>
+      <c r="G24" s="53">
         <f ca="1">IF(F24, F24-D24, TODAY()-D24)</f>
-        <v>34</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="H24" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q24" s="41"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="28">
+        <v>1</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="28" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D25" s="62">
+        <v>43147</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="63">
+        <f ca="1">IF(F25, F25-D25, TODAY()-D25)</f>
+        <v>34</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="P25" t="s">
         <v>46</v>
       </c>
-      <c r="Q24" s="59"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="43">
+      <c r="Q25" s="45"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="39">
+        <v>2</v>
+      </c>
+      <c r="B26" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="40">
-        <v>43147</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="41">
-        <f ca="1">IF(F25, F25-D25, TODAY()-D25)</f>
+      <c r="C26" s="39" t="str">
+        <f>$R$2</f>
+        <v>WT</v>
+      </c>
+      <c r="D26" s="68">
+        <v>43150</v>
+      </c>
+      <c r="E26" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="P25" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q25" s="63"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="57">
-        <v>2</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="44">
-        <v>43150</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="17">
+      <c r="F26" s="68"/>
+      <c r="G26" s="69">
         <f ca="1">IF(F26, F26-D26, TODAY()-D26)</f>
-        <v>30</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="P26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="39">
+      <c r="A27" s="26">
         <v>3</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="40">
+      <c r="C27" s="26" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D27" s="50">
         <v>43150</v>
       </c>
-      <c r="E27" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="41">
+      <c r="E27" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="51">
         <f ca="1">IF(F27, F27-D27, TODAY()-D27)</f>
-        <v>30</v>
-      </c>
-      <c r="H27" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
+        <v>31</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
       <c r="P27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="67">
+      <c r="A28" s="47">
         <v>105</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="65">
+      <c r="C28" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="58">
         <v>43150</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="65">
+      <c r="E28" s="58">
         <v>43180</v>
       </c>
-      <c r="G28" s="17">
+      <c r="F28" s="58">
+        <v>43180</v>
+      </c>
+      <c r="G28" s="57">
         <f ca="1">IF(F28, F28-D28, TODAY()-D28)</f>
         <v>30</v>
       </c>
-      <c r="H28" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15" t="s">
-        <v>51</v>
+      <c r="H28" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="67">
+      <c r="A29" s="47">
         <v>106</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="65">
+      <c r="C29" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="58">
         <v>43150</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="65">
+      <c r="E29" s="58">
         <v>43180</v>
       </c>
-      <c r="G29" s="17">
+      <c r="F29" s="58">
+        <v>43180</v>
+      </c>
+      <c r="G29" s="57">
         <f ca="1">IF(F29, F29-D29, TODAY()-D29)</f>
         <v>30</v>
       </c>
-      <c r="H29" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15" t="s">
-        <v>51</v>
+      <c r="H29" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="67">
+      <c r="A30" s="47">
         <v>107</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="65">
+      <c r="C30" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="58">
         <v>43150</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="65">
+      <c r="E30" s="58">
         <v>43180</v>
       </c>
-      <c r="G30" s="17">
+      <c r="F30" s="58">
+        <v>43180</v>
+      </c>
+      <c r="G30" s="57">
         <f ca="1">IF(F30, F30-D30, TODAY()-D30)</f>
         <v>30</v>
       </c>
-      <c r="H30" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15" t="s">
-        <v>51</v>
+      <c r="H30" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="33">
+      <c r="A31" s="23">
         <v>201</v>
       </c>
-      <c r="B31" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="35">
+      <c r="B31" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="21" t="str">
+        <f>$Q$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D31" s="59">
+        <v>43165</v>
+      </c>
+      <c r="E31" s="59">
         <v>43166</v>
       </c>
-      <c r="E31" s="35">
+      <c r="F31" s="59">
+        <v>43165</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="34">
+        <v>202</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="36" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D32" s="60">
+        <v>43165</v>
+      </c>
+      <c r="E32" s="60">
         <v>43166</v>
       </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="36" t="s">
+      <c r="F32" s="60">
+        <v>43165</v>
+      </c>
+      <c r="G32" s="34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="50">
-        <v>202</v>
-      </c>
-      <c r="B32" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="53">
+      <c r="H32" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="34">
+        <v>203</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="36" t="str">
+        <f t="shared" ref="C33:C34" si="1">$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D33" s="60">
+        <v>43165</v>
+      </c>
+      <c r="E33" s="60">
         <v>43166</v>
       </c>
-      <c r="E32" s="53">
+      <c r="F33" s="60">
+        <v>43165</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="34">
+        <v>204</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Het</v>
+      </c>
+      <c r="D34" s="60">
+        <v>43165</v>
+      </c>
+      <c r="E34" s="60">
         <v>43166</v>
       </c>
-      <c r="F32" s="54"/>
-      <c r="G32" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="56" t="s">
+      <c r="F34" s="60">
+        <v>43165</v>
+      </c>
+      <c r="G34" s="34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="50">
-        <v>203</v>
-      </c>
-      <c r="B33" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="53">
+      <c r="H34" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="19">
+        <v>205</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="20" t="str">
+        <f>$R$2</f>
+        <v>WT</v>
+      </c>
+      <c r="D35" s="61">
+        <v>43165</v>
+      </c>
+      <c r="E35" s="61">
         <v>43166</v>
       </c>
-      <c r="E33" s="53">
+      <c r="F35" s="61">
+        <v>43165</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="34">
+        <v>206</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="36" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D36" s="60">
+        <v>43165</v>
+      </c>
+      <c r="E36" s="60">
         <v>43166</v>
       </c>
-      <c r="F33" s="54"/>
-      <c r="G33" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="56" t="s">
+      <c r="F36" s="60">
+        <v>43165</v>
+      </c>
+      <c r="G36" s="34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="50">
-        <v>204</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="53">
+      <c r="H36" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="23">
+        <v>207</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="21" t="str">
+        <f>$Q$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D37" s="59">
+        <v>43165</v>
+      </c>
+      <c r="E37" s="59">
         <v>43166</v>
       </c>
-      <c r="E34" s="53">
-        <v>43166</v>
-      </c>
-      <c r="F34" s="54"/>
-      <c r="G34" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="56" t="s">
+      <c r="F37" s="59">
+        <v>43165</v>
+      </c>
+      <c r="G37" s="23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="27">
-        <v>205</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="23">
-        <v>43166</v>
-      </c>
-      <c r="E35" s="23">
-        <v>43166</v>
-      </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="50">
-        <v>206</v>
-      </c>
-      <c r="B36" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="53">
-        <v>43166</v>
-      </c>
-      <c r="E36" s="53">
-        <v>43166</v>
-      </c>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="56" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="33">
-        <v>207</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="35">
-        <v>43166</v>
-      </c>
-      <c r="E37" s="35">
-        <v>43166</v>
-      </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="36" t="s">
-        <v>30</v>
+      <c r="H37" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="25" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="57">
+      <c r="A38" s="39">
         <v>4</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="44">
+      <c r="C38" s="39" t="str">
+        <f>$R$2</f>
+        <v>WT</v>
+      </c>
+      <c r="D38" s="68">
         <v>43168</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="30">
+      <c r="E38" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="39"/>
+      <c r="G38" s="67">
         <f ca="1">IF(F38, F38-D38, TODAY()-D38)</f>
-        <v>12</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>41</v>
+        <v>13</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -2644,43 +2757,45 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="43">
+      <c r="A39" s="28">
         <v>5</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="40">
+      <c r="C39" s="28" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D39" s="62">
         <v>43168</v>
       </c>
-      <c r="E39" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="64">
+      <c r="E39" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="70">
         <f ca="1">IF(F39, F39-D39, TODAY()-D39)</f>
-        <v>12</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
+        <v>13</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
     </row>
   </sheetData>
   <sortState ref="A2:N39">
     <sortCondition ref="D2:D39"/>
+    <sortCondition ref="A2:A39"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="P19:P20 Q23:Q24 A1:N1048576">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="P19:P20 Q23:Q24 G28:N30 A28:D30 A1:N27 A31:N1048576">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>$C$2="Mut"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="52">
   <si>
     <t>F</t>
   </si>
@@ -159,12 +159,6 @@
     <t>1+ : Origine P5</t>
   </si>
   <si>
-    <t>100+ : Origine Pascale</t>
-  </si>
-  <si>
-    <t>400+ : Origine ICM</t>
-  </si>
-  <si>
     <t>200+ : Embryon</t>
   </si>
   <si>
@@ -175,6 +169,12 @@
   </si>
   <si>
     <t>Coupés cryostats 20µ, peu concluant. -20°C</t>
+  </si>
+  <si>
+    <t>100+ : Pascale</t>
+  </si>
+  <si>
+    <t>400+ : ICM</t>
   </si>
 </sst>
 </file>
@@ -387,8 +387,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -675,7 +685,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="87">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -714,6 +724,11 @@
     <cellStyle name="Lien hypertexte" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -752,139 +767,14 @@
     <cellStyle name="Lien hypertexte visité" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1233,11 +1123,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1246,7 +1136,7 @@
     <col min="10" max="10" width="17.1640625" customWidth="1"/>
     <col min="13" max="13" width="17.33203125" customWidth="1"/>
     <col min="14" max="14" width="36.5" style="11" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
     <col min="16" max="16" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1316,8 +1206,8 @@
       </c>
       <c r="F2" s="50"/>
       <c r="G2" s="51">
-        <f ca="1">IF(F2, F2-D2, TODAY()-D2)</f>
-        <v>274</v>
+        <f t="shared" ref="G2:G30" ca="1" si="0">IF(F2, F2-D2, TODAY()-D2)</f>
+        <v>275</v>
       </c>
       <c r="H2" s="51" t="s">
         <v>19</v>
@@ -1330,7 +1220,12 @@
       <c r="N2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="5"/>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="Q2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1354,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="26" t="str">
-        <f t="shared" ref="C3:C5" si="0">$T$2</f>
+        <f t="shared" ref="C3:C5" si="1">$T$2</f>
         <v>Het</v>
       </c>
       <c r="D3" s="62">
@@ -1365,8 +1260,8 @@
       </c>
       <c r="F3" s="62"/>
       <c r="G3" s="63">
-        <f ca="1">IF(F3, F3-D3, TODAY()-D3)</f>
-        <v>219</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>220</v>
       </c>
       <c r="H3" s="63" t="s">
         <v>19</v>
@@ -1379,6 +1274,9 @@
       <c r="N3" s="27" t="s">
         <v>28</v>
       </c>
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
       <c r="P3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1409,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Het</v>
       </c>
       <c r="D4" s="50">
@@ -1420,8 +1318,8 @@
       </c>
       <c r="F4" s="50"/>
       <c r="G4" s="51">
-        <f ca="1">IF(F4, F4-D4, TODAY()-D4)</f>
-        <v>219</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>220</v>
       </c>
       <c r="H4" s="51" t="s">
         <v>19</v>
@@ -1434,6 +1332,9 @@
       <c r="N4" s="27" t="s">
         <v>28</v>
       </c>
+      <c r="O4" t="s">
+        <v>50</v>
+      </c>
       <c r="P4" s="5" t="s">
         <v>11</v>
       </c>
@@ -1464,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Het</v>
       </c>
       <c r="D5" s="62">
@@ -1475,8 +1376,8 @@
       </c>
       <c r="F5" s="62"/>
       <c r="G5" s="63">
-        <f ca="1">IF(F5, F5-D5, TODAY()-D5)</f>
-        <v>217</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>218</v>
       </c>
       <c r="H5" s="63" t="s">
         <v>19</v>
@@ -1489,6 +1390,9 @@
       <c r="N5" s="27" t="s">
         <v>28</v>
       </c>
+      <c r="O5" t="s">
+        <v>46</v>
+      </c>
       <c r="P5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1532,7 +1436,7 @@
         <v>43124</v>
       </c>
       <c r="G6" s="53">
-        <f ca="1">IF(F6, F6-D6, TODAY()-D6)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
       <c r="H6" s="53" t="s">
@@ -1548,6 +1452,9 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="9">
@@ -1570,7 +1477,7 @@
         <v>43124</v>
       </c>
       <c r="G7" s="55">
-        <f ca="1">IF(F7, F7-D7, TODAY()-D7)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
       <c r="H7" s="55" t="s">
@@ -1586,16 +1493,17 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="6"/>
-      <c r="P7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="3">
-        <f>COUNTIFS(N:N, P7,C:C, Q2,N:N, P7)</f>
+      <c r="P7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="3">
-        <f>COUNTIFS(N:N, P7,C:C, R2,N:N, P7)</f>
-        <v>1</v>
+      <c r="R7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1619,7 +1527,7 @@
         <v>43146</v>
       </c>
       <c r="G8" s="67">
-        <f ca="1">IF(F8, F8-D8, TODAY()-D8)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="H8" s="67" t="s">
@@ -1637,6 +1545,21 @@
       <c r="N8" s="22" t="s">
         <v>15</v>
       </c>
+      <c r="P8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>COUNTIFS(B:B, "F",C:C, Q7,I:I, "&lt;&gt;")</f>
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
+        <f>COUNTIFS(B:B, "F",C:C,R7,I:I, "&lt;&gt;")</f>
+        <v>1</v>
+      </c>
+      <c r="S8" s="5">
+        <f>SUM(Q8:R8)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="9">
@@ -1659,7 +1582,7 @@
         <v>43147</v>
       </c>
       <c r="G9" s="55">
-        <f ca="1">IF(F9, F9-D9, TODAY()-D9)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
       <c r="H9" s="55" t="s">
@@ -1673,12 +1596,20 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="6"/>
-      <c r="P9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="14">
-        <f ca="1">IF(G:G="E", "", AVERAGEIF(F:F, "&lt;&gt;",G:G))</f>
-        <v>31.857142857142858</v>
+      <c r="P9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>COUNTIFS(B:B, "M",C:C, Q7,I:I, "&lt;&gt;")</f>
+        <v>2</v>
+      </c>
+      <c r="R9" s="3">
+        <f>COUNTIFS(B:B, "M",C:C,R7,I:I, "&lt;&gt;")</f>
+        <v>1</v>
+      </c>
+      <c r="S9" s="5">
+        <f>SUM(Q9:R9)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1702,7 +1633,7 @@
         <v>43146</v>
       </c>
       <c r="G10" s="73">
-        <f ca="1">IF(F10, F10-D10, TODAY()-D10)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="H10" s="73" t="s">
@@ -1714,7 +1645,22 @@
       <c r="L10" s="74"/>
       <c r="M10" s="74"/>
       <c r="N10" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="5">
+        <f>SUM(Q8:Q9)</f>
+        <v>3</v>
+      </c>
+      <c r="R10" s="5">
+        <f>SUM(R8:R9)</f>
+        <v>2</v>
+      </c>
+      <c r="S10" s="5">
+        <f>SUM(S8:S9)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1738,7 +1684,7 @@
         <v>43146</v>
       </c>
       <c r="G11" s="65">
-        <f ca="1">IF(F11, F11-D11, TODAY()-D11)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
       <c r="H11" s="65" t="s">
@@ -1752,13 +1698,6 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="P11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q11" s="10">
-        <f>COUNTIF(A:A, "&lt;&gt;")-1</f>
-        <v>38</v>
-      </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -1781,7 +1720,7 @@
         <v>43146</v>
       </c>
       <c r="G12" s="53">
-        <f ca="1">IF(F12, F12-D12, TODAY()-D12)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
       <c r="H12" s="53" t="s">
@@ -1797,6 +1736,18 @@
       <c r="N12" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="P12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="46">
@@ -1818,7 +1769,7 @@
         <v>43165</v>
       </c>
       <c r="G13" s="57">
-        <f ca="1">IF(F13, F13-D13, TODAY()-D13)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="H13" s="47" t="s">
@@ -1834,8 +1785,20 @@
       <c r="N13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="39" t="s">
-        <v>37</v>
+      <c r="P13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="3">
+        <f>COUNTIFS(B:B, "F",C:C, Q12)</f>
+        <v>4</v>
+      </c>
+      <c r="R13" s="3">
+        <f>COUNTIFS(B:B, "F",C:C,R12)</f>
+        <v>5</v>
+      </c>
+      <c r="S13" s="5">
+        <f>SUM(Q13:R13)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1858,7 +1821,7 @@
         <v>43165</v>
       </c>
       <c r="G14" s="57">
-        <f ca="1">IF(F14, F14-D14, TODAY()-D14)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="H14" s="47" t="s">
@@ -1874,8 +1837,20 @@
       <c r="N14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="40" t="s">
-        <v>38</v>
+      <c r="P14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="3">
+        <f>COUNTIFS(B:B, "M",C:C, Q12)</f>
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <f>COUNTIFS(B:B, "M",C:C,R12)</f>
+        <v>2</v>
+      </c>
+      <c r="S14" s="5">
+        <f>SUM(Q14:R14)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1898,7 +1873,7 @@
         <v>43165</v>
       </c>
       <c r="G15" s="57">
-        <f ca="1">IF(F15, F15-D15, TODAY()-D15)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="H15" s="47" t="s">
@@ -1914,8 +1889,20 @@
       <c r="N15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="42" t="s">
-        <v>29</v>
+      <c r="P15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="5">
+        <f>SUM(Q13:Q14)</f>
+        <v>8</v>
+      </c>
+      <c r="R15" s="5">
+        <f>SUM(R13:R14)</f>
+        <v>7</v>
+      </c>
+      <c r="S15" s="5">
+        <f>SUM(S13:S14)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1938,7 +1925,7 @@
         <v>43165</v>
       </c>
       <c r="G16" s="57">
-        <f ca="1">IF(F16, F16-D16, TODAY()-D16)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="H16" s="47" t="s">
@@ -1954,11 +1941,8 @@
       <c r="N16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="7">
         <v>444</v>
       </c>
@@ -1977,8 +1961,8 @@
       </c>
       <c r="F17" s="66"/>
       <c r="G17" s="67">
-        <f ca="1">IF(F17, F17-D17, TODAY()-D17)</f>
-        <v>49</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
       </c>
       <c r="H17" s="67" t="s">
         <v>19</v>
@@ -1993,8 +1977,20 @@
       <c r="N17" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="P17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="7">
         <v>445</v>
       </c>
@@ -2013,8 +2009,8 @@
       </c>
       <c r="F18" s="66"/>
       <c r="G18" s="67">
-        <f ca="1">IF(F18, F18-D18, TODAY()-D18)</f>
-        <v>49</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
       </c>
       <c r="H18" s="67" t="s">
         <v>19</v>
@@ -2030,10 +2026,22 @@
         <v>23</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="3">
+        <f>COUNTIFS(B:B, "F",C:C, Q17)</f>
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
+        <f>COUNTIFS(B:B, "F",C:C,R17)</f>
+        <v>5</v>
+      </c>
+      <c r="S18" s="5">
+        <f>SUM(Q18:R18)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="4">
         <v>448</v>
       </c>
@@ -2052,8 +2060,8 @@
       </c>
       <c r="F19" s="52"/>
       <c r="G19" s="53">
-        <f ca="1">IF(F19, F19-D19, TODAY()-D19)</f>
-        <v>49</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
       </c>
       <c r="H19" s="53" t="s">
         <v>19</v>
@@ -2068,11 +2076,23 @@
       <c r="N19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="P19" s="43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="P19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="3">
+        <f>COUNTIFS(B:B, "M",C:C, Q17)</f>
+        <v>4</v>
+      </c>
+      <c r="R19" s="3">
+        <f>COUNTIFS(B:B, "M",C:C,R17)</f>
+        <v>2</v>
+      </c>
+      <c r="S19" s="5">
+        <f>SUM(Q19:R19)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="26">
         <v>449</v>
       </c>
@@ -2091,8 +2111,8 @@
       </c>
       <c r="F20" s="50"/>
       <c r="G20" s="51">
-        <f ca="1">IF(F20, F20-D20, TODAY()-D20)</f>
-        <v>49</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
       </c>
       <c r="H20" s="51" t="s">
         <v>19</v>
@@ -2105,11 +2125,23 @@
       <c r="N20" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P20" s="44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="P20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="5">
+        <f>SUM(Q18:Q19)</f>
+        <v>8</v>
+      </c>
+      <c r="R20" s="5">
+        <f>SUM(R18:R19)</f>
+        <v>7</v>
+      </c>
+      <c r="S20" s="5">
+        <f>SUM(S18:S19)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="9">
         <v>450</v>
       </c>
@@ -2128,8 +2160,8 @@
       </c>
       <c r="F21" s="54"/>
       <c r="G21" s="55">
-        <f ca="1">IF(F21, F21-D21, TODAY()-D21)</f>
-        <v>49</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
       </c>
       <c r="H21" s="55" t="s">
         <v>19</v>
@@ -2145,7 +2177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:19">
       <c r="A22" s="26">
         <v>451</v>
       </c>
@@ -2164,8 +2196,8 @@
       </c>
       <c r="F22" s="50"/>
       <c r="G22" s="51">
-        <f ca="1">IF(F22, F22-D22, TODAY()-D22)</f>
-        <v>49</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
       </c>
       <c r="H22" s="51" t="s">
         <v>19</v>
@@ -2178,9 +2210,20 @@
       <c r="N22" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="Q22" s="45"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="P22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="9">
         <v>455</v>
       </c>
@@ -2199,8 +2242,8 @@
       </c>
       <c r="F23" s="54"/>
       <c r="G23" s="55">
-        <f ca="1">IF(F23, F23-D23, TODAY()-D23)</f>
-        <v>35</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
       </c>
       <c r="H23" s="55" t="s">
         <v>19</v>
@@ -2215,12 +2258,23 @@
       <c r="N23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P23" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q23" s="41"/>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="P23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="3">
+        <f>COUNTIFS(B:B, "F",C:C, Q22)</f>
+        <v>4</v>
+      </c>
+      <c r="R23" s="3">
+        <f>COUNTIFS(B:B, "F",C:C,R22)</f>
+        <v>5</v>
+      </c>
+      <c r="S23" s="5">
+        <f>SUM(Q23:R23)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="4">
         <v>457</v>
       </c>
@@ -2239,8 +2293,8 @@
       </c>
       <c r="F24" s="52"/>
       <c r="G24" s="53">
-        <f ca="1">IF(F24, F24-D24, TODAY()-D24)</f>
-        <v>35</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
       </c>
       <c r="H24" s="53" t="s">
         <v>19</v>
@@ -2255,12 +2309,23 @@
       <c r="N24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="P24" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q24" s="41"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="P24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="3">
+        <f>COUNTIFS(B:B, "M",C:C, Q22)</f>
+        <v>4</v>
+      </c>
+      <c r="R24" s="3">
+        <f>COUNTIFS(B:B, "M",C:C,R22)</f>
+        <v>2</v>
+      </c>
+      <c r="S24" s="5">
+        <f>SUM(Q24:R24)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="28">
         <v>1</v>
       </c>
@@ -2279,8 +2344,8 @@
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="63">
-        <f ca="1">IF(F25, F25-D25, TODAY()-D25)</f>
-        <v>34</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
       </c>
       <c r="H25" s="28" t="s">
         <v>40</v>
@@ -2290,13 +2355,26 @@
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="P25" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q25" s="45"/>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="N25" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="5">
+        <f>SUM(Q23:Q24)</f>
+        <v>8</v>
+      </c>
+      <c r="R25" s="5">
+        <f>SUM(R23:R24)</f>
+        <v>7</v>
+      </c>
+      <c r="S25" s="5">
+        <f>SUM(S23:S24)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="39">
         <v>2</v>
       </c>
@@ -2315,8 +2393,8 @@
       </c>
       <c r="F26" s="68"/>
       <c r="G26" s="69">
-        <f ca="1">IF(F26, F26-D26, TODAY()-D26)</f>
-        <v>31</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
       </c>
       <c r="H26" s="39" t="s">
         <v>40</v>
@@ -2329,11 +2407,8 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="P26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="26">
         <v>3</v>
       </c>
@@ -2352,8 +2427,8 @@
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="51">
-        <f ca="1">IF(F27, F27-D27, TODAY()-D27)</f>
-        <v>31</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
       </c>
       <c r="H27" s="26" t="s">
         <v>40</v>
@@ -2363,12 +2438,23 @@
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="P27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="N27" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="47">
         <v>105</v>
       </c>
@@ -2388,7 +2474,7 @@
         <v>43180</v>
       </c>
       <c r="G28" s="57">
-        <f ca="1">IF(F28, F28-D28, TODAY()-D28)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
       <c r="H28" s="47" t="s">
@@ -2402,10 +2488,25 @@
       </c>
       <c r="M28" s="12"/>
       <c r="N28" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>48</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="3">
+        <f>COUNTIFS(B:B, "F",C:C, Q27)</f>
+        <v>4</v>
+      </c>
+      <c r="R28" s="3">
+        <f>COUNTIFS(B:B, "F",C:C,R27)</f>
+        <v>5</v>
+      </c>
+      <c r="S28" s="5">
+        <f>SUM(Q28:R28)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="47">
         <v>106</v>
       </c>
@@ -2425,7 +2526,7 @@
         <v>43180</v>
       </c>
       <c r="G29" s="57">
-        <f ca="1">IF(F29, F29-D29, TODAY()-D29)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
       <c r="H29" s="47" t="s">
@@ -2439,10 +2540,25 @@
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>48</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="3">
+        <f>COUNTIFS(B:B, "M",C:C, Q27)</f>
+        <v>4</v>
+      </c>
+      <c r="R29" s="3">
+        <f>COUNTIFS(B:B, "M",C:C,R27)</f>
+        <v>2</v>
+      </c>
+      <c r="S29" s="5">
+        <f>SUM(Q29:R29)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="47">
         <v>107</v>
       </c>
@@ -2462,7 +2578,7 @@
         <v>43180</v>
       </c>
       <c r="G30" s="57">
-        <f ca="1">IF(F30, F30-D30, TODAY()-D30)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
       <c r="H30" s="47" t="s">
@@ -2476,10 +2592,25 @@
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>48</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="5">
+        <f>SUM(Q28:Q29)</f>
+        <v>8</v>
+      </c>
+      <c r="R30" s="5">
+        <f>SUM(R28:R29)</f>
+        <v>7</v>
+      </c>
+      <c r="S30" s="5">
+        <f>SUM(S28:S29)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="23">
         <v>201</v>
       </c>
@@ -2514,7 +2645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:19">
       <c r="A32" s="34">
         <v>202</v>
       </c>
@@ -2548,8 +2679,19 @@
       <c r="N32" s="38" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="P32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" s="3">
+        <f>COUNTIFS(N:N, P32,C:C, Q2,N:N, P32)</f>
+        <v>2</v>
+      </c>
+      <c r="R32" s="3">
+        <f>COUNTIFS(N:N, P32,C:C, R2,N:N, P32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="34">
         <v>203</v>
       </c>
@@ -2557,7 +2699,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="36" t="str">
-        <f t="shared" ref="C33:C34" si="1">$T$2</f>
+        <f t="shared" ref="C33:C34" si="2">$T$2</f>
         <v>Het</v>
       </c>
       <c r="D33" s="60">
@@ -2584,7 +2726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:17">
       <c r="A34" s="34">
         <v>204</v>
       </c>
@@ -2592,7 +2734,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Het</v>
       </c>
       <c r="D34" s="60">
@@ -2618,8 +2760,15 @@
       <c r="N34" s="38" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="P34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q34" s="14">
+        <f ca="1">IF(G:G="E", "", AVERAGEIF(F:F, "&lt;&gt;",G:G))</f>
+        <v>31.857142857142858</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="19">
         <v>205</v>
       </c>
@@ -2654,7 +2803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:17">
       <c r="A36" s="34">
         <v>206</v>
       </c>
@@ -2688,8 +2837,15 @@
       <c r="N36" s="38" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="P36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q36" s="10">
+        <f>COUNTIF(A:A, "&lt;&gt;")-1</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="23">
         <v>207</v>
       </c>
@@ -2724,7 +2880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:17">
       <c r="A38" s="39">
         <v>4</v>
       </c>
@@ -2744,7 +2900,7 @@
       <c r="F38" s="39"/>
       <c r="G38" s="67">
         <f ca="1">IF(F38, F38-D38, TODAY()-D38)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" s="39" t="s">
         <v>40</v>
@@ -2755,8 +2911,11 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="P38" s="39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="28">
         <v>5</v>
       </c>
@@ -2776,7 +2935,7 @@
       <c r="F39" s="28"/>
       <c r="G39" s="70">
         <f ca="1">IF(F39, F39-D39, TODAY()-D39)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" s="28" t="s">
         <v>40</v>
@@ -2786,7 +2945,49 @@
       <c r="K39" s="27"/>
       <c r="L39" s="27"/>
       <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
+      <c r="N39" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="P39" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="P40" s="42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="P41" s="46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="P43" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="P44" s="43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="P45" s="44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="Q47" s="45"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="Q48" s="41"/>
+    </row>
+    <row r="49" spans="17:17">
+      <c r="Q49" s="41"/>
+    </row>
+    <row r="50" spans="17:17">
+      <c r="Q50" s="45"/>
     </row>
   </sheetData>
   <sortState ref="A2:N39">
@@ -2794,8 +2995,8 @@
     <sortCondition ref="A2:A39"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="P19:P20 Q23:Q24 G28:N30 A28:D30 A1:N27 A31:N1048576">
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="P44:P45 Q48:Q49 G28:N30 A28:D30 A1:N27 A31:N1048576">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$C$2="Mut"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="51">
   <si>
     <t>F</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>C57BL/e Pour IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>N/A</t>
@@ -1127,7 +1124,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1175,7 +1172,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M1" s="30" t="s">
         <v>23</v>
@@ -1207,7 +1204,7 @@
       <c r="F2" s="50"/>
       <c r="G2" s="51">
         <f t="shared" ref="G2:G30" ca="1" si="0">IF(F2, F2-D2, TODAY()-D2)</f>
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H2" s="51" t="s">
         <v>19</v>
@@ -1261,7 +1258,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="63">
         <f t="shared" ca="1" si="0"/>
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H3" s="63" t="s">
         <v>19</v>
@@ -1275,7 +1272,7 @@
         <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>10</v>
@@ -1319,7 +1316,7 @@
       <c r="F4" s="50"/>
       <c r="G4" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H4" s="51" t="s">
         <v>19</v>
@@ -1333,7 +1330,7 @@
         <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>11</v>
@@ -1377,7 +1374,7 @@
       <c r="F5" s="62"/>
       <c r="G5" s="63">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H5" s="63" t="s">
         <v>19</v>
@@ -1391,7 +1388,7 @@
         <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>12</v>
@@ -1446,14 +1443,14 @@
         <v>7</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -1487,7 +1484,7 @@
         <v>7</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -1502,7 +1499,7 @@
       <c r="R7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="S7" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1533,9 +1530,7 @@
       <c r="H8" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1601,7 +1596,7 @@
       </c>
       <c r="Q9" s="3">
         <f>COUNTIFS(B:B, "M",C:C, Q7,I:I, "&lt;&gt;")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9" s="3">
         <f>COUNTIFS(B:B, "M",C:C,R7,I:I, "&lt;&gt;")</f>
@@ -1609,7 +1604,7 @@
       </c>
       <c r="S9" s="5">
         <f>SUM(Q9:R9)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1645,14 +1640,14 @@
       <c r="L10" s="74"/>
       <c r="M10" s="74"/>
       <c r="N10" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="5">
         <f>SUM(Q8:Q9)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10" s="5">
         <f>SUM(R8:R9)</f>
@@ -1660,7 +1655,7 @@
       </c>
       <c r="S10" s="5">
         <f>SUM(S8:S9)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1745,7 +1740,7 @@
       <c r="R12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="S12" s="17" t="s">
+      <c r="S12" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1779,7 +1774,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="10" t="s">
@@ -1789,16 +1784,16 @@
         <v>10</v>
       </c>
       <c r="Q13" s="3">
-        <f>COUNTIFS(B:B, "F",C:C, Q12)</f>
-        <v>4</v>
+        <f>COUNTIFS(B:B, "F",C:C, Q7,J:J, "&lt;&gt;")</f>
+        <v>2</v>
       </c>
       <c r="R13" s="3">
-        <f>COUNTIFS(B:B, "F",C:C,R12)</f>
-        <v>5</v>
+        <f>COUNTIFS(B:B, "F",C:C,R12,J:J, "&lt;&gt;")</f>
+        <v>1</v>
       </c>
       <c r="S13" s="5">
         <f>SUM(Q13:R13)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1831,7 +1826,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="10" t="s">
@@ -1841,16 +1836,16 @@
         <v>11</v>
       </c>
       <c r="Q14" s="3">
-        <f>COUNTIFS(B:B, "M",C:C, Q12)</f>
-        <v>4</v>
+        <f>COUNTIFS(B:B, "M",C:C, Q7,J:J, "&lt;&gt;")</f>
+        <v>1</v>
       </c>
       <c r="R14" s="3">
-        <f>COUNTIFS(B:B, "M",C:C,R12)</f>
-        <v>2</v>
+        <f>COUNTIFS(B:B, "M",C:C,R12,J:J, "&lt;&gt;")</f>
+        <v>0</v>
       </c>
       <c r="S14" s="5">
         <f>SUM(Q14:R14)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1883,7 +1878,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M15" s="10"/>
       <c r="N15" s="10" t="s">
@@ -1894,15 +1889,15 @@
       </c>
       <c r="Q15" s="5">
         <f>SUM(Q13:Q14)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R15" s="5">
         <f>SUM(R13:R14)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S15" s="5">
         <f>SUM(S13:S14)</f>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1935,7 +1930,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="10" t="s">
@@ -1962,7 +1957,7 @@
       <c r="F17" s="66"/>
       <c r="G17" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H17" s="67" t="s">
         <v>19</v>
@@ -1972,7 +1967,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>23</v>
@@ -1986,7 +1981,7 @@
       <c r="R17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="S17" s="17" t="s">
+      <c r="S17" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2010,7 +2005,7 @@
       <c r="F18" s="66"/>
       <c r="G18" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H18" s="67" t="s">
         <v>19</v>
@@ -2020,7 +2015,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>23</v>
@@ -2029,16 +2024,16 @@
         <v>10</v>
       </c>
       <c r="Q18" s="3">
-        <f>COUNTIFS(B:B, "F",C:C, Q17)</f>
-        <v>4</v>
+        <f>COUNTIFS(B:B, "F",C:C, Q17,K:K, "&lt;&gt;")</f>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <f>COUNTIFS(B:B, "F",C:C,R17)</f>
-        <v>5</v>
+        <f>COUNTIFS(B:B, "F",C:C,R17,K:K, "&lt;&gt;")</f>
+        <v>1</v>
       </c>
       <c r="S18" s="5">
         <f>SUM(Q18:R18)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2061,7 +2056,7 @@
       <c r="F19" s="52"/>
       <c r="G19" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H19" s="53" t="s">
         <v>19</v>
@@ -2071,7 +2066,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>23</v>
@@ -2080,16 +2075,16 @@
         <v>11</v>
       </c>
       <c r="Q19" s="3">
-        <f>COUNTIFS(B:B, "M",C:C, Q17)</f>
-        <v>4</v>
+        <f>COUNTIFS(B:B, "M",C:C, Q17,K:K, "&lt;&gt;")</f>
+        <v>0</v>
       </c>
       <c r="R19" s="3">
-        <f>COUNTIFS(B:B, "M",C:C,R17)</f>
-        <v>2</v>
+        <f>COUNTIFS(B:B, "M",C:C,R17,K:K, "&lt;&gt;")</f>
+        <v>0</v>
       </c>
       <c r="S19" s="5">
         <f>SUM(Q19:R19)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2112,7 +2107,7 @@
       <c r="F20" s="50"/>
       <c r="G20" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H20" s="51" t="s">
         <v>19</v>
@@ -2130,15 +2125,15 @@
       </c>
       <c r="Q20" s="5">
         <f>SUM(Q18:Q19)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R20" s="5">
         <f>SUM(R18:R19)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S20" s="5">
         <f>SUM(S18:S19)</f>
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2161,7 +2156,7 @@
       <c r="F21" s="54"/>
       <c r="G21" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H21" s="55" t="s">
         <v>19</v>
@@ -2171,7 +2166,7 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>23</v>
@@ -2197,7 +2192,7 @@
       <c r="F22" s="50"/>
       <c r="G22" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H22" s="51" t="s">
         <v>19</v>
@@ -2211,7 +2206,7 @@
         <v>28</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="8" t="s">
         <v>2</v>
@@ -2219,7 +2214,7 @@
       <c r="R22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="17" t="s">
+      <c r="S22" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2243,7 +2238,7 @@
       <c r="F23" s="54"/>
       <c r="G23" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H23" s="55" t="s">
         <v>19</v>
@@ -2253,7 +2248,7 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N23" s="10" t="s">
         <v>23</v>
@@ -2262,16 +2257,16 @@
         <v>10</v>
       </c>
       <c r="Q23" s="3">
-        <f>COUNTIFS(B:B, "F",C:C, Q22)</f>
-        <v>4</v>
+        <f>COUNTIFS(B:B, "F",C:C, Q22,L:L, "&lt;&gt;")</f>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
-        <f>COUNTIFS(B:B, "F",C:C,R22)</f>
-        <v>5</v>
+        <f>COUNTIFS(B:B, "F",C:C,R22,L:L, "&lt;&gt;")</f>
+        <v>0</v>
       </c>
       <c r="S23" s="5">
         <f>SUM(Q23:R23)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2294,7 +2289,7 @@
       <c r="F24" s="52"/>
       <c r="G24" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H24" s="53" t="s">
         <v>19</v>
@@ -2304,7 +2299,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>23</v>
@@ -2313,16 +2308,16 @@
         <v>11</v>
       </c>
       <c r="Q24" s="3">
-        <f>COUNTIFS(B:B, "M",C:C, Q22)</f>
-        <v>4</v>
+        <f>COUNTIFS(B:B, "M",C:C, Q22,L:L, "&lt;&gt;")</f>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
-        <f>COUNTIFS(B:B, "M",C:C,R22)</f>
-        <v>2</v>
+        <f>COUNTIFS(B:B, "M",C:C,R22,L:L, "&lt;&gt;")</f>
+        <v>0</v>
       </c>
       <c r="S24" s="5">
         <f>SUM(Q24:R24)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2340,15 +2335,15 @@
         <v>43147</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="63">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
@@ -2363,15 +2358,15 @@
       </c>
       <c r="Q25" s="5">
         <f>SUM(Q23:Q24)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R25" s="5">
         <f>SUM(R23:R24)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S25" s="5">
         <f>SUM(S23:S24)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2389,18 +2384,20 @@
         <v>43150</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="68"/>
+        <v>32</v>
+      </c>
+      <c r="F26" s="68">
+        <v>43186</v>
+      </c>
       <c r="G26" s="69">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H26" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -2423,15 +2420,15 @@
         <v>43150</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
@@ -2450,7 +2447,7 @@
       <c r="R27" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="S27" s="17" t="s">
+      <c r="S27" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2484,26 +2481,26 @@
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M28" s="12"/>
       <c r="N28" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="3">
-        <f>COUNTIFS(B:B, "F",C:C, Q27)</f>
-        <v>4</v>
+        <f>COUNTIFS(B:B, "F",C:C, Q27,M:M, "&lt;&gt;")</f>
+        <v>2</v>
       </c>
       <c r="R28" s="3">
-        <f>COUNTIFS(B:B, "F",C:C,R27)</f>
-        <v>5</v>
+        <f>COUNTIFS(B:B, "F",C:C,R27,M:M, "&lt;&gt;")</f>
+        <v>2</v>
       </c>
       <c r="S28" s="5">
         <f>SUM(Q28:R28)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2536,26 +2533,26 @@
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="3">
-        <f>COUNTIFS(B:B, "M",C:C, Q27)</f>
-        <v>4</v>
+        <f>COUNTIFS(B:B, "M",C:C, Q27,M:M, "&lt;&gt;")</f>
+        <v>2</v>
       </c>
       <c r="R29" s="3">
-        <f>COUNTIFS(B:B, "M",C:C,R27)</f>
-        <v>2</v>
+        <f>COUNTIFS(B:B, "M",C:C,R27,M:M, "&lt;&gt;")</f>
+        <v>0</v>
       </c>
       <c r="S29" s="5">
         <f>SUM(Q29:R29)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2588,26 +2585,26 @@
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="5">
         <f>SUM(Q28:Q29)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R30" s="5">
         <f>SUM(R28:R29)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S30" s="5">
         <f>SUM(S28:S29)</f>
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2615,7 +2612,7 @@
         <v>201</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="21" t="str">
         <f>$Q$2</f>
@@ -2650,7 +2647,7 @@
         <v>202</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="36" t="str">
         <f>$T$2</f>
@@ -2696,7 +2693,7 @@
         <v>203</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="36" t="str">
         <f t="shared" ref="C33:C34" si="2">$T$2</f>
@@ -2731,7 +2728,7 @@
         <v>204</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="36" t="str">
         <f t="shared" si="2"/>
@@ -2761,11 +2758,11 @@
         <v>29</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q34" s="14">
         <f ca="1">IF(G:G="E", "", AVERAGEIF(F:F, "&lt;&gt;",G:G))</f>
-        <v>31.857142857142858</v>
+        <v>32.133333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2773,7 +2770,7 @@
         <v>205</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="20" t="str">
         <f>$R$2</f>
@@ -2808,7 +2805,7 @@
         <v>206</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="36" t="str">
         <f>$T$2</f>
@@ -2838,7 +2835,7 @@
         <v>29</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q36" s="10">
         <f>COUNTIF(A:A, "&lt;&gt;")-1</f>
@@ -2850,7 +2847,7 @@
         <v>207</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="21" t="str">
         <f>$Q$2</f>
@@ -2895,15 +2892,15 @@
         <v>43168</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F38" s="39"/>
       <c r="G38" s="67">
         <f ca="1">IF(F38, F38-D38, TODAY()-D38)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -2912,7 +2909,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="P38" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2930,15 +2927,15 @@
         <v>43168</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="70">
         <f ca="1">IF(F39, F39-D39, TODAY()-D39)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I39" s="27"/>
       <c r="J39" s="27"/>
@@ -2949,7 +2946,7 @@
         <v>28</v>
       </c>
       <c r="P39" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2964,17 +2961,17 @@
     </row>
     <row r="43" spans="1:17">
       <c r="P43" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="P44" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="P45" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:17">

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -302,7 +302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +330,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +479,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -679,6 +685,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1124,7 +1133,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
+      <selection pane="bottomLeft" activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1839,7 +1848,7 @@
         <f>COUNTIFS(B:B, "M",C:C, Q7,J:J, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="75">
         <f>COUNTIFS(B:B, "M",C:C,R12,J:J, "&lt;&gt;")</f>
         <v>0</v>
       </c>
@@ -2023,7 +2032,7 @@
       <c r="P18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="75">
         <f>COUNTIFS(B:B, "F",C:C, Q17,K:K, "&lt;&gt;")</f>
         <v>0</v>
       </c>
@@ -2074,11 +2083,11 @@
       <c r="P19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="75">
         <f>COUNTIFS(B:B, "M",C:C, Q17,K:K, "&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="75">
         <f>COUNTIFS(B:B, "M",C:C,R17,K:K, "&lt;&gt;")</f>
         <v>0</v>
       </c>
@@ -2256,11 +2265,11 @@
       <c r="P23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="75">
         <f>COUNTIFS(B:B, "F",C:C, Q22,L:L, "&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="75">
         <f>COUNTIFS(B:B, "F",C:C,R22,L:L, "&lt;&gt;")</f>
         <v>0</v>
       </c>
@@ -2307,11 +2316,11 @@
       <c r="P24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="75">
         <f>COUNTIFS(B:B, "M",C:C, Q22,L:L, "&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="75">
         <f>COUNTIFS(B:B, "M",C:C,R22,L:L, "&lt;&gt;")</f>
         <v>0</v>
       </c>
@@ -2546,7 +2555,7 @@
         <f>COUNTIFS(B:B, "M",C:C, Q27,M:M, "&lt;&gt;")</f>
         <v>2</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="75">
         <f>COUNTIFS(B:B, "M",C:C,R27,M:M, "&lt;&gt;")</f>
         <v>0</v>
       </c>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -1133,7 +1133,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q39" sqref="Q39"/>
+      <selection pane="bottomLeft" activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1213,7 +1213,7 @@
       <c r="F2" s="50"/>
       <c r="G2" s="51">
         <f t="shared" ref="G2:G30" ca="1" si="0">IF(F2, F2-D2, TODAY()-D2)</f>
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H2" s="51" t="s">
         <v>19</v>
@@ -1267,7 +1267,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="63">
         <f t="shared" ca="1" si="0"/>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H3" s="63" t="s">
         <v>19</v>
@@ -1325,7 +1325,7 @@
       <c r="F4" s="50"/>
       <c r="G4" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H4" s="51" t="s">
         <v>19</v>
@@ -1383,7 +1383,7 @@
       <c r="F5" s="62"/>
       <c r="G5" s="63">
         <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H5" s="63" t="s">
         <v>19</v>
@@ -1966,7 +1966,7 @@
       <c r="F17" s="66"/>
       <c r="G17" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H17" s="67" t="s">
         <v>19</v>
@@ -2014,7 +2014,7 @@
       <c r="F18" s="66"/>
       <c r="G18" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H18" s="67" t="s">
         <v>19</v>
@@ -2065,7 +2065,7 @@
       <c r="F19" s="52"/>
       <c r="G19" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H19" s="53" t="s">
         <v>19</v>
@@ -2116,7 +2116,7 @@
       <c r="F20" s="50"/>
       <c r="G20" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H20" s="51" t="s">
         <v>19</v>
@@ -2165,7 +2165,7 @@
       <c r="F21" s="54"/>
       <c r="G21" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H21" s="55" t="s">
         <v>19</v>
@@ -2201,7 +2201,7 @@
       <c r="F22" s="50"/>
       <c r="G22" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H22" s="51" t="s">
         <v>19</v>
@@ -2247,7 +2247,7 @@
       <c r="F23" s="54"/>
       <c r="G23" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H23" s="55" t="s">
         <v>19</v>
@@ -2298,7 +2298,7 @@
       <c r="F24" s="52"/>
       <c r="G24" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H24" s="53" t="s">
         <v>19</v>
@@ -2349,7 +2349,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="63">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H25" s="28" t="s">
         <v>39</v>
@@ -2434,7 +2434,7 @@
       <c r="F27" s="26"/>
       <c r="G27" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H27" s="26" t="s">
         <v>39</v>
@@ -2906,7 +2906,7 @@
       <c r="F38" s="39"/>
       <c r="G38" s="67">
         <f ca="1">IF(F38, F38-D38, TODAY()-D38)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H38" s="39" t="s">
         <v>39</v>
@@ -2941,7 +2941,7 @@
       <c r="F39" s="28"/>
       <c r="G39" s="70">
         <f ca="1">IF(F39, F39-D39, TODAY()-D39)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H39" s="28" t="s">
         <v>39</v>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="420" windowWidth="28540" windowHeight="17080" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="280" yWindow="420" windowWidth="28540" windowHeight="17080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1133,7 +1133,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N45" sqref="N45"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1213,7 +1213,7 @@
       <c r="F2" s="50"/>
       <c r="G2" s="51">
         <f t="shared" ref="G2:G30" ca="1" si="0">IF(F2, F2-D2, TODAY()-D2)</f>
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="H2" s="51" t="s">
         <v>19</v>
@@ -1267,7 +1267,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="63">
         <f t="shared" ca="1" si="0"/>
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="H3" s="63" t="s">
         <v>19</v>
@@ -1325,7 +1325,7 @@
       <c r="F4" s="50"/>
       <c r="G4" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="H4" s="51" t="s">
         <v>19</v>
@@ -1383,7 +1383,7 @@
       <c r="F5" s="62"/>
       <c r="G5" s="63">
         <f t="shared" ca="1" si="0"/>
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="H5" s="63" t="s">
         <v>19</v>
@@ -1966,7 +1966,7 @@
       <c r="F17" s="66"/>
       <c r="G17" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H17" s="67" t="s">
         <v>19</v>
@@ -2014,7 +2014,7 @@
       <c r="F18" s="66"/>
       <c r="G18" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H18" s="67" t="s">
         <v>19</v>
@@ -2065,7 +2065,7 @@
       <c r="F19" s="52"/>
       <c r="G19" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H19" s="53" t="s">
         <v>19</v>
@@ -2116,7 +2116,7 @@
       <c r="F20" s="50"/>
       <c r="G20" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H20" s="51" t="s">
         <v>19</v>
@@ -2165,7 +2165,7 @@
       <c r="F21" s="54"/>
       <c r="G21" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H21" s="55" t="s">
         <v>19</v>
@@ -2201,7 +2201,7 @@
       <c r="F22" s="50"/>
       <c r="G22" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H22" s="51" t="s">
         <v>19</v>
@@ -2247,7 +2247,7 @@
       <c r="F23" s="54"/>
       <c r="G23" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H23" s="55" t="s">
         <v>19</v>
@@ -2298,7 +2298,7 @@
       <c r="F24" s="52"/>
       <c r="G24" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H24" s="53" t="s">
         <v>19</v>
@@ -2349,7 +2349,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="63">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H25" s="28" t="s">
         <v>39</v>
@@ -2434,7 +2434,7 @@
       <c r="F27" s="26"/>
       <c r="G27" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H27" s="26" t="s">
         <v>39</v>
@@ -2906,7 +2906,7 @@
       <c r="F38" s="39"/>
       <c r="G38" s="67">
         <f ca="1">IF(F38, F38-D38, TODAY()-D38)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H38" s="39" t="s">
         <v>39</v>
@@ -2941,7 +2941,7 @@
       <c r="F39" s="28"/>
       <c r="G39" s="70">
         <f ca="1">IF(F39, F39-D39, TODAY()-D39)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H39" s="28" t="s">
         <v>39</v>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="280" yWindow="420" windowWidth="28540" windowHeight="17080" tabRatio="500"/>
+    <workbookView xWindow="280" yWindow="420" windowWidth="30680" windowHeight="17080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="52">
   <si>
     <t>F</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>400+ : ICM</t>
+  </si>
+  <si>
+    <t>Vivant</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -478,8 +481,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -585,9 +598,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -597,9 +607,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -691,7 +698,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="97">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -735,6 +742,11 @@
     <cellStyle name="Lien hypertexte" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -778,6 +790,11 @@
     <cellStyle name="Lien hypertexte visité" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1129,11 +1146,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40:N44"/>
+      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1142,7 +1159,7 @@
     <col min="10" max="10" width="17.1640625" customWidth="1"/>
     <col min="13" max="13" width="17.33203125" customWidth="1"/>
     <col min="14" max="14" width="36.5" style="11" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
     <col min="16" max="16" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1204,18 +1221,18 @@
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="48">
         <v>42907</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="48">
         <v>43123</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51">
+      <c r="F2" s="48"/>
+      <c r="G2" s="49">
         <f t="shared" ref="G2:G30" ca="1" si="0">IF(F2, F2-D2, TODAY()-D2)</f>
-        <v>288</v>
-      </c>
-      <c r="H2" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2" s="49" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="27"/>
@@ -1241,7 +1258,7 @@
       <c r="S2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="46" t="s">
         <v>14</v>
       </c>
       <c r="U2" s="18"/>
@@ -1258,18 +1275,18 @@
         <f t="shared" ref="C3:C5" si="1">$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="60">
         <v>42962</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="60">
         <v>43123</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63">
+      <c r="F3" s="60"/>
+      <c r="G3" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>233</v>
-      </c>
-      <c r="H3" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="H3" s="61" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="27"/>
@@ -1316,18 +1333,18 @@
         <f t="shared" si="1"/>
         <v>Het</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="48">
         <v>42962</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="48">
         <v>43123</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51">
+      <c r="F4" s="48"/>
+      <c r="G4" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>233</v>
-      </c>
-      <c r="H4" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="49" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="27"/>
@@ -1374,18 +1391,18 @@
         <f t="shared" si="1"/>
         <v>Het</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="60">
         <v>42964</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="60">
         <v>43123</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63">
+      <c r="F5" s="60"/>
+      <c r="G5" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>231</v>
-      </c>
-      <c r="H5" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="61" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="27"/>
@@ -1414,7 +1431,7 @@
         <f>SUM(S3:S4)</f>
         <v>15</v>
       </c>
-      <c r="T5" s="49">
+      <c r="T5" s="47">
         <f>SUM(T3:T4)</f>
         <v>9</v>
       </c>
@@ -1432,20 +1449,20 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="50">
         <v>43097</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="50">
         <v>43123</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="50">
         <v>43124</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="51">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="51" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -1473,20 +1490,20 @@
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="52">
         <v>43097</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="52">
         <v>43123</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="52">
         <v>43124</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="53">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="53" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="10" t="s">
@@ -1500,7 +1517,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="6"/>
       <c r="P7" s="5" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="8" t="s">
         <v>2</v>
@@ -1508,9 +1525,10 @@
       <c r="R7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="S7" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="T7" s="46"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="7">
@@ -1523,20 +1541,20 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="64">
         <v>43111</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="64">
         <v>43145</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="64">
         <v>43146</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-      <c r="H8" s="67" t="s">
+      <c r="H8" s="65" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="5"/>
@@ -1549,21 +1567,25 @@
       <c r="N8" s="22" t="s">
         <v>15</v>
       </c>
+      <c r="O8" s="39" t="s">
+        <v>36</v>
+      </c>
       <c r="P8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="3">
-        <f>COUNTIFS(B:B, "F",C:C, Q7,I:I, "&lt;&gt;")</f>
-        <v>1</v>
+        <f>COUNTIFS(B:B, "F",C:C, Q7,F:F,"&lt;&gt;")</f>
+        <v>2</v>
       </c>
       <c r="R8" s="3">
-        <f>COUNTIFS(B:B, "F",C:C,R7,I:I, "&lt;&gt;")</f>
-        <v>1</v>
+        <f>COUNTIFS(B:B, "F",C:C,R7,F:F,"&lt;&gt;")</f>
+        <v>3</v>
       </c>
       <c r="S8" s="5">
         <f>SUM(Q8:R8)</f>
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="T8" s="27"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="9">
@@ -1576,20 +1598,20 @@
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="52">
         <v>43111</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="52">
         <v>43145</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="52">
         <v>43147</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="53">
         <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="53" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="10"/>
@@ -1600,72 +1622,80 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="6"/>
+      <c r="O9" s="40" t="s">
+        <v>37</v>
+      </c>
       <c r="P9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="3">
-        <f>COUNTIFS(B:B, "M",C:C, Q7,I:I, "&lt;&gt;")</f>
-        <v>1</v>
+        <f>COUNTIFS(B:B, "M",C:C, Q7,F:F,"&lt;&gt;")</f>
+        <v>2</v>
       </c>
       <c r="R9" s="3">
-        <f>COUNTIFS(B:B, "M",C:C,R7,I:I, "&lt;&gt;")</f>
+        <f>COUNTIFS(B:B, "M",C:C,R7,F:F,"&lt;&gt;")</f>
         <v>1</v>
       </c>
       <c r="S9" s="5">
         <f>SUM(Q9:R9)</f>
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="T9" s="27"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="71">
+      <c r="A10" s="69">
         <v>441</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="69" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="70">
         <v>43111</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="70">
         <v>43145</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="70">
         <v>43146</v>
       </c>
-      <c r="G10" s="73">
+      <c r="G10" s="71">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-      <c r="H10" s="73" t="s">
+      <c r="H10" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
       <c r="N10" s="10" t="s">
         <v>48</v>
       </c>
+      <c r="O10" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="P10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="5">
         <f>SUM(Q8:Q9)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R10" s="5">
         <f>SUM(R8:R9)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S10" s="5">
         <f>SUM(S8:S9)</f>
-        <v>4</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="T10" s="47"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="2">
@@ -1678,20 +1708,20 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="62">
         <v>43118</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="62">
         <v>43145</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="62">
         <v>43146</v>
       </c>
-      <c r="G11" s="65">
+      <c r="G11" s="63">
         <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
-      <c r="H11" s="65" t="s">
+      <c r="H11" s="63" t="s">
         <v>19</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1702,6 +1732,9 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
+      <c r="O11" s="44" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4">
@@ -1714,20 +1747,20 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="50">
         <v>43118</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="50">
         <v>43145</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="50">
         <v>43146</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="51">
         <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
-      <c r="H12" s="53" t="s">
+      <c r="H12" s="51" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="5"/>
@@ -1740,43 +1773,38 @@
       <c r="N12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>12</v>
+      <c r="P12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="14">
+        <f ca="1">IF(G:G="E", "", AVERAGEIF(F:F, "&lt;&gt;",G:G))</f>
+        <v>32.133333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="46">
+      <c r="A13" s="44">
         <v>101</v>
       </c>
-      <c r="B13" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="46" t="s">
+      <c r="B13" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="54">
         <v>43130</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="54">
         <v>43165</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="54">
         <v>43165</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="55">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="45" t="s">
         <v>25</v>
       </c>
       <c r="I13" s="10"/>
@@ -1789,46 +1817,34 @@
       <c r="N13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="3">
-        <f>COUNTIFS(B:B, "F",C:C, Q7,J:J, "&lt;&gt;")</f>
-        <v>2</v>
-      </c>
-      <c r="R13" s="3">
-        <f>COUNTIFS(B:B, "F",C:C,R12,J:J, "&lt;&gt;")</f>
-        <v>1</v>
-      </c>
-      <c r="S13" s="5">
-        <f>SUM(Q13:R13)</f>
-        <v>3</v>
+      <c r="O13" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="46">
+      <c r="A14" s="44">
         <v>102</v>
       </c>
-      <c r="B14" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="46" t="s">
+      <c r="B14" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="54">
         <v>43130</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="54">
         <v>43165</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="54">
         <v>43165</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="55">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="45" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="10"/>
@@ -1841,46 +1857,41 @@
       <c r="N14" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="O14" s="42" t="s">
+        <v>42</v>
+      </c>
       <c r="P14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="3">
-        <f>COUNTIFS(B:B, "M",C:C, Q7,J:J, "&lt;&gt;")</f>
-        <v>1</v>
-      </c>
-      <c r="R14" s="75">
-        <f>COUNTIFS(B:B, "M",C:C,R12,J:J, "&lt;&gt;")</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="5">
-        <f>SUM(Q14:R14)</f>
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="Q14" s="10">
+        <f>COUNTIF(A:A, "&lt;&gt;")-1</f>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="46">
+      <c r="A15" s="44">
         <v>103</v>
       </c>
-      <c r="B15" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="46" t="s">
+      <c r="B15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="56">
+      <c r="D15" s="54">
         <v>43130</v>
       </c>
-      <c r="E15" s="56">
+      <c r="E15" s="54">
         <v>43165</v>
       </c>
-      <c r="F15" s="56">
+      <c r="F15" s="54">
         <v>43165</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="55">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="45" t="s">
         <v>25</v>
       </c>
       <c r="I15" s="10"/>
@@ -1893,46 +1904,34 @@
       <c r="N15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="5">
-        <f>SUM(Q13:Q14)</f>
-        <v>3</v>
-      </c>
-      <c r="R15" s="5">
-        <f>SUM(R13:R14)</f>
-        <v>1</v>
-      </c>
-      <c r="S15" s="5">
-        <f>SUM(S13:S14)</f>
-        <v>4</v>
+      <c r="O15" s="43" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="46">
+      <c r="A16" s="44">
         <v>104</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="46" t="s">
+      <c r="B16" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="54">
         <v>43130</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="54">
         <v>43165</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="54">
         <v>43165</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="55">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="45" t="s">
         <v>25</v>
       </c>
       <c r="I16" s="10"/>
@@ -1945,6 +1944,18 @@
       <c r="N16" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="P16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="7">
@@ -1957,18 +1968,18 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D17" s="66">
+      <c r="D17" s="64">
         <v>43132</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="64">
         <v>43166</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67">
+      <c r="F17" s="64"/>
+      <c r="G17" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="H17" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="65" t="s">
         <v>19</v>
       </c>
       <c r="I17" s="5"/>
@@ -1982,16 +1993,19 @@
         <v>23</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>COUNTIFS(B:B, "F",C:C, Q16,I:I, "&lt;&gt;")</f>
+        <v>1</v>
+      </c>
+      <c r="R17" s="3">
+        <f>COUNTIFS(B:B, "F",C:C,R16,I:I, "&lt;&gt;")</f>
+        <v>1</v>
+      </c>
+      <c r="S17" s="5">
+        <f>SUM(Q17:R17)</f>
         <v>2</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2005,18 +2019,18 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="64">
         <v>43132</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="64">
         <v>43166</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="67">
+      <c r="F18" s="64"/>
+      <c r="G18" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="H18" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="65" t="s">
         <v>19</v>
       </c>
       <c r="I18" s="5"/>
@@ -2030,19 +2044,19 @@
         <v>23</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="75">
-        <f>COUNTIFS(B:B, "F",C:C, Q17,K:K, "&lt;&gt;")</f>
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="Q18" s="3">
+        <f>COUNTIFS(B:B, "M",C:C, Q16,I:I, "&lt;&gt;")</f>
+        <v>1</v>
       </c>
       <c r="R18" s="3">
-        <f>COUNTIFS(B:B, "F",C:C,R17,K:K, "&lt;&gt;")</f>
+        <f>COUNTIFS(B:B, "M",C:C,R16,I:I, "&lt;&gt;")</f>
         <v>1</v>
       </c>
       <c r="S18" s="5">
         <f>SUM(Q18:R18)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2056,18 +2070,18 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D19" s="50">
         <v>43132</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="50">
         <v>43166</v>
       </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53">
+      <c r="F19" s="50"/>
+      <c r="G19" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="H19" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="51" t="s">
         <v>19</v>
       </c>
       <c r="I19" s="5"/>
@@ -2081,19 +2095,19 @@
         <v>23</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="75">
-        <f>COUNTIFS(B:B, "M",C:C, Q17,K:K, "&lt;&gt;")</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="75">
-        <f>COUNTIFS(B:B, "M",C:C,R17,K:K, "&lt;&gt;")</f>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="Q19" s="5">
+        <f>SUM(Q17:Q18)</f>
+        <v>2</v>
+      </c>
+      <c r="R19" s="5">
+        <f>SUM(R17:R18)</f>
+        <v>2</v>
       </c>
       <c r="S19" s="5">
-        <f>SUM(Q19:R19)</f>
-        <v>0</v>
+        <f>SUM(S17:S18)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2107,18 +2121,18 @@
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="48">
         <v>43132</v>
       </c>
-      <c r="E20" s="50">
+      <c r="E20" s="48">
         <v>43166</v>
       </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51">
+      <c r="F20" s="48"/>
+      <c r="G20" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="H20" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="49" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="27"/>
@@ -2129,21 +2143,6 @@
       <c r="N20" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="5">
-        <f>SUM(Q18:Q19)</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="5">
-        <f>SUM(R18:R19)</f>
-        <v>1</v>
-      </c>
-      <c r="S20" s="5">
-        <f>SUM(S18:S19)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="9">
@@ -2156,18 +2155,18 @@
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21" s="52">
         <v>43132</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="52">
         <v>43166</v>
       </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55">
+      <c r="F21" s="52"/>
+      <c r="G21" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="H21" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="53" t="s">
         <v>19</v>
       </c>
       <c r="I21" s="10"/>
@@ -2180,6 +2179,18 @@
       <c r="N21" s="10" t="s">
         <v>23</v>
       </c>
+      <c r="P21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="26">
@@ -2192,18 +2203,18 @@
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="48">
         <v>43132</v>
       </c>
-      <c r="E22" s="50">
+      <c r="E22" s="48">
         <v>43166</v>
       </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51">
+      <c r="F22" s="48"/>
+      <c r="G22" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="H22" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="49" t="s">
         <v>19</v>
       </c>
       <c r="I22" s="27"/>
@@ -2215,16 +2226,19 @@
         <v>28</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="3">
+        <f>COUNTIFS(B:B, "F",C:C, Q16,J:J, "&lt;&gt;")</f>
         <v>2</v>
       </c>
-      <c r="R22" s="8" t="s">
+      <c r="R22" s="3">
+        <f>COUNTIFS(B:B, "F",C:C,R21,J:J, "&lt;&gt;")</f>
+        <v>1</v>
+      </c>
+      <c r="S22" s="5">
+        <f>SUM(Q22:R22)</f>
         <v>3</v>
-      </c>
-      <c r="S22" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2238,18 +2252,18 @@
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D23" s="52">
         <v>43146</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="52">
         <v>43166</v>
       </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="55">
+      <c r="F23" s="52"/>
+      <c r="G23" s="53">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="H23" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="53" t="s">
         <v>19</v>
       </c>
       <c r="I23" s="10"/>
@@ -2263,19 +2277,19 @@
         <v>23</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="75">
-        <f>COUNTIFS(B:B, "F",C:C, Q22,L:L, "&lt;&gt;")</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="75">
-        <f>COUNTIFS(B:B, "F",C:C,R22,L:L, "&lt;&gt;")</f>
+        <v>11</v>
+      </c>
+      <c r="Q23" s="3">
+        <f>COUNTIFS(B:B, "M",C:C, Q16,J:J, "&lt;&gt;")</f>
+        <v>1</v>
+      </c>
+      <c r="R23" s="73">
+        <f>COUNTIFS(B:B, "M",C:C,R21,J:J, "&lt;&gt;")</f>
         <v>0</v>
       </c>
       <c r="S23" s="5">
         <f>SUM(Q23:R23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2289,18 +2303,18 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="50">
         <v>43146</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="50">
         <v>43166</v>
       </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="53">
+      <c r="F24" s="50"/>
+      <c r="G24" s="51">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="H24" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="51" t="s">
         <v>19</v>
       </c>
       <c r="I24" s="5"/>
@@ -2314,19 +2328,19 @@
         <v>23</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="75">
-        <f>COUNTIFS(B:B, "M",C:C, Q22,L:L, "&lt;&gt;")</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="75">
-        <f>COUNTIFS(B:B, "M",C:C,R22,L:L, "&lt;&gt;")</f>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="Q24" s="5">
+        <f>SUM(Q22:Q23)</f>
+        <v>3</v>
+      </c>
+      <c r="R24" s="5">
+        <f>SUM(R22:R23)</f>
+        <v>1</v>
       </c>
       <c r="S24" s="5">
-        <f>SUM(Q24:R24)</f>
-        <v>0</v>
+        <f>SUM(S22:S23)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2340,16 +2354,16 @@
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D25" s="62">
+      <c r="D25" s="60">
         <v>43147</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>32</v>
       </c>
       <c r="F25" s="28"/>
-      <c r="G25" s="63">
+      <c r="G25" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H25" s="28" t="s">
         <v>39</v>
@@ -2362,21 +2376,6 @@
       <c r="N25" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="5">
-        <f>SUM(Q23:Q24)</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="5">
-        <f>SUM(R23:R24)</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="5">
-        <f>SUM(S23:S24)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="39">
@@ -2389,16 +2388,16 @@
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D26" s="68">
+      <c r="D26" s="66">
         <v>43150</v>
       </c>
       <c r="E26" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="68">
+      <c r="F26" s="66">
         <v>43186</v>
       </c>
-      <c r="G26" s="69">
+      <c r="G26" s="67">
         <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
@@ -2413,6 +2412,18 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
+      <c r="P26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="26">
@@ -2425,16 +2436,16 @@
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="48">
         <v>43150</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>32</v>
       </c>
       <c r="F27" s="26"/>
-      <c r="G27" s="51">
+      <c r="G27" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" s="26" t="s">
         <v>39</v>
@@ -2448,42 +2459,45 @@
         <v>28</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="Q27" s="73">
+        <f>COUNTIFS(B:B, "F",C:C, Q26,K:K, "&lt;&gt;")</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <f>COUNTIFS(B:B, "F",C:C,R26,K:K, "&lt;&gt;")</f>
+        <v>1</v>
+      </c>
+      <c r="S27" s="5">
+        <f>SUM(Q27:R27)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="47">
+      <c r="A28" s="45">
         <v>105</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="58">
+      <c r="D28" s="56">
         <v>43150</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E28" s="56">
         <v>43180</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="56">
         <v>43180</v>
       </c>
-      <c r="G28" s="57">
+      <c r="G28" s="55">
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
-      <c r="H28" s="47" t="s">
+      <c r="H28" s="45" t="s">
         <v>25</v>
       </c>
       <c r="I28" s="12"/>
@@ -2497,45 +2511,45 @@
         <v>47</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="3">
-        <f>COUNTIFS(B:B, "F",C:C, Q27,M:M, "&lt;&gt;")</f>
-        <v>2</v>
-      </c>
-      <c r="R28" s="3">
-        <f>COUNTIFS(B:B, "F",C:C,R27,M:M, "&lt;&gt;")</f>
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="Q28" s="73">
+        <f>COUNTIFS(B:B, "M",C:C, Q26,K:K, "&lt;&gt;")</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="73">
+        <f>COUNTIFS(B:B, "M",C:C,R26,K:K, "&lt;&gt;")</f>
+        <v>0</v>
       </c>
       <c r="S28" s="5">
         <f>SUM(Q28:R28)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="47">
+      <c r="A29" s="45">
         <v>106</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="58">
+      <c r="D29" s="56">
         <v>43150</v>
       </c>
-      <c r="E29" s="58">
+      <c r="E29" s="56">
         <v>43180</v>
       </c>
-      <c r="F29" s="58">
+      <c r="F29" s="56">
         <v>43180</v>
       </c>
-      <c r="G29" s="57">
+      <c r="G29" s="55">
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
-      <c r="H29" s="47" t="s">
+      <c r="H29" s="45" t="s">
         <v>25</v>
       </c>
       <c r="I29" s="12"/>
@@ -2549,45 +2563,45 @@
         <v>47</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="3">
-        <f>COUNTIFS(B:B, "M",C:C, Q27,M:M, "&lt;&gt;")</f>
-        <v>2</v>
-      </c>
-      <c r="R29" s="75">
-        <f>COUNTIFS(B:B, "M",C:C,R27,M:M, "&lt;&gt;")</f>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="Q29" s="5">
+        <f>SUM(Q27:Q28)</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="5">
+        <f>SUM(R27:R28)</f>
+        <v>1</v>
       </c>
       <c r="S29" s="5">
-        <f>SUM(Q29:R29)</f>
-        <v>2</v>
+        <f>SUM(S27:S28)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="47">
+      <c r="A30" s="45">
         <v>107</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="58">
+      <c r="D30" s="56">
         <v>43150</v>
       </c>
-      <c r="E30" s="58">
+      <c r="E30" s="56">
         <v>43180</v>
       </c>
-      <c r="F30" s="58">
+      <c r="F30" s="56">
         <v>43180</v>
       </c>
-      <c r="G30" s="57">
+      <c r="G30" s="55">
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
-      <c r="H30" s="47" t="s">
+      <c r="H30" s="45" t="s">
         <v>25</v>
       </c>
       <c r="I30" s="12"/>
@@ -2600,21 +2614,6 @@
       <c r="N30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="P30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q30" s="5">
-        <f>SUM(Q28:Q29)</f>
-        <v>4</v>
-      </c>
-      <c r="R30" s="5">
-        <f>SUM(R28:R29)</f>
-        <v>2</v>
-      </c>
-      <c r="S30" s="5">
-        <f>SUM(S28:S29)</f>
-        <v>6</v>
-      </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="23">
@@ -2627,13 +2626,13 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D31" s="59">
+      <c r="D31" s="57">
         <v>43165</v>
       </c>
-      <c r="E31" s="59">
+      <c r="E31" s="57">
         <v>43166</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F31" s="57">
         <v>43165</v>
       </c>
       <c r="G31" s="23" t="s">
@@ -2650,6 +2649,18 @@
       <c r="N31" s="25" t="s">
         <v>29</v>
       </c>
+      <c r="P31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="34">
@@ -2662,13 +2673,13 @@
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D32" s="60">
+      <c r="D32" s="58">
         <v>43165</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="58">
         <v>43166</v>
       </c>
-      <c r="F32" s="60">
+      <c r="F32" s="58">
         <v>43165</v>
       </c>
       <c r="G32" s="34" t="s">
@@ -2685,19 +2696,23 @@
       <c r="N32" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="P32" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q32" s="3">
-        <f>COUNTIFS(N:N, P32,C:C, Q2,N:N, P32)</f>
-        <v>2</v>
-      </c>
-      <c r="R32" s="3">
-        <f>COUNTIFS(N:N, P32,C:C, R2,N:N, P32)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="P32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="73">
+        <f>COUNTIFS(B:B, "F",C:C, Q31,L:L, "&lt;&gt;")</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="73">
+        <f>COUNTIFS(B:B, "F",C:C,R31,L:L, "&lt;&gt;")</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="5">
+        <f>SUM(Q32:R32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="34">
         <v>203</v>
       </c>
@@ -2708,13 +2723,13 @@
         <f t="shared" ref="C33:C34" si="2">$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D33" s="60">
+      <c r="D33" s="58">
         <v>43165</v>
       </c>
-      <c r="E33" s="60">
+      <c r="E33" s="58">
         <v>43166</v>
       </c>
-      <c r="F33" s="60">
+      <c r="F33" s="58">
         <v>43165</v>
       </c>
       <c r="G33" s="34" t="s">
@@ -2731,8 +2746,23 @@
       <c r="N33" s="38" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="P33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q33" s="73">
+        <f>COUNTIFS(B:B, "M",C:C, Q31,L:L, "&lt;&gt;")</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="73">
+        <f>COUNTIFS(B:B, "M",C:C,R31,L:L, "&lt;&gt;")</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="5">
+        <f>SUM(Q33:R33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="34">
         <v>204</v>
       </c>
@@ -2743,13 +2773,13 @@
         <f t="shared" si="2"/>
         <v>Het</v>
       </c>
-      <c r="D34" s="60">
+      <c r="D34" s="58">
         <v>43165</v>
       </c>
-      <c r="E34" s="60">
+      <c r="E34" s="58">
         <v>43166</v>
       </c>
-      <c r="F34" s="60">
+      <c r="F34" s="58">
         <v>43165</v>
       </c>
       <c r="G34" s="34" t="s">
@@ -2766,15 +2796,23 @@
       <c r="N34" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="P34" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q34" s="14">
-        <f ca="1">IF(G:G="E", "", AVERAGEIF(F:F, "&lt;&gt;",G:G))</f>
-        <v>32.133333333333333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="P34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="5">
+        <f>SUM(Q32:Q33)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="5">
+        <f>SUM(R32:R33)</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="5">
+        <f>SUM(S32:S33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="19">
         <v>205</v>
       </c>
@@ -2785,13 +2823,13 @@
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D35" s="61">
+      <c r="D35" s="59">
         <v>43165</v>
       </c>
-      <c r="E35" s="61">
+      <c r="E35" s="59">
         <v>43166</v>
       </c>
-      <c r="F35" s="61">
+      <c r="F35" s="59">
         <v>43165</v>
       </c>
       <c r="G35" s="19" t="s">
@@ -2809,7 +2847,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:19">
       <c r="A36" s="34">
         <v>206</v>
       </c>
@@ -2820,13 +2858,13 @@
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D36" s="60">
+      <c r="D36" s="58">
         <v>43165</v>
       </c>
-      <c r="E36" s="60">
+      <c r="E36" s="58">
         <v>43166</v>
       </c>
-      <c r="F36" s="60">
+      <c r="F36" s="58">
         <v>43165</v>
       </c>
       <c r="G36" s="34" t="s">
@@ -2844,14 +2882,19 @@
         <v>29</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q36" s="10">
-        <f>COUNTIF(A:A, "&lt;&gt;")-1</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>23</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S36" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="23">
         <v>207</v>
       </c>
@@ -2862,13 +2905,13 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D37" s="59">
+      <c r="D37" s="57">
         <v>43165</v>
       </c>
-      <c r="E37" s="59">
+      <c r="E37" s="57">
         <v>43166</v>
       </c>
-      <c r="F37" s="59">
+      <c r="F37" s="57">
         <v>43165</v>
       </c>
       <c r="G37" s="23" t="s">
@@ -2885,8 +2928,23 @@
       <c r="N37" s="25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="P37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="3">
+        <f>COUNTIFS(B:B, "F",C:C, Q36,M:M, "&lt;&gt;")</f>
+        <v>2</v>
+      </c>
+      <c r="R37" s="3">
+        <f>COUNTIFS(B:B, "F",C:C,R36,M:M, "&lt;&gt;")</f>
+        <v>2</v>
+      </c>
+      <c r="S37" s="5">
+        <f>SUM(Q37:R37)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="39">
         <v>4</v>
       </c>
@@ -2897,16 +2955,16 @@
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D38" s="68">
+      <c r="D38" s="66">
         <v>43168</v>
       </c>
       <c r="E38" s="39" t="s">
         <v>32</v>
       </c>
       <c r="F38" s="39"/>
-      <c r="G38" s="67">
+      <c r="G38" s="65">
         <f ca="1">IF(F38, F38-D38, TODAY()-D38)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H38" s="39" t="s">
         <v>39</v>
@@ -2917,11 +2975,23 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="P38" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="P38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q38" s="3">
+        <f>COUNTIFS(B:B, "M",C:C, Q36,M:M, "&lt;&gt;")</f>
+        <v>2</v>
+      </c>
+      <c r="R38" s="73">
+        <f>COUNTIFS(B:B, "M",C:C,R36,M:M, "&lt;&gt;")</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="5">
+        <f>SUM(Q38:R38)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="28">
         <v>5</v>
       </c>
@@ -2932,16 +3002,16 @@
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D39" s="62">
+      <c r="D39" s="60">
         <v>43168</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>32</v>
       </c>
       <c r="F39" s="28"/>
-      <c r="G39" s="70">
+      <c r="G39" s="68">
         <f ca="1">IF(F39, F39-D39, TODAY()-D39)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H39" s="28" t="s">
         <v>39</v>
@@ -2954,46 +3024,34 @@
       <c r="N39" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P39" s="40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="P40" s="42" t="s">
+      <c r="P39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q39" s="5">
+        <f>SUM(Q37:Q38)</f>
+        <v>4</v>
+      </c>
+      <c r="R39" s="5">
+        <f>SUM(R37:R38)</f>
+        <v>2</v>
+      </c>
+      <c r="S39" s="5">
+        <f>SUM(S37:S38)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="P41" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="P41" s="46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="P43" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="P44" s="43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="P45" s="44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="Q47" s="45"/>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="Q48" s="41"/>
-    </row>
-    <row r="49" spans="17:17">
-      <c r="Q49" s="41"/>
-    </row>
-    <row r="50" spans="17:17">
-      <c r="Q50" s="45"/>
+      <c r="Q41" s="3">
+        <f>COUNTIFS(N:N, P41,C:C, Q2,N:N, P41)</f>
+        <v>2</v>
+      </c>
+      <c r="R41" s="3">
+        <f>COUNTIFS(N:N, P41,C:C, R2,N:N, P41)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:N39">
@@ -3001,7 +3059,7 @@
     <sortCondition ref="A2:A39"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="P44:P45 Q48:Q49 G28:N30 A28:D30 A1:N27 A31:N1048576">
+  <conditionalFormatting sqref="O14:O15 G28:N30 A28:D30 A1:N27 A31:N1048576">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$C$2="Mut"</formula>
     </cfRule>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="50">
   <si>
     <t>F</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Mutation</t>
   </si>
   <si>
-    <t>Comportement</t>
-  </si>
-  <si>
     <t>Sauvage</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
   </si>
   <si>
     <t>P5</t>
-  </si>
-  <si>
-    <t>Prévu</t>
   </si>
   <si>
     <t>Mutant (Mut)</t>
@@ -305,7 +299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,7 +393,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="97">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -491,8 +491,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -640,9 +644,6 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -676,9 +677,6 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -697,8 +695,63 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="97">
+  <cellStyles count="101">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -747,6 +800,8 @@
     <cellStyle name="Lien hypertexte" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -795,6 +850,8 @@
     <cellStyle name="Lien hypertexte visité" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1146,24 +1203,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="7" max="8" width="10.83203125" style="13"/>
+    <col min="5" max="5" width="10.83203125" style="13"/>
+    <col min="8" max="8" width="10.83203125" style="13"/>
     <col min="10" max="10" width="17.1640625" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
-    <col min="14" max="14" width="36.5" style="11" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" customWidth="1"/>
-    <col min="16" max="16" width="21.1640625" customWidth="1"/>
+    <col min="13" max="13" width="36.5" style="11" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="32" customFormat="1" ht="18">
+    <row r="1" spans="1:21" s="32" customFormat="1" ht="18">
       <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
@@ -1176,17 +1233,17 @@
       <c r="D1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>18</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>4</v>
@@ -1198,19 +1255,16 @@
         <v>9</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="29"/>
       <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-    </row>
-    <row r="2" spans="1:22">
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="26">
         <v>415</v>
       </c>
@@ -1218,53 +1272,52 @@
         <v>0</v>
       </c>
       <c r="C2" s="26" t="str">
-        <f>$T$2</f>
+        <f>$S$2</f>
         <v>Het</v>
       </c>
       <c r="D2" s="48">
         <v>42907</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="48">
         <v>43123</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49">
-        <f t="shared" ref="G2:G30" ca="1" si="0">IF(F2, F2-D2, TODAY()-D2)</f>
-        <v>289</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>19</v>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49">
+        <f ca="1">IF(G2, G2-D2, TODAY()-D2)</f>
+        <v>292</v>
       </c>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="M2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="P2" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="Q2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="R2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="46" t="s">
+      <c r="S2" s="46" t="s">
         <v>14</v>
       </c>
+      <c r="T2" s="18"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-    </row>
-    <row r="3" spans="1:22">
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="28">
         <v>417</v>
       </c>
@@ -1272,57 +1325,56 @@
         <v>1</v>
       </c>
       <c r="C3" s="26" t="str">
-        <f t="shared" ref="C3:C5" si="1">$T$2</f>
+        <f>$S$2</f>
         <v>Het</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="59">
         <v>42962</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="59">
         <v>43123</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61">
-        <f t="shared" ca="1" si="0"/>
-        <v>234</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>19</v>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60">
+        <f ca="1">IF(G3, G3-D3, TODAY()-D3)</f>
+        <v>237</v>
       </c>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="5" t="s">
+      <c r="M3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="P3" s="3">
+        <f>COUNTIFS(B:B, "F",C:C, P2)</f>
+        <v>4</v>
+      </c>
       <c r="Q3" s="3">
-        <f>COUNTIFS(B:B, "F",C:C, Q2)</f>
-        <v>4</v>
-      </c>
-      <c r="R3" s="3">
-        <f>COUNTIFS(B:B, "F",C:C,R2)</f>
+        <f>COUNTIFS(B:B, "F",C:C,Q2)</f>
         <v>5</v>
       </c>
-      <c r="S3" s="5">
-        <f>SUM(Q3:R3)</f>
+      <c r="R3" s="5">
+        <f>SUM(P3:Q3)</f>
         <v>9</v>
       </c>
-      <c r="T3" s="27">
-        <f>COUNTIFS(B:B, "F",C:C,T2)</f>
+      <c r="S3" s="27">
+        <f>COUNTIFS(B:B, "F",C:C,S2)</f>
         <v>5</v>
       </c>
+      <c r="T3" s="18"/>
       <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-    </row>
-    <row r="4" spans="1:22">
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="26">
         <v>422</v>
       </c>
@@ -1330,57 +1382,56 @@
         <v>0</v>
       </c>
       <c r="C4" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f>$S$2</f>
         <v>Het</v>
       </c>
       <c r="D4" s="48">
         <v>42962</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="48">
         <v>43123</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49">
-        <f t="shared" ca="1" si="0"/>
-        <v>234</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>19</v>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49">
+        <f ca="1">IF(G4, G4-D4, TODAY()-D4)</f>
+        <v>237</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="5" t="s">
+      <c r="M4" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="P4" s="3">
+        <f>COUNTIFS(B:B, "M",C:C, P2)</f>
+        <v>4</v>
+      </c>
       <c r="Q4" s="3">
-        <f>COUNTIFS(B:B, "M",C:C, Q2)</f>
+        <f>COUNTIFS(B:B, "M",C:C,Q2)</f>
+        <v>2</v>
+      </c>
+      <c r="R4" s="5">
+        <f>SUM(P4:Q4)</f>
+        <v>6</v>
+      </c>
+      <c r="S4" s="27">
+        <f>COUNTIFS(B:B, "M",C:C, S2)</f>
         <v>4</v>
       </c>
-      <c r="R4" s="3">
-        <f>COUNTIFS(B:B, "M",C:C,R2)</f>
-        <v>2</v>
-      </c>
-      <c r="S4" s="5">
-        <f>SUM(Q4:R4)</f>
-        <v>6</v>
-      </c>
-      <c r="T4" s="27">
-        <f>COUNTIFS(B:B, "M",C:C, T2)</f>
-        <v>4</v>
-      </c>
+      <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-    </row>
-    <row r="5" spans="1:22">
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="28">
         <v>425</v>
       </c>
@@ -1388,57 +1439,56 @@
         <v>1</v>
       </c>
       <c r="C5" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f>$S$2</f>
         <v>Het</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="59">
         <v>42964</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="59">
         <v>43123</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61">
-        <f t="shared" ca="1" si="0"/>
-        <v>232</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>19</v>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60">
+        <f ca="1">IF(G5, G5-D5, TODAY()-D5)</f>
+        <v>235</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="5" t="s">
+      <c r="M5" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="P5" s="5">
+        <f>SUM(P3:P4)</f>
+        <v>8</v>
       </c>
       <c r="Q5" s="5">
         <f>SUM(Q3:Q4)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R5" s="5">
         <f>SUM(R3:R4)</f>
-        <v>7</v>
-      </c>
-      <c r="S5" s="5">
+        <v>15</v>
+      </c>
+      <c r="S5" s="47">
         <f>SUM(S3:S4)</f>
-        <v>15</v>
-      </c>
-      <c r="T5" s="47">
-        <f>SUM(T3:T4)</f>
         <v>9</v>
       </c>
+      <c r="T5" s="18"/>
       <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-    </row>
-    <row r="6" spans="1:22">
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="4">
         <v>435</v>
       </c>
@@ -1446,40 +1496,39 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>$Q$2</f>
+        <f>$P$2</f>
         <v>Mut</v>
       </c>
       <c r="D6" s="50">
         <v>43097</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="50">
         <v>43123</v>
       </c>
-      <c r="F6" s="50">
+      <c r="G6" s="74">
         <v>43124</v>
       </c>
-      <c r="G6" s="51">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H6" s="75">
+        <f ca="1">IF(G6, G6-D6, TODAY()-D6)</f>
         <v>27</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>19</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="9">
         <v>437</v>
       </c>
@@ -1487,50 +1536,49 @@
         <v>0</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>$R$2</f>
+        <f>$Q$2</f>
         <v>WT</v>
       </c>
       <c r="D7" s="52">
         <v>43097</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="52">
         <v>43123</v>
       </c>
-      <c r="F7" s="52">
+      <c r="G7" s="76">
         <v>43124</v>
       </c>
-      <c r="G7" s="53">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H7" s="77">
+        <f ca="1">IF(G7, G7-D7, TODAY()-D7)</f>
         <v>27</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>19</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="6"/>
-      <c r="P7" s="5" t="s">
-        <v>51</v>
+      <c r="M7" s="6"/>
+      <c r="O7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="R7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="46"/>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="S7" s="46"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="7">
         <v>439</v>
       </c>
@@ -1538,56 +1586,55 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="str">
-        <f>$Q$2</f>
+        <f>$P$2</f>
         <v>Mut</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="63">
         <v>43111</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="63">
         <v>43145</v>
       </c>
-      <c r="F8" s="64">
+      <c r="G8" s="74">
         <v>43146</v>
       </c>
-      <c r="G8" s="65">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H8" s="75">
+        <f ca="1">IF(G8, G8-D8, TODAY()-D8)</f>
         <v>35</v>
-      </c>
-      <c r="H8" s="65" t="s">
-        <v>19</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="22" t="s">
+      <c r="M8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="5" t="s">
+      <c r="N8" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="P8" s="3">
+        <f>COUNTIFS(B:B, "F",C:C, P7,G:G,"")</f>
+        <v>2</v>
+      </c>
       <c r="Q8" s="3">
-        <f>COUNTIFS(B:B, "F",C:C, Q7,F:F,"&lt;&gt;")</f>
+        <f>COUNTIFS(B:B, "F",C:C,Q7,G:G, "")</f>
         <v>2</v>
       </c>
-      <c r="R8" s="3">
-        <f>COUNTIFS(B:B, "F",C:C,R7,F:F,"&lt;&gt;")</f>
-        <v>3</v>
-      </c>
-      <c r="S8" s="5">
-        <f>SUM(Q8:R8)</f>
-        <v>5</v>
-      </c>
-      <c r="T8" s="27"/>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="R8" s="5">
+        <f>SUM(P8:Q8)</f>
+        <v>4</v>
+      </c>
+      <c r="S8" s="27"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="9">
         <v>440</v>
       </c>
@@ -1595,24 +1642,24 @@
         <v>0</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>$R$2</f>
+        <f>$Q$2</f>
         <v>WT</v>
       </c>
       <c r="D9" s="52">
         <v>43111</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="52">
         <v>43145</v>
       </c>
-      <c r="F9" s="52">
+      <c r="G9" s="76">
         <v>43147</v>
       </c>
-      <c r="G9" s="53">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H9" s="77">
+        <f ca="1">IF(G9, G9-D9, TODAY()-D9)</f>
         <v>36</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>19</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -1620,84 +1667,82 @@
         <v>7</v>
       </c>
       <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" s="5" t="s">
+      <c r="M9" s="6"/>
+      <c r="N9" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="P9" s="3">
+        <f>COUNTIFS(B:B, "M",C:C, P7,G:G,"")</f>
+        <v>2</v>
+      </c>
       <c r="Q9" s="3">
-        <f>COUNTIFS(B:B, "M",C:C, Q7,F:F,"&lt;&gt;")</f>
-        <v>2</v>
-      </c>
-      <c r="R9" s="3">
-        <f>COUNTIFS(B:B, "M",C:C,R7,F:F,"&lt;&gt;")</f>
+        <f>COUNTIFS(B:B, "M",C:C,Q7,G:G,"")</f>
         <v>1</v>
       </c>
-      <c r="S9" s="5">
-        <f>SUM(Q9:R9)</f>
+      <c r="R9" s="5">
+        <f>SUM(P9:Q9)</f>
         <v>3</v>
       </c>
-      <c r="T9" s="27"/>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="69">
+      <c r="S9" s="27"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="67">
         <v>441</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="67" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>$R$2</f>
+        <f>$Q$2</f>
         <v>WT</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="68">
         <v>43111</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="68">
         <v>43145</v>
       </c>
-      <c r="F10" s="70">
+      <c r="G10" s="78">
         <v>43146</v>
       </c>
-      <c r="G10" s="71">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H10" s="79">
+        <f ca="1">IF(G10, G10-D10, TODAY()-D10)</f>
         <v>35</v>
       </c>
-      <c r="H10" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" s="5" t="s">
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="P10" s="5">
+        <f>SUM(P8:P9)</f>
+        <v>4</v>
       </c>
       <c r="Q10" s="5">
         <f>SUM(Q8:Q9)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10" s="5">
         <f>SUM(R8:R9)</f>
-        <v>4</v>
-      </c>
-      <c r="S10" s="5">
-        <f>SUM(S8:S9)</f>
-        <v>8</v>
-      </c>
-      <c r="T10" s="47"/>
-    </row>
-    <row r="11" spans="1:22">
+        <v>7</v>
+      </c>
+      <c r="S10" s="47"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="2">
         <v>442</v>
       </c>
@@ -1705,24 +1750,24 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="str">
-        <f>$Q$2</f>
+        <f>$P$2</f>
         <v>Mut</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="61">
         <v>43118</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="61">
         <v>43145</v>
       </c>
-      <c r="F11" s="62">
+      <c r="G11" s="80">
         <v>43146</v>
       </c>
-      <c r="G11" s="63">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H11" s="81">
+        <f ca="1">IF(G11, G11-D11, TODAY()-D11)</f>
         <v>28</v>
-      </c>
-      <c r="H11" s="63" t="s">
-        <v>19</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>7</v>
@@ -1731,12 +1776,11 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="N11" s="44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="4">
         <v>443</v>
       </c>
@@ -1744,44 +1788,43 @@
         <v>0</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f>$Q$2</f>
+        <f>$P$2</f>
         <v>Mut</v>
       </c>
       <c r="D12" s="50">
         <v>43118</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="50">
         <v>43145</v>
       </c>
-      <c r="F12" s="50">
+      <c r="G12" s="74">
         <v>43146</v>
       </c>
-      <c r="G12" s="51">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H12" s="75">
+        <f ca="1">IF(G12, G12-D12, TODAY()-D12)</f>
         <v>28</v>
-      </c>
-      <c r="H12" s="51" t="s">
-        <v>19</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="14">
-        <f ca="1">IF(G:G="E", "", AVERAGEIF(F:F, "&lt;&gt;",G:G))</f>
+      <c r="O12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="14">
+        <f ca="1">IF(H:H="E", "", AVERAGEIF(G:G, "&lt;&gt;",H:H))</f>
         <v>32.133333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:21">
       <c r="A13" s="44">
         <v>101</v>
       </c>
@@ -1789,39 +1832,38 @@
         <v>0</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="54">
         <v>43130</v>
       </c>
-      <c r="E13" s="54">
-        <v>43165</v>
+      <c r="E13" s="45" t="s">
+        <v>24</v>
       </c>
       <c r="F13" s="54">
         <v>43165</v>
       </c>
-      <c r="G13" s="55">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G13" s="76">
+        <v>43165</v>
+      </c>
+      <c r="H13" s="77">
+        <f ca="1">IF(G13, G13-D13, TODAY()-D13)</f>
         <v>35</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>25</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="44">
         <v>102</v>
       </c>
@@ -1829,46 +1871,45 @@
         <v>0</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="54">
         <v>43130</v>
       </c>
-      <c r="E14" s="54">
-        <v>43165</v>
+      <c r="E14" s="45" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="54">
         <v>43165</v>
       </c>
-      <c r="G14" s="55">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G14" s="76">
+        <v>43165</v>
+      </c>
+      <c r="H14" s="77">
+        <f ca="1">IF(G14, G14-D14, TODAY()-D14)</f>
         <v>35</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>25</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="10">
+        <v>33</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="10">
         <f>COUNTIF(A:A, "&lt;&gt;")-1</f>
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:21">
       <c r="A15" s="44">
         <v>103</v>
       </c>
@@ -1876,39 +1917,38 @@
         <v>0</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="54">
         <v>43130</v>
       </c>
-      <c r="E15" s="54">
-        <v>43165</v>
+      <c r="E15" s="45" t="s">
+        <v>24</v>
       </c>
       <c r="F15" s="54">
         <v>43165</v>
       </c>
-      <c r="G15" s="55">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G15" s="76">
+        <v>43165</v>
+      </c>
+      <c r="H15" s="77">
+        <f ca="1">IF(G15, G15-D15, TODAY()-D15)</f>
         <v>35</v>
-      </c>
-      <c r="H15" s="45" t="s">
-        <v>25</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" s="43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="44">
         <v>104</v>
       </c>
@@ -1916,48 +1956,47 @@
         <v>0</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="54">
         <v>43130</v>
       </c>
-      <c r="E16" s="54">
-        <v>43165</v>
+      <c r="E16" s="45" t="s">
+        <v>24</v>
       </c>
       <c r="F16" s="54">
         <v>43165</v>
       </c>
-      <c r="G16" s="55">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G16" s="76">
+        <v>43165</v>
+      </c>
+      <c r="H16" s="77">
+        <f ca="1">IF(G16, G16-D16, TODAY()-D16)</f>
         <v>35</v>
-      </c>
-      <c r="H16" s="45" t="s">
-        <v>25</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="P16" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="Q16" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="S16" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:18">
       <c r="A17" s="7">
         <v>444</v>
       </c>
@@ -1965,50 +2004,45 @@
         <v>1</v>
       </c>
       <c r="C17" s="7" t="str">
-        <f>$Q$2</f>
+        <f>$P$2</f>
         <v>Mut</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="63">
         <v>43132</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="63">
         <v>43166</v>
       </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="H17" s="65" t="s">
-        <v>19</v>
+      <c r="G17" s="63"/>
+      <c r="H17" s="64">
+        <f ca="1">IF(G17, G17-D17, TODAY()-D17)</f>
+        <v>67</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P17" s="5" t="s">
+      <c r="M17" s="5"/>
+      <c r="O17" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="P17" s="3">
+        <f>COUNTIFS(B:B, "F",C:C, P16,I:I, "&lt;&gt;")</f>
+        <v>1</v>
+      </c>
       <c r="Q17" s="3">
-        <f>COUNTIFS(B:B, "F",C:C, Q16,I:I, "&lt;&gt;")</f>
+        <f>COUNTIFS(B:B, "F",C:C,Q16,I:I, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="R17" s="3">
-        <f>COUNTIFS(B:B, "F",C:C,R16,I:I, "&lt;&gt;")</f>
-        <v>1</v>
-      </c>
-      <c r="S17" s="5">
-        <f>SUM(Q17:R17)</f>
+      <c r="R17" s="5">
+        <f>SUM(P17:Q17)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:18">
       <c r="A18" s="7">
         <v>445</v>
       </c>
@@ -2016,50 +2050,45 @@
         <v>1</v>
       </c>
       <c r="C18" s="7" t="str">
-        <f>$Q$2</f>
+        <f>$P$2</f>
         <v>Mut</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="63">
         <v>43132</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="63">
         <v>43166</v>
       </c>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="H18" s="65" t="s">
-        <v>19</v>
+      <c r="G18" s="72"/>
+      <c r="H18" s="64">
+        <f ca="1">IF(G18, G18-D18, TODAY()-D18)</f>
+        <v>67</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P18" s="5" t="s">
+      <c r="L18" s="8"/>
+      <c r="M18" s="5"/>
+      <c r="O18" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="P18" s="3">
+        <f>COUNTIFS(B:B, "M",C:C, P16,I:I, "&lt;&gt;")</f>
+        <v>1</v>
+      </c>
       <c r="Q18" s="3">
-        <f>COUNTIFS(B:B, "M",C:C, Q16,I:I, "&lt;&gt;")</f>
+        <f>COUNTIFS(B:B, "M",C:C,Q16,I:I, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="R18" s="3">
-        <f>COUNTIFS(B:B, "M",C:C,R16,I:I, "&lt;&gt;")</f>
-        <v>1</v>
-      </c>
-      <c r="S18" s="5">
-        <f>SUM(Q18:R18)</f>
+      <c r="R18" s="5">
+        <f>SUM(P18:Q18)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:18">
       <c r="A19" s="4">
         <v>448</v>
       </c>
@@ -2067,35 +2096,34 @@
         <v>0</v>
       </c>
       <c r="C19" s="4" t="str">
-        <f>$Q$2</f>
+        <f>$P$2</f>
         <v>Mut</v>
       </c>
       <c r="D19" s="50">
         <v>43132</v>
       </c>
-      <c r="E19" s="50">
+      <c r="E19" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="50">
         <v>43166</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="H19" s="51" t="s">
-        <v>19</v>
+      <c r="G19" s="72"/>
+      <c r="H19" s="51">
+        <f ca="1">IF(G19, G19-D19, TODAY()-D19)</f>
+        <v>67</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19" s="5" t="s">
+      <c r="L19" s="8"/>
+      <c r="M19" s="5"/>
+      <c r="O19" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="P19" s="5">
+        <f>SUM(P17:P18)</f>
+        <v>2</v>
       </c>
       <c r="Q19" s="5">
         <f>SUM(Q17:Q18)</f>
@@ -2103,14 +2131,10 @@
       </c>
       <c r="R19" s="5">
         <f>SUM(R17:R18)</f>
-        <v>2</v>
-      </c>
-      <c r="S19" s="5">
-        <f>SUM(S17:S18)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:18">
       <c r="A20" s="26">
         <v>449</v>
       </c>
@@ -2118,33 +2142,32 @@
         <v>0</v>
       </c>
       <c r="C20" s="26" t="str">
-        <f>$T$2</f>
+        <f>$S$2</f>
         <v>Het</v>
       </c>
       <c r="D20" s="48">
         <v>43132</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="48">
         <v>43166</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>19</v>
+      <c r="G20" s="48"/>
+      <c r="H20" s="49">
+        <f ca="1">IF(G20, G20-D20, TODAY()-D20)</f>
+        <v>67</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="L20" s="43"/>
+      <c r="M20" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="9">
         <v>450</v>
       </c>
@@ -2152,47 +2175,42 @@
         <v>0</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>$R$2</f>
+        <f>$Q$2</f>
         <v>WT</v>
       </c>
       <c r="D21" s="52">
         <v>43132</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="52">
         <v>43166</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="H21" s="53" t="s">
-        <v>19</v>
+      <c r="G21" s="73"/>
+      <c r="H21" s="53">
+        <f ca="1">IF(G21, G21-D21, TODAY()-D21)</f>
+        <v>67</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="5" t="s">
+      <c r="L21" s="42"/>
+      <c r="M21" s="10"/>
+      <c r="O21" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="P21" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="Q21" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:18">
       <c r="A22" s="26">
         <v>451</v>
       </c>
@@ -2200,48 +2218,47 @@
         <v>0</v>
       </c>
       <c r="C22" s="26" t="str">
-        <f>$T$2</f>
+        <f>$S$2</f>
         <v>Het</v>
       </c>
       <c r="D22" s="48">
         <v>43132</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="48">
         <v>43166</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="H22" s="49" t="s">
-        <v>19</v>
+      <c r="G22" s="48"/>
+      <c r="H22" s="49">
+        <f ca="1">IF(G22, G22-D22, TODAY()-D22)</f>
+        <v>67</v>
       </c>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="P22" s="5" t="s">
+      <c r="L22" s="43"/>
+      <c r="M22" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="P22" s="3">
+        <f>COUNTIFS(B:B, "F",C:C, P16,J:J, "&lt;&gt;")</f>
+        <v>2</v>
+      </c>
       <c r="Q22" s="3">
-        <f>COUNTIFS(B:B, "F",C:C, Q16,J:J, "&lt;&gt;")</f>
-        <v>2</v>
-      </c>
-      <c r="R22" s="3">
-        <f>COUNTIFS(B:B, "F",C:C,R21,J:J, "&lt;&gt;")</f>
+        <f>COUNTIFS(B:B, "F",C:C,Q21,J:J, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="S22" s="5">
-        <f>SUM(Q22:R22)</f>
+      <c r="R22" s="5">
+        <f>SUM(P22:Q22)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:18">
       <c r="A23" s="9">
         <v>455</v>
       </c>
@@ -2249,50 +2266,45 @@
         <v>0</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>$R$2</f>
+        <f>$Q$2</f>
         <v>WT</v>
       </c>
       <c r="D23" s="52">
         <v>43146</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="52">
         <v>43166</v>
       </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H23" s="53" t="s">
-        <v>19</v>
+      <c r="G23" s="73"/>
+      <c r="H23" s="53">
+        <f ca="1">IF(G23, G23-D23, TODAY()-D23)</f>
+        <v>53</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="P23" s="5" t="s">
+      <c r="L23" s="42"/>
+      <c r="M23" s="10"/>
+      <c r="O23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q23" s="3">
-        <f>COUNTIFS(B:B, "M",C:C, Q16,J:J, "&lt;&gt;")</f>
+      <c r="P23" s="3">
+        <f>COUNTIFS(B:B, "M",C:C, P16,J:J, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="R23" s="73">
-        <f>COUNTIFS(B:B, "M",C:C,R21,J:J, "&lt;&gt;")</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="5">
-        <f>SUM(Q23:R23)</f>
+      <c r="Q23" s="71">
+        <f>COUNTIFS(B:B, "M",C:C,Q21,J:J, "&lt;&gt;")</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="5">
+        <f>SUM(P23:Q23)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:18">
       <c r="A24" s="4">
         <v>457</v>
       </c>
@@ -2300,50 +2312,45 @@
         <v>0</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f>$Q$2</f>
+        <f>$P$2</f>
         <v>Mut</v>
       </c>
       <c r="D24" s="50">
         <v>43146</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="50">
         <v>43166</v>
       </c>
-      <c r="F24" s="50"/>
-      <c r="G24" s="51">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H24" s="51" t="s">
-        <v>19</v>
+      <c r="G24" s="72"/>
+      <c r="H24" s="51">
+        <f ca="1">IF(G24, G24-D24, TODAY()-D24)</f>
+        <v>53</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="5" t="s">
+      <c r="L24" s="8"/>
+      <c r="M24" s="5"/>
+      <c r="O24" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="P24" s="5">
+        <f>SUM(P22:P23)</f>
+        <v>3</v>
       </c>
       <c r="Q24" s="5">
         <f>SUM(Q22:Q23)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R24" s="5">
         <f>SUM(R22:R23)</f>
-        <v>1</v>
-      </c>
-      <c r="S24" s="5">
-        <f>SUM(S22:S23)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:18">
       <c r="A25" s="28">
         <v>1</v>
       </c>
@@ -2351,33 +2358,32 @@
         <v>1</v>
       </c>
       <c r="C25" s="28" t="str">
-        <f>$T$2</f>
+        <f>$S$2</f>
         <v>Het</v>
       </c>
-      <c r="D25" s="60">
+      <c r="D25" s="59">
         <v>43147</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="61">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="60">
+        <f ca="1">IF(G25, G25-D25, TODAY()-D25)</f>
+        <v>52</v>
       </c>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="M25" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="39">
         <v>2</v>
       </c>
@@ -2385,24 +2391,24 @@
         <v>1</v>
       </c>
       <c r="C26" s="39" t="str">
-        <f>$R$2</f>
+        <f>$Q$2</f>
         <v>WT</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="65">
         <v>43150</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="66">
+        <v>38</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="82">
         <v>43186</v>
       </c>
-      <c r="G26" s="67">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H26" s="77">
+        <f ca="1">IF(G26, G26-D26, TODAY()-D26)</f>
         <v>36</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>39</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>7</v>
@@ -2411,21 +2417,20 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="P26" s="5" t="s">
+      <c r="O26" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="P26" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="Q26" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:18">
       <c r="A27" s="26">
         <v>3</v>
       </c>
@@ -2433,48 +2438,47 @@
         <v>0</v>
       </c>
       <c r="C27" s="26" t="str">
-        <f>$T$2</f>
+        <f>$S$2</f>
         <v>Het</v>
       </c>
       <c r="D27" s="48">
         <v>43150</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="49">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="49">
+        <f ca="1">IF(G27, G27-D27, TODAY()-D27)</f>
+        <v>49</v>
       </c>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="P27" s="5" t="s">
+      <c r="M27" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q27" s="73">
-        <f>COUNTIFS(B:B, "F",C:C, Q26,K:K, "&lt;&gt;")</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <f>COUNTIFS(B:B, "F",C:C,R26,K:K, "&lt;&gt;")</f>
+      <c r="P27" s="71">
+        <f>COUNTIFS(B:B, "F",C:C, P26,K:K, "&lt;&gt;")</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <f>COUNTIFS(B:B, "F",C:C,Q26,K:K, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="S27" s="5">
-        <f>SUM(Q27:R27)</f>
+      <c r="R27" s="5">
+        <f>SUM(P27:Q27)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:18">
       <c r="A28" s="45">
         <v>105</v>
       </c>
@@ -2482,51 +2486,50 @@
         <v>1</v>
       </c>
       <c r="C28" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="55">
+        <v>43150</v>
+      </c>
+      <c r="E28" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="56">
-        <v>43150</v>
-      </c>
-      <c r="E28" s="56">
+      <c r="F28" s="55">
         <v>43180</v>
       </c>
-      <c r="F28" s="56">
+      <c r="G28" s="83">
         <v>43180</v>
       </c>
-      <c r="G28" s="55">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H28" s="77">
+        <f ca="1">IF(G28, G28-D28, TODAY()-D28)</f>
         <v>30</v>
-      </c>
-      <c r="H28" s="45" t="s">
-        <v>25</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="P28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q28" s="73">
-        <f>COUNTIFS(B:B, "M",C:C, Q26,K:K, "&lt;&gt;")</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="73">
-        <f>COUNTIFS(B:B, "M",C:C,R26,K:K, "&lt;&gt;")</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="5">
-        <f>SUM(Q28:R28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="P28" s="71">
+        <f>COUNTIFS(B:B, "M",C:C, P26,K:K, "&lt;&gt;")</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="71">
+        <f>COUNTIFS(B:B, "M",C:C,Q26,K:K, "&lt;&gt;")</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="5">
+        <f>SUM(P28:Q28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="45">
         <v>106</v>
       </c>
@@ -2534,51 +2537,50 @@
         <v>1</v>
       </c>
       <c r="C29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="55">
+        <v>43150</v>
+      </c>
+      <c r="E29" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="56">
-        <v>43150</v>
-      </c>
-      <c r="E29" s="56">
+      <c r="F29" s="55">
         <v>43180</v>
       </c>
-      <c r="F29" s="56">
+      <c r="G29" s="83">
         <v>43180</v>
       </c>
-      <c r="G29" s="55">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H29" s="77">
+        <f ca="1">IF(G29, G29-D29, TODAY()-D29)</f>
         <v>30</v>
-      </c>
-      <c r="H29" s="45" t="s">
-        <v>25</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="P29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="P29" s="5">
+        <f>SUM(P27:P28)</f>
+        <v>0</v>
       </c>
       <c r="Q29" s="5">
         <f>SUM(Q27:Q28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="5">
         <f>SUM(R27:R28)</f>
         <v>1</v>
       </c>
-      <c r="S29" s="5">
-        <f>SUM(S27:S28)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="45">
         <v>107</v>
       </c>
@@ -2586,218 +2588,217 @@
         <v>1</v>
       </c>
       <c r="C30" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="55">
+        <v>43150</v>
+      </c>
+      <c r="E30" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="56">
-        <v>43150</v>
-      </c>
-      <c r="E30" s="56">
+      <c r="F30" s="55">
         <v>43180</v>
       </c>
-      <c r="F30" s="56">
+      <c r="G30" s="83">
         <v>43180</v>
       </c>
-      <c r="G30" s="55">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H30" s="77">
+        <f ca="1">IF(G30, G30-D30, TODAY()-D30)</f>
         <v>30</v>
-      </c>
-      <c r="H30" s="45" t="s">
-        <v>25</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>33</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="23">
         <v>201</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="21" t="str">
-        <f>$Q$2</f>
+        <f>$P$2</f>
         <v>Mut</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="56">
         <v>43165</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="56">
         <v>43166</v>
       </c>
-      <c r="F31" s="57">
+      <c r="G31" s="84">
         <v>43165</v>
       </c>
-      <c r="G31" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>19</v>
+      <c r="H31" s="85" t="s">
+        <v>29</v>
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>33</v>
+      <c r="M31" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="S31" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:18">
       <c r="A32" s="34">
         <v>202</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="36" t="str">
-        <f>$T$2</f>
+        <f>$S$2</f>
         <v>Het</v>
       </c>
-      <c r="D32" s="58">
+      <c r="D32" s="57">
         <v>43165</v>
       </c>
-      <c r="E32" s="58">
+      <c r="E32" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="57">
         <v>43166</v>
       </c>
-      <c r="F32" s="58">
+      <c r="G32" s="86">
         <v>43165</v>
       </c>
-      <c r="G32" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>19</v>
+      <c r="H32" s="87" t="s">
+        <v>29</v>
       </c>
       <c r="I32" s="37"/>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="P32" s="5" t="s">
+      <c r="M32" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="O32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q32" s="73">
-        <f>COUNTIFS(B:B, "F",C:C, Q31,L:L, "&lt;&gt;")</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="73">
-        <f>COUNTIFS(B:B, "F",C:C,R31,L:L, "&lt;&gt;")</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="5">
-        <f>SUM(Q32:R32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="P32" s="71">
+        <f>COUNTIFS(B:B, "F",C:C, P31,L:L, "&lt;&gt;")</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="71">
+        <f>COUNTIFS(B:B, "F",C:C,Q31,L:L, "&lt;&gt;")</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="5">
+        <f>SUM(P32:Q32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="34">
         <v>203</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="36" t="str">
-        <f t="shared" ref="C33:C34" si="2">$T$2</f>
+        <f>$S$2</f>
         <v>Het</v>
       </c>
-      <c r="D33" s="58">
+      <c r="D33" s="57">
         <v>43165</v>
       </c>
-      <c r="E33" s="58">
+      <c r="E33" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="57">
         <v>43166</v>
       </c>
-      <c r="F33" s="58">
+      <c r="G33" s="86">
         <v>43165</v>
       </c>
-      <c r="G33" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="34" t="s">
-        <v>19</v>
+      <c r="H33" s="87" t="s">
+        <v>29</v>
       </c>
       <c r="I33" s="37"/>
       <c r="J33" s="37"/>
       <c r="K33" s="37"/>
       <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="P33" s="5" t="s">
+      <c r="M33" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="O33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q33" s="73">
-        <f>COUNTIFS(B:B, "M",C:C, Q31,L:L, "&lt;&gt;")</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="73">
-        <f>COUNTIFS(B:B, "M",C:C,R31,L:L, "&lt;&gt;")</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="5">
-        <f>SUM(Q33:R33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="P33" s="71">
+        <f>COUNTIFS(B:B, "M",C:C, P31,L:L, "&lt;&gt;")</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="71">
+        <f>COUNTIFS(B:B, "M",C:C,Q31,L:L, "&lt;&gt;")</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="5">
+        <f>SUM(P33:Q33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="34">
         <v>204</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="36" t="str">
-        <f t="shared" si="2"/>
+        <f>$S$2</f>
         <v>Het</v>
       </c>
-      <c r="D34" s="58">
+      <c r="D34" s="57">
         <v>43165</v>
       </c>
-      <c r="E34" s="58">
+      <c r="E34" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="57">
         <v>43166</v>
       </c>
-      <c r="F34" s="58">
+      <c r="G34" s="86">
         <v>43165</v>
       </c>
-      <c r="G34" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="34" t="s">
-        <v>19</v>
+      <c r="H34" s="87" t="s">
+        <v>29</v>
       </c>
       <c r="I34" s="37"/>
       <c r="J34" s="37"/>
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="P34" s="5" t="s">
+      <c r="M34" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="P34" s="5">
+        <f>SUM(P32:P33)</f>
+        <v>0</v>
       </c>
       <c r="Q34" s="5">
         <f>SUM(Q32:Q33)</f>
@@ -2807,144 +2808,121 @@
         <f>SUM(R32:R33)</f>
         <v>0</v>
       </c>
-      <c r="S34" s="5">
-        <f>SUM(S32:S33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="19">
         <v>205</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="20" t="str">
-        <f>$R$2</f>
+        <f>$Q$2</f>
         <v>WT</v>
       </c>
-      <c r="D35" s="59">
+      <c r="D35" s="58">
         <v>43165</v>
       </c>
-      <c r="E35" s="59">
+      <c r="E35" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="58">
         <v>43166</v>
       </c>
-      <c r="F35" s="59">
+      <c r="G35" s="88">
         <v>43165</v>
       </c>
-      <c r="G35" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>19</v>
+      <c r="H35" s="89" t="s">
+        <v>29</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="M35" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="34">
         <v>206</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="36" t="str">
-        <f>$T$2</f>
+        <f>$S$2</f>
         <v>Het</v>
       </c>
-      <c r="D36" s="58">
+      <c r="D36" s="57">
         <v>43165</v>
       </c>
-      <c r="E36" s="58">
+      <c r="E36" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="57">
         <v>43166</v>
       </c>
-      <c r="F36" s="58">
+      <c r="G36" s="86">
         <v>43165</v>
       </c>
-      <c r="G36" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="34" t="s">
-        <v>19</v>
+      <c r="H36" s="87" t="s">
+        <v>29</v>
       </c>
       <c r="I36" s="37"/>
       <c r="J36" s="37"/>
       <c r="K36" s="37"/>
       <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q36" s="8" t="s">
+      <c r="M36" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" s="3">
+        <f>COUNTIFS(M:M, O36,C:C, P2,M:M, O36)</f>
         <v>2</v>
       </c>
-      <c r="R36" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="S36" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="Q36" s="3">
+        <f>COUNTIFS(M:M, O36,C:C, Q2,M:M, O36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="23">
         <v>207</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="21" t="str">
-        <f>$Q$2</f>
+        <f>$P$2</f>
         <v>Mut</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="56">
         <v>43165</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="56">
         <v>43166</v>
       </c>
-      <c r="F37" s="57">
+      <c r="G37" s="84">
         <v>43165</v>
       </c>
-      <c r="G37" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>19</v>
+      <c r="H37" s="85" t="s">
+        <v>29</v>
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="3">
-        <f>COUNTIFS(B:B, "F",C:C, Q36,M:M, "&lt;&gt;")</f>
-        <v>2</v>
-      </c>
-      <c r="R37" s="3">
-        <f>COUNTIFS(B:B, "F",C:C,R36,M:M, "&lt;&gt;")</f>
-        <v>2</v>
-      </c>
-      <c r="S37" s="5">
-        <f>SUM(Q37:R37)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="M37" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="39">
         <v>4</v>
       </c>
@@ -2952,46 +2930,30 @@
         <v>1</v>
       </c>
       <c r="C38" s="39" t="str">
-        <f>$R$2</f>
+        <f>$Q$2</f>
         <v>WT</v>
       </c>
-      <c r="D38" s="66">
+      <c r="D38" s="65">
         <v>43168</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="39"/>
-      <c r="G38" s="65">
-        <f ca="1">IF(F38, F38-D38, TODAY()-D38)</f>
-        <v>28</v>
-      </c>
-      <c r="H38" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="71"/>
+      <c r="H38" s="64">
+        <f ca="1">IF(G38, G38-D38, TODAY()-D38)</f>
+        <v>31</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="P38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q38" s="3">
-        <f>COUNTIFS(B:B, "M",C:C, Q36,M:M, "&lt;&gt;")</f>
-        <v>2</v>
-      </c>
-      <c r="R38" s="73">
-        <f>COUNTIFS(B:B, "M",C:C,R36,M:M, "&lt;&gt;")</f>
-        <v>0</v>
-      </c>
-      <c r="S38" s="5">
-        <f>SUM(Q38:R38)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="28">
         <v>5</v>
       </c>
@@ -2999,59 +2961,33 @@
         <v>1</v>
       </c>
       <c r="C39" s="28" t="str">
-        <f>$T$2</f>
+        <f>$S$2</f>
         <v>Het</v>
       </c>
-      <c r="D39" s="60">
+      <c r="D39" s="59">
         <v>43168</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="68">
-        <f ca="1">IF(F39, F39-D39, TODAY()-D39)</f>
-        <v>28</v>
-      </c>
-      <c r="H39" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="28"/>
+      <c r="H39" s="66">
+        <f ca="1">IF(G39, G39-D39, TODAY()-D39)</f>
+        <v>31</v>
       </c>
       <c r="I39" s="27"/>
       <c r="J39" s="27"/>
       <c r="K39" s="27"/>
       <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q39" s="5">
-        <f>SUM(Q37:Q38)</f>
-        <v>4</v>
-      </c>
-      <c r="R39" s="5">
-        <f>SUM(R37:R38)</f>
-        <v>2</v>
-      </c>
-      <c r="S39" s="5">
-        <f>SUM(S37:S38)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
-      <c r="P41" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q41" s="3">
-        <f>COUNTIFS(N:N, P41,C:C, Q2,N:N, P41)</f>
-        <v>2</v>
-      </c>
-      <c r="R41" s="3">
-        <f>COUNTIFS(N:N, P41,C:C, R2,N:N, P41)</f>
-        <v>1</v>
-      </c>
+      <c r="M39" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="D40" s="90"/>
     </row>
   </sheetData>
   <sortState ref="A2:N39">
@@ -3059,7 +2995,7 @@
     <sortCondition ref="A2:A39"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="O14:O15 G28:N30 A28:D30 A1:N27 A31:N1048576">
+  <conditionalFormatting sqref="N14:N15 A1:D1048576 H28:H30 E28:E30 E31:H1048576 E1:H27 I1:M1048576">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$C$2="Mut"</formula>
     </cfRule>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -393,8 +393,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -751,7 +753,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="103">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -802,6 +804,7 @@
     <cellStyle name="Lien hypertexte" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -852,6 +855,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1206,8 +1210,8 @@
   <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1286,8 +1290,8 @@
       </c>
       <c r="G2" s="48"/>
       <c r="H2" s="49">
-        <f ca="1">IF(G2, G2-D2, TODAY()-D2)</f>
-        <v>292</v>
+        <f t="shared" ref="H2:H30" ca="1" si="0">IF(G2, G2-D2, TODAY()-D2)</f>
+        <v>293</v>
       </c>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
@@ -1339,8 +1343,8 @@
       </c>
       <c r="G3" s="59"/>
       <c r="H3" s="60">
-        <f ca="1">IF(G3, G3-D3, TODAY()-D3)</f>
-        <v>237</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>238</v>
       </c>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
@@ -1396,8 +1400,8 @@
       </c>
       <c r="G4" s="48"/>
       <c r="H4" s="49">
-        <f ca="1">IF(G4, G4-D4, TODAY()-D4)</f>
-        <v>237</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>238</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
@@ -1453,8 +1457,8 @@
       </c>
       <c r="G5" s="59"/>
       <c r="H5" s="60">
-        <f ca="1">IF(G5, G5-D5, TODAY()-D5)</f>
-        <v>235</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>236</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
@@ -1512,7 +1516,7 @@
         <v>43124</v>
       </c>
       <c r="H6" s="75">
-        <f ca="1">IF(G6, G6-D6, TODAY()-D6)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -1552,7 +1556,7 @@
         <v>43124</v>
       </c>
       <c r="H7" s="77">
-        <f ca="1">IF(G7, G7-D7, TODAY()-D7)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
       <c r="I7" s="10" t="s">
@@ -1602,7 +1606,7 @@
         <v>43146</v>
       </c>
       <c r="H8" s="75">
-        <f ca="1">IF(G8, G8-D8, TODAY()-D8)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="I8" s="5"/>
@@ -1658,7 +1662,7 @@
         <v>43147</v>
       </c>
       <c r="H9" s="77">
-        <f ca="1">IF(G9, G9-D9, TODAY()-D9)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
       <c r="I9" s="10"/>
@@ -1712,7 +1716,7 @@
         <v>43146</v>
       </c>
       <c r="H10" s="79">
-        <f ca="1">IF(G10, G10-D10, TODAY()-D10)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="I10" s="70"/>
@@ -1766,7 +1770,7 @@
         <v>43146</v>
       </c>
       <c r="H11" s="81">
-        <f ca="1">IF(G11, G11-D11, TODAY()-D11)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1804,7 +1808,7 @@
         <v>43146</v>
       </c>
       <c r="H12" s="75">
-        <f ca="1">IF(G12, G12-D12, TODAY()-D12)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
       <c r="I12" s="5"/>
@@ -1823,6 +1827,7 @@
         <f ca="1">IF(H:H="E", "", AVERAGEIF(G:G, "&lt;&gt;",H:H))</f>
         <v>32.133333333333333</v>
       </c>
+      <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="44">
@@ -1847,7 +1852,7 @@
         <v>43165</v>
       </c>
       <c r="H13" s="77">
-        <f ca="1">IF(G13, G13-D13, TODAY()-D13)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="I13" s="10"/>
@@ -1886,7 +1891,7 @@
         <v>43165</v>
       </c>
       <c r="H14" s="77">
-        <f ca="1">IF(G14, G14-D14, TODAY()-D14)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="I14" s="10"/>
@@ -1932,7 +1937,7 @@
         <v>43165</v>
       </c>
       <c r="H15" s="77">
-        <f ca="1">IF(G15, G15-D15, TODAY()-D15)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="I15" s="10"/>
@@ -1971,7 +1976,7 @@
         <v>43165</v>
       </c>
       <c r="H16" s="77">
-        <f ca="1">IF(G16, G16-D16, TODAY()-D16)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="I16" s="10"/>
@@ -2018,8 +2023,8 @@
       </c>
       <c r="G17" s="63"/>
       <c r="H17" s="64">
-        <f ca="1">IF(G17, G17-D17, TODAY()-D17)</f>
-        <v>67</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -2064,8 +2069,8 @@
       </c>
       <c r="G18" s="72"/>
       <c r="H18" s="64">
-        <f ca="1">IF(G18, G18-D18, TODAY()-D18)</f>
-        <v>67</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -2110,8 +2115,8 @@
       </c>
       <c r="G19" s="72"/>
       <c r="H19" s="51">
-        <f ca="1">IF(G19, G19-D19, TODAY()-D19)</f>
-        <v>67</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -2156,8 +2161,8 @@
       </c>
       <c r="G20" s="48"/>
       <c r="H20" s="49">
-        <f ca="1">IF(G20, G20-D20, TODAY()-D20)</f>
-        <v>67</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
@@ -2189,8 +2194,8 @@
       </c>
       <c r="G21" s="73"/>
       <c r="H21" s="53">
-        <f ca="1">IF(G21, G21-D21, TODAY()-D21)</f>
-        <v>67</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
@@ -2232,8 +2237,8 @@
       </c>
       <c r="G22" s="48"/>
       <c r="H22" s="49">
-        <f ca="1">IF(G22, G22-D22, TODAY()-D22)</f>
-        <v>67</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
       </c>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
@@ -2280,8 +2285,8 @@
       </c>
       <c r="G23" s="73"/>
       <c r="H23" s="53">
-        <f ca="1">IF(G23, G23-D23, TODAY()-D23)</f>
-        <v>53</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
@@ -2326,8 +2331,8 @@
       </c>
       <c r="G24" s="72"/>
       <c r="H24" s="51">
-        <f ca="1">IF(G24, G24-D24, TODAY()-D24)</f>
-        <v>53</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -2372,8 +2377,8 @@
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="60">
-        <f ca="1">IF(G25, G25-D25, TODAY()-D25)</f>
-        <v>52</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
       </c>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
@@ -2407,7 +2412,7 @@
         <v>43186</v>
       </c>
       <c r="H26" s="77">
-        <f ca="1">IF(G26, G26-D26, TODAY()-D26)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
       <c r="I26" s="3" t="s">
@@ -2452,8 +2457,8 @@
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="49">
-        <f ca="1">IF(G27, G27-D27, TODAY()-D27)</f>
-        <v>49</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
       </c>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
@@ -2501,7 +2506,7 @@
         <v>43180</v>
       </c>
       <c r="H28" s="77">
-        <f ca="1">IF(G28, G28-D28, TODAY()-D28)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
       <c r="I28" s="12"/>
@@ -2552,7 +2557,7 @@
         <v>43180</v>
       </c>
       <c r="H29" s="77">
-        <f ca="1">IF(G29, G29-D29, TODAY()-D29)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
       <c r="I29" s="12"/>
@@ -2603,7 +2608,7 @@
         <v>43180</v>
       </c>
       <c r="H30" s="77">
-        <f ca="1">IF(G30, G30-D30, TODAY()-D30)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
       <c r="I30" s="12"/>
@@ -2945,7 +2950,7 @@
       <c r="G38" s="71"/>
       <c r="H38" s="64">
         <f ca="1">IF(G38, G38-D38, TODAY()-D38)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -2976,7 +2981,7 @@
       <c r="G39" s="28"/>
       <c r="H39" s="66">
         <f ca="1">IF(G39, G39-D39, TODAY()-D39)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I39" s="27"/>
       <c r="J39" s="27"/>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -498,7 +498,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -752,6 +752,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="103">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -1211,7 +1212,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
+      <selection pane="bottomLeft" activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2993,6 +2994,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="D40" s="90"/>
+      <c r="O40" s="91"/>
     </row>
   </sheetData>
   <sortState ref="A2:N39">

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -498,7 +498,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -695,12 +695,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -859,7 +853,20 @@
     <cellStyle name="Lien hypertexte visité" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1212,7 +1219,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O40" sqref="O40"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1292,7 +1299,7 @@
       <c r="G2" s="48"/>
       <c r="H2" s="49">
         <f t="shared" ref="H2:H30" ca="1" si="0">IF(G2, G2-D2, TODAY()-D2)</f>
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
@@ -1345,7 +1352,7 @@
       <c r="G3" s="59"/>
       <c r="H3" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
@@ -1402,7 +1409,7 @@
       <c r="G4" s="48"/>
       <c r="H4" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
@@ -1459,7 +1466,7 @@
       <c r="G5" s="59"/>
       <c r="H5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
@@ -1513,10 +1520,10 @@
       <c r="F6" s="50">
         <v>43123</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="72">
         <v>43124</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
@@ -1553,10 +1560,10 @@
       <c r="F7" s="52">
         <v>43123</v>
       </c>
-      <c r="G7" s="76">
+      <c r="G7" s="74">
         <v>43124</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
@@ -1603,10 +1610,10 @@
       <c r="F8" s="63">
         <v>43145</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G8" s="72">
         <v>43146</v>
       </c>
-      <c r="H8" s="75">
+      <c r="H8" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
@@ -1627,15 +1634,15 @@
       </c>
       <c r="P8" s="3">
         <f>COUNTIFS(B:B, "F",C:C, P7,G:G,"")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <f>COUNTIFS(B:B, "F",C:C,Q7,G:G, "")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R8" s="5">
         <f>SUM(P8:Q8)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S8" s="27"/>
     </row>
@@ -1659,10 +1666,10 @@
       <c r="F9" s="52">
         <v>43145</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="74">
         <v>43147</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
@@ -1681,15 +1688,15 @@
       </c>
       <c r="P9" s="3">
         <f>COUNTIFS(B:B, "M",C:C, P7,G:G,"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="3">
         <f>COUNTIFS(B:B, "M",C:C,Q7,G:G,"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="5">
         <f>SUM(P9:Q9)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S9" s="27"/>
     </row>
@@ -1713,10 +1720,10 @@
       <c r="F10" s="68">
         <v>43145</v>
       </c>
-      <c r="G10" s="78">
+      <c r="G10" s="76">
         <v>43146</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="77">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
@@ -1735,15 +1742,15 @@
       </c>
       <c r="P10" s="5">
         <f>SUM(P8:P9)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="5">
         <f>SUM(Q8:Q9)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R10" s="5">
         <f>SUM(R8:R9)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S10" s="47"/>
     </row>
@@ -1767,10 +1774,10 @@
       <c r="F11" s="61">
         <v>43145</v>
       </c>
-      <c r="G11" s="80">
+      <c r="G11" s="78">
         <v>43146</v>
       </c>
-      <c r="H11" s="81">
+      <c r="H11" s="79">
         <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
@@ -1805,10 +1812,10 @@
       <c r="F12" s="50">
         <v>43145</v>
       </c>
-      <c r="G12" s="74">
+      <c r="G12" s="72">
         <v>43146</v>
       </c>
-      <c r="H12" s="75">
+      <c r="H12" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
@@ -1826,7 +1833,7 @@
       </c>
       <c r="P12" s="14">
         <f ca="1">IF(H:H="E", "", AVERAGEIF(G:G, "&lt;&gt;",H:H))</f>
-        <v>32.133333333333333</v>
+        <v>39.61904761904762</v>
       </c>
       <c r="Q12" s="14"/>
     </row>
@@ -1849,10 +1856,10 @@
       <c r="F13" s="54">
         <v>43165</v>
       </c>
-      <c r="G13" s="76">
+      <c r="G13" s="74">
         <v>43165</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
@@ -1888,10 +1895,10 @@
       <c r="F14" s="54">
         <v>43165</v>
       </c>
-      <c r="G14" s="76">
+      <c r="G14" s="74">
         <v>43165</v>
       </c>
-      <c r="H14" s="77">
+      <c r="H14" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
@@ -1934,10 +1941,10 @@
       <c r="F15" s="54">
         <v>43165</v>
       </c>
-      <c r="G15" s="76">
+      <c r="G15" s="74">
         <v>43165</v>
       </c>
-      <c r="H15" s="77">
+      <c r="H15" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
@@ -1973,10 +1980,10 @@
       <c r="F16" s="54">
         <v>43165</v>
       </c>
-      <c r="G16" s="76">
+      <c r="G16" s="74">
         <v>43165</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
@@ -2025,7 +2032,7 @@
       <c r="G17" s="63"/>
       <c r="H17" s="64">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -2068,10 +2075,12 @@
       <c r="F18" s="63">
         <v>43166</v>
       </c>
-      <c r="G18" s="72"/>
-      <c r="H18" s="64">
+      <c r="G18" s="72">
+        <v>43201</v>
+      </c>
+      <c r="H18" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -2114,10 +2123,12 @@
       <c r="F19" s="50">
         <v>43166</v>
       </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="51">
+      <c r="G19" s="72">
+        <v>43201</v>
+      </c>
+      <c r="H19" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -2163,7 +2174,7 @@
       <c r="G20" s="48"/>
       <c r="H20" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
@@ -2193,10 +2204,12 @@
       <c r="F21" s="52">
         <v>43166</v>
       </c>
-      <c r="G21" s="73"/>
-      <c r="H21" s="53">
+      <c r="G21" s="74">
+        <v>43201</v>
+      </c>
+      <c r="H21" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
@@ -2239,7 +2252,7 @@
       <c r="G22" s="48"/>
       <c r="H22" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
@@ -2284,10 +2297,12 @@
       <c r="F23" s="52">
         <v>43166</v>
       </c>
-      <c r="G23" s="73"/>
-      <c r="H23" s="53">
+      <c r="G23" s="74">
+        <v>43201</v>
+      </c>
+      <c r="H23" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
@@ -2330,10 +2345,12 @@
       <c r="F24" s="50">
         <v>43166</v>
       </c>
-      <c r="G24" s="72"/>
-      <c r="H24" s="51">
+      <c r="G24" s="72">
+        <v>43201</v>
+      </c>
+      <c r="H24" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -2379,7 +2396,7 @@
       <c r="G25" s="28"/>
       <c r="H25" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
@@ -2409,10 +2426,10 @@
       <c r="F26" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="82">
+      <c r="G26" s="80">
         <v>43186</v>
       </c>
-      <c r="H26" s="77">
+      <c r="H26" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
@@ -2459,7 +2476,7 @@
       <c r="G27" s="26"/>
       <c r="H27" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
@@ -2503,10 +2520,10 @@
       <c r="F28" s="55">
         <v>43180</v>
       </c>
-      <c r="G28" s="83">
+      <c r="G28" s="81">
         <v>43180</v>
       </c>
-      <c r="H28" s="77">
+      <c r="H28" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
@@ -2554,10 +2571,10 @@
       <c r="F29" s="55">
         <v>43180</v>
       </c>
-      <c r="G29" s="83">
+      <c r="G29" s="81">
         <v>43180</v>
       </c>
-      <c r="H29" s="77">
+      <c r="H29" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
@@ -2605,10 +2622,10 @@
       <c r="F30" s="55">
         <v>43180</v>
       </c>
-      <c r="G30" s="83">
+      <c r="G30" s="81">
         <v>43180</v>
       </c>
-      <c r="H30" s="77">
+      <c r="H30" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
@@ -2642,10 +2659,10 @@
       <c r="F31" s="56">
         <v>43166</v>
       </c>
-      <c r="G31" s="84">
+      <c r="G31" s="82">
         <v>43165</v>
       </c>
-      <c r="H31" s="85" t="s">
+      <c r="H31" s="83" t="s">
         <v>29</v>
       </c>
       <c r="I31" s="24"/>
@@ -2688,10 +2705,10 @@
       <c r="F32" s="57">
         <v>43166</v>
       </c>
-      <c r="G32" s="86">
+      <c r="G32" s="84">
         <v>43165</v>
       </c>
-      <c r="H32" s="87" t="s">
+      <c r="H32" s="85" t="s">
         <v>29</v>
       </c>
       <c r="I32" s="37"/>
@@ -2737,10 +2754,10 @@
       <c r="F33" s="57">
         <v>43166</v>
       </c>
-      <c r="G33" s="86">
+      <c r="G33" s="84">
         <v>43165</v>
       </c>
-      <c r="H33" s="87" t="s">
+      <c r="H33" s="85" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="37"/>
@@ -2786,10 +2803,10 @@
       <c r="F34" s="57">
         <v>43166</v>
       </c>
-      <c r="G34" s="86">
+      <c r="G34" s="84">
         <v>43165</v>
       </c>
-      <c r="H34" s="87" t="s">
+      <c r="H34" s="85" t="s">
         <v>29</v>
       </c>
       <c r="I34" s="37"/>
@@ -2835,10 +2852,10 @@
       <c r="F35" s="58">
         <v>43166</v>
       </c>
-      <c r="G35" s="88">
+      <c r="G35" s="86">
         <v>43165</v>
       </c>
-      <c r="H35" s="89" t="s">
+      <c r="H35" s="87" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="15"/>
@@ -2869,10 +2886,10 @@
       <c r="F36" s="57">
         <v>43166</v>
       </c>
-      <c r="G36" s="86">
+      <c r="G36" s="84">
         <v>43165</v>
       </c>
-      <c r="H36" s="87" t="s">
+      <c r="H36" s="85" t="s">
         <v>29</v>
       </c>
       <c r="I36" s="37"/>
@@ -2914,10 +2931,10 @@
       <c r="F37" s="56">
         <v>43166</v>
       </c>
-      <c r="G37" s="84">
+      <c r="G37" s="82">
         <v>43165</v>
       </c>
-      <c r="H37" s="85" t="s">
+      <c r="H37" s="83" t="s">
         <v>29</v>
       </c>
       <c r="I37" s="24"/>
@@ -2948,10 +2965,12 @@
       <c r="F38" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="71"/>
-      <c r="H38" s="64">
+      <c r="G38" s="80">
+        <v>43201</v>
+      </c>
+      <c r="H38" s="73">
         <f ca="1">IF(G38, G38-D38, TODAY()-D38)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -2982,7 +3001,7 @@
       <c r="G39" s="28"/>
       <c r="H39" s="66">
         <f ca="1">IF(G39, G39-D39, TODAY()-D39)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I39" s="27"/>
       <c r="J39" s="27"/>
@@ -2993,8 +3012,8 @@
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="D40" s="90"/>
-      <c r="O40" s="91"/>
+      <c r="D40" s="88"/>
+      <c r="O40" s="89"/>
     </row>
   </sheetData>
   <sortState ref="A2:N39">
@@ -3002,8 +3021,8 @@
     <sortCondition ref="A2:A39"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="N14:N15 A1:D1048576 H28:H30 E28:E30 E31:H1048576 E1:H27 I1:M1048576">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="N14:N15 A1:D1048576 H28:H30 E28:E30 E31:H1048576 I1:M1048576 E1:H27">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$C$2="Mut"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="50">
   <si>
     <t>F</t>
   </si>
@@ -498,7 +498,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -679,9 +679,6 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -745,8 +742,25 @@
     <xf numFmtId="1" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="103">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -853,7 +867,85 @@
     <cellStyle name="Lien hypertexte visité" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1215,11 +1307,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1298,8 +1390,8 @@
       </c>
       <c r="G2" s="48"/>
       <c r="H2" s="49">
-        <f t="shared" ref="H2:H30" ca="1" si="0">IF(G2, G2-D2, TODAY()-D2)</f>
-        <v>294</v>
+        <f ca="1">IF(G2, G2-D2, TODAY()-D2)</f>
+        <v>296</v>
       </c>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
@@ -1351,8 +1443,8 @@
       </c>
       <c r="G3" s="59"/>
       <c r="H3" s="60">
-        <f t="shared" ca="1" si="0"/>
-        <v>239</v>
+        <f ca="1">IF(G3, G3-D3, TODAY()-D3)</f>
+        <v>241</v>
       </c>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
@@ -1369,7 +1461,7 @@
       </c>
       <c r="P3" s="3">
         <f>COUNTIFS(B:B, "F",C:C, P2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q3" s="3">
         <f>COUNTIFS(B:B, "F",C:C,Q2)</f>
@@ -1377,11 +1469,11 @@
       </c>
       <c r="R3" s="5">
         <f>SUM(P3:Q3)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S3" s="27">
         <f>COUNTIFS(B:B, "F",C:C,S2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
@@ -1408,8 +1500,8 @@
       </c>
       <c r="G4" s="48"/>
       <c r="H4" s="49">
-        <f t="shared" ca="1" si="0"/>
-        <v>239</v>
+        <f ca="1">IF(G4, G4-D4, TODAY()-D4)</f>
+        <v>241</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
@@ -1426,7 +1518,7 @@
       </c>
       <c r="P4" s="3">
         <f>COUNTIFS(B:B, "M",C:C, P2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q4" s="3">
         <f>COUNTIFS(B:B, "M",C:C,Q2)</f>
@@ -1434,11 +1526,11 @@
       </c>
       <c r="R4" s="5">
         <f>SUM(P4:Q4)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S4" s="27">
         <f>COUNTIFS(B:B, "M",C:C, S2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
@@ -1465,8 +1557,8 @@
       </c>
       <c r="G5" s="59"/>
       <c r="H5" s="60">
-        <f t="shared" ca="1" si="0"/>
-        <v>237</v>
+        <f ca="1">IF(G5, G5-D5, TODAY()-D5)</f>
+        <v>239</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
@@ -1483,7 +1575,7 @@
       </c>
       <c r="P5" s="5">
         <f>SUM(P3:P4)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="5">
         <f>SUM(Q3:Q4)</f>
@@ -1491,11 +1583,11 @@
       </c>
       <c r="R5" s="5">
         <f>SUM(R3:R4)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S5" s="47">
         <f>SUM(S3:S4)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
@@ -1520,11 +1612,11 @@
       <c r="F6" s="50">
         <v>43123</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="71">
         <v>43124</v>
       </c>
-      <c r="H6" s="73">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H6" s="72">
+        <f ca="1">IF(G6, G6-D6, TODAY()-D6)</f>
         <v>27</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -1560,11 +1652,11 @@
       <c r="F7" s="52">
         <v>43123</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="73">
         <v>43124</v>
       </c>
-      <c r="H7" s="75">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H7" s="74">
+        <f ca="1">IF(G7, G7-D7, TODAY()-D7)</f>
         <v>27</v>
       </c>
       <c r="I7" s="10" t="s">
@@ -1610,11 +1702,11 @@
       <c r="F8" s="63">
         <v>43145</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="71">
         <v>43146</v>
       </c>
-      <c r="H8" s="73">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H8" s="72">
+        <f ca="1">IF(G8, G8-D8, TODAY()-D8)</f>
         <v>35</v>
       </c>
       <c r="I8" s="5"/>
@@ -1634,7 +1726,7 @@
       </c>
       <c r="P8" s="3">
         <f>COUNTIFS(B:B, "F",C:C, P7,G:G,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="3">
         <f>COUNTIFS(B:B, "F",C:C,Q7,G:G, "")</f>
@@ -1642,7 +1734,7 @@
       </c>
       <c r="R8" s="5">
         <f>SUM(P8:Q8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="27"/>
     </row>
@@ -1666,11 +1758,11 @@
       <c r="F9" s="52">
         <v>43145</v>
       </c>
-      <c r="G9" s="74">
+      <c r="G9" s="73">
         <v>43147</v>
       </c>
-      <c r="H9" s="75">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H9" s="74">
+        <f ca="1">IF(G9, G9-D9, TODAY()-D9)</f>
         <v>36</v>
       </c>
       <c r="I9" s="10"/>
@@ -1688,7 +1780,7 @@
       </c>
       <c r="P9" s="3">
         <f>COUNTIFS(B:B, "M",C:C, P7,G:G,"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="3">
         <f>COUNTIFS(B:B, "M",C:C,Q7,G:G,"")</f>
@@ -1696,41 +1788,41 @@
       </c>
       <c r="R9" s="5">
         <f>SUM(P9:Q9)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="67">
+      <c r="A10" s="66">
         <v>441</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="66" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>$Q$2</f>
         <v>WT</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="67">
         <v>43111</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="67">
         <v>43145</v>
       </c>
-      <c r="G10" s="76">
+      <c r="G10" s="75">
         <v>43146</v>
       </c>
-      <c r="H10" s="77">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H10" s="76">
+        <f ca="1">IF(G10, G10-D10, TODAY()-D10)</f>
         <v>35</v>
       </c>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
       <c r="M10" s="10" t="s">
         <v>46</v>
       </c>
@@ -1742,7 +1834,7 @@
       </c>
       <c r="P10" s="5">
         <f>SUM(P8:P9)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="5">
         <f>SUM(Q8:Q9)</f>
@@ -1750,7 +1842,7 @@
       </c>
       <c r="R10" s="5">
         <f>SUM(R8:R9)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S10" s="47"/>
     </row>
@@ -1774,11 +1866,11 @@
       <c r="F11" s="61">
         <v>43145</v>
       </c>
-      <c r="G11" s="78">
+      <c r="G11" s="77">
         <v>43146</v>
       </c>
-      <c r="H11" s="79">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H11" s="78">
+        <f ca="1">IF(G11, G11-D11, TODAY()-D11)</f>
         <v>28</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1812,11 +1904,11 @@
       <c r="F12" s="50">
         <v>43145</v>
       </c>
-      <c r="G12" s="72">
+      <c r="G12" s="71">
         <v>43146</v>
       </c>
-      <c r="H12" s="73">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H12" s="72">
+        <f ca="1">IF(G12, G12-D12, TODAY()-D12)</f>
         <v>28</v>
       </c>
       <c r="I12" s="5"/>
@@ -1856,11 +1948,11 @@
       <c r="F13" s="54">
         <v>43165</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="73">
         <v>43165</v>
       </c>
-      <c r="H13" s="75">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H13" s="74">
+        <f ca="1">IF(G13, G13-D13, TODAY()-D13)</f>
         <v>35</v>
       </c>
       <c r="I13" s="10"/>
@@ -1895,11 +1987,11 @@
       <c r="F14" s="54">
         <v>43165</v>
       </c>
-      <c r="G14" s="74">
+      <c r="G14" s="73">
         <v>43165</v>
       </c>
-      <c r="H14" s="75">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H14" s="74">
+        <f ca="1">IF(G14, G14-D14, TODAY()-D14)</f>
         <v>35</v>
       </c>
       <c r="I14" s="10"/>
@@ -1919,7 +2011,7 @@
       </c>
       <c r="P14" s="10">
         <f>COUNTIF(A:A, "&lt;&gt;")-1</f>
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1941,11 +2033,11 @@
       <c r="F15" s="54">
         <v>43165</v>
       </c>
-      <c r="G15" s="74">
+      <c r="G15" s="73">
         <v>43165</v>
       </c>
-      <c r="H15" s="75">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H15" s="74">
+        <f ca="1">IF(G15, G15-D15, TODAY()-D15)</f>
         <v>35</v>
       </c>
       <c r="I15" s="10"/>
@@ -1980,11 +2072,11 @@
       <c r="F16" s="54">
         <v>43165</v>
       </c>
-      <c r="G16" s="74">
+      <c r="G16" s="73">
         <v>43165</v>
       </c>
-      <c r="H16" s="75">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H16" s="74">
+        <f ca="1">IF(G16, G16-D16, TODAY()-D16)</f>
         <v>35</v>
       </c>
       <c r="I16" s="10"/>
@@ -2031,8 +2123,8 @@
       </c>
       <c r="G17" s="63"/>
       <c r="H17" s="64">
-        <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <f ca="1">IF(G17, G17-D17, TODAY()-D17)</f>
+        <v>71</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -2075,11 +2167,11 @@
       <c r="F18" s="63">
         <v>43166</v>
       </c>
-      <c r="G18" s="72">
+      <c r="G18" s="71">
         <v>43201</v>
       </c>
-      <c r="H18" s="73">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H18" s="72">
+        <f ca="1">IF(G18, G18-D18, TODAY()-D18)</f>
         <v>69</v>
       </c>
       <c r="I18" s="5"/>
@@ -2123,11 +2215,11 @@
       <c r="F19" s="50">
         <v>43166</v>
       </c>
-      <c r="G19" s="72">
+      <c r="G19" s="71">
         <v>43201</v>
       </c>
-      <c r="H19" s="73">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H19" s="72">
+        <f ca="1">IF(G19, G19-D19, TODAY()-D19)</f>
         <v>69</v>
       </c>
       <c r="I19" s="5"/>
@@ -2173,8 +2265,8 @@
       </c>
       <c r="G20" s="48"/>
       <c r="H20" s="49">
-        <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <f ca="1">IF(G20, G20-D20, TODAY()-D20)</f>
+        <v>71</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
@@ -2204,11 +2296,11 @@
       <c r="F21" s="52">
         <v>43166</v>
       </c>
-      <c r="G21" s="74">
+      <c r="G21" s="73">
         <v>43201</v>
       </c>
-      <c r="H21" s="75">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H21" s="74">
+        <f ca="1">IF(G21, G21-D21, TODAY()-D21)</f>
         <v>69</v>
       </c>
       <c r="I21" s="10"/>
@@ -2251,8 +2343,8 @@
       </c>
       <c r="G22" s="48"/>
       <c r="H22" s="49">
-        <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <f ca="1">IF(G22, G22-D22, TODAY()-D22)</f>
+        <v>71</v>
       </c>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
@@ -2297,11 +2389,11 @@
       <c r="F23" s="52">
         <v>43166</v>
       </c>
-      <c r="G23" s="74">
+      <c r="G23" s="73">
         <v>43201</v>
       </c>
-      <c r="H23" s="75">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H23" s="74">
+        <f ca="1">IF(G23, G23-D23, TODAY()-D23)</f>
         <v>55</v>
       </c>
       <c r="I23" s="10"/>
@@ -2316,7 +2408,7 @@
         <f>COUNTIFS(B:B, "M",C:C, P16,J:J, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="Q23" s="71">
+      <c r="Q23" s="70">
         <f>COUNTIFS(B:B, "M",C:C,Q21,J:J, "&lt;&gt;")</f>
         <v>0</v>
       </c>
@@ -2345,11 +2437,11 @@
       <c r="F24" s="50">
         <v>43166</v>
       </c>
-      <c r="G24" s="72">
+      <c r="G24" s="71">
         <v>43201</v>
       </c>
-      <c r="H24" s="73">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H24" s="72">
+        <f ca="1">IF(G24, G24-D24, TODAY()-D24)</f>
         <v>55</v>
       </c>
       <c r="I24" s="5"/>
@@ -2395,8 +2487,8 @@
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="60">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <f ca="1">IF(G25, G25-D25, TODAY()-D25)</f>
+        <v>56</v>
       </c>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
@@ -2426,11 +2518,11 @@
       <c r="F26" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="80">
+      <c r="G26" s="79">
         <v>43186</v>
       </c>
-      <c r="H26" s="75">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H26" s="74">
+        <f ca="1">IF(G26, G26-D26, TODAY()-D26)</f>
         <v>36</v>
       </c>
       <c r="I26" s="3" t="s">
@@ -2475,8 +2567,8 @@
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="49">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <f ca="1">IF(G27, G27-D27, TODAY()-D27)</f>
+        <v>53</v>
       </c>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
@@ -2488,7 +2580,7 @@
       <c r="O27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P27" s="71">
+      <c r="P27" s="70">
         <f>COUNTIFS(B:B, "F",C:C, P26,K:K, "&lt;&gt;")</f>
         <v>0</v>
       </c>
@@ -2520,11 +2612,11 @@
       <c r="F28" s="55">
         <v>43180</v>
       </c>
-      <c r="G28" s="81">
+      <c r="G28" s="80">
         <v>43180</v>
       </c>
-      <c r="H28" s="75">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H28" s="74">
+        <f ca="1">IF(G28, G28-D28, TODAY()-D28)</f>
         <v>30</v>
       </c>
       <c r="I28" s="12"/>
@@ -2539,11 +2631,11 @@
       <c r="O28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="71">
+      <c r="P28" s="70">
         <f>COUNTIFS(B:B, "M",C:C, P26,K:K, "&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="71">
+      <c r="Q28" s="70">
         <f>COUNTIFS(B:B, "M",C:C,Q26,K:K, "&lt;&gt;")</f>
         <v>0</v>
       </c>
@@ -2571,11 +2663,11 @@
       <c r="F29" s="55">
         <v>43180</v>
       </c>
-      <c r="G29" s="81">
+      <c r="G29" s="80">
         <v>43180</v>
       </c>
-      <c r="H29" s="75">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H29" s="74">
+        <f ca="1">IF(G29, G29-D29, TODAY()-D29)</f>
         <v>30</v>
       </c>
       <c r="I29" s="12"/>
@@ -2622,11 +2714,11 @@
       <c r="F30" s="55">
         <v>43180</v>
       </c>
-      <c r="G30" s="81">
+      <c r="G30" s="80">
         <v>43180</v>
       </c>
-      <c r="H30" s="75">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H30" s="74">
+        <f ca="1">IF(G30, G30-D30, TODAY()-D30)</f>
         <v>30</v>
       </c>
       <c r="I30" s="12"/>
@@ -2659,10 +2751,10 @@
       <c r="F31" s="56">
         <v>43166</v>
       </c>
-      <c r="G31" s="82">
+      <c r="G31" s="81">
         <v>43165</v>
       </c>
-      <c r="H31" s="83" t="s">
+      <c r="H31" s="82" t="s">
         <v>29</v>
       </c>
       <c r="I31" s="24"/>
@@ -2705,10 +2797,10 @@
       <c r="F32" s="57">
         <v>43166</v>
       </c>
-      <c r="G32" s="84">
+      <c r="G32" s="83">
         <v>43165</v>
       </c>
-      <c r="H32" s="85" t="s">
+      <c r="H32" s="84" t="s">
         <v>29</v>
       </c>
       <c r="I32" s="37"/>
@@ -2721,11 +2813,11 @@
       <c r="O32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P32" s="71">
+      <c r="P32" s="70">
         <f>COUNTIFS(B:B, "F",C:C, P31,L:L, "&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="71">
+      <c r="Q32" s="70">
         <f>COUNTIFS(B:B, "F",C:C,Q31,L:L, "&lt;&gt;")</f>
         <v>0</v>
       </c>
@@ -2754,10 +2846,10 @@
       <c r="F33" s="57">
         <v>43166</v>
       </c>
-      <c r="G33" s="84">
+      <c r="G33" s="83">
         <v>43165</v>
       </c>
-      <c r="H33" s="85" t="s">
+      <c r="H33" s="84" t="s">
         <v>29</v>
       </c>
       <c r="I33" s="37"/>
@@ -2770,11 +2862,11 @@
       <c r="O33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P33" s="71">
+      <c r="P33" s="70">
         <f>COUNTIFS(B:B, "M",C:C, P31,L:L, "&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="71">
+      <c r="Q33" s="70">
         <f>COUNTIFS(B:B, "M",C:C,Q31,L:L, "&lt;&gt;")</f>
         <v>0</v>
       </c>
@@ -2803,10 +2895,10 @@
       <c r="F34" s="57">
         <v>43166</v>
       </c>
-      <c r="G34" s="84">
+      <c r="G34" s="83">
         <v>43165</v>
       </c>
-      <c r="H34" s="85" t="s">
+      <c r="H34" s="84" t="s">
         <v>29</v>
       </c>
       <c r="I34" s="37"/>
@@ -2852,10 +2944,10 @@
       <c r="F35" s="58">
         <v>43166</v>
       </c>
-      <c r="G35" s="86">
+      <c r="G35" s="85">
         <v>43165</v>
       </c>
-      <c r="H35" s="87" t="s">
+      <c r="H35" s="86" t="s">
         <v>29</v>
       </c>
       <c r="I35" s="15"/>
@@ -2886,10 +2978,10 @@
       <c r="F36" s="57">
         <v>43166</v>
       </c>
-      <c r="G36" s="84">
+      <c r="G36" s="83">
         <v>43165</v>
       </c>
-      <c r="H36" s="85" t="s">
+      <c r="H36" s="84" t="s">
         <v>29</v>
       </c>
       <c r="I36" s="37"/>
@@ -2931,10 +3023,10 @@
       <c r="F37" s="56">
         <v>43166</v>
       </c>
-      <c r="G37" s="82">
+      <c r="G37" s="81">
         <v>43165</v>
       </c>
-      <c r="H37" s="83" t="s">
+      <c r="H37" s="82" t="s">
         <v>29</v>
       </c>
       <c r="I37" s="24"/>
@@ -2965,10 +3057,10 @@
       <c r="F38" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="80">
+      <c r="G38" s="79">
         <v>43201</v>
       </c>
-      <c r="H38" s="73">
+      <c r="H38" s="72">
         <f ca="1">IF(G38, G38-D38, TODAY()-D38)</f>
         <v>33</v>
       </c>
@@ -2999,9 +3091,9 @@
         <v>31</v>
       </c>
       <c r="G39" s="28"/>
-      <c r="H39" s="66">
+      <c r="H39" s="60">
         <f ca="1">IF(G39, G39-D39, TODAY()-D39)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I39" s="27"/>
       <c r="J39" s="27"/>
@@ -3012,17 +3104,370 @@
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="D40" s="88"/>
-      <c r="O40" s="89"/>
+      <c r="A40" s="40">
+        <v>459</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="40"/>
+      <c r="D40" s="88">
+        <v>43177</v>
+      </c>
+      <c r="E40" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="88">
+        <v>43203</v>
+      </c>
+      <c r="G40" s="40"/>
+      <c r="H40" s="53">
+        <f ca="1">IF(G40, G40-D40, TODAY()-D40)</f>
+        <v>26</v>
+      </c>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="42"/>
+      <c r="O40" s="87"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="40">
+        <v>460</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="88">
+        <v>43177</v>
+      </c>
+      <c r="E41" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="88">
+        <v>43203</v>
+      </c>
+      <c r="G41" s="40"/>
+      <c r="H41" s="53">
+        <f ca="1">IF(G41, G41-D41, TODAY()-D41)</f>
+        <v>26</v>
+      </c>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="42"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="91">
+        <v>6</v>
+      </c>
+      <c r="B42" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="92">
+        <v>43191</v>
+      </c>
+      <c r="E42" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="91"/>
+      <c r="H42" s="64">
+        <f ca="1">IF(G42, G42-D42, TODAY()-D42)</f>
+        <v>12</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="26">
+        <v>7</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="48">
+        <v>43191</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="26"/>
+      <c r="H43" s="49">
+        <f ca="1">IF(G43, G43-D43, TODAY()-D43)</f>
+        <v>12</v>
+      </c>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="28">
+        <v>8</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="59">
+        <v>43196</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28">
+        <f ca="1">IF(G44, G44-D44, TODAY()-D44)</f>
+        <v>7</v>
+      </c>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="28">
+        <v>9</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="59">
+        <v>43196</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28">
+        <f ca="1">IF(G45, G45-D45, TODAY()-D45)</f>
+        <v>7</v>
+      </c>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="7">
+        <v>10</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="63">
+        <v>43196</v>
+      </c>
+      <c r="E46" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="91">
+        <f ca="1">IF(G46, G46-D46, TODAY()-D46)</f>
+        <v>7</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="26">
+        <v>11</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="48">
+        <v>43196</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26">
+        <f ca="1">IF(G47, G47-D47, TODAY()-D47)</f>
+        <v>7</v>
+      </c>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="26">
+        <v>12</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="48">
+        <v>43196</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26">
+        <f ca="1">IF(G48, G48-D48, TODAY()-D48)</f>
+        <v>7</v>
+      </c>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="26">
+        <v>13</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="48">
+        <v>43196</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26">
+        <f ca="1">IF(G49, G49-D49, TODAY()-D49)</f>
+        <v>7</v>
+      </c>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="26">
+        <v>14</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="48">
+        <v>43196</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26">
+        <f ca="1">IF(G50, G50-D50, TODAY()-D50)</f>
+        <v>7</v>
+      </c>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="4">
+        <v>15</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="50">
+        <v>43196</v>
+      </c>
+      <c r="E51" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="93">
+        <f ca="1">IF(G51, G51-D51, TODAY()-D51)</f>
+        <v>7</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A2:N39">
-    <sortCondition ref="D2:D39"/>
-    <sortCondition ref="A2:A39"/>
+  <sortState ref="A2:M51">
+    <sortCondition ref="D2:D51"/>
+    <sortCondition ref="A2:A51"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="N14:N15 A1:D1048576 H28:H30 E28:E30 E31:H1048576 I1:M1048576 E1:H27">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="N14:N15 H28:H30 E28:E30 I1:M1048576 E1:H27 E31:H1048576 A1:D1048576">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>$C$2="Mut"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="55">
   <si>
     <t>F</t>
   </si>
@@ -169,6 +169,21 @@
   </si>
   <si>
     <t>Vivant</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>Pas encore récupéré</t>
   </si>
 </sst>
 </file>
@@ -393,7 +408,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -497,15 +512,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,9 +536,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -546,19 +557,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -585,15 +584,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -616,9 +606,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -634,58 +621,19 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -761,8 +709,53 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="105">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -814,6 +807,7 @@
     <cellStyle name="Lien hypertexte" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -865,9 +859,335 @@
     <cellStyle name="Lien hypertexte visité" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1307,569 +1627,569 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="10.83203125" style="13"/>
-    <col min="8" max="8" width="10.83203125" style="13"/>
+    <col min="5" max="5" width="10.83203125" style="11"/>
+    <col min="8" max="8" width="10.83203125" style="11"/>
     <col min="10" max="10" width="17.1640625" customWidth="1"/>
-    <col min="13" max="13" width="36.5" style="11" customWidth="1"/>
+    <col min="13" max="13" width="36.5" style="9" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" customWidth="1"/>
     <col min="15" max="15" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="32" customFormat="1" ht="18">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:21" s="26" customFormat="1" ht="18">
+      <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="33"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="26">
+      <c r="A2" s="20">
         <v>415</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="str">
+      <c r="C2" s="20" t="str">
         <f>$S$2</f>
         <v>Het</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="38">
         <v>42907</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="38">
         <v>43123</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49">
+      <c r="G2" s="38"/>
+      <c r="H2" s="39">
         <f ca="1">IF(G2, G2-D2, TODAY()-D2)</f>
-        <v>296</v>
-      </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21" t="s">
         <v>27</v>
       </c>
       <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="46" t="s">
+      <c r="S2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="28">
+      <c r="A3" s="22">
         <v>417</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="str">
+      <c r="C3" s="20" t="str">
         <f>$S$2</f>
         <v>Het</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="42">
         <v>42962</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="42">
         <v>43123</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="60">
+      <c r="G3" s="42"/>
+      <c r="H3" s="43">
         <f ca="1">IF(G3, G3-D3, TODAY()-D3)</f>
-        <v>241</v>
-      </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
         <v>27</v>
       </c>
       <c r="N3" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <f>COUNTIFS(B:B, "F",C:C, P2)</f>
-        <v>5</v>
-      </c>
-      <c r="Q3" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="2">
         <f>COUNTIFS(B:B, "F",C:C,Q2)</f>
         <v>5</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <f>SUM(P3:Q3)</f>
-        <v>10</v>
-      </c>
-      <c r="S3" s="27">
+        <v>12</v>
+      </c>
+      <c r="S3" s="21">
         <f>COUNTIFS(B:B, "F",C:C,S2)</f>
         <v>10</v>
       </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="26">
+      <c r="A4" s="20">
         <v>422</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="26" t="str">
+      <c r="C4" s="20" t="str">
         <f>$S$2</f>
         <v>Het</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="38">
         <v>42962</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="38">
         <v>43123</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49">
+      <c r="G4" s="38"/>
+      <c r="H4" s="39">
         <f ca="1">IF(G4, G4-D4, TODAY()-D4)</f>
-        <v>241</v>
-      </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21" t="s">
         <v>27</v>
       </c>
       <c r="N4" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <f>COUNTIFS(B:B, "M",C:C, P2)</f>
-        <v>6</v>
-      </c>
-      <c r="Q4" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="2">
         <f>COUNTIFS(B:B, "M",C:C,Q2)</f>
         <v>2</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <f>SUM(P4:Q4)</f>
-        <v>8</v>
-      </c>
-      <c r="S4" s="27">
+        <v>9</v>
+      </c>
+      <c r="S4" s="21">
         <f>COUNTIFS(B:B, "M",C:C, S2)</f>
-        <v>6</v>
-      </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
+        <v>9</v>
+      </c>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="28">
+      <c r="A5" s="22">
         <v>425</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="26" t="str">
+      <c r="C5" s="20" t="str">
         <f>$S$2</f>
         <v>Het</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="42">
         <v>42964</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="42">
         <v>43123</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60">
+      <c r="G5" s="42"/>
+      <c r="H5" s="43">
         <f ca="1">IF(G5, G5-D5, TODAY()-D5)</f>
-        <v>239</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21" t="s">
         <v>27</v>
       </c>
       <c r="N5" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
         <f>SUM(P3:P4)</f>
-        <v>11</v>
-      </c>
-      <c r="Q5" s="5">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="4">
         <f>SUM(Q3:Q4)</f>
         <v>7</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <f>SUM(R3:R4)</f>
-        <v>18</v>
-      </c>
-      <c r="S5" s="47">
+        <v>21</v>
+      </c>
+      <c r="S5" s="37">
         <f>SUM(S3:S4)</f>
-        <v>16</v>
-      </c>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
+        <v>19</v>
+      </c>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="4">
+      <c r="A6" s="80">
         <v>435</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="str">
+      <c r="C6" s="80" t="str">
         <f>$P$2</f>
         <v>Mut</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="48">
         <v>43097</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="48">
         <v>43123</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="48">
         <v>43124</v>
       </c>
-      <c r="H6" s="72">
+      <c r="H6" s="49">
         <f ca="1">IF(G6, G6-D6, TODAY()-D6)</f>
         <v>27</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
       <c r="N6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="9">
+      <c r="A7" s="79">
         <v>437</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="9" t="str">
+      <c r="C7" s="79" t="str">
         <f>$Q$2</f>
         <v>WT</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="50">
         <v>43097</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="50">
         <v>43123</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="50">
         <v>43124</v>
       </c>
-      <c r="H7" s="74">
+      <c r="H7" s="51">
         <f ca="1">IF(G7, G7-D7, TODAY()-D7)</f>
         <v>27</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="6"/>
-      <c r="O7" s="5" t="s">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="5"/>
+      <c r="O7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="R7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S7" s="46"/>
+      <c r="S7" s="36"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="7">
+      <c r="A8" s="80">
         <v>439</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="7" t="str">
+      <c r="C8" s="80" t="str">
         <f>$P$2</f>
         <v>Mut</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="48">
         <v>43111</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="48">
         <v>43145</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="48">
         <v>43146</v>
       </c>
-      <c r="H8" s="72">
+      <c r="H8" s="49">
         <f ca="1">IF(G8, G8-D8, TODAY()-D8)</f>
         <v>35</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="22" t="s">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="2">
         <f>COUNTIFS(B:B, "F",C:C, P7,G:G,"")</f>
-        <v>1</v>
-      </c>
-      <c r="Q8" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="2">
         <f>COUNTIFS(B:B, "F",C:C,Q7,G:G, "")</f>
         <v>0</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="4">
         <f>SUM(P8:Q8)</f>
-        <v>1</v>
-      </c>
-      <c r="S8" s="27"/>
+        <v>3</v>
+      </c>
+      <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="9">
+      <c r="A9" s="79">
         <v>440</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="9" t="str">
+      <c r="C9" s="79" t="str">
         <f>$Q$2</f>
         <v>WT</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="50">
         <v>43111</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="50">
         <v>43145</v>
       </c>
-      <c r="G9" s="73">
+      <c r="G9" s="50">
         <v>43147</v>
       </c>
-      <c r="H9" s="74">
+      <c r="H9" s="51">
         <f ca="1">IF(G9, G9-D9, TODAY()-D9)</f>
         <v>36</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10" t="s">
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="40" t="s">
+      <c r="L9" s="8"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="2">
         <f>COUNTIFS(B:B, "M",C:C, P7,G:G,"")</f>
-        <v>3</v>
-      </c>
-      <c r="Q9" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="2">
         <f>COUNTIFS(B:B, "M",C:C,Q7,G:G,"")</f>
         <v>0</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="4">
         <f>SUM(P9:Q9)</f>
-        <v>3</v>
-      </c>
-      <c r="S9" s="27"/>
+        <v>4</v>
+      </c>
+      <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="66">
+      <c r="A10" s="81">
         <v>441</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="9" t="str">
+      <c r="C10" s="79" t="str">
         <f>$Q$2</f>
         <v>WT</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="52">
         <v>43111</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="52">
         <v>43145</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="52">
         <v>43146</v>
       </c>
-      <c r="H10" s="76">
+      <c r="H10" s="53">
         <f ca="1">IF(G10, G10-D10, TODAY()-D10)</f>
         <v>35</v>
       </c>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="10" t="s">
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="41" t="s">
+      <c r="N10" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
         <f>SUM(P8:P9)</f>
-        <v>4</v>
-      </c>
-      <c r="Q10" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="4">
         <f>SUM(Q8:Q9)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="4">
         <f>SUM(R8:R9)</f>
-        <v>4</v>
-      </c>
-      <c r="S10" s="47"/>
+        <v>7</v>
+      </c>
+      <c r="S10" s="37"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="2">
+      <c r="A11" s="82">
         <v>442</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="7" t="str">
+      <c r="C11" s="80" t="str">
         <f>$P$2</f>
         <v>Mut</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="54">
         <v>43118</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="54">
         <v>43145</v>
       </c>
-      <c r="G11" s="77">
+      <c r="G11" s="54">
         <v>43146</v>
       </c>
-      <c r="H11" s="78">
+      <c r="H11" s="55">
         <f ca="1">IF(G11, G11-D11, TODAY()-D11)</f>
         <v>28</v>
       </c>
@@ -1880,1594 +2200,1794 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="44" t="s">
+      <c r="N11" s="35" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="4">
+      <c r="A12" s="80">
         <v>443</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="4" t="str">
+      <c r="C12" s="80" t="str">
         <f>$P$2</f>
         <v>Mut</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="48">
         <v>43118</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="48">
         <v>43145</v>
       </c>
-      <c r="G12" s="71">
+      <c r="G12" s="48">
         <v>43146</v>
       </c>
-      <c r="H12" s="72">
+      <c r="H12" s="49">
         <f ca="1">IF(G12, G12-D12, TODAY()-D12)</f>
         <v>28</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5" t="s">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5" t="s">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="12">
         <f ca="1">IF(H:H="E", "", AVERAGEIF(G:G, "&lt;&gt;",H:H))</f>
         <v>39.61904761904762</v>
       </c>
-      <c r="Q12" s="14"/>
+      <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="44">
+      <c r="A13" s="79">
         <v>101</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="50">
         <v>43130</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="50">
         <v>43165</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="50">
         <v>43165</v>
       </c>
-      <c r="H13" s="74">
+      <c r="H13" s="51">
         <f ca="1">IF(G13, G13-D13, TODAY()-D13)</f>
         <v>35</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="10" t="s">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="44">
+      <c r="A14" s="79">
         <v>102</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="50">
         <v>43130</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="50">
         <v>43165</v>
       </c>
-      <c r="G14" s="73">
+      <c r="G14" s="50">
         <v>43165</v>
       </c>
-      <c r="H14" s="74">
+      <c r="H14" s="51">
         <f ca="1">IF(G14, G14-D14, TODAY()-D14)</f>
         <v>35</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="10" t="s">
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N14" s="42" t="s">
+      <c r="N14" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="8">
         <f>COUNTIF(A:A, "&lt;&gt;")-1</f>
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="44">
+      <c r="A15" s="79">
         <v>103</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="50">
         <v>43130</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="50">
         <v>43165</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="50">
         <v>43165</v>
       </c>
-      <c r="H15" s="74">
+      <c r="H15" s="51">
         <f ca="1">IF(G15, G15-D15, TODAY()-D15)</f>
         <v>35</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="10" t="s">
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="43" t="s">
+      <c r="N15" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="44">
+      <c r="A16" s="79">
         <v>104</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="50">
         <v>43130</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="50">
         <v>43165</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G16" s="50">
         <v>43165</v>
       </c>
-      <c r="H16" s="74">
+      <c r="H16" s="51">
         <f ca="1">IF(G16, G16-D16, TODAY()-D16)</f>
         <v>35</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="10" t="s">
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="P16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q16" s="8" t="s">
+      <c r="Q16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R16" s="8" t="s">
+      <c r="R16" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>444</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="7" t="str">
+      <c r="C17" s="6" t="str">
         <f>$P$2</f>
         <v>Mut</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="44">
         <v>43132</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="44">
         <v>43166</v>
       </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="64">
+      <c r="G17" s="44"/>
+      <c r="H17" s="45">
         <f ca="1">IF(G17, G17-D17, TODAY()-D17)</f>
-        <v>71</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="O17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="O17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="2">
         <f>COUNTIFS(B:B, "F",C:C, P16,I:I, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="2">
         <f>COUNTIFS(B:B, "F",C:C,Q16,I:I, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="4">
         <f>SUM(P17:Q17)</f>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="7">
+      <c r="A18" s="80">
         <v>445</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="7" t="str">
+      <c r="C18" s="80" t="str">
         <f>$P$2</f>
         <v>Mut</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="48">
         <v>43132</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="48">
         <v>43166</v>
       </c>
-      <c r="G18" s="71">
+      <c r="G18" s="48">
         <v>43201</v>
       </c>
-      <c r="H18" s="72">
+      <c r="H18" s="49">
         <f ca="1">IF(G18, G18-D18, TODAY()-D18)</f>
         <v>69</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="5"/>
-      <c r="O18" s="5" t="s">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="O18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="2">
         <f>COUNTIFS(B:B, "M",C:C, P16,I:I, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="2">
         <f>COUNTIFS(B:B, "M",C:C,Q16,I:I, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="4">
         <f>SUM(P18:Q18)</f>
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="4">
+      <c r="A19" s="80">
         <v>448</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="4" t="str">
+      <c r="C19" s="80" t="str">
         <f>$P$2</f>
         <v>Mut</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="48">
         <v>43132</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F19" s="48">
         <v>43166</v>
       </c>
-      <c r="G19" s="71">
+      <c r="G19" s="48">
         <v>43201</v>
       </c>
-      <c r="H19" s="72">
+      <c r="H19" s="49">
         <f ca="1">IF(G19, G19-D19, TODAY()-D19)</f>
         <v>69</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="5"/>
-      <c r="O19" s="5" t="s">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="O19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="4">
         <f>SUM(P17:P18)</f>
         <v>2</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="4">
         <f>SUM(Q17:Q18)</f>
         <v>2</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="4">
         <f>SUM(R17:R18)</f>
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="26">
+      <c r="A20" s="20">
         <v>449</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="26" t="str">
+      <c r="C20" s="20" t="str">
         <f>$S$2</f>
         <v>Het</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="38">
         <v>43132</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="38">
         <v>43166</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49">
+      <c r="G20" s="38"/>
+      <c r="H20" s="39">
         <f ca="1">IF(G20, G20-D20, TODAY()-D20)</f>
-        <v>71</v>
-      </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="9">
+      <c r="A21" s="79">
         <v>450</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="9" t="str">
+      <c r="C21" s="79" t="str">
         <f>$Q$2</f>
         <v>WT</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="50">
         <v>43132</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="50">
         <v>43166</v>
       </c>
-      <c r="G21" s="73">
+      <c r="G21" s="50">
         <v>43201</v>
       </c>
-      <c r="H21" s="74">
+      <c r="H21" s="51">
         <f ca="1">IF(G21, G21-D21, TODAY()-D21)</f>
         <v>69</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="10"/>
-      <c r="O21" s="5" t="s">
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="O21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="8" t="s">
+      <c r="P21" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="Q21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="8" t="s">
+      <c r="R21" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="26">
+      <c r="A22" s="20">
         <v>451</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="26" t="str">
+      <c r="C22" s="20" t="str">
         <f>$S$2</f>
         <v>Het</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="38">
         <v>43132</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="38">
         <v>43166</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="49">
+      <c r="G22" s="38"/>
+      <c r="H22" s="39">
         <f ca="1">IF(G22, G22-D22, TODAY()-D22)</f>
-        <v>71</v>
-      </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="2">
         <f>COUNTIFS(B:B, "F",C:C, P16,J:J, "&lt;&gt;")</f>
         <v>2</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="2">
         <f>COUNTIFS(B:B, "F",C:C,Q21,J:J, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="4">
         <f>SUM(P22:Q22)</f>
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="9">
+      <c r="A23" s="79">
         <v>455</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="9" t="str">
+      <c r="C23" s="79" t="str">
         <f>$Q$2</f>
         <v>WT</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="50">
         <v>43146</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="50">
         <v>43166</v>
       </c>
-      <c r="G23" s="73">
+      <c r="G23" s="50">
         <v>43201</v>
       </c>
-      <c r="H23" s="74">
+      <c r="H23" s="51">
         <f ca="1">IF(G23, G23-D23, TODAY()-D23)</f>
         <v>55</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="10"/>
-      <c r="O23" s="5" t="s">
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="8"/>
+      <c r="O23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="2">
         <f>COUNTIFS(B:B, "M",C:C, P16,J:J, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="Q23" s="70">
+      <c r="Q23" s="47">
         <f>COUNTIFS(B:B, "M",C:C,Q21,J:J, "&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="4">
         <f>SUM(P23:Q23)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="4">
+      <c r="A24" s="80">
         <v>457</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="4" t="str">
+      <c r="C24" s="80" t="str">
         <f>$P$2</f>
         <v>Mut</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="48">
         <v>43146</v>
       </c>
-      <c r="E24" s="51" t="s">
+      <c r="E24" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F24" s="48">
         <v>43166</v>
       </c>
-      <c r="G24" s="71">
+      <c r="G24" s="48">
         <v>43201</v>
       </c>
-      <c r="H24" s="72">
+      <c r="H24" s="49">
         <f ca="1">IF(G24, G24-D24, TODAY()-D24)</f>
         <v>55</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="5"/>
-      <c r="O24" s="5" t="s">
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="O24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24" s="4">
         <f>SUM(P22:P23)</f>
         <v>3</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24" s="4">
         <f>SUM(Q22:Q23)</f>
         <v>1</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="4">
         <f>SUM(R22:R23)</f>
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="28">
+      <c r="A25" s="22">
         <v>1</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="28" t="str">
+      <c r="C25" s="22" t="str">
         <f>$S$2</f>
         <v>Het</v>
       </c>
-      <c r="D25" s="59">
+      <c r="D25" s="42">
         <v>43147</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="60">
+      <c r="G25" s="22"/>
+      <c r="H25" s="43">
         <f ca="1">IF(G25, G25-D25, TODAY()-D25)</f>
-        <v>56</v>
-      </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="39">
+      <c r="A26" s="78">
         <v>2</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="39" t="str">
+      <c r="C26" s="78" t="str">
         <f>$Q$2</f>
         <v>WT</v>
       </c>
-      <c r="D26" s="65">
+      <c r="D26" s="56">
         <v>43150</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="79">
+      <c r="G26" s="56">
         <v>43186</v>
       </c>
-      <c r="H26" s="74">
+      <c r="H26" s="51">
         <f ca="1">IF(G26, G26-D26, TODAY()-D26)</f>
         <v>36</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="O26" s="5" t="s">
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="O26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P26" s="8" t="s">
+      <c r="P26" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q26" s="8" t="s">
+      <c r="Q26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R26" s="8" t="s">
+      <c r="R26" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="26">
+      <c r="A27" s="20">
         <v>3</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="26" t="str">
+      <c r="C27" s="20" t="str">
         <f>$S$2</f>
         <v>Het</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="38">
         <v>43150</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="49">
+      <c r="G27" s="20"/>
+      <c r="H27" s="39">
         <f ca="1">IF(G27, G27-D27, TODAY()-D27)</f>
-        <v>53</v>
-      </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P27" s="70">
+      <c r="P27" s="47">
         <f>COUNTIFS(B:B, "F",C:C, P26,K:K, "&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="2">
         <f>COUNTIFS(B:B, "F",C:C,Q26,K:K, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" s="4">
         <f>SUM(P27:Q27)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="45">
+      <c r="A28" s="74">
         <v>105</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="55">
+      <c r="D28" s="57">
         <v>43150</v>
       </c>
-      <c r="E28" s="45" t="s">
+      <c r="E28" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="55">
+      <c r="F28" s="57">
         <v>43180</v>
       </c>
-      <c r="G28" s="80">
+      <c r="G28" s="57">
         <v>43180</v>
       </c>
-      <c r="H28" s="74">
+      <c r="H28" s="51">
         <f ca="1">IF(G28, G28-D28, TODAY()-D28)</f>
         <v>30</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12" t="s">
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="M28" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="O28" s="5" t="s">
+      <c r="O28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="70">
+      <c r="P28" s="47">
         <f>COUNTIFS(B:B, "M",C:C, P26,K:K, "&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="70">
+      <c r="Q28" s="47">
         <f>COUNTIFS(B:B, "M",C:C,Q26,K:K, "&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="R28" s="5">
+      <c r="R28" s="4">
         <f>SUM(P28:Q28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="45">
+      <c r="A29" s="74">
         <v>106</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="55">
+      <c r="D29" s="57">
         <v>43150</v>
       </c>
-      <c r="E29" s="45" t="s">
+      <c r="E29" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="55">
+      <c r="F29" s="57">
         <v>43180</v>
       </c>
-      <c r="G29" s="80">
+      <c r="G29" s="57">
         <v>43180</v>
       </c>
-      <c r="H29" s="74">
+      <c r="H29" s="51">
         <f ca="1">IF(G29, G29-D29, TODAY()-D29)</f>
         <v>30</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12" t="s">
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="M29" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="O29" s="5" t="s">
+      <c r="O29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P29" s="5">
+      <c r="P29" s="4">
         <f>SUM(P27:P28)</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="Q29" s="4">
         <f>SUM(Q27:Q28)</f>
         <v>1</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R29" s="4">
         <f>SUM(R27:R28)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="45">
+      <c r="A30" s="74">
         <v>107</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="55">
+      <c r="D30" s="57">
         <v>43150</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="55">
+      <c r="F30" s="57">
         <v>43180</v>
       </c>
-      <c r="G30" s="80">
+      <c r="G30" s="57">
         <v>43180</v>
       </c>
-      <c r="H30" s="74">
+      <c r="H30" s="51">
         <f ca="1">IF(G30, G30-D30, TODAY()-D30)</f>
         <v>30</v>
       </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12" t="s">
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M30" s="12" t="s">
+      <c r="M30" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="23">
+      <c r="A31" s="59">
         <v>201</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="21" t="str">
+      <c r="C31" s="75" t="str">
         <f>$P$2</f>
         <v>Mut</v>
       </c>
-      <c r="D31" s="56">
+      <c r="D31" s="58">
         <v>43165</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="58">
         <v>43166</v>
       </c>
-      <c r="G31" s="81">
+      <c r="G31" s="58">
         <v>43165</v>
       </c>
-      <c r="H31" s="82" t="s">
+      <c r="H31" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="25" t="s">
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="O31" s="5" t="s">
+      <c r="O31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P31" s="8" t="s">
+      <c r="P31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q31" s="8" t="s">
+      <c r="Q31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R31" s="8" t="s">
+      <c r="R31" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="34">
+      <c r="A32" s="61">
         <v>202</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="36" t="str">
+      <c r="C32" s="76" t="str">
         <f>$S$2</f>
         <v>Het</v>
       </c>
-      <c r="D32" s="57">
+      <c r="D32" s="60">
         <v>43165</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="57">
+      <c r="F32" s="60">
         <v>43166</v>
       </c>
-      <c r="G32" s="83">
+      <c r="G32" s="60">
         <v>43165</v>
       </c>
-      <c r="H32" s="84" t="s">
+      <c r="H32" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="38" t="s">
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="O32" s="5" t="s">
+      <c r="O32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P32" s="70">
+      <c r="P32" s="67">
         <f>COUNTIFS(B:B, "F",C:C, P31,L:L, "&lt;&gt;")</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="70">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="67">
         <f>COUNTIFS(B:B, "F",C:C,Q31,L:L, "&lt;&gt;")</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="5">
+        <v>2</v>
+      </c>
+      <c r="R32" s="4">
         <f>SUM(P32:Q32)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="34">
+      <c r="A33" s="61">
         <v>203</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="36" t="str">
+      <c r="C33" s="76" t="str">
         <f>$S$2</f>
         <v>Het</v>
       </c>
-      <c r="D33" s="57">
+      <c r="D33" s="60">
         <v>43165</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="57">
+      <c r="F33" s="60">
         <v>43166</v>
       </c>
-      <c r="G33" s="83">
+      <c r="G33" s="60">
         <v>43165</v>
       </c>
-      <c r="H33" s="84" t="s">
+      <c r="H33" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="38" t="s">
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="O33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P33" s="70">
+      <c r="P33" s="67">
         <f>COUNTIFS(B:B, "M",C:C, P31,L:L, "&lt;&gt;")</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="70">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="67">
         <f>COUNTIFS(B:B, "M",C:C,Q31,L:L, "&lt;&gt;")</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="5">
+        <v>1</v>
+      </c>
+      <c r="R33" s="4">
         <f>SUM(P33:Q33)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="34">
+      <c r="A34" s="61">
         <v>204</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="36" t="str">
+      <c r="C34" s="76" t="str">
         <f>$S$2</f>
         <v>Het</v>
       </c>
-      <c r="D34" s="57">
+      <c r="D34" s="60">
         <v>43165</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="57">
+      <c r="F34" s="60">
         <v>43166</v>
       </c>
-      <c r="G34" s="83">
+      <c r="G34" s="60">
         <v>43165</v>
       </c>
-      <c r="H34" s="84" t="s">
+      <c r="H34" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="38" t="s">
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="O34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="4">
         <f>SUM(P32:P33)</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="4">
         <f>SUM(Q32:Q33)</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="5">
+        <v>3</v>
+      </c>
+      <c r="R34" s="4">
         <f>SUM(R32:R33)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="19">
+      <c r="A35" s="63">
         <v>205</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="20" t="str">
+      <c r="C35" s="77" t="str">
         <f>$Q$2</f>
         <v>WT</v>
       </c>
-      <c r="D35" s="58">
+      <c r="D35" s="62">
         <v>43165</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="58">
+      <c r="F35" s="62">
         <v>43166</v>
       </c>
-      <c r="G35" s="85">
+      <c r="G35" s="62">
         <v>43165</v>
       </c>
-      <c r="H35" s="86" t="s">
+      <c r="H35" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="16" t="s">
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="34">
+      <c r="A36" s="61">
         <v>206</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="36" t="str">
+      <c r="C36" s="76" t="str">
         <f>$S$2</f>
         <v>Het</v>
       </c>
-      <c r="D36" s="57">
+      <c r="D36" s="60">
         <v>43165</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="57">
+      <c r="F36" s="60">
         <v>43166</v>
       </c>
-      <c r="G36" s="83">
+      <c r="G36" s="60">
         <v>43165</v>
       </c>
-      <c r="H36" s="84" t="s">
+      <c r="H36" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="38" t="s">
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="O36" s="8" t="s">
+      <c r="O36" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P36" s="2">
         <f>COUNTIFS(M:M, O36,C:C, P2,M:M, O36)</f>
         <v>2</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="Q36" s="2">
         <f>COUNTIFS(M:M, O36,C:C, Q2,M:M, O36)</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="23">
+      <c r="A37" s="59">
         <v>207</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="21" t="str">
+      <c r="C37" s="75" t="str">
         <f>$P$2</f>
         <v>Mut</v>
       </c>
-      <c r="D37" s="56">
+      <c r="D37" s="58">
         <v>43165</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="56">
+      <c r="F37" s="58">
         <v>43166</v>
       </c>
-      <c r="G37" s="81">
+      <c r="G37" s="58">
         <v>43165</v>
       </c>
-      <c r="H37" s="82" t="s">
+      <c r="H37" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="25" t="s">
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="39">
+      <c r="A38" s="78">
         <v>4</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="39" t="str">
+      <c r="C38" s="78" t="str">
         <f>$Q$2</f>
         <v>WT</v>
       </c>
-      <c r="D38" s="65">
+      <c r="D38" s="56">
         <v>43168</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="E38" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="39" t="s">
+      <c r="F38" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="79">
+      <c r="G38" s="56">
         <v>43201</v>
       </c>
-      <c r="H38" s="72">
+      <c r="H38" s="49">
         <f ca="1">IF(G38, G38-D38, TODAY()-D38)</f>
         <v>33</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="28">
+      <c r="A39" s="22">
         <v>5</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="28" t="str">
+      <c r="C39" s="22" t="str">
         <f>$S$2</f>
         <v>Het</v>
       </c>
-      <c r="D39" s="59">
+      <c r="D39" s="42">
         <v>43168</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G39" s="28"/>
-      <c r="H39" s="60">
+      <c r="G39" s="22"/>
+      <c r="H39" s="43">
         <f ca="1">IF(G39, G39-D39, TODAY()-D39)</f>
-        <v>35</v>
-      </c>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="40">
+      <c r="A40" s="31">
         <v>459</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="88">
+      <c r="C40" s="31"/>
+      <c r="D40" s="65">
         <v>43177</v>
       </c>
-      <c r="E40" s="89" t="s">
+      <c r="E40" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="88">
+      <c r="F40" s="65">
         <v>43203</v>
       </c>
-      <c r="G40" s="40"/>
-      <c r="H40" s="53">
+      <c r="G40" s="31"/>
+      <c r="H40" s="41">
         <f ca="1">IF(G40, G40-D40, TODAY()-D40)</f>
-        <v>26</v>
-      </c>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="42"/>
-      <c r="O40" s="87"/>
+        <v>29</v>
+      </c>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="33"/>
+      <c r="O40" s="64"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="40">
+      <c r="A41" s="31">
         <v>460</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="88">
+      <c r="C41" s="31"/>
+      <c r="D41" s="65">
         <v>43177</v>
       </c>
-      <c r="E41" s="89" t="s">
+      <c r="E41" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="88">
+      <c r="F41" s="65">
         <v>43203</v>
       </c>
-      <c r="G41" s="40"/>
-      <c r="H41" s="53">
+      <c r="G41" s="31"/>
+      <c r="H41" s="41">
         <f ca="1">IF(G41, G41-D41, TODAY()-D41)</f>
-        <v>26</v>
-      </c>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="42"/>
+        <v>29</v>
+      </c>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="33"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="91">
+      <c r="A42" s="71">
+        <v>1000</v>
+      </c>
+      <c r="B42" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="68" t="str">
+        <f>$P$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D42" s="72">
+        <v>43187</v>
+      </c>
+      <c r="E42" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="71">
+        <f ca="1">IF(G42, G42-D42, TODAY()-D42)</f>
+        <v>19</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="66">
+        <v>1001</v>
+      </c>
+      <c r="B43" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="70" t="str">
+        <f>$P$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D43" s="73">
+        <v>43187</v>
+      </c>
+      <c r="E43" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="66">
+        <f ca="1">IF(G43, G43-D43, TODAY()-D43)</f>
+        <v>19</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="68">
         <v>6</v>
       </c>
-      <c r="B42" s="91" t="s">
+      <c r="B44" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="92">
+      <c r="C44" s="68" t="str">
+        <f>$P$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D44" s="69">
         <v>43191</v>
       </c>
-      <c r="E42" s="91" t="s">
+      <c r="E44" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="91" t="s">
+      <c r="F44" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="G42" s="91"/>
-      <c r="H42" s="64">
-        <f ca="1">IF(G42, G42-D42, TODAY()-D42)</f>
+      <c r="G44" s="68"/>
+      <c r="H44" s="45">
+        <f ca="1">IF(G44, G44-D44, TODAY()-D44)</f>
+        <v>15</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="20">
+        <v>7</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="20" t="str">
+        <f>$S$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D45" s="38">
+        <v>43191</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="39">
+        <f ca="1">IF(G45, G45-D45, TODAY()-D45)</f>
+        <v>15</v>
+      </c>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="22">
+        <v>8</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="22" t="str">
+        <f t="shared" ref="C46:C47" si="0">$S$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D46" s="42">
+        <v>43196</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22">
+        <f ca="1">IF(G46, G46-D46, TODAY()-D46)</f>
+        <v>10</v>
+      </c>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="22">
+        <v>9</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Het</v>
+      </c>
+      <c r="D47" s="42">
+        <v>43196</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22">
+        <f ca="1">IF(G47, G47-D47, TODAY()-D47)</f>
+        <v>10</v>
+      </c>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="6">
+        <v>10</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="68" t="str">
+        <f>$P$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D48" s="44">
+        <v>43196</v>
+      </c>
+      <c r="E48" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="68">
+        <f ca="1">IF(G48, G48-D48, TODAY()-D48)</f>
+        <v>10</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="20">
+        <v>11</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="20" t="str">
+        <f>$S$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D49" s="38">
+        <v>43196</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20">
+        <f ca="1">IF(G49, G49-D49, TODAY()-D49)</f>
+        <v>10</v>
+      </c>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="20">
         <v>12</v>
       </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="26">
-        <v>7</v>
-      </c>
-      <c r="B43" s="26" t="s">
+      <c r="B50" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C50" s="20" t="str">
+        <f t="shared" ref="C50:C52" si="1">$S$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D50" s="38">
+        <v>43196</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20">
+        <f ca="1">IF(G50, G50-D50, TODAY()-D50)</f>
+        <v>10</v>
+      </c>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="20">
+        <v>13</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Het</v>
+      </c>
+      <c r="D51" s="38">
+        <v>43196</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20">
+        <f ca="1">IF(G51, G51-D51, TODAY()-D51)</f>
+        <v>10</v>
+      </c>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="20">
         <v>14</v>
       </c>
-      <c r="D43" s="48">
-        <v>43191</v>
-      </c>
-      <c r="E43" s="26" t="s">
+      <c r="B52" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Het</v>
+      </c>
+      <c r="D52" s="38">
+        <v>43196</v>
+      </c>
+      <c r="E52" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F52" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="49">
-        <f ca="1">IF(G43, G43-D43, TODAY()-D43)</f>
-        <v>12</v>
-      </c>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="28">
+      <c r="G52" s="20"/>
+      <c r="H52" s="20">
+        <f ca="1">IF(G52, G52-D52, TODAY()-D52)</f>
+        <v>10</v>
+      </c>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="3">
+        <v>15</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="70" t="str">
+        <f>$P$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D53" s="40">
+        <v>43196</v>
+      </c>
+      <c r="E53" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="70">
+        <f ca="1">IF(G53, G53-D53, TODAY()-D53)</f>
+        <v>10</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="22">
+        <v>16</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="22" t="str">
+        <f>$S$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D54" s="42">
+        <v>43198</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22">
+        <f ca="1">IF(G54, G54-D54, TODAY()-D54)</f>
         <v>8</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="22">
+        <v>17</v>
+      </c>
+      <c r="B55" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="59">
-        <v>43196</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F44" s="28" t="s">
+      <c r="C55" s="22" t="str">
+        <f t="shared" ref="C55:C56" si="2">$S$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D55" s="42">
+        <v>43198</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28">
-        <f ca="1">IF(G44, G44-D44, TODAY()-D44)</f>
-        <v>7</v>
-      </c>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="28">
-        <v>9</v>
-      </c>
-      <c r="B45" s="28" t="s">
+      <c r="G55" s="22"/>
+      <c r="H55" s="22">
+        <f ca="1">IF(G55, G55-D55, TODAY()-D55)</f>
+        <v>8</v>
+      </c>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="22">
+        <v>18</v>
+      </c>
+      <c r="B56" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="59">
-        <v>43196</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" s="28" t="s">
+      <c r="C56" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Het</v>
+      </c>
+      <c r="D56" s="42">
+        <v>43198</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28">
-        <f ca="1">IF(G45, G45-D45, TODAY()-D45)</f>
-        <v>7</v>
-      </c>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="7">
-        <v>10</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="63">
-        <v>43196</v>
-      </c>
-      <c r="E46" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="7" t="s">
+      <c r="G56" s="22"/>
+      <c r="H56" s="22">
+        <f ca="1">IF(G56, G56-D56, TODAY()-D56)</f>
+        <v>8</v>
+      </c>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="70">
+        <v>19</v>
+      </c>
+      <c r="B57" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="70" t="str">
+        <f>$P$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D57" s="84">
+        <v>43198</v>
+      </c>
+      <c r="E57" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="91">
-        <f ca="1">IF(G46, G46-D46, TODAY()-D46)</f>
-        <v>7</v>
-      </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="26">
-        <v>11</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="48">
-        <v>43196</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26">
-        <f ca="1">IF(G47, G47-D47, TODAY()-D47)</f>
-        <v>7</v>
-      </c>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="A48" s="26">
-        <v>12</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="48">
-        <v>43196</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26">
-        <f ca="1">IF(G48, G48-D48, TODAY()-D48)</f>
-        <v>7</v>
-      </c>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="26">
-        <v>13</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="48">
-        <v>43196</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26">
-        <f ca="1">IF(G49, G49-D49, TODAY()-D49)</f>
-        <v>7</v>
-      </c>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="26">
-        <v>14</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="48">
-        <v>43196</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26">
-        <f ca="1">IF(G50, G50-D50, TODAY()-D50)</f>
-        <v>7</v>
-      </c>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="4">
-        <v>15</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="50">
-        <v>43196</v>
-      </c>
-      <c r="E51" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="93">
-        <f ca="1">IF(G51, G51-D51, TODAY()-D51)</f>
-        <v>7</v>
-      </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70">
+        <f ca="1">IF(G57, G57-D57, TODAY()-D57)</f>
+        <v>8</v>
+      </c>
+      <c r="I57" s="85"/>
+      <c r="J57" s="85"/>
+      <c r="K57" s="85"/>
+      <c r="L57" s="85"/>
+      <c r="M57" s="85"/>
     </row>
   </sheetData>
-  <sortState ref="A2:M51">
-    <sortCondition ref="D2:D51"/>
-    <sortCondition ref="A2:A51"/>
+  <sortState ref="A2:M57">
+    <sortCondition ref="D2:D57"/>
+    <sortCondition ref="A2:A57"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="N14:N15 H28:H30 E28:E30 I1:M1048576 E1:H27 E31:H1048576 A1:D1048576">
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="2" stopIfTrue="1">
       <formula>$C$2="Mut"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="420" windowWidth="30680" windowHeight="17080" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="280" yWindow="420" windowWidth="30680" windowHeight="17080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -862,423 +862,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1631,7 +1215,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <selection pane="bottomLeft" activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1710,8 +1294,8 @@
       </c>
       <c r="G2" s="38"/>
       <c r="H2" s="39">
-        <f ca="1">IF(G2, G2-D2, TODAY()-D2)</f>
-        <v>299</v>
+        <f t="shared" ref="H2:H30" ca="1" si="0">IF(G2, G2-D2, TODAY()-D2)</f>
+        <v>300</v>
       </c>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
@@ -1763,8 +1347,8 @@
       </c>
       <c r="G3" s="42"/>
       <c r="H3" s="43">
-        <f ca="1">IF(G3, G3-D3, TODAY()-D3)</f>
-        <v>244</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>245</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
@@ -1820,8 +1404,8 @@
       </c>
       <c r="G4" s="38"/>
       <c r="H4" s="39">
-        <f ca="1">IF(G4, G4-D4, TODAY()-D4)</f>
-        <v>244</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>245</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -1877,8 +1461,8 @@
       </c>
       <c r="G5" s="42"/>
       <c r="H5" s="43">
-        <f ca="1">IF(G5, G5-D5, TODAY()-D5)</f>
-        <v>242</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>243</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -1936,7 +1520,7 @@
         <v>43124</v>
       </c>
       <c r="H6" s="49">
-        <f ca="1">IF(G6, G6-D6, TODAY()-D6)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -1976,7 +1560,7 @@
         <v>43124</v>
       </c>
       <c r="H7" s="51">
-        <f ca="1">IF(G7, G7-D7, TODAY()-D7)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -2026,7 +1610,7 @@
         <v>43146</v>
       </c>
       <c r="H8" s="49">
-        <f ca="1">IF(G8, G8-D8, TODAY()-D8)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="I8" s="4"/>
@@ -2082,7 +1666,7 @@
         <v>43147</v>
       </c>
       <c r="H9" s="51">
-        <f ca="1">IF(G9, G9-D9, TODAY()-D9)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
       <c r="I9" s="8"/>
@@ -2136,7 +1720,7 @@
         <v>43146</v>
       </c>
       <c r="H10" s="53">
-        <f ca="1">IF(G10, G10-D10, TODAY()-D10)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="I10" s="46"/>
@@ -2190,7 +1774,7 @@
         <v>43146</v>
       </c>
       <c r="H11" s="55">
-        <f ca="1">IF(G11, G11-D11, TODAY()-D11)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -2228,7 +1812,7 @@
         <v>43146</v>
       </c>
       <c r="H12" s="49">
-        <f ca="1">IF(G12, G12-D12, TODAY()-D12)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
       <c r="I12" s="4"/>
@@ -2272,7 +1856,7 @@
         <v>43165</v>
       </c>
       <c r="H13" s="51">
-        <f ca="1">IF(G13, G13-D13, TODAY()-D13)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="I13" s="8"/>
@@ -2309,7 +1893,7 @@
         <v>43165</v>
       </c>
       <c r="H14" s="51">
-        <f ca="1">IF(G14, G14-D14, TODAY()-D14)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="I14" s="8"/>
@@ -2353,7 +1937,7 @@
         <v>43165</v>
       </c>
       <c r="H15" s="51">
-        <f ca="1">IF(G15, G15-D15, TODAY()-D15)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="I15" s="8"/>
@@ -2390,7 +1974,7 @@
         <v>43165</v>
       </c>
       <c r="H16" s="51">
-        <f ca="1">IF(G16, G16-D16, TODAY()-D16)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="I16" s="8"/>
@@ -2435,8 +2019,8 @@
       </c>
       <c r="G17" s="44"/>
       <c r="H17" s="45">
-        <f ca="1">IF(G17, G17-D17, TODAY()-D17)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -2483,7 +2067,7 @@
         <v>43201</v>
       </c>
       <c r="H18" s="49">
-        <f ca="1">IF(G18, G18-D18, TODAY()-D18)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
       <c r="I18" s="4"/>
@@ -2533,7 +2117,7 @@
         <v>43201</v>
       </c>
       <c r="H19" s="49">
-        <f ca="1">IF(G19, G19-D19, TODAY()-D19)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
       <c r="I19" s="4"/>
@@ -2581,8 +2165,8 @@
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="39">
-        <f ca="1">IF(G20, G20-D20, TODAY()-D20)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -2616,7 +2200,7 @@
         <v>43201</v>
       </c>
       <c r="H21" s="51">
-        <f ca="1">IF(G21, G21-D21, TODAY()-D21)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
       <c r="I21" s="8"/>
@@ -2661,8 +2245,8 @@
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="39">
-        <f ca="1">IF(G22, G22-D22, TODAY()-D22)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -2711,7 +2295,7 @@
         <v>43201</v>
       </c>
       <c r="H23" s="51">
-        <f ca="1">IF(G23, G23-D23, TODAY()-D23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
       <c r="I23" s="8"/>
@@ -2761,7 +2345,7 @@
         <v>43201</v>
       </c>
       <c r="H24" s="49">
-        <f ca="1">IF(G24, G24-D24, TODAY()-D24)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
       <c r="I24" s="4"/>
@@ -2809,8 +2393,8 @@
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="43">
-        <f ca="1">IF(G25, G25-D25, TODAY()-D25)</f>
-        <v>59</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -2844,7 +2428,7 @@
         <v>43186</v>
       </c>
       <c r="H26" s="51">
-        <f ca="1">IF(G26, G26-D26, TODAY()-D26)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -2889,8 +2473,8 @@
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="39">
-        <f ca="1">IF(G27, G27-D27, TODAY()-D27)</f>
-        <v>56</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
@@ -2938,7 +2522,7 @@
         <v>43180</v>
       </c>
       <c r="H28" s="51">
-        <f ca="1">IF(G28, G28-D28, TODAY()-D28)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
       <c r="I28" s="10"/>
@@ -2989,7 +2573,7 @@
         <v>43180</v>
       </c>
       <c r="H29" s="51">
-        <f ca="1">IF(G29, G29-D29, TODAY()-D29)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
       <c r="I29" s="10"/>
@@ -3040,7 +2624,7 @@
         <v>43180</v>
       </c>
       <c r="H30" s="51">
-        <f ca="1">IF(G30, G30-D30, TODAY()-D30)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
       <c r="I30" s="10"/>
@@ -3383,7 +2967,7 @@
         <v>43201</v>
       </c>
       <c r="H38" s="49">
-        <f ca="1">IF(G38, G38-D38, TODAY()-D38)</f>
+        <f t="shared" ref="H38:H57" ca="1" si="1">IF(G38, G38-D38, TODAY()-D38)</f>
         <v>33</v>
       </c>
       <c r="I38" s="2"/>
@@ -3416,8 +3000,8 @@
       </c>
       <c r="G39" s="22"/>
       <c r="H39" s="43">
-        <f ca="1">IF(G39, G39-D39, TODAY()-D39)</f>
-        <v>38</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
       </c>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
@@ -3446,8 +3030,8 @@
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="41">
-        <f ca="1">IF(G40, G40-D40, TODAY()-D40)</f>
-        <v>29</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
       </c>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -3475,8 +3059,8 @@
       </c>
       <c r="G41" s="31"/>
       <c r="H41" s="41">
-        <f ca="1">IF(G41, G41-D41, TODAY()-D41)</f>
-        <v>29</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
       </c>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -3504,8 +3088,8 @@
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
       <c r="H42" s="71">
-        <f ca="1">IF(G42, G42-D42, TODAY()-D42)</f>
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -3535,8 +3119,8 @@
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
       <c r="H43" s="66">
-        <f ca="1">IF(G43, G43-D43, TODAY()-D43)</f>
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -3568,8 +3152,8 @@
       </c>
       <c r="G44" s="68"/>
       <c r="H44" s="45">
-        <f ca="1">IF(G44, G44-D44, TODAY()-D44)</f>
-        <v>15</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -3599,8 +3183,8 @@
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="39">
-        <f ca="1">IF(G45, G45-D45, TODAY()-D45)</f>
-        <v>15</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -3616,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="22" t="str">
-        <f t="shared" ref="C46:C47" si="0">$S$2</f>
+        <f t="shared" ref="C46:C47" si="2">$S$2</f>
         <v>Het</v>
       </c>
       <c r="D46" s="42">
@@ -3630,8 +3214,8 @@
       </c>
       <c r="G46" s="22"/>
       <c r="H46" s="22">
-        <f ca="1">IF(G46, G46-D46, TODAY()-D46)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
       </c>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
@@ -3647,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Het</v>
       </c>
       <c r="D47" s="42">
@@ -3661,8 +3245,8 @@
       </c>
       <c r="G47" s="22"/>
       <c r="H47" s="22">
-        <f ca="1">IF(G47, G47-D47, TODAY()-D47)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
       </c>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
@@ -3692,8 +3276,8 @@
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="68">
-        <f ca="1">IF(G48, G48-D48, TODAY()-D48)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -3723,8 +3307,8 @@
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="20">
-        <f ca="1">IF(G49, G49-D49, TODAY()-D49)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
       </c>
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
@@ -3740,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="20" t="str">
-        <f t="shared" ref="C50:C52" si="1">$S$2</f>
+        <f t="shared" ref="C50:C52" si="3">$S$2</f>
         <v>Het</v>
       </c>
       <c r="D50" s="38">
@@ -3754,8 +3338,8 @@
       </c>
       <c r="G50" s="20"/>
       <c r="H50" s="20">
-        <f ca="1">IF(G50, G50-D50, TODAY()-D50)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
       </c>
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
@@ -3771,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Het</v>
       </c>
       <c r="D51" s="38">
@@ -3785,8 +3369,8 @@
       </c>
       <c r="G51" s="20"/>
       <c r="H51" s="20">
-        <f ca="1">IF(G51, G51-D51, TODAY()-D51)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
       </c>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
@@ -3802,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Het</v>
       </c>
       <c r="D52" s="38">
@@ -3816,8 +3400,8 @@
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="20">
-        <f ca="1">IF(G52, G52-D52, TODAY()-D52)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
       </c>
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
@@ -3847,8 +3431,8 @@
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="70">
-        <f ca="1">IF(G53, G53-D53, TODAY()-D53)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -3878,8 +3462,8 @@
       </c>
       <c r="G54" s="22"/>
       <c r="H54" s="22">
-        <f ca="1">IF(G54, G54-D54, TODAY()-D54)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="I54" s="34"/>
       <c r="J54" s="34"/>
@@ -3895,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="22" t="str">
-        <f t="shared" ref="C55:C56" si="2">$S$2</f>
+        <f t="shared" ref="C55:C56" si="4">$S$2</f>
         <v>Het</v>
       </c>
       <c r="D55" s="42">
@@ -3909,8 +3493,8 @@
       </c>
       <c r="G55" s="22"/>
       <c r="H55" s="22">
-        <f ca="1">IF(G55, G55-D55, TODAY()-D55)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="I55" s="34"/>
       <c r="J55" s="34"/>
@@ -3926,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Het</v>
       </c>
       <c r="D56" s="42">
@@ -3940,8 +3524,8 @@
       </c>
       <c r="G56" s="22"/>
       <c r="H56" s="22">
-        <f ca="1">IF(G56, G56-D56, TODAY()-D56)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="I56" s="34"/>
       <c r="J56" s="34"/>
@@ -3971,8 +3555,8 @@
       </c>
       <c r="G57" s="70"/>
       <c r="H57" s="70">
-        <f ca="1">IF(G57, G57-D57, TODAY()-D57)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="I57" s="85"/>
       <c r="J57" s="85"/>
@@ -3987,7 +3571,7 @@
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="N14:N15 H28:H30 E28:E30 I1:M1048576 E1:H27 E31:H1048576 A1:D1048576">
-    <cfRule type="expression" dxfId="31" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$C$2="Mut"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="280" yWindow="420" windowWidth="30680" windowHeight="17080" tabRatio="500"/>
+    <workbookView xWindow="19400" yWindow="540" windowWidth="30680" windowHeight="17080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1295,7 +1295,7 @@
       <c r="G2" s="38"/>
       <c r="H2" s="39">
         <f t="shared" ref="H2:H30" ca="1" si="0">IF(G2, G2-D2, TODAY()-D2)</f>
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
@@ -1348,7 +1348,7 @@
       <c r="G3" s="42"/>
       <c r="H3" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
@@ -1405,7 +1405,7 @@
       <c r="G4" s="38"/>
       <c r="H4" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -1462,7 +1462,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -2020,7 +2020,7 @@
       <c r="G17" s="44"/>
       <c r="H17" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -2166,7 +2166,7 @@
       <c r="G20" s="38"/>
       <c r="H20" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -2246,7 +2246,7 @@
       <c r="G22" s="38"/>
       <c r="H22" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -2394,7 +2394,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -2474,7 +2474,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
@@ -3001,7 +3001,7 @@
       <c r="G39" s="22"/>
       <c r="H39" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
@@ -3031,7 +3031,7 @@
       <c r="G40" s="31"/>
       <c r="H40" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -3060,7 +3060,7 @@
       <c r="G41" s="31"/>
       <c r="H41" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -3089,7 +3089,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -3120,7 +3120,7 @@
       <c r="G43" s="31"/>
       <c r="H43" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -3153,7 +3153,7 @@
       <c r="G44" s="68"/>
       <c r="H44" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -3184,7 +3184,7 @@
       <c r="G45" s="20"/>
       <c r="H45" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -3215,7 +3215,7 @@
       <c r="G46" s="22"/>
       <c r="H46" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
@@ -3246,7 +3246,7 @@
       <c r="G47" s="22"/>
       <c r="H47" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
@@ -3277,7 +3277,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="68">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -3308,7 +3308,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
@@ -3339,7 +3339,7 @@
       <c r="G50" s="20"/>
       <c r="H50" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
@@ -3370,7 +3370,7 @@
       <c r="G51" s="20"/>
       <c r="H51" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
@@ -3401,7 +3401,7 @@
       <c r="G52" s="20"/>
       <c r="H52" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
@@ -3432,7 +3432,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="70">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -3463,7 +3463,7 @@
       <c r="G54" s="22"/>
       <c r="H54" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I54" s="34"/>
       <c r="J54" s="34"/>
@@ -3494,7 +3494,7 @@
       <c r="G55" s="22"/>
       <c r="H55" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I55" s="34"/>
       <c r="J55" s="34"/>
@@ -3525,7 +3525,7 @@
       <c r="G56" s="22"/>
       <c r="H56" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I56" s="34"/>
       <c r="J56" s="34"/>
@@ -3556,7 +3556,7 @@
       <c r="G57" s="70"/>
       <c r="H57" s="70">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I57" s="85"/>
       <c r="J57" s="85"/>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19400" yWindow="540" windowWidth="30680" windowHeight="17080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30540" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="52">
   <si>
     <t>F</t>
   </si>
@@ -171,19 +171,10 @@
     <t>Vivant</t>
   </si>
   <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>P7</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>P9</t>
-  </si>
-  <si>
     <t>Pas encore récupéré</t>
+  </si>
+  <si>
+    <t>Zone protégé B</t>
   </si>
 </sst>
 </file>
@@ -515,7 +506,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -752,6 +743,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -862,7 +859,59 @@
     <cellStyle name="Lien hypertexte visité" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1211,11 +1260,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P42" sqref="P42"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1295,7 +1344,7 @@
       <c r="G2" s="38"/>
       <c r="H2" s="39">
         <f t="shared" ref="H2:H30" ca="1" si="0">IF(G2, G2-D2, TODAY()-D2)</f>
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
@@ -1348,7 +1397,7 @@
       <c r="G3" s="42"/>
       <c r="H3" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
@@ -1405,7 +1454,7 @@
       <c r="G4" s="38"/>
       <c r="H4" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -1462,7 +1511,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -1911,7 +1960,7 @@
       </c>
       <c r="P14" s="8">
         <f>COUNTIF(A:A, "&lt;&gt;")-1</f>
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -2020,7 +2069,7 @@
       <c r="G17" s="44"/>
       <c r="H17" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -2166,7 +2215,7 @@
       <c r="G20" s="38"/>
       <c r="H20" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -2246,7 +2295,7 @@
       <c r="G22" s="38"/>
       <c r="H22" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -2394,7 +2443,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -2474,7 +2523,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
@@ -2967,7 +3016,7 @@
         <v>43201</v>
       </c>
       <c r="H38" s="49">
-        <f t="shared" ref="H38:H57" ca="1" si="1">IF(G38, G38-D38, TODAY()-D38)</f>
+        <f t="shared" ref="H38:H64" ca="1" si="1">IF(G38, G38-D38, TODAY()-D38)</f>
         <v>33</v>
       </c>
       <c r="I38" s="2"/>
@@ -3001,7 +3050,7 @@
       <c r="G39" s="22"/>
       <c r="H39" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
@@ -3031,13 +3080,15 @@
       <c r="G40" s="31"/>
       <c r="H40" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
       <c r="K40" s="67"/>
       <c r="L40" s="67"/>
-      <c r="M40" s="33"/>
+      <c r="M40" s="33" t="s">
+        <v>51</v>
+      </c>
       <c r="O40" s="64"/>
     </row>
     <row r="41" spans="1:18">
@@ -3060,13 +3111,15 @@
       <c r="G41" s="31"/>
       <c r="H41" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
       <c r="K41" s="67"/>
       <c r="L41" s="67"/>
-      <c r="M41" s="33"/>
+      <c r="M41" s="33" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="71">
@@ -3089,14 +3142,14 @@
       <c r="G42" s="30"/>
       <c r="H42" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3120,14 +3173,14 @@
       <c r="G43" s="31"/>
       <c r="H43" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3153,7 +3206,7 @@
       <c r="G44" s="68"/>
       <c r="H44" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -3184,7 +3237,7 @@
       <c r="G45" s="20"/>
       <c r="H45" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -3215,7 +3268,7 @@
       <c r="G46" s="22"/>
       <c r="H46" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
@@ -3246,7 +3299,7 @@
       <c r="G47" s="22"/>
       <c r="H47" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
@@ -3277,7 +3330,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="68">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -3308,7 +3361,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
@@ -3339,7 +3392,7 @@
       <c r="G50" s="20"/>
       <c r="H50" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
@@ -3370,7 +3423,7 @@
       <c r="G51" s="20"/>
       <c r="H51" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
@@ -3401,7 +3454,7 @@
       <c r="G52" s="20"/>
       <c r="H52" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
@@ -3423,7 +3476,7 @@
       <c r="D53" s="40">
         <v>43196</v>
       </c>
-      <c r="E53" s="70" t="s">
+      <c r="E53" s="66" t="s">
         <v>38</v>
       </c>
       <c r="F53" s="3" t="s">
@@ -3432,7 +3485,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="70">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -3455,7 +3508,7 @@
         <v>43198</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F54" s="22" t="s">
         <v>31</v>
@@ -3463,7 +3516,7 @@
       <c r="G54" s="22"/>
       <c r="H54" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I54" s="34"/>
       <c r="J54" s="34"/>
@@ -3486,7 +3539,7 @@
         <v>43198</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F55" s="22" t="s">
         <v>31</v>
@@ -3494,7 +3547,7 @@
       <c r="G55" s="22"/>
       <c r="H55" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I55" s="34"/>
       <c r="J55" s="34"/>
@@ -3517,7 +3570,7 @@
         <v>43198</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>31</v>
@@ -3525,7 +3578,7 @@
       <c r="G56" s="22"/>
       <c r="H56" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I56" s="34"/>
       <c r="J56" s="34"/>
@@ -3548,7 +3601,7 @@
         <v>43198</v>
       </c>
       <c r="E57" s="70" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>31</v>
@@ -3556,13 +3609,195 @@
       <c r="G57" s="70"/>
       <c r="H57" s="70">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I57" s="85"/>
       <c r="J57" s="85"/>
       <c r="K57" s="85"/>
       <c r="L57" s="85"/>
       <c r="M57" s="85"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="86">
+        <v>20</v>
+      </c>
+      <c r="B58" s="86"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="87">
+        <v>43213</v>
+      </c>
+      <c r="E58" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="87"/>
+      <c r="H58" s="86">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="86"/>
+      <c r="J58" s="86"/>
+      <c r="K58" s="86"/>
+      <c r="L58" s="86"/>
+      <c r="M58" s="86"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="86">
+        <v>21</v>
+      </c>
+      <c r="B59" s="86"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="87">
+        <v>43213</v>
+      </c>
+      <c r="E59" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="86"/>
+      <c r="H59" s="86">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="86"/>
+      <c r="J59" s="86"/>
+      <c r="K59" s="86"/>
+      <c r="L59" s="86"/>
+      <c r="M59" s="86"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="86">
+        <v>22</v>
+      </c>
+      <c r="B60" s="86"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="87">
+        <v>43213</v>
+      </c>
+      <c r="E60" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="86"/>
+      <c r="H60" s="86">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="86"/>
+      <c r="J60" s="86"/>
+      <c r="K60" s="86"/>
+      <c r="L60" s="86"/>
+      <c r="M60" s="86"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="86">
+        <v>23</v>
+      </c>
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="87">
+        <v>43213</v>
+      </c>
+      <c r="E61" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="86"/>
+      <c r="H61" s="86">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="86"/>
+      <c r="J61" s="86"/>
+      <c r="K61" s="86"/>
+      <c r="L61" s="86"/>
+      <c r="M61" s="86"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="86">
+        <v>24</v>
+      </c>
+      <c r="B62" s="86"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="87">
+        <v>43213</v>
+      </c>
+      <c r="E62" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="86"/>
+      <c r="H62" s="86">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="86"/>
+      <c r="J62" s="86"/>
+      <c r="K62" s="86"/>
+      <c r="L62" s="86"/>
+      <c r="M62" s="86"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="86">
+        <v>25</v>
+      </c>
+      <c r="B63" s="86"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="87">
+        <v>43213</v>
+      </c>
+      <c r="E63" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="86"/>
+      <c r="H63" s="86">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="86"/>
+      <c r="J63" s="86"/>
+      <c r="K63" s="86"/>
+      <c r="L63" s="86"/>
+      <c r="M63" s="86"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="86">
+        <v>26</v>
+      </c>
+      <c r="B64" s="86"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="87">
+        <v>43213</v>
+      </c>
+      <c r="E64" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="86"/>
+      <c r="H64" s="86">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="86"/>
+      <c r="J64" s="86"/>
+      <c r="K64" s="86"/>
+      <c r="L64" s="86"/>
+      <c r="M64" s="86"/>
     </row>
   </sheetData>
   <sortState ref="A2:M57">
@@ -3570,8 +3805,8 @@
     <sortCondition ref="A2:A57"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="N14:N15 H28:H30 E28:E30 I1:M1048576 E1:H27 E31:H1048576 A1:D1048576">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="N14:N15 H28:H30 E28:E30 I1:M1048576 E1:H27 A1:D1048576 E31:H1048576">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>$C$2="Mut"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="52">
   <si>
     <t>F</t>
   </si>
@@ -506,7 +506,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -748,7 +748,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -859,7 +865,46 @@
     <cellStyle name="Lien hypertexte visité" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1260,11 +1305,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U64"/>
+  <dimension ref="A1:U80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M42" sqref="M42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1344,7 +1389,7 @@
       <c r="G2" s="38"/>
       <c r="H2" s="39">
         <f t="shared" ref="H2:H30" ca="1" si="0">IF(G2, G2-D2, TODAY()-D2)</f>
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
@@ -1381,7 +1426,7 @@
       <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="str">
+      <c r="C3" s="22" t="str">
         <f>$S$2</f>
         <v>Het</v>
       </c>
@@ -1397,7 +1442,7 @@
       <c r="G3" s="42"/>
       <c r="H3" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
@@ -1454,7 +1499,7 @@
       <c r="G4" s="38"/>
       <c r="H4" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -1495,7 +1540,7 @@
       <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="str">
+      <c r="C5" s="22" t="str">
         <f>$S$2</f>
         <v>Het</v>
       </c>
@@ -1511,7 +1556,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -1960,7 +2005,7 @@
       </c>
       <c r="P14" s="8">
         <f>COUNTIF(A:A, "&lt;&gt;")-1</f>
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -2069,7 +2114,7 @@
       <c r="G17" s="44"/>
       <c r="H17" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -2215,7 +2260,7 @@
       <c r="G20" s="38"/>
       <c r="H20" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -2295,7 +2340,7 @@
       <c r="G22" s="38"/>
       <c r="H22" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -2443,7 +2488,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -2523,7 +2568,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
@@ -3016,7 +3061,7 @@
         <v>43201</v>
       </c>
       <c r="H38" s="49">
-        <f t="shared" ref="H38:H64" ca="1" si="1">IF(G38, G38-D38, TODAY()-D38)</f>
+        <f t="shared" ref="H38:H80" ca="1" si="1">IF(G38, G38-D38, TODAY()-D38)</f>
         <v>33</v>
       </c>
       <c r="I38" s="2"/>
@@ -3050,7 +3095,7 @@
       <c r="G39" s="22"/>
       <c r="H39" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
@@ -3080,7 +3125,7 @@
       <c r="G40" s="31"/>
       <c r="H40" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -3111,7 +3156,7 @@
       <c r="G41" s="31"/>
       <c r="H41" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -3142,7 +3187,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -3173,7 +3218,7 @@
       <c r="G43" s="31"/>
       <c r="H43" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -3206,7 +3251,7 @@
       <c r="G44" s="68"/>
       <c r="H44" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -3237,7 +3282,7 @@
       <c r="G45" s="20"/>
       <c r="H45" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -3268,7 +3313,7 @@
       <c r="G46" s="22"/>
       <c r="H46" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
@@ -3299,7 +3344,7 @@
       <c r="G47" s="22"/>
       <c r="H47" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
@@ -3330,7 +3375,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="68">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -3361,7 +3406,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
@@ -3392,7 +3437,7 @@
       <c r="G50" s="20"/>
       <c r="H50" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
@@ -3423,7 +3468,7 @@
       <c r="G51" s="20"/>
       <c r="H51" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
@@ -3454,7 +3499,7 @@
       <c r="G52" s="20"/>
       <c r="H52" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
@@ -3485,7 +3530,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="70">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -3516,7 +3561,7 @@
       <c r="G54" s="22"/>
       <c r="H54" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I54" s="34"/>
       <c r="J54" s="34"/>
@@ -3547,7 +3592,7 @@
       <c r="G55" s="22"/>
       <c r="H55" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I55" s="34"/>
       <c r="J55" s="34"/>
@@ -3578,7 +3623,7 @@
       <c r="G56" s="22"/>
       <c r="H56" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I56" s="34"/>
       <c r="J56" s="34"/>
@@ -3609,7 +3654,7 @@
       <c r="G57" s="70"/>
       <c r="H57" s="70">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I57" s="85"/>
       <c r="J57" s="85"/>
@@ -3618,24 +3663,26 @@
       <c r="M57" s="85"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="86">
+      <c r="A58" s="71">
         <v>20</v>
       </c>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="87">
+      <c r="B58" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="71"/>
+      <c r="D58" s="72">
         <v>43213</v>
       </c>
-      <c r="E58" s="86" t="s">
+      <c r="E58" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="F58" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G58" s="87"/>
-      <c r="H58" s="86">
+      <c r="F58" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="72"/>
+      <c r="H58" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I58" s="86"/>
       <c r="J58" s="86"/>
@@ -3644,24 +3691,26 @@
       <c r="M58" s="86"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="86">
+      <c r="A59" s="71">
         <v>21</v>
       </c>
-      <c r="B59" s="86"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="87">
+      <c r="B59" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="71"/>
+      <c r="D59" s="72">
         <v>43213</v>
       </c>
-      <c r="E59" s="86" t="s">
+      <c r="E59" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="F59" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" s="86"/>
-      <c r="H59" s="86">
+      <c r="F59" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I59" s="86"/>
       <c r="J59" s="86"/>
@@ -3670,24 +3719,26 @@
       <c r="M59" s="86"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="86">
+      <c r="A60" s="66">
         <v>22</v>
       </c>
-      <c r="B60" s="86"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="87">
+      <c r="B60" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="66"/>
+      <c r="D60" s="73">
         <v>43213</v>
       </c>
-      <c r="E60" s="86" t="s">
+      <c r="E60" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="F60" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G60" s="86"/>
-      <c r="H60" s="86">
+      <c r="F60" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I60" s="86"/>
       <c r="J60" s="86"/>
@@ -3696,24 +3747,26 @@
       <c r="M60" s="86"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="86">
+      <c r="A61" s="71">
         <v>23</v>
       </c>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="87">
+      <c r="B61" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="71"/>
+      <c r="D61" s="72">
         <v>43213</v>
       </c>
-      <c r="E61" s="86" t="s">
+      <c r="E61" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G61" s="86"/>
-      <c r="H61" s="86">
+      <c r="F61" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I61" s="86"/>
       <c r="J61" s="86"/>
@@ -3722,24 +3775,26 @@
       <c r="M61" s="86"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="86">
+      <c r="A62" s="71">
         <v>24</v>
       </c>
-      <c r="B62" s="86"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="87">
+      <c r="B62" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="71"/>
+      <c r="D62" s="72">
         <v>43213</v>
       </c>
-      <c r="E62" s="86" t="s">
+      <c r="E62" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="F62" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" s="86"/>
-      <c r="H62" s="86">
+      <c r="F62" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I62" s="86"/>
       <c r="J62" s="86"/>
@@ -3748,24 +3803,26 @@
       <c r="M62" s="86"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="86">
+      <c r="A63" s="66">
         <v>25</v>
       </c>
-      <c r="B63" s="86"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="87">
+      <c r="B63" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="66"/>
+      <c r="D63" s="73">
         <v>43213</v>
       </c>
-      <c r="E63" s="86" t="s">
+      <c r="E63" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63" s="86"/>
-      <c r="H63" s="86">
+      <c r="F63" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I63" s="86"/>
       <c r="J63" s="86"/>
@@ -3774,30 +3831,448 @@
       <c r="M63" s="86"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="86">
+      <c r="A64" s="66">
         <v>26</v>
       </c>
-      <c r="B64" s="86"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="87">
+      <c r="B64" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="66"/>
+      <c r="D64" s="73">
         <v>43213</v>
       </c>
-      <c r="E64" s="86" t="s">
+      <c r="E64" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" s="86"/>
-      <c r="H64" s="86">
+      <c r="F64" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I64" s="86"/>
       <c r="J64" s="86"/>
       <c r="K64" s="86"/>
       <c r="L64" s="86"/>
       <c r="M64" s="86"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="86">
+        <v>27</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="89">
+        <v>43219</v>
+      </c>
+      <c r="E65" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="8"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="86">
+        <v>28</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="89">
+        <v>43219</v>
+      </c>
+      <c r="E66" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="8"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="86">
+        <v>29</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="89">
+        <v>43219</v>
+      </c>
+      <c r="E67" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="8"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="86">
+        <v>30</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="89">
+        <v>43219</v>
+      </c>
+      <c r="E68" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="8"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="86">
+        <v>31</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="89">
+        <v>43219</v>
+      </c>
+      <c r="E69" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="8"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="86">
+        <v>32</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="89">
+        <v>43219</v>
+      </c>
+      <c r="E70" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="8"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="86">
+        <v>33</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="89">
+        <v>43219</v>
+      </c>
+      <c r="E71" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="8"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="86">
+        <v>34</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="89">
+        <v>43219</v>
+      </c>
+      <c r="E72" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="8"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="86">
+        <v>35</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="89">
+        <v>43219</v>
+      </c>
+      <c r="E73" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="8"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="86">
+        <v>36</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="89">
+        <v>43219</v>
+      </c>
+      <c r="E74" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="8"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="86">
+        <v>37</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="89">
+        <v>43219</v>
+      </c>
+      <c r="E75" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="8"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="86">
+        <v>38</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="89">
+        <v>43219</v>
+      </c>
+      <c r="E76" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="8"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="86">
+        <v>39</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="89">
+        <v>43219</v>
+      </c>
+      <c r="E77" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F77" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="8"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="86">
+        <v>40</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="89">
+        <v>43219</v>
+      </c>
+      <c r="E78" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="8"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="86">
+        <v>41</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="89">
+        <v>43219</v>
+      </c>
+      <c r="E79" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="8"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="86">
+        <v>42</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="89">
+        <v>43219</v>
+      </c>
+      <c r="E80" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A2:M57">
@@ -3806,7 +4281,7 @@
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="N14:N15 H28:H30 E28:E30 I1:M1048576 E1:H27 A1:D1048576 E31:H1048576">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$C$2="Mut"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30540" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="5500" yWindow="0" windowWidth="30540" windowHeight="19400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="55">
   <si>
     <t>F</t>
   </si>
@@ -153,9 +153,6 @@
     <t>200+ : Embryon</t>
   </si>
   <si>
-    <t>Nombre souris utilisées</t>
-  </si>
-  <si>
     <t>C57BL/6 IP</t>
   </si>
   <si>
@@ -175,13 +172,25 @@
   </si>
   <si>
     <t>Zone protégé B</t>
+  </si>
+  <si>
+    <t>Nombre souris</t>
+  </si>
+  <si>
+    <t>Minuscule à la naissace, morte.</t>
+  </si>
+  <si>
+    <t>Utilisée</t>
+  </si>
+  <si>
+    <t>Non</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -304,8 +313,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +362,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -399,7 +421,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -505,8 +527,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -757,8 +789,44 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="115">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -811,6 +879,11 @@
     <cellStyle name="Lien hypertexte" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -863,6 +936,11 @@
     <cellStyle name="Lien hypertexte visité" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -1305,24 +1383,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="5" max="5" width="10.83203125" style="11"/>
-    <col min="8" max="8" width="10.83203125" style="11"/>
-    <col min="10" max="10" width="17.1640625" customWidth="1"/>
-    <col min="13" max="13" width="36.5" style="9" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" customWidth="1"/>
-    <col min="15" max="15" width="21.1640625" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="11"/>
+    <col min="11" max="11" width="17.1640625" customWidth="1"/>
+    <col min="14" max="14" width="36.5" style="9" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="26" customFormat="1" ht="18">
+    <row r="1" spans="1:22" s="26" customFormat="1" ht="18">
       <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
@@ -1347,26 +1425,29 @@
       <c r="H1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="23"/>
+      <c r="T1" s="27"/>
       <c r="U1" s="23"/>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="23"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="20">
         <v>415</v>
       </c>
@@ -1374,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="20" t="str">
-        <f>$S$2</f>
+        <f>$T$2</f>
         <v>Het</v>
       </c>
       <c r="D2" s="38">
@@ -1389,37 +1470,38 @@
       <c r="G2" s="38"/>
       <c r="H2" s="39">
         <f t="shared" ref="H2:H30" ca="1" si="0">IF(G2, G2-D2, TODAY()-D2)</f>
-        <v>313</v>
-      </c>
-      <c r="I2" s="21"/>
+        <v>315</v>
+      </c>
+      <c r="I2" s="39"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="36" t="s">
+      <c r="T2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="16"/>
       <c r="U2" s="16"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="16"/>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="22">
         <v>417</v>
       </c>
@@ -1427,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="22" t="str">
-        <f>$S$2</f>
+        <f>$T$2</f>
         <v>Het</v>
       </c>
       <c r="D3" s="42">
@@ -1442,41 +1524,42 @@
       <c r="G3" s="42"/>
       <c r="H3" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>258</v>
-      </c>
-      <c r="I3" s="21"/>
+        <v>260</v>
+      </c>
+      <c r="I3" s="43"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="21"/>
+      <c r="N3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="2">
-        <f>COUNTIFS(B:B, "F",C:C, P2)</f>
+      <c r="Q3" s="2">
+        <f>COUNTIFS(B:B, "F",C:C, Q2)</f>
+        <v>9</v>
+      </c>
+      <c r="R3" s="2">
+        <f>COUNTIFS(B:B, "F",C:C,R2)</f>
         <v>7</v>
       </c>
-      <c r="Q3" s="2">
-        <f>COUNTIFS(B:B, "F",C:C,Q2)</f>
-        <v>5</v>
-      </c>
-      <c r="R3" s="4">
-        <f>SUM(P3:Q3)</f>
-        <v>12</v>
-      </c>
-      <c r="S3" s="21">
-        <f>COUNTIFS(B:B, "F",C:C,S2)</f>
-        <v>10</v>
-      </c>
-      <c r="T3" s="16"/>
+      <c r="S3" s="4">
+        <f>SUM(Q3:R3)</f>
+        <v>16</v>
+      </c>
+      <c r="T3" s="21">
+        <f>COUNTIFS(B:B, "F",C:C,T2)</f>
+        <v>11</v>
+      </c>
       <c r="U3" s="16"/>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" s="16"/>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="20">
         <v>422</v>
       </c>
@@ -1484,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="20" t="str">
-        <f>$S$2</f>
+        <f>$T$2</f>
         <v>Het</v>
       </c>
       <c r="D4" s="38">
@@ -1499,41 +1582,42 @@
       <c r="G4" s="38"/>
       <c r="H4" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>258</v>
-      </c>
-      <c r="I4" s="21"/>
+        <v>260</v>
+      </c>
+      <c r="I4" s="39"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="N4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="2">
-        <f>COUNTIFS(B:B, "M",C:C, P2)</f>
-        <v>7</v>
-      </c>
       <c r="Q4" s="2">
-        <f>COUNTIFS(B:B, "M",C:C,Q2)</f>
-        <v>2</v>
-      </c>
-      <c r="R4" s="4">
-        <f>SUM(P4:Q4)</f>
+        <f>COUNTIFS(B:B, "M",C:C, Q2)</f>
         <v>9</v>
       </c>
-      <c r="S4" s="21">
-        <f>COUNTIFS(B:B, "M",C:C, S2)</f>
-        <v>9</v>
-      </c>
-      <c r="T4" s="16"/>
+      <c r="R4" s="2">
+        <f>COUNTIFS(B:B, "M",C:C,R2)</f>
+        <v>3</v>
+      </c>
+      <c r="S4" s="4">
+        <f>SUM(Q4:R4)</f>
+        <v>12</v>
+      </c>
+      <c r="T4" s="21">
+        <f>COUNTIFS(B:B, "M",C:C, T2)</f>
+        <v>10</v>
+      </c>
       <c r="U4" s="16"/>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="16"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="22">
         <v>425</v>
       </c>
@@ -1541,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="22" t="str">
-        <f>$S$2</f>
+        <f>$T$2</f>
         <v>Het</v>
       </c>
       <c r="D5" s="42">
@@ -1556,41 +1640,42 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>256</v>
-      </c>
-      <c r="I5" s="21"/>
+        <v>258</v>
+      </c>
+      <c r="I5" s="43"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="21"/>
+      <c r="N5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="P5" s="4">
-        <f>SUM(P3:P4)</f>
-        <v>14</v>
       </c>
       <c r="Q5" s="4">
         <f>SUM(Q3:Q4)</f>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="R5" s="4">
         <f>SUM(R3:R4)</f>
+        <v>10</v>
+      </c>
+      <c r="S5" s="4">
+        <f>SUM(S3:S4)</f>
+        <v>28</v>
+      </c>
+      <c r="T5" s="37">
+        <f>SUM(T3:T4)</f>
         <v>21</v>
       </c>
-      <c r="S5" s="37">
-        <f>SUM(S3:S4)</f>
-        <v>19</v>
-      </c>
-      <c r="T5" s="16"/>
       <c r="U5" s="16"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" s="16"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="80">
         <v>435</v>
       </c>
@@ -1598,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="80" t="str">
-        <f>$P$2</f>
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D6" s="48">
@@ -1617,20 +1702,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="49" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="N6" s="4"/>
+      <c r="O6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="79">
         <v>437</v>
       </c>
@@ -1638,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="79" t="str">
-        <f>$Q$2</f>
+        <f>$R$2</f>
         <v>WT</v>
       </c>
       <c r="D7" s="50">
@@ -1657,30 +1745,33 @@
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="51" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="5"/>
-      <c r="O7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" s="7" t="s">
+      <c r="M7" s="8"/>
+      <c r="N7" s="5"/>
+      <c r="P7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="R7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="S7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="S7" s="36"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="T7" s="96"/>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="80">
         <v>439</v>
       </c>
@@ -1688,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="80" t="str">
-        <f>$P$2</f>
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D8" s="48">
@@ -1707,36 +1798,39 @@
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="4"/>
+      <c r="N8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="O8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="2">
-        <f>COUNTIFS(B:B, "F",C:C, P7,G:G,"")</f>
-        <v>3</v>
-      </c>
       <c r="Q8" s="2">
-        <f>COUNTIFS(B:B, "F",C:C,Q7,G:G, "")</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="4">
-        <f>SUM(P8:Q8)</f>
-        <v>3</v>
-      </c>
-      <c r="S8" s="21"/>
-    </row>
-    <row r="9" spans="1:21">
+        <f>COUNTIFS(B:B, "F",C:C, Q7,G:G,"")</f>
+        <v>5</v>
+      </c>
+      <c r="R8" s="2">
+        <f>COUNTIFS(B:B, "F",C:C,R7,G:G, "")</f>
+        <v>2</v>
+      </c>
+      <c r="S8" s="4">
+        <f>SUM(Q8:R8)</f>
+        <v>7</v>
+      </c>
+      <c r="T8" s="97"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="79">
         <v>440</v>
       </c>
@@ -1744,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="79" t="str">
-        <f>$Q$2</f>
+        <f>$R$2</f>
         <v>WT</v>
       </c>
       <c r="D9" s="50">
@@ -1763,34 +1857,37 @@
         <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="51" t="s">
+        <v>7</v>
+      </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="31" t="s">
+      <c r="M9" s="8"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="2">
-        <f>COUNTIFS(B:B, "M",C:C, P7,G:G,"")</f>
-        <v>4</v>
-      </c>
       <c r="Q9" s="2">
-        <f>COUNTIFS(B:B, "M",C:C,Q7,G:G,"")</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="4">
-        <f>SUM(P9:Q9)</f>
-        <v>4</v>
-      </c>
-      <c r="S9" s="21"/>
-    </row>
-    <row r="10" spans="1:21">
+        <f>COUNTIFS(B:B, "M",C:C, Q7,G:G,"")</f>
+        <v>5</v>
+      </c>
+      <c r="R9" s="2">
+        <f>COUNTIFS(B:B, "M",C:C,R7,G:G,"")</f>
+        <v>1</v>
+      </c>
+      <c r="S9" s="4">
+        <f>SUM(Q9:R9)</f>
+        <v>6</v>
+      </c>
+      <c r="T9" s="97"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="81">
         <v>441</v>
       </c>
@@ -1798,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="79" t="str">
-        <f>$Q$2</f>
+        <f>$R$2</f>
         <v>WT</v>
       </c>
       <c r="D10" s="52">
@@ -1817,34 +1914,37 @@
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-      <c r="I10" s="46"/>
+      <c r="I10" s="53" t="s">
+        <v>7</v>
+      </c>
       <c r="J10" s="46"/>
       <c r="K10" s="46"/>
       <c r="L10" s="46"/>
-      <c r="M10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="32" t="s">
+      <c r="M10" s="46"/>
+      <c r="N10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="P10" s="4">
-        <f>SUM(P8:P9)</f>
-        <v>7</v>
       </c>
       <c r="Q10" s="4">
         <f>SUM(Q8:Q9)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R10" s="4">
         <f>SUM(R8:R9)</f>
-        <v>7</v>
-      </c>
-      <c r="S10" s="37"/>
-    </row>
-    <row r="11" spans="1:21">
+        <v>3</v>
+      </c>
+      <c r="S10" s="4">
+        <f>SUM(S8:S9)</f>
+        <v>13</v>
+      </c>
+      <c r="T10" s="98"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="82">
         <v>442</v>
       </c>
@@ -1852,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="80" t="str">
-        <f>$P$2</f>
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D11" s="54">
@@ -1871,18 +1971,21 @@
         <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="35" t="s">
+      <c r="N11" s="1"/>
+      <c r="O11" s="35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:22">
       <c r="A12" s="80">
         <v>443</v>
       </c>
@@ -1890,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="80" t="str">
-        <f>$P$2</f>
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D12" s="48">
@@ -1909,25 +2012,28 @@
         <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4" t="s">
+      <c r="I12" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="4"/>
+      <c r="N12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="12">
+      <c r="Q12" s="12">
         <f ca="1">IF(H:H="E", "", AVERAGEIF(G:G, "&lt;&gt;",H:H))</f>
-        <v>39.61904761904762</v>
-      </c>
-      <c r="Q12" s="12"/>
-    </row>
-    <row r="13" spans="1:21">
+        <v>38.136363636363633</v>
+      </c>
+      <c r="R12" s="95"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="79">
         <v>101</v>
       </c>
@@ -1953,18 +2059,21 @@
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="51" t="s">
+        <v>7</v>
+      </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:22">
       <c r="A14" s="79">
         <v>102</v>
       </c>
@@ -1990,25 +2099,28 @@
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-      <c r="I14" s="8"/>
+      <c r="I14" s="51" t="s">
+        <v>7</v>
+      </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="8"/>
+      <c r="N14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N14" s="33" t="s">
+      <c r="O14" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P14" s="8">
+      <c r="P14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="8">
         <f>COUNTIF(A:A, "&lt;&gt;")-1</f>
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:22">
       <c r="A15" s="79">
         <v>103</v>
       </c>
@@ -2034,18 +2146,21 @@
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-      <c r="I15" s="8"/>
+      <c r="I15" s="51" t="s">
+        <v>7</v>
+      </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="8"/>
+      <c r="N15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="34" t="s">
+      <c r="O15" s="34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:22">
       <c r="A16" s="79">
         <v>104</v>
       </c>
@@ -2071,27 +2186,30 @@
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="51" t="s">
+        <v>7</v>
+      </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="8"/>
+      <c r="N16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="R16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="S16" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" s="6">
         <v>444</v>
       </c>
@@ -2099,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="6" t="str">
-        <f>$P$2</f>
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D17" s="44">
@@ -2114,30 +2232,31 @@
       <c r="G17" s="44"/>
       <c r="H17" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="I17" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="I17" s="45"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="O17" s="4" t="s">
+      <c r="N17" s="4"/>
+      <c r="P17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P17" s="2">
-        <f>COUNTIFS(B:B, "F",C:C, P16,I:I, "&lt;&gt;")</f>
+      <c r="Q17" s="2">
+        <f>COUNTIFS(B:B, "F",C:C, Q16,J:J, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="Q17" s="2">
-        <f>COUNTIFS(B:B, "F",C:C,Q16,I:I, "&lt;&gt;")</f>
+      <c r="R17" s="2">
+        <f>COUNTIFS(B:B, "F",C:C,R16,J:J, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="R17" s="4">
-        <f>SUM(P17:Q17)</f>
+      <c r="S17" s="4">
+        <f>SUM(Q17:R17)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" s="80">
         <v>445</v>
       </c>
@@ -2145,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="80" t="str">
-        <f>$P$2</f>
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D18" s="48">
@@ -2164,30 +2283,33 @@
         <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="49" t="s">
+        <v>7</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="4"/>
+      <c r="M18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="O18" s="4" t="s">
+      <c r="N18" s="4"/>
+      <c r="P18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="2">
-        <f>COUNTIFS(B:B, "M",C:C, P16,I:I, "&lt;&gt;")</f>
+      <c r="Q18" s="2">
+        <f>COUNTIFS(B:B, "M",C:C, Q16,J:J, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="Q18" s="2">
-        <f>COUNTIFS(B:B, "M",C:C,Q16,I:I, "&lt;&gt;")</f>
+      <c r="R18" s="2">
+        <f>COUNTIFS(B:B, "M",C:C,R16,J:J, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="R18" s="4">
-        <f>SUM(P18:Q18)</f>
+      <c r="S18" s="4">
+        <f>SUM(Q18:R18)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" s="80">
         <v>448</v>
       </c>
@@ -2195,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="80" t="str">
-        <f>$P$2</f>
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D19" s="48">
@@ -2214,19 +2336,18 @@
         <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="I19" s="49" t="s">
+        <v>7</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="4"/>
+      <c r="M19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="O19" s="4" t="s">
+      <c r="N19" s="4"/>
+      <c r="P19" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="P19" s="4">
-        <f>SUM(P17:P18)</f>
-        <v>2</v>
       </c>
       <c r="Q19" s="4">
         <f>SUM(Q17:Q18)</f>
@@ -2234,10 +2355,14 @@
       </c>
       <c r="R19" s="4">
         <f>SUM(R17:R18)</f>
+        <v>2</v>
+      </c>
+      <c r="S19" s="4">
+        <f>SUM(S17:S18)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" s="20">
         <v>449</v>
       </c>
@@ -2245,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="20" t="str">
-        <f>$S$2</f>
+        <f>$T$2</f>
         <v>Het</v>
       </c>
       <c r="D20" s="38">
@@ -2260,17 +2385,18 @@
       <c r="G20" s="38"/>
       <c r="H20" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="I20" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="I20" s="39"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="21" t="s">
+      <c r="L20" s="21"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" s="79">
         <v>450</v>
       </c>
@@ -2278,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="79" t="str">
-        <f>$Q$2</f>
+        <f>$R$2</f>
         <v>WT</v>
       </c>
       <c r="D21" s="50">
@@ -2297,27 +2423,30 @@
         <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="101" t="s">
+        <v>7</v>
+      </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="33" t="s">
+      <c r="L21" s="8"/>
+      <c r="M21" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="M21" s="8"/>
-      <c r="O21" s="4" t="s">
+      <c r="N21" s="8"/>
+      <c r="P21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="R21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="7" t="s">
+      <c r="S21" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:19">
       <c r="A22" s="20">
         <v>451</v>
       </c>
@@ -2325,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="20" t="str">
-        <f>$S$2</f>
+        <f>$T$2</f>
         <v>Het</v>
       </c>
       <c r="D22" s="38">
@@ -2340,32 +2469,33 @@
       <c r="G22" s="38"/>
       <c r="H22" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="I22" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="I22" s="39"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="21" t="s">
+      <c r="L22" s="21"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="P22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="2">
-        <f>COUNTIFS(B:B, "F",C:C, P16,J:J, "&lt;&gt;")</f>
+      <c r="Q22" s="2">
+        <f>COUNTIFS(B:B, "F",C:C, Q16,K:K, "&lt;&gt;")</f>
         <v>2</v>
       </c>
-      <c r="Q22" s="2">
-        <f>COUNTIFS(B:B, "F",C:C,Q21,J:J, "&lt;&gt;")</f>
+      <c r="R22" s="2">
+        <f>COUNTIFS(B:B, "F",C:C,R21,K:K, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="R22" s="4">
-        <f>SUM(P22:Q22)</f>
+      <c r="S22" s="4">
+        <f>SUM(Q22:R22)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:19">
       <c r="A23" s="79">
         <v>455</v>
       </c>
@@ -2373,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="79" t="str">
-        <f>$Q$2</f>
+        <f>$R$2</f>
         <v>WT</v>
       </c>
       <c r="D23" s="50">
@@ -2392,30 +2522,33 @@
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="I23" s="8"/>
+      <c r="I23" s="101" t="s">
+        <v>7</v>
+      </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="33" t="s">
+      <c r="L23" s="8"/>
+      <c r="M23" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="8"/>
-      <c r="O23" s="4" t="s">
+      <c r="N23" s="8"/>
+      <c r="P23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="2">
-        <f>COUNTIFS(B:B, "M",C:C, P16,J:J, "&lt;&gt;")</f>
+      <c r="Q23" s="2">
+        <f>COUNTIFS(B:B, "M",C:C, Q16,K:K, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="Q23" s="47">
-        <f>COUNTIFS(B:B, "M",C:C,Q21,J:J, "&lt;&gt;")</f>
+      <c r="R23" s="47">
+        <f>COUNTIFS(B:B, "M",C:C,R21,K:K, "&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="R23" s="4">
-        <f>SUM(P23:Q23)</f>
+      <c r="S23" s="4">
+        <f>SUM(Q23:R23)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:19">
       <c r="A24" s="80">
         <v>457</v>
       </c>
@@ -2423,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="80" t="str">
-        <f>$P$2</f>
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D24" s="48">
@@ -2442,30 +2575,31 @@
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="I24" s="4"/>
+      <c r="I24" s="49"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="4"/>
+      <c r="M24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M24" s="4"/>
-      <c r="O24" s="4" t="s">
+      <c r="N24" s="4"/>
+      <c r="P24" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="P24" s="4">
-        <f>SUM(P22:P23)</f>
-        <v>3</v>
       </c>
       <c r="Q24" s="4">
         <f>SUM(Q22:Q23)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R24" s="4">
         <f>SUM(R22:R23)</f>
+        <v>1</v>
+      </c>
+      <c r="S24" s="4">
+        <f>SUM(S22:S23)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:19">
       <c r="A25" s="22">
         <v>1</v>
       </c>
@@ -2473,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="22" t="str">
-        <f>$S$2</f>
+        <f>$T$2</f>
         <v>Het</v>
       </c>
       <c r="D25" s="42">
@@ -2488,17 +2622,18 @@
       <c r="G25" s="22"/>
       <c r="H25" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="I25" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="I25" s="43"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
-      <c r="M25" s="21" t="s">
+      <c r="M25" s="21"/>
+      <c r="N25" s="21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:19">
       <c r="A26" s="78">
         <v>2</v>
       </c>
@@ -2506,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="78" t="str">
-        <f>$Q$2</f>
+        <f>$R$2</f>
         <v>WT</v>
       </c>
       <c r="D26" s="56">
@@ -2525,27 +2660,30 @@
         <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="O26" s="4" t="s">
+      <c r="N26" s="2"/>
+      <c r="P26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q26" s="7" t="s">
+      <c r="R26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R26" s="7" t="s">
+      <c r="S26" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:19">
       <c r="A27" s="20">
         <v>3</v>
       </c>
@@ -2553,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="20" t="str">
-        <f>$S$2</f>
+        <f>$T$2</f>
         <v>Het</v>
       </c>
       <c r="D27" s="38">
@@ -2568,32 +2706,33 @@
       <c r="G27" s="20"/>
       <c r="H27" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="I27" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="I27" s="39"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="21"/>
+      <c r="N27" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="P27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P27" s="47">
-        <f>COUNTIFS(B:B, "F",C:C, P26,K:K, "&lt;&gt;")</f>
+      <c r="Q27" s="47">
+        <f>COUNTIFS(B:B, "F",C:C, Q26,L:L, "&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="2">
-        <f>COUNTIFS(B:B, "F",C:C,Q26,K:K, "&lt;&gt;")</f>
+      <c r="R27" s="2">
+        <f>COUNTIFS(B:B, "F",C:C,R26,L:L, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="R27" s="4">
-        <f>SUM(P27:Q27)</f>
+      <c r="S27" s="4">
+        <f>SUM(Q27:R27)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:19">
       <c r="A28" s="74">
         <v>105</v>
       </c>
@@ -2619,32 +2758,35 @@
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
-      <c r="I28" s="10"/>
+      <c r="I28" s="101" t="s">
+        <v>7</v>
+      </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="10" t="s">
+      <c r="L28" s="10"/>
+      <c r="M28" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="O28" s="4" t="s">
+      <c r="N28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="47">
-        <f>COUNTIFS(B:B, "M",C:C, P26,K:K, "&lt;&gt;")</f>
+      <c r="Q28" s="47">
+        <f>COUNTIFS(B:B, "M",C:C, Q26,L:L, "&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="47">
-        <f>COUNTIFS(B:B, "M",C:C,Q26,K:K, "&lt;&gt;")</f>
+      <c r="R28" s="47">
+        <f>COUNTIFS(B:B, "M",C:C,R26,L:L, "&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="R28" s="4">
-        <f>SUM(P28:Q28)</f>
+      <c r="S28" s="4">
+        <f>SUM(Q28:R28)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:19">
       <c r="A29" s="74">
         <v>106</v>
       </c>
@@ -2670,32 +2812,35 @@
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
-      <c r="I29" s="10"/>
+      <c r="I29" s="51" t="s">
+        <v>7</v>
+      </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="10" t="s">
+      <c r="L29" s="10"/>
+      <c r="M29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M29" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="O29" s="4" t="s">
+      <c r="N29" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="P29" s="4">
-        <f>SUM(P27:P28)</f>
-        <v>0</v>
       </c>
       <c r="Q29" s="4">
         <f>SUM(Q27:Q28)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="4">
         <f>SUM(R27:R28)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="4">
+        <f>SUM(S27:S28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="74">
         <v>107</v>
       </c>
@@ -2721,17 +2866,20 @@
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
-      <c r="I30" s="10"/>
+      <c r="I30" s="51" t="s">
+        <v>7</v>
+      </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="10" t="s">
+      <c r="L30" s="10"/>
+      <c r="M30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M30" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="N30" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="59">
         <v>201</v>
       </c>
@@ -2739,7 +2887,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="75" t="str">
-        <f>$P$2</f>
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D31" s="58">
@@ -2757,27 +2905,30 @@
       <c r="H31" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="18"/>
+      <c r="I31" s="59" t="s">
+        <v>7</v>
+      </c>
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
-      <c r="M31" s="19" t="s">
+      <c r="M31" s="18"/>
+      <c r="N31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="P31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q31" s="7" t="s">
+      <c r="R31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R31" s="7" t="s">
+      <c r="S31" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:19">
       <c r="A32" s="61">
         <v>202</v>
       </c>
@@ -2785,7 +2936,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="76" t="str">
-        <f>$S$2</f>
+        <f>$T$2</f>
         <v>Het</v>
       </c>
       <c r="D32" s="60">
@@ -2803,30 +2954,33 @@
       <c r="H32" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="28"/>
+      <c r="I32" s="61" t="s">
+        <v>7</v>
+      </c>
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
       <c r="L32" s="28"/>
-      <c r="M32" s="29" t="s">
+      <c r="M32" s="28"/>
+      <c r="N32" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="P32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P32" s="67">
-        <f>COUNTIFS(B:B, "F",C:C, P31,L:L, "&lt;&gt;")</f>
+      <c r="Q32" s="67">
+        <f>COUNTIFS(B:B, "F",C:C, Q31,M:M, "&lt;&gt;")</f>
         <v>2</v>
       </c>
-      <c r="Q32" s="67">
-        <f>COUNTIFS(B:B, "F",C:C,Q31,L:L, "&lt;&gt;")</f>
+      <c r="R32" s="67">
+        <f>COUNTIFS(B:B, "F",C:C,R31,M:M, "&lt;&gt;")</f>
         <v>2</v>
       </c>
-      <c r="R32" s="4">
-        <f>SUM(P32:Q32)</f>
+      <c r="S32" s="4">
+        <f>SUM(Q32:R32)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:19">
       <c r="A33" s="61">
         <v>203</v>
       </c>
@@ -2834,7 +2988,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="76" t="str">
-        <f>$S$2</f>
+        <f>$T$2</f>
         <v>Het</v>
       </c>
       <c r="D33" s="60">
@@ -2852,30 +3006,33 @@
       <c r="H33" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="28"/>
+      <c r="I33" s="61" t="s">
+        <v>7</v>
+      </c>
       <c r="J33" s="28"/>
       <c r="K33" s="28"/>
       <c r="L33" s="28"/>
-      <c r="M33" s="29" t="s">
+      <c r="M33" s="28"/>
+      <c r="N33" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="P33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P33" s="67">
-        <f>COUNTIFS(B:B, "M",C:C, P31,L:L, "&lt;&gt;")</f>
+      <c r="Q33" s="67">
+        <f>COUNTIFS(B:B, "M",C:C, Q31,M:M, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="Q33" s="67">
-        <f>COUNTIFS(B:B, "M",C:C,Q31,L:L, "&lt;&gt;")</f>
+      <c r="R33" s="67">
+        <f>COUNTIFS(B:B, "M",C:C,R31,M:M, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="R33" s="4">
-        <f>SUM(P33:Q33)</f>
+      <c r="S33" s="4">
+        <f>SUM(Q33:R33)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:19">
       <c r="A34" s="61">
         <v>204</v>
       </c>
@@ -2883,7 +3040,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="76" t="str">
-        <f>$S$2</f>
+        <f>$T$2</f>
         <v>Het</v>
       </c>
       <c r="D34" s="60">
@@ -2901,19 +3058,18 @@
       <c r="H34" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="I34" s="28"/>
+      <c r="I34" s="61" t="s">
+        <v>7</v>
+      </c>
       <c r="J34" s="28"/>
       <c r="K34" s="28"/>
       <c r="L34" s="28"/>
-      <c r="M34" s="29" t="s">
+      <c r="M34" s="28"/>
+      <c r="N34" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="O34" s="4" t="s">
+      <c r="P34" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="P34" s="4">
-        <f>SUM(P32:P33)</f>
-        <v>3</v>
       </c>
       <c r="Q34" s="4">
         <f>SUM(Q32:Q33)</f>
@@ -2921,10 +3077,14 @@
       </c>
       <c r="R34" s="4">
         <f>SUM(R32:R33)</f>
+        <v>3</v>
+      </c>
+      <c r="S34" s="4">
+        <f>SUM(S32:S33)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:19">
       <c r="A35" s="63">
         <v>205</v>
       </c>
@@ -2932,7 +3092,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="77" t="str">
-        <f>$Q$2</f>
+        <f>$R$2</f>
         <v>WT</v>
       </c>
       <c r="D35" s="62">
@@ -2950,15 +3110,18 @@
       <c r="H35" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="13"/>
+      <c r="I35" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
-      <c r="M35" s="14" t="s">
+      <c r="M35" s="13"/>
+      <c r="N35" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:19">
       <c r="A36" s="61">
         <v>206</v>
       </c>
@@ -2966,7 +3129,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="76" t="str">
-        <f>$S$2</f>
+        <f>$T$2</f>
         <v>Het</v>
       </c>
       <c r="D36" s="60">
@@ -2984,26 +3147,29 @@
       <c r="H36" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="28"/>
+      <c r="I36" s="61" t="s">
+        <v>7</v>
+      </c>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
       <c r="L36" s="28"/>
-      <c r="M36" s="29" t="s">
+      <c r="M36" s="28"/>
+      <c r="N36" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="O36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P36" s="2">
-        <f>COUNTIFS(M:M, O36,C:C, P2,M:M, O36)</f>
+      <c r="Q36" s="2">
+        <f>COUNTIFS(N:N, P36,C:C, Q2,N:N, P36)</f>
         <v>2</v>
       </c>
-      <c r="Q36" s="2">
-        <f>COUNTIFS(M:M, O36,C:C, Q2,M:M, O36)</f>
+      <c r="R36" s="2">
+        <f>COUNTIFS(N:N, P36,C:C, R2,N:N, P36)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:19">
       <c r="A37" s="59">
         <v>207</v>
       </c>
@@ -3011,7 +3177,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="75" t="str">
-        <f>$P$2</f>
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D37" s="58">
@@ -3029,15 +3195,18 @@
       <c r="H37" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="18"/>
+      <c r="I37" s="59" t="s">
+        <v>7</v>
+      </c>
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
-      <c r="M37" s="19" t="s">
+      <c r="M37" s="18"/>
+      <c r="N37" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:19">
       <c r="A38" s="78">
         <v>4</v>
       </c>
@@ -3045,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="78" t="str">
-        <f>$Q$2</f>
+        <f>$R$2</f>
         <v>WT</v>
       </c>
       <c r="D38" s="56">
@@ -3064,15 +3233,18 @@
         <f t="shared" ref="H38:H80" ca="1" si="1">IF(G38, G38-D38, TODAY()-D38)</f>
         <v>33</v>
       </c>
-      <c r="I38" s="2"/>
+      <c r="I38" s="49" t="s">
+        <v>7</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="2"/>
+      <c r="M38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="22">
         <v>5</v>
       </c>
@@ -3080,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="22" t="str">
-        <f>$S$2</f>
+        <f>$T$2</f>
         <v>Het</v>
       </c>
       <c r="D39" s="42">
@@ -3095,55 +3267,63 @@
       <c r="G39" s="22"/>
       <c r="H39" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="I39" s="21"/>
+        <v>54</v>
+      </c>
+      <c r="I39" s="43"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
-      <c r="M39" s="21" t="s">
+      <c r="M39" s="21"/>
+      <c r="N39" s="21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="31">
+    <row r="40" spans="1:19">
+      <c r="A40" s="3">
         <v>459</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="65">
+      <c r="C40" s="70" t="str">
+        <f>$Q$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D40" s="40">
         <v>43177</v>
       </c>
-      <c r="E40" s="66" t="s">
+      <c r="E40" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="65">
+      <c r="F40" s="40">
         <v>43203</v>
       </c>
-      <c r="G40" s="31"/>
-      <c r="H40" s="41">
+      <c r="G40" s="3"/>
+      <c r="H40" s="99">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="O40" s="64"/>
-    </row>
-    <row r="41" spans="1:18">
+        <v>45</v>
+      </c>
+      <c r="I40" s="99"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P40" s="64"/>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="31">
         <v>460</v>
       </c>
       <c r="B41" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="31"/>
+      <c r="C41" s="31" t="str">
+        <f>$R$2</f>
+        <v>WT</v>
+      </c>
       <c r="D41" s="65">
         <v>43177</v>
       </c>
@@ -3156,17 +3336,18 @@
       <c r="G41" s="31"/>
       <c r="H41" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="I41" s="67"/>
+        <v>45</v>
+      </c>
+      <c r="I41" s="41"/>
       <c r="J41" s="67"/>
       <c r="K41" s="67"/>
       <c r="L41" s="67"/>
-      <c r="M41" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="M41" s="67"/>
+      <c r="N41" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="71">
         <v>1000</v>
       </c>
@@ -3174,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="68" t="str">
-        <f>$P$2</f>
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D42" s="72">
@@ -3187,17 +3368,18 @@
       <c r="G42" s="30"/>
       <c r="H42" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="I42" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="I42" s="71"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="M42" s="2"/>
+      <c r="N42" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="66">
         <v>1001</v>
       </c>
@@ -3205,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="70" t="str">
-        <f>$P$2</f>
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D43" s="73">
@@ -3218,17 +3400,18 @@
       <c r="G43" s="31"/>
       <c r="H43" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="I43" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="I43" s="66"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="M43" s="2"/>
+      <c r="N43" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="68">
         <v>6</v>
       </c>
@@ -3236,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="68" t="str">
-        <f>$P$2</f>
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D44" s="69">
@@ -3251,15 +3434,16 @@
       <c r="G44" s="68"/>
       <c r="H44" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="I44" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="I44" s="45"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="20">
         <v>7</v>
       </c>
@@ -3267,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="20" t="str">
-        <f>$S$2</f>
+        <f>$T$2</f>
         <v>Het</v>
       </c>
       <c r="D45" s="38">
@@ -3282,15 +3466,16 @@
       <c r="G45" s="20"/>
       <c r="H45" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="I45" s="21"/>
+        <v>31</v>
+      </c>
+      <c r="I45" s="39"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="N45" s="21"/>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="22">
         <v>8</v>
       </c>
@@ -3298,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="22" t="str">
-        <f t="shared" ref="C46:C47" si="2">$S$2</f>
+        <f t="shared" ref="C46:C47" si="2">$T$2</f>
         <v>Het</v>
       </c>
       <c r="D46" s="42">
@@ -3313,15 +3498,16 @@
       <c r="G46" s="22"/>
       <c r="H46" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I46" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="I46" s="22"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="N46" s="21"/>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="22">
         <v>9</v>
       </c>
@@ -3344,46 +3530,54 @@
       <c r="G47" s="22"/>
       <c r="H47" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I47" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="I47" s="22"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="A48" s="6">
+      <c r="N47" s="21"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="80">
         <v>10</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="68" t="str">
-        <f>$P$2</f>
+      <c r="C48" s="100" t="str">
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D48" s="44">
+      <c r="D48" s="48">
         <v>43196</v>
       </c>
-      <c r="E48" s="68" t="s">
+      <c r="E48" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="68">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I48" s="4"/>
+      <c r="F48" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="48">
+        <v>43203</v>
+      </c>
+      <c r="H48" s="100">
+        <f ca="1">IF(G48, G48-D48, TODAY()-D48)</f>
+        <v>7</v>
+      </c>
+      <c r="I48" s="101" t="s">
+        <v>54</v>
+      </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="20">
         <v>11</v>
       </c>
@@ -3391,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="20" t="str">
-        <f>$S$2</f>
+        <f>$T$2</f>
         <v>Het</v>
       </c>
       <c r="D49" s="38">
@@ -3406,15 +3600,16 @@
       <c r="G49" s="20"/>
       <c r="H49" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I49" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="I49" s="20"/>
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="21"/>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="20">
         <v>12</v>
       </c>
@@ -3422,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="20" t="str">
-        <f t="shared" ref="C50:C52" si="3">$S$2</f>
+        <f t="shared" ref="C50:C52" si="3">$T$2</f>
         <v>Het</v>
       </c>
       <c r="D50" s="38">
@@ -3437,15 +3632,16 @@
       <c r="G50" s="20"/>
       <c r="H50" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I50" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="I50" s="20"/>
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="21"/>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="20">
         <v>13</v>
       </c>
@@ -3468,15 +3664,16 @@
       <c r="G51" s="20"/>
       <c r="H51" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I51" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="I51" s="20"/>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
       <c r="M51" s="21"/>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="21"/>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="20">
         <v>14</v>
       </c>
@@ -3499,15 +3696,16 @@
       <c r="G52" s="20"/>
       <c r="H52" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I52" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="I52" s="20"/>
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="21"/>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="3">
         <v>15</v>
       </c>
@@ -3515,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="70" t="str">
-        <f>$P$2</f>
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D53" s="40">
@@ -3530,15 +3728,16 @@
       <c r="G53" s="3"/>
       <c r="H53" s="70">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I53" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="I53" s="70"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="22">
         <v>16</v>
       </c>
@@ -3546,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="22" t="str">
-        <f>$S$2</f>
+        <f>$T$2</f>
         <v>Het</v>
       </c>
       <c r="D54" s="42">
@@ -3561,15 +3760,16 @@
       <c r="G54" s="22"/>
       <c r="H54" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="I54" s="34"/>
+        <v>24</v>
+      </c>
+      <c r="I54" s="22"/>
       <c r="J54" s="34"/>
       <c r="K54" s="34"/>
       <c r="L54" s="34"/>
       <c r="M54" s="34"/>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="34"/>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="22">
         <v>17</v>
       </c>
@@ -3577,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="22" t="str">
-        <f t="shared" ref="C55:C56" si="4">$S$2</f>
+        <f t="shared" ref="C55:C56" si="4">$T$2</f>
         <v>Het</v>
       </c>
       <c r="D55" s="42">
@@ -3592,15 +3792,16 @@
       <c r="G55" s="22"/>
       <c r="H55" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="I55" s="34"/>
+        <v>24</v>
+      </c>
+      <c r="I55" s="22"/>
       <c r="J55" s="34"/>
       <c r="K55" s="34"/>
       <c r="L55" s="34"/>
       <c r="M55" s="34"/>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" s="34"/>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="22">
         <v>18</v>
       </c>
@@ -3623,15 +3824,16 @@
       <c r="G56" s="22"/>
       <c r="H56" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="I56" s="34"/>
+        <v>24</v>
+      </c>
+      <c r="I56" s="22"/>
       <c r="J56" s="34"/>
       <c r="K56" s="34"/>
       <c r="L56" s="34"/>
       <c r="M56" s="34"/>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="34"/>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="70">
         <v>19</v>
       </c>
@@ -3639,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="70" t="str">
-        <f>$P$2</f>
+        <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D57" s="84">
@@ -3654,134 +3856,154 @@
       <c r="G57" s="70"/>
       <c r="H57" s="70">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="I57" s="85"/>
+        <v>24</v>
+      </c>
+      <c r="I57" s="70"/>
       <c r="J57" s="85"/>
       <c r="K57" s="85"/>
       <c r="L57" s="85"/>
       <c r="M57" s="85"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="71">
+      <c r="N57" s="85"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="68">
         <v>20</v>
       </c>
-      <c r="B58" s="71" t="s">
+      <c r="B58" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="71"/>
-      <c r="D58" s="72">
+      <c r="C58" s="68" t="str">
+        <f>$Q$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D58" s="69">
         <v>43213</v>
       </c>
-      <c r="E58" s="71" t="s">
+      <c r="E58" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F58" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="G58" s="72"/>
-      <c r="H58" s="71">
+      <c r="F58" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="69"/>
+      <c r="H58" s="68">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="I58" s="86"/>
-      <c r="J58" s="86"/>
-      <c r="K58" s="86"/>
-      <c r="L58" s="86"/>
-      <c r="M58" s="86"/>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="71">
+        <v>9</v>
+      </c>
+      <c r="I58" s="68"/>
+      <c r="J58" s="85"/>
+      <c r="K58" s="85"/>
+      <c r="L58" s="85"/>
+      <c r="M58" s="85"/>
+      <c r="N58" s="85"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="90">
         <v>21</v>
       </c>
-      <c r="B59" s="71" t="s">
+      <c r="B59" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72">
+      <c r="C59" s="90" t="str">
+        <f t="shared" ref="C59:C60" si="5">$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D59" s="94">
         <v>43213</v>
       </c>
-      <c r="E59" s="71" t="s">
+      <c r="E59" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="F59" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71">
+      <c r="F59" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="90"/>
+      <c r="H59" s="90">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="I59" s="86"/>
-      <c r="J59" s="86"/>
-      <c r="K59" s="86"/>
-      <c r="L59" s="86"/>
-      <c r="M59" s="86"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="66">
+        <v>9</v>
+      </c>
+      <c r="I59" s="90"/>
+      <c r="J59" s="93"/>
+      <c r="K59" s="93"/>
+      <c r="L59" s="93"/>
+      <c r="M59" s="93"/>
+      <c r="N59" s="93"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="91">
         <v>22</v>
       </c>
-      <c r="B60" s="66" t="s">
+      <c r="B60" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="66"/>
-      <c r="D60" s="73">
+      <c r="C60" s="91" t="str">
+        <f t="shared" si="5"/>
+        <v>Het</v>
+      </c>
+      <c r="D60" s="92">
         <v>43213</v>
       </c>
-      <c r="E60" s="66" t="s">
+      <c r="E60" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="F60" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66">
+      <c r="F60" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="91"/>
+      <c r="H60" s="91">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="I60" s="86"/>
-      <c r="J60" s="86"/>
-      <c r="K60" s="86"/>
-      <c r="L60" s="86"/>
-      <c r="M60" s="86"/>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="71">
+        <v>9</v>
+      </c>
+      <c r="I60" s="91"/>
+      <c r="J60" s="93"/>
+      <c r="K60" s="93"/>
+      <c r="L60" s="93"/>
+      <c r="M60" s="93"/>
+      <c r="N60" s="93"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="68">
         <v>23</v>
       </c>
-      <c r="B61" s="71" t="s">
+      <c r="B61" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="71"/>
-      <c r="D61" s="72">
+      <c r="C61" s="68" t="str">
+        <f>$Q$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D61" s="69">
         <v>43213</v>
       </c>
-      <c r="E61" s="71" t="s">
+      <c r="E61" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71">
+      <c r="F61" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="I61" s="86"/>
-      <c r="J61" s="86"/>
-      <c r="K61" s="86"/>
-      <c r="L61" s="86"/>
-      <c r="M61" s="86"/>
-    </row>
-    <row r="62" spans="1:13">
+        <v>9</v>
+      </c>
+      <c r="I61" s="68"/>
+      <c r="J61" s="85"/>
+      <c r="K61" s="85"/>
+      <c r="L61" s="85"/>
+      <c r="M61" s="85"/>
+      <c r="N61" s="85"/>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="71">
         <v>24</v>
       </c>
       <c r="B62" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="71"/>
+      <c r="C62" s="30" t="str">
+        <f>$R$2</f>
+        <v>WT</v>
+      </c>
       <c r="D62" s="72">
         <v>43213</v>
       </c>
@@ -3794,22 +4016,26 @@
       <c r="G62" s="71"/>
       <c r="H62" s="71">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="I62" s="86"/>
+        <v>9</v>
+      </c>
+      <c r="I62" s="71"/>
       <c r="J62" s="86"/>
       <c r="K62" s="86"/>
       <c r="L62" s="86"/>
       <c r="M62" s="86"/>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" s="86"/>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="66">
         <v>25</v>
       </c>
       <c r="B63" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="66"/>
+      <c r="C63" s="31" t="str">
+        <f>$R$2</f>
+        <v>WT</v>
+      </c>
       <c r="D63" s="73">
         <v>43213</v>
       </c>
@@ -3822,43 +4048,48 @@
       <c r="G63" s="66"/>
       <c r="H63" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="I63" s="86"/>
+        <v>9</v>
+      </c>
+      <c r="I63" s="66"/>
       <c r="J63" s="86"/>
       <c r="K63" s="86"/>
       <c r="L63" s="86"/>
       <c r="M63" s="86"/>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="66">
+      <c r="N63" s="86"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="70">
         <v>26</v>
       </c>
-      <c r="B64" s="66" t="s">
+      <c r="B64" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="66"/>
-      <c r="D64" s="73">
+      <c r="C64" s="70" t="str">
+        <f>$Q$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D64" s="84">
         <v>43213</v>
       </c>
-      <c r="E64" s="66" t="s">
+      <c r="E64" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66">
+      <c r="F64" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="I64" s="86"/>
-      <c r="J64" s="86"/>
-      <c r="K64" s="86"/>
-      <c r="L64" s="86"/>
-      <c r="M64" s="86"/>
-    </row>
-    <row r="65" spans="1:13">
+        <v>9</v>
+      </c>
+      <c r="I64" s="70"/>
+      <c r="J64" s="85"/>
+      <c r="K64" s="85"/>
+      <c r="L64" s="85"/>
+      <c r="M64" s="85"/>
+      <c r="N64" s="85"/>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="86">
         <v>27</v>
       </c>
@@ -3876,15 +4107,16 @@
       <c r="G65" s="2"/>
       <c r="H65" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I65" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="I65" s="10"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="8"/>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="M65" s="2"/>
+      <c r="N65" s="8"/>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="86">
         <v>28</v>
       </c>
@@ -3902,15 +4134,16 @@
       <c r="G66" s="2"/>
       <c r="H66" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I66" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="I66" s="10"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="8"/>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="M66" s="2"/>
+      <c r="N66" s="8"/>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="86">
         <v>29</v>
       </c>
@@ -3928,15 +4161,16 @@
       <c r="G67" s="2"/>
       <c r="H67" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I67" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="I67" s="10"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="8"/>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="M67" s="2"/>
+      <c r="N67" s="8"/>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="86">
         <v>30</v>
       </c>
@@ -3954,15 +4188,16 @@
       <c r="G68" s="2"/>
       <c r="H68" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I68" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="I68" s="10"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="8"/>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="M68" s="2"/>
+      <c r="N68" s="8"/>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="86">
         <v>31</v>
       </c>
@@ -3980,15 +4215,16 @@
       <c r="G69" s="2"/>
       <c r="H69" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I69" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="I69" s="10"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="8"/>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="M69" s="2"/>
+      <c r="N69" s="8"/>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="86">
         <v>32</v>
       </c>
@@ -4006,15 +4242,16 @@
       <c r="G70" s="2"/>
       <c r="H70" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I70" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="I70" s="10"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="8"/>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="M70" s="2"/>
+      <c r="N70" s="8"/>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="86">
         <v>33</v>
       </c>
@@ -4032,15 +4269,16 @@
       <c r="G71" s="2"/>
       <c r="H71" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I71" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="I71" s="10"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="8"/>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="M71" s="2"/>
+      <c r="N71" s="8"/>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="86">
         <v>34</v>
       </c>
@@ -4058,15 +4296,16 @@
       <c r="G72" s="2"/>
       <c r="H72" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I72" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="I72" s="10"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="8"/>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="M72" s="2"/>
+      <c r="N72" s="8"/>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="86">
         <v>35</v>
       </c>
@@ -4084,15 +4323,16 @@
       <c r="G73" s="2"/>
       <c r="H73" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I73" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="I73" s="10"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="8"/>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="M73" s="2"/>
+      <c r="N73" s="8"/>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="86">
         <v>36</v>
       </c>
@@ -4110,15 +4350,16 @@
       <c r="G74" s="2"/>
       <c r="H74" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I74" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="I74" s="10"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="8"/>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="M74" s="2"/>
+      <c r="N74" s="8"/>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="86">
         <v>37</v>
       </c>
@@ -4136,15 +4377,16 @@
       <c r="G75" s="2"/>
       <c r="H75" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I75" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="I75" s="10"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="8"/>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="M75" s="2"/>
+      <c r="N75" s="8"/>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="86">
         <v>38</v>
       </c>
@@ -4162,15 +4404,16 @@
       <c r="G76" s="2"/>
       <c r="H76" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I76" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="I76" s="10"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="8"/>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="M76" s="2"/>
+      <c r="N76" s="8"/>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="86">
         <v>39</v>
       </c>
@@ -4188,15 +4431,16 @@
       <c r="G77" s="2"/>
       <c r="H77" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I77" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="I77" s="10"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="8"/>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="M77" s="2"/>
+      <c r="N77" s="8"/>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="86">
         <v>40</v>
       </c>
@@ -4214,15 +4458,16 @@
       <c r="G78" s="2"/>
       <c r="H78" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I78" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="I78" s="10"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="8"/>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="M78" s="2"/>
+      <c r="N78" s="8"/>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="86">
         <v>41</v>
       </c>
@@ -4240,15 +4485,16 @@
       <c r="G79" s="2"/>
       <c r="H79" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I79" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="I79" s="10"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="8"/>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="M79" s="2"/>
+      <c r="N79" s="8"/>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="86">
         <v>42</v>
       </c>
@@ -4266,13 +4512,14 @@
       <c r="G80" s="2"/>
       <c r="H80" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I80" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="I80" s="10"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="8"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A2:M57">
@@ -4280,8 +4527,8 @@
     <sortCondition ref="A2:A57"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="N14:N15 H28:H30 E28:E30 I1:M1048576 E1:H27 A1:D1048576 E31:H1048576">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="O14:O15 H29:I30 E28:E30 J1:N1048576 E31:I47 A1:D1048576 E1:I20 E22:I22 E21:H21 E24:I25 E23:H23 E27:I27 E26:H26 H28 E49:I1048576 E48:H48">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$C$2="Mut"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="0" windowWidth="30540" windowHeight="19400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29660" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="56">
   <si>
     <t>F</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Pas encore récupéré</t>
   </si>
   <si>
-    <t>Zone protégé B</t>
-  </si>
-  <si>
     <t>Nombre souris</t>
   </si>
   <si>
@@ -184,6 +181,12 @@
   </si>
   <si>
     <t>Non</t>
+  </si>
+  <si>
+    <t>C57B6/J Noté M2 sur tube</t>
+  </si>
+  <si>
+    <t>C57B6/J Noté M1 sur tube</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -537,8 +540,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -641,12 +646,6 @@
     <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -714,9 +713,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -816,17 +812,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="117">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -884,6 +880,7 @@
     <cellStyle name="Lien hypertexte" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -941,61 +938,10 @@
     <cellStyle name="Lien hypertexte visité" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -1383,11 +1329,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1426,7 +1372,7 @@
         <v>17</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J1" s="24" t="s">
         <v>4</v>
@@ -1469,8 +1415,8 @@
       </c>
       <c r="G2" s="38"/>
       <c r="H2" s="39">
-        <f t="shared" ref="H2:H30" ca="1" si="0">IF(G2, G2-D2, TODAY()-D2)</f>
-        <v>315</v>
+        <f ca="1">IF(G2, G2-D2, TODAY()-D2)</f>
+        <v>316</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="21"/>
@@ -1512,21 +1458,21 @@
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="40">
         <v>42962</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="40">
         <v>43123</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43">
-        <f t="shared" ca="1" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="I3" s="43"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41">
+        <f ca="1">IF(G3, G3-D3, TODAY()-D3)</f>
+        <v>261</v>
+      </c>
+      <c r="I3" s="41"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
@@ -1581,8 +1527,8 @@
       </c>
       <c r="G4" s="38"/>
       <c r="H4" s="39">
-        <f t="shared" ca="1" si="0"/>
-        <v>260</v>
+        <f ca="1">IF(G4, G4-D4, TODAY()-D4)</f>
+        <v>261</v>
       </c>
       <c r="I4" s="39"/>
       <c r="J4" s="21"/>
@@ -1628,21 +1574,21 @@
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="40">
         <v>42964</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="40">
         <v>43123</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43">
-        <f t="shared" ca="1" si="0"/>
-        <v>258</v>
-      </c>
-      <c r="I5" s="43"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41">
+        <f ca="1">IF(G5, G5-D5, TODAY()-D5)</f>
+        <v>259</v>
+      </c>
+      <c r="I5" s="41"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
@@ -1676,33 +1622,33 @@
       <c r="V5" s="16"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="80">
+      <c r="A6" s="77">
         <v>435</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="80" t="str">
+      <c r="C6" s="77" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="46">
         <v>43097</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="46">
         <v>43123</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="46">
         <v>43124</v>
       </c>
-      <c r="H6" s="49">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H6" s="47">
+        <f ca="1">IF(G6, G6-D6, TODAY()-D6)</f>
         <v>27</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="47" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -1719,33 +1665,33 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="79">
+      <c r="A7" s="76">
         <v>437</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="79" t="str">
+      <c r="C7" s="76" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="48">
         <v>43097</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="48">
         <v>43123</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="48">
         <v>43124</v>
       </c>
-      <c r="H7" s="51">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H7" s="49">
+        <f ca="1">IF(G7, G7-D7, TODAY()-D7)</f>
         <v>27</v>
       </c>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="49" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="8" t="s">
@@ -1769,36 +1715,36 @@
       <c r="S7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="96"/>
+      <c r="T7" s="93"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="80">
+      <c r="A8" s="77">
         <v>439</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="80" t="str">
+      <c r="C8" s="77" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="46">
         <v>43111</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="46">
         <v>43145</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="46">
         <v>43146</v>
       </c>
-      <c r="H8" s="49">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H8" s="47">
+        <f ca="1">IF(G8, G8-D8, TODAY()-D8)</f>
         <v>35</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="47" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="4"/>
@@ -1818,46 +1764,46 @@
       </c>
       <c r="Q8" s="2">
         <f>COUNTIFS(B:B, "F",C:C, Q7,G:G,"")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R8" s="2">
         <f>COUNTIFS(B:B, "F",C:C,R7,G:G, "")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S8" s="4">
         <f>SUM(Q8:R8)</f>
-        <v>7</v>
-      </c>
-      <c r="T8" s="97"/>
+        <v>3</v>
+      </c>
+      <c r="T8" s="94"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="79">
+      <c r="A9" s="76">
         <v>440</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="79" t="str">
+      <c r="C9" s="76" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="48">
         <v>43111</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="48">
         <v>43145</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="48">
         <v>43147</v>
       </c>
-      <c r="H9" s="51">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H9" s="49">
+        <f ca="1">IF(G9, G9-D9, TODAY()-D9)</f>
         <v>36</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="49" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="8"/>
@@ -1875,7 +1821,7 @@
       </c>
       <c r="Q9" s="2">
         <f>COUNTIFS(B:B, "M",C:C, Q7,G:G,"")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R9" s="2">
         <f>COUNTIFS(B:B, "M",C:C,R7,G:G,"")</f>
@@ -1883,44 +1829,44 @@
       </c>
       <c r="S9" s="4">
         <f>SUM(Q9:R9)</f>
-        <v>6</v>
-      </c>
-      <c r="T9" s="97"/>
+        <v>5</v>
+      </c>
+      <c r="T9" s="94"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="81">
+      <c r="A10" s="78">
         <v>441</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="79" t="str">
+      <c r="C10" s="76" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="50">
         <v>43111</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="50">
         <v>43145</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="50">
         <v>43146</v>
       </c>
-      <c r="H10" s="53">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H10" s="51">
+        <f ca="1">IF(G10, G10-D10, TODAY()-D10)</f>
         <v>35</v>
       </c>
-      <c r="I10" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
+      <c r="I10" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
       <c r="N10" s="8" t="s">
         <v>45</v>
       </c>
@@ -1932,46 +1878,46 @@
       </c>
       <c r="Q10" s="4">
         <f>SUM(Q8:Q9)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R10" s="4">
         <f>SUM(R8:R9)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S10" s="4">
         <f>SUM(S8:S9)</f>
-        <v>13</v>
-      </c>
-      <c r="T10" s="98"/>
+        <v>8</v>
+      </c>
+      <c r="T10" s="95"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="82">
+      <c r="A11" s="79">
         <v>442</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="80" t="str">
+      <c r="C11" s="77" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="52">
         <v>43118</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="52">
         <v>43145</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="52">
         <v>43146</v>
       </c>
-      <c r="H11" s="55">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H11" s="53">
+        <f ca="1">IF(G11, G11-D11, TODAY()-D11)</f>
         <v>28</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="53" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -1986,33 +1932,33 @@
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="80">
+      <c r="A12" s="77">
         <v>443</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="80" t="str">
+      <c r="C12" s="77" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="46">
         <v>43118</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="46">
         <v>43145</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="46">
         <v>43146</v>
       </c>
-      <c r="H12" s="49">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H12" s="47">
+        <f ca="1">IF(G12, G12-D12, TODAY()-D12)</f>
         <v>28</v>
       </c>
-      <c r="I12" s="49" t="s">
+      <c r="I12" s="47" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="4"/>
@@ -2028,38 +1974,38 @@
         <v>34</v>
       </c>
       <c r="Q12" s="12">
-        <f ca="1">IF(H:H="E", "", AVERAGEIF(G:G, "&lt;&gt;",H:H))</f>
-        <v>38.136363636363633</v>
-      </c>
-      <c r="R12" s="95"/>
+        <f ca="1">IF(H:H="E", "", AVERAGEIF(G:G,"&lt;&gt;",H:H))</f>
+        <v>37.068965517241381</v>
+      </c>
+      <c r="R12" s="92"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="79">
+      <c r="A13" s="76">
         <v>101</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="48">
         <v>43130</v>
       </c>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F13" s="48">
         <v>43165</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="48">
         <v>43165</v>
       </c>
-      <c r="H13" s="51">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H13" s="49">
+        <f ca="1">IF(G13, G13-D13, TODAY()-D13)</f>
         <v>35</v>
       </c>
-      <c r="I13" s="51" t="s">
+      <c r="I13" s="49" t="s">
         <v>7</v>
       </c>
       <c r="J13" s="8"/>
@@ -2074,32 +2020,32 @@
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="79">
+      <c r="A14" s="76">
         <v>102</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="48">
         <v>43130</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="E14" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="48">
         <v>43165</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="48">
         <v>43165</v>
       </c>
-      <c r="H14" s="51">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H14" s="49">
+        <f ca="1">IF(G14, G14-D14, TODAY()-D14)</f>
         <v>35</v>
       </c>
-      <c r="I14" s="51" t="s">
+      <c r="I14" s="49" t="s">
         <v>7</v>
       </c>
       <c r="J14" s="8"/>
@@ -2113,40 +2059,40 @@
         <v>40</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="8">
         <f>COUNTIF(A:A, "&lt;&gt;")-1</f>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="79">
+      <c r="A15" s="76">
         <v>103</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="48">
         <v>43130</v>
       </c>
-      <c r="E15" s="74" t="s">
+      <c r="E15" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F15" s="48">
         <v>43165</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="48">
         <v>43165</v>
       </c>
-      <c r="H15" s="51">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H15" s="49">
+        <f ca="1">IF(G15, G15-D15, TODAY()-D15)</f>
         <v>35</v>
       </c>
-      <c r="I15" s="51" t="s">
+      <c r="I15" s="49" t="s">
         <v>7</v>
       </c>
       <c r="J15" s="8"/>
@@ -2161,32 +2107,32 @@
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="79">
+      <c r="A16" s="76">
         <v>104</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="48">
         <v>43130</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="48">
         <v>43165</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="48">
         <v>43165</v>
       </c>
-      <c r="H16" s="51">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H16" s="49">
+        <f ca="1">IF(G16, G16-D16, TODAY()-D16)</f>
         <v>35</v>
       </c>
-      <c r="I16" s="51" t="s">
+      <c r="I16" s="49" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="8"/>
@@ -2220,21 +2166,21 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="42">
         <v>43132</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="42">
         <v>43166</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45">
-        <f t="shared" ca="1" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="I17" s="45"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43">
+        <f ca="1">IF(G17, G17-D17, TODAY()-D17)</f>
+        <v>91</v>
+      </c>
+      <c r="I17" s="43"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -2257,33 +2203,33 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="80">
+      <c r="A18" s="77">
         <v>445</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="80" t="str">
+      <c r="C18" s="77" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="46">
         <v>43132</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="46">
         <v>43166</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="46">
         <v>43201</v>
       </c>
-      <c r="H18" s="49">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H18" s="47">
+        <f ca="1">IF(G18, G18-D18, TODAY()-D18)</f>
         <v>69</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="I18" s="47" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="4"/>
@@ -2310,33 +2256,33 @@
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="80">
+      <c r="A19" s="77">
         <v>448</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="80" t="str">
+      <c r="C19" s="77" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="46">
         <v>43132</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="46">
         <v>43166</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="46">
         <v>43201</v>
       </c>
-      <c r="H19" s="49">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H19" s="47">
+        <f ca="1">IF(G19, G19-D19, TODAY()-D19)</f>
         <v>69</v>
       </c>
-      <c r="I19" s="49" t="s">
+      <c r="I19" s="47" t="s">
         <v>7</v>
       </c>
       <c r="J19" s="4"/>
@@ -2384,8 +2330,8 @@
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="39">
-        <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <f ca="1">IF(G20, G20-D20, TODAY()-D20)</f>
+        <v>91</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="21"/>
@@ -2397,33 +2343,33 @@
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="79">
+      <c r="A21" s="76">
         <v>450</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="79" t="str">
+      <c r="C21" s="76" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="48">
         <v>43132</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F21" s="48">
         <v>43166</v>
       </c>
-      <c r="G21" s="50">
+      <c r="G21" s="48">
         <v>43201</v>
       </c>
-      <c r="H21" s="51">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H21" s="49">
+        <f ca="1">IF(G21, G21-D21, TODAY()-D21)</f>
         <v>69</v>
       </c>
-      <c r="I21" s="101" t="s">
+      <c r="I21" s="97" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="8"/>
@@ -2468,8 +2414,8 @@
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="39">
-        <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <f ca="1">IF(G22, G22-D22, TODAY()-D22)</f>
+        <v>91</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="21"/>
@@ -2496,33 +2442,33 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="79">
+      <c r="A23" s="76">
         <v>455</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="79" t="str">
+      <c r="C23" s="76" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="48">
         <v>43146</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="50">
+      <c r="F23" s="48">
         <v>43166</v>
       </c>
-      <c r="G23" s="50">
+      <c r="G23" s="48">
         <v>43201</v>
       </c>
-      <c r="H23" s="51">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H23" s="49">
+        <f ca="1">IF(G23, G23-D23, TODAY()-D23)</f>
         <v>55</v>
       </c>
-      <c r="I23" s="101" t="s">
+      <c r="I23" s="97" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="8"/>
@@ -2539,7 +2485,7 @@
         <f>COUNTIFS(B:B, "M",C:C, Q16,K:K, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="R23" s="47">
+      <c r="R23" s="45">
         <f>COUNTIFS(B:B, "M",C:C,R21,K:K, "&lt;&gt;")</f>
         <v>0</v>
       </c>
@@ -2549,33 +2495,33 @@
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="80">
+      <c r="A24" s="77">
         <v>457</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="80" t="str">
+      <c r="C24" s="77" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="46">
         <v>43146</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="46">
         <v>43166</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="46">
         <v>43201</v>
       </c>
-      <c r="H24" s="49">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H24" s="47">
+        <f ca="1">IF(G24, G24-D24, TODAY()-D24)</f>
         <v>55</v>
       </c>
-      <c r="I24" s="49"/>
+      <c r="I24" s="47"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -2610,7 +2556,7 @@
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="40">
         <v>43147</v>
       </c>
       <c r="E25" s="22" t="s">
@@ -2620,11 +2566,11 @@
         <v>31</v>
       </c>
       <c r="G25" s="22"/>
-      <c r="H25" s="43">
-        <f t="shared" ca="1" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="I25" s="43"/>
+      <c r="H25" s="41">
+        <f ca="1">IF(G25, G25-D25, TODAY()-D25)</f>
+        <v>76</v>
+      </c>
+      <c r="I25" s="41"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
@@ -2634,33 +2580,33 @@
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="78">
+      <c r="A26" s="75">
         <v>2</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="78" t="str">
+      <c r="C26" s="75" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D26" s="56">
+      <c r="D26" s="54">
         <v>43150</v>
       </c>
-      <c r="E26" s="78" t="s">
+      <c r="E26" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="56">
+      <c r="F26" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="54">
         <v>43186</v>
       </c>
-      <c r="H26" s="51">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H26" s="49">
+        <f ca="1">IF(G26, G26-D26, TODAY()-D26)</f>
         <v>36</v>
       </c>
-      <c r="I26" s="101" t="s">
+      <c r="I26" s="97" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="2" t="s">
@@ -2705,8 +2651,8 @@
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="39">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <f ca="1">IF(G27, G27-D27, TODAY()-D27)</f>
+        <v>73</v>
       </c>
       <c r="I27" s="39"/>
       <c r="J27" s="21"/>
@@ -2719,46 +2665,46 @@
       <c r="P27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q27" s="47">
+      <c r="Q27" s="64">
         <f>COUNTIFS(B:B, "F",C:C, Q26,L:L, "&lt;&gt;")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R27" s="2">
         <f>COUNTIFS(B:B, "F",C:C,R26,L:L, "&lt;&gt;")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S27" s="4">
         <f>SUM(Q27:R27)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="71">
+        <v>105</v>
+      </c>
+      <c r="B28" s="71" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="74">
-        <v>105</v>
-      </c>
-      <c r="B28" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="57">
+      <c r="D28" s="55">
         <v>43150</v>
       </c>
-      <c r="E28" s="74" t="s">
+      <c r="E28" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="57">
+      <c r="F28" s="55">
         <v>43180</v>
       </c>
-      <c r="G28" s="57">
+      <c r="G28" s="55">
         <v>43180</v>
       </c>
-      <c r="H28" s="51">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H28" s="49">
+        <f ca="1">IF(G28, G28-D28, TODAY()-D28)</f>
         <v>30</v>
       </c>
-      <c r="I28" s="101" t="s">
+      <c r="I28" s="97" t="s">
         <v>7</v>
       </c>
       <c r="J28" s="10"/>
@@ -2773,46 +2719,46 @@
       <c r="P28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q28" s="47">
+      <c r="Q28" s="64">
         <f>COUNTIFS(B:B, "M",C:C, Q26,L:L, "&lt;&gt;")</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="47">
+        <v>1</v>
+      </c>
+      <c r="R28" s="45">
         <f>COUNTIFS(B:B, "M",C:C,R26,L:L, "&lt;&gt;")</f>
         <v>0</v>
       </c>
       <c r="S28" s="4">
         <f>SUM(Q28:R28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="74">
+      <c r="A29" s="71">
         <v>106</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="57">
+      <c r="D29" s="55">
         <v>43150</v>
       </c>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="57">
+      <c r="F29" s="55">
         <v>43180</v>
       </c>
-      <c r="G29" s="57">
+      <c r="G29" s="55">
         <v>43180</v>
       </c>
-      <c r="H29" s="51">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H29" s="49">
+        <f ca="1">IF(G29, G29-D29, TODAY()-D29)</f>
         <v>30</v>
       </c>
-      <c r="I29" s="51" t="s">
+      <c r="I29" s="49" t="s">
         <v>7</v>
       </c>
       <c r="J29" s="10"/>
@@ -2829,44 +2775,44 @@
       </c>
       <c r="Q29" s="4">
         <f>SUM(Q27:Q28)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R29" s="4">
         <f>SUM(R27:R28)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S29" s="4">
         <f>SUM(S27:S28)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="71">
+        <v>107</v>
+      </c>
+      <c r="B30" s="71" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="74">
-        <v>107</v>
-      </c>
-      <c r="B30" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="74" t="s">
+      <c r="C30" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="57">
+      <c r="D30" s="55">
         <v>43150</v>
       </c>
-      <c r="E30" s="74" t="s">
+      <c r="E30" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="57">
+      <c r="F30" s="55">
         <v>43180</v>
       </c>
-      <c r="G30" s="57">
+      <c r="G30" s="55">
         <v>43180</v>
       </c>
-      <c r="H30" s="51">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H30" s="49">
+        <f ca="1">IF(G30, G30-D30, TODAY()-D30)</f>
         <v>30</v>
       </c>
-      <c r="I30" s="51" t="s">
+      <c r="I30" s="49" t="s">
         <v>7</v>
       </c>
       <c r="J30" s="10"/>
@@ -2880,32 +2826,32 @@
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="59">
+      <c r="A31" s="57">
         <v>201</v>
       </c>
-      <c r="B31" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="75" t="str">
+      <c r="B31" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="72" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D31" s="58">
+      <c r="D31" s="56">
         <v>43165</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="58">
+      <c r="F31" s="56">
         <v>43166</v>
       </c>
-      <c r="G31" s="58">
+      <c r="G31" s="56">
         <v>43165</v>
       </c>
-      <c r="H31" s="59" t="s">
+      <c r="H31" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="59" t="s">
+      <c r="I31" s="57" t="s">
         <v>7</v>
       </c>
       <c r="J31" s="18"/>
@@ -2929,32 +2875,32 @@
       </c>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="61">
+      <c r="A32" s="59">
         <v>202</v>
       </c>
-      <c r="B32" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="76" t="str">
+      <c r="B32" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="73" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D32" s="60">
+      <c r="D32" s="58">
         <v>43165</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="60">
+      <c r="F32" s="58">
         <v>43166</v>
       </c>
-      <c r="G32" s="60">
+      <c r="G32" s="58">
         <v>43165</v>
       </c>
-      <c r="H32" s="61" t="s">
+      <c r="H32" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="61" t="s">
+      <c r="I32" s="59" t="s">
         <v>7</v>
       </c>
       <c r="J32" s="28"/>
@@ -2967,11 +2913,11 @@
       <c r="P32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q32" s="67">
+      <c r="Q32" s="64">
         <f>COUNTIFS(B:B, "F",C:C, Q31,M:M, "&lt;&gt;")</f>
         <v>2</v>
       </c>
-      <c r="R32" s="67">
+      <c r="R32" s="64">
         <f>COUNTIFS(B:B, "F",C:C,R31,M:M, "&lt;&gt;")</f>
         <v>2</v>
       </c>
@@ -2981,32 +2927,32 @@
       </c>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="61">
+      <c r="A33" s="59">
         <v>203</v>
       </c>
-      <c r="B33" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="76" t="str">
+      <c r="B33" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="73" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D33" s="60">
+      <c r="D33" s="58">
         <v>43165</v>
       </c>
-      <c r="E33" s="61" t="s">
+      <c r="E33" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="60">
+      <c r="F33" s="58">
         <v>43166</v>
       </c>
-      <c r="G33" s="60">
+      <c r="G33" s="58">
         <v>43165</v>
       </c>
-      <c r="H33" s="61" t="s">
+      <c r="H33" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="61" t="s">
+      <c r="I33" s="59" t="s">
         <v>7</v>
       </c>
       <c r="J33" s="28"/>
@@ -3019,11 +2965,11 @@
       <c r="P33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q33" s="67">
+      <c r="Q33" s="64">
         <f>COUNTIFS(B:B, "M",C:C, Q31,M:M, "&lt;&gt;")</f>
         <v>1</v>
       </c>
-      <c r="R33" s="67">
+      <c r="R33" s="64">
         <f>COUNTIFS(B:B, "M",C:C,R31,M:M, "&lt;&gt;")</f>
         <v>1</v>
       </c>
@@ -3033,32 +2979,32 @@
       </c>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="61">
+      <c r="A34" s="59">
         <v>204</v>
       </c>
-      <c r="B34" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="76" t="str">
+      <c r="B34" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="73" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D34" s="60">
+      <c r="D34" s="58">
         <v>43165</v>
       </c>
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="60">
+      <c r="F34" s="58">
         <v>43166</v>
       </c>
-      <c r="G34" s="60">
+      <c r="G34" s="58">
         <v>43165</v>
       </c>
-      <c r="H34" s="61" t="s">
+      <c r="H34" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I34" s="61" t="s">
+      <c r="I34" s="59" t="s">
         <v>7</v>
       </c>
       <c r="J34" s="28"/>
@@ -3085,32 +3031,32 @@
       </c>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="63">
+      <c r="A35" s="61">
         <v>205</v>
       </c>
-      <c r="B35" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="77" t="str">
+      <c r="B35" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="74" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D35" s="62">
+      <c r="D35" s="60">
         <v>43165</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="62">
+      <c r="F35" s="60">
         <v>43166</v>
       </c>
-      <c r="G35" s="62">
+      <c r="G35" s="60">
         <v>43165</v>
       </c>
-      <c r="H35" s="63" t="s">
+      <c r="H35" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="63" t="s">
+      <c r="I35" s="61" t="s">
         <v>7</v>
       </c>
       <c r="J35" s="13"/>
@@ -3122,32 +3068,32 @@
       </c>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="61">
+      <c r="A36" s="59">
         <v>206</v>
       </c>
-      <c r="B36" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="76" t="str">
+      <c r="B36" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="73" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D36" s="60">
+      <c r="D36" s="58">
         <v>43165</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="60">
+      <c r="F36" s="58">
         <v>43166</v>
       </c>
-      <c r="G36" s="60">
+      <c r="G36" s="58">
         <v>43165</v>
       </c>
-      <c r="H36" s="61" t="s">
+      <c r="H36" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="61" t="s">
+      <c r="I36" s="59" t="s">
         <v>7</v>
       </c>
       <c r="J36" s="28"/>
@@ -3170,32 +3116,32 @@
       </c>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="59">
+      <c r="A37" s="57">
         <v>207</v>
       </c>
-      <c r="B37" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="75" t="str">
+      <c r="B37" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="72" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D37" s="58">
+      <c r="D37" s="56">
         <v>43165</v>
       </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="58">
+      <c r="F37" s="56">
         <v>43166</v>
       </c>
-      <c r="G37" s="58">
+      <c r="G37" s="56">
         <v>43165</v>
       </c>
-      <c r="H37" s="59" t="s">
+      <c r="H37" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="59" t="s">
+      <c r="I37" s="57" t="s">
         <v>7</v>
       </c>
       <c r="J37" s="18"/>
@@ -3207,33 +3153,33 @@
       </c>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="78">
+      <c r="A38" s="75">
         <v>4</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="78" t="str">
+      <c r="C38" s="75" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D38" s="56">
+      <c r="D38" s="54">
         <v>43168</v>
       </c>
-      <c r="E38" s="78" t="s">
+      <c r="E38" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="56">
+      <c r="F38" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="54">
         <v>43201</v>
       </c>
-      <c r="H38" s="49">
-        <f t="shared" ref="H38:H80" ca="1" si="1">IF(G38, G38-D38, TODAY()-D38)</f>
+      <c r="H38" s="47">
+        <f ca="1">IF(G38, G38-D38, TODAY()-D38)</f>
         <v>33</v>
       </c>
-      <c r="I38" s="49" t="s">
+      <c r="I38" s="47" t="s">
         <v>7</v>
       </c>
       <c r="J38" s="2"/>
@@ -3255,7 +3201,7 @@
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D39" s="42">
+      <c r="D39" s="40">
         <v>43168</v>
       </c>
       <c r="E39" s="22" t="s">
@@ -3265,11 +3211,11 @@
         <v>31</v>
       </c>
       <c r="G39" s="22"/>
-      <c r="H39" s="43">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="I39" s="43"/>
+      <c r="H39" s="41">
+        <f ca="1">IF(G39, G39-D39, TODAY()-D39)</f>
+        <v>55</v>
+      </c>
+      <c r="I39" s="41"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
@@ -3279,98 +3225,106 @@
       </c>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="3">
+      <c r="A40" s="77">
         <v>459</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="70" t="str">
+      <c r="C40" s="96" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="46">
         <v>43177</v>
       </c>
-      <c r="E40" s="70" t="s">
+      <c r="E40" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="40">
+      <c r="F40" s="46">
         <v>43203</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="99">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="I40" s="99"/>
+      <c r="G40" s="46">
+        <v>43223</v>
+      </c>
+      <c r="H40" s="47">
+        <f ca="1">IF(G40, G40-D40, TODAY()-D40)</f>
+        <v>46</v>
+      </c>
+      <c r="I40" s="47" t="s">
+        <v>7</v>
+      </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
+      <c r="L40" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="M40" s="7"/>
-      <c r="N40" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P40" s="64"/>
+      <c r="N40" s="7"/>
+      <c r="P40" s="62"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="31">
+      <c r="A41" s="75">
         <v>460</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="31" t="str">
+      <c r="C41" s="75" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D41" s="65">
+      <c r="D41" s="54">
         <v>43177</v>
       </c>
-      <c r="E41" s="66" t="s">
+      <c r="E41" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="65">
+      <c r="F41" s="54">
         <v>43203</v>
       </c>
-      <c r="G41" s="31"/>
-      <c r="H41" s="41">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="I41" s="41"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="33" t="s">
-        <v>50</v>
-      </c>
+      <c r="G41" s="54">
+        <v>43223</v>
+      </c>
+      <c r="H41" s="49">
+        <f ca="1">IF(G41, G41-D41, TODAY()-D41)</f>
+        <v>46</v>
+      </c>
+      <c r="I41" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="M41" s="64"/>
+      <c r="N41" s="33"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="71">
+      <c r="A42" s="68">
         <v>1000</v>
       </c>
-      <c r="B42" s="71" t="s">
+      <c r="B42" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="68" t="str">
+      <c r="C42" s="65" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D42" s="72">
+      <c r="D42" s="69">
         <v>43187</v>
       </c>
-      <c r="E42" s="71" t="s">
+      <c r="E42" s="68" t="s">
         <v>19</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
-      <c r="H42" s="71">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="I42" s="71"/>
+      <c r="H42" s="68">
+        <f ca="1">IF(G42, G42-D42, TODAY()-D42)</f>
+        <v>36</v>
+      </c>
+      <c r="I42" s="68"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -3380,29 +3334,29 @@
       </c>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="66">
+      <c r="A43" s="63">
         <v>1001</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="70" t="str">
+      <c r="C43" s="67" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D43" s="73">
+      <c r="D43" s="70">
         <v>43187</v>
       </c>
-      <c r="E43" s="66" t="s">
+      <c r="E43" s="63" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
-      <c r="H43" s="66">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="I43" s="66"/>
+      <c r="H43" s="63">
+        <f ca="1">IF(G43, G43-D43, TODAY()-D43)</f>
+        <v>36</v>
+      </c>
+      <c r="I43" s="63"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -3412,34 +3366,40 @@
       </c>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="68">
+      <c r="A44" s="96">
         <v>6</v>
       </c>
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="68" t="str">
+      <c r="C44" s="96" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D44" s="69">
+      <c r="D44" s="98">
         <v>43191</v>
       </c>
-      <c r="E44" s="68" t="s">
+      <c r="E44" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" s="68"/>
-      <c r="H44" s="45">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="I44" s="45"/>
+      <c r="F44" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="98">
+        <v>43223</v>
+      </c>
+      <c r="H44" s="47">
+        <f ca="1">IF(G44, G44-D44, TODAY()-D44)</f>
+        <v>32</v>
+      </c>
+      <c r="I44" s="47" t="s">
+        <v>7</v>
+      </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
+      <c r="L44" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
@@ -3465,8 +3425,8 @@
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="39">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <f ca="1">IF(G45, G45-D45, TODAY()-D45)</f>
+        <v>32</v>
       </c>
       <c r="I45" s="39"/>
       <c r="J45" s="21"/>
@@ -3476,133 +3436,141 @@
       <c r="N45" s="21"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="22">
+      <c r="A46" s="71">
+        <v>108</v>
+      </c>
+      <c r="B46" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="55">
+        <v>43193</v>
+      </c>
+      <c r="E46" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="55">
+        <v>43223</v>
+      </c>
+      <c r="G46" s="55">
+        <v>43223</v>
+      </c>
+      <c r="H46" s="71">
+        <f ca="1">IF(G46, G46-D46, TODAY()-D46)</f>
+        <v>30</v>
+      </c>
+      <c r="I46" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" s="83"/>
+      <c r="N46" s="83" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="71">
+        <v>109</v>
+      </c>
+      <c r="B47" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="55">
+        <v>43193</v>
+      </c>
+      <c r="E47" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="55">
+        <v>43223</v>
+      </c>
+      <c r="G47" s="55">
+        <v>43223</v>
+      </c>
+      <c r="H47" s="71">
+        <f ca="1">IF(G47, G47-D47, TODAY()-D47)</f>
+        <v>30</v>
+      </c>
+      <c r="I47" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="M47" s="83"/>
+      <c r="N47" s="83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="22">
         <v>8</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B48" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="22" t="str">
-        <f t="shared" ref="C46:C47" si="2">$T$2</f>
-        <v>Het</v>
-      </c>
-      <c r="D46" s="42">
-        <v>43196</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="I46" s="22"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-    </row>
-    <row r="47" spans="1:19">
-      <c r="A47" s="22">
-        <v>9</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>Het</v>
-      </c>
-      <c r="D47" s="42">
-        <v>43196</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="I47" s="22"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-    </row>
-    <row r="48" spans="1:19">
-      <c r="A48" s="80">
-        <v>10</v>
-      </c>
-      <c r="B48" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="100" t="str">
-        <f>$Q$2</f>
-        <v>Mut</v>
-      </c>
-      <c r="D48" s="48">
-        <v>43196</v>
-      </c>
-      <c r="E48" s="100" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="G48" s="48">
-        <v>43203</v>
-      </c>
-      <c r="H48" s="100">
-        <f ca="1">IF(G48, G48-D48, TODAY()-D48)</f>
-        <v>7</v>
-      </c>
-      <c r="I48" s="101" t="s">
-        <v>54</v>
-      </c>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="20">
-        <v>11</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="20" t="str">
+      <c r="C48" s="22" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D49" s="38">
+      <c r="D48" s="40">
         <v>43196</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E48" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="I49" s="20"/>
+      <c r="F48" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22">
+        <f ca="1">IF(G48, G48-D48, TODAY()-D48)</f>
+        <v>27</v>
+      </c>
+      <c r="I48" s="22"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="22">
+        <v>9</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="22" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D49" s="40">
+        <v>43196</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22">
+        <f ca="1">IF(G49, G49-D49, TODAY()-D49)</f>
+        <v>27</v>
+      </c>
+      <c r="I49" s="22"/>
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
       <c r="L49" s="21"/>
@@ -3610,46 +3578,52 @@
       <c r="N49" s="21"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="20">
-        <v>12</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="20" t="str">
-        <f t="shared" ref="C50:C52" si="3">$T$2</f>
-        <v>Het</v>
-      </c>
-      <c r="D50" s="38">
+      <c r="A50" s="77">
+        <v>10</v>
+      </c>
+      <c r="B50" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="96" t="str">
+        <f>$Q$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D50" s="46">
         <v>43196</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F50" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="I50" s="20"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
+      <c r="F50" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="46">
+        <v>43203</v>
+      </c>
+      <c r="H50" s="96">
+        <f ca="1">IF(G50, G50-D50, TODAY()-D50)</f>
+        <v>7</v>
+      </c>
+      <c r="I50" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f>$T$2</f>
         <v>Het</v>
       </c>
       <c r="D51" s="38">
@@ -3663,8 +3637,8 @@
       </c>
       <c r="G51" s="20"/>
       <c r="H51" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <f ca="1">IF(G51, G51-D51, TODAY()-D51)</f>
+        <v>27</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="21"/>
@@ -3675,13 +3649,13 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f>$T$2</f>
         <v>Het</v>
       </c>
       <c r="D52" s="38">
@@ -3695,8 +3669,8 @@
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <f ca="1">IF(G52, G52-D52, TODAY()-D52)</f>
+        <v>27</v>
       </c>
       <c r="I52" s="20"/>
       <c r="J52" s="21"/>
@@ -3706,113 +3680,119 @@
       <c r="N52" s="21"/>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="3">
+      <c r="A53" s="20">
+        <v>13</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="20" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D53" s="38">
+        <v>43196</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20">
+        <f ca="1">IF(G53, G53-D53, TODAY()-D53)</f>
+        <v>27</v>
+      </c>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="20">
+        <v>14</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="20" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D54" s="38">
+        <v>43196</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20">
+        <f ca="1">IF(G54, G54-D54, TODAY()-D54)</f>
+        <v>27</v>
+      </c>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="77">
         <v>15</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B55" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="70" t="str">
+      <c r="C55" s="96" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D53" s="40">
+      <c r="D55" s="46">
         <v>43196</v>
       </c>
-      <c r="E53" s="66" t="s">
+      <c r="E55" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="70">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="I53" s="70"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="22">
+      <c r="F55" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="46">
+        <v>43223</v>
+      </c>
+      <c r="H55" s="96">
+        <f ca="1">IF(G55, G55-D55, TODAY()-D55)</f>
+        <v>27</v>
+      </c>
+      <c r="I55" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="22">
         <v>16</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B56" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="22" t="str">
+      <c r="C56" s="22" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D54" s="42">
-        <v>43198</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I54" s="22"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="22">
-        <v>17</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="22" t="str">
-        <f t="shared" ref="C55:C56" si="4">$T$2</f>
-        <v>Het</v>
-      </c>
-      <c r="D55" s="42">
-        <v>43198</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I55" s="22"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="22">
-        <v>18</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="22" t="str">
-        <f t="shared" si="4"/>
-        <v>Het</v>
-      </c>
-      <c r="D56" s="42">
+      <c r="D56" s="40">
         <v>43198</v>
       </c>
       <c r="E56" s="22" t="s">
@@ -3823,8 +3803,8 @@
       </c>
       <c r="G56" s="22"/>
       <c r="H56" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <f ca="1">IF(G56, G56-D56, TODAY()-D56)</f>
+        <v>25</v>
       </c>
       <c r="I56" s="22"/>
       <c r="J56" s="34"/>
@@ -3834,325 +3814,341 @@
       <c r="N56" s="34"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="70">
+      <c r="A57" s="22">
+        <v>17</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="22" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D57" s="40">
+        <v>43198</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22">
+        <f ca="1">IF(G57, G57-D57, TODAY()-D57)</f>
+        <v>25</v>
+      </c>
+      <c r="I57" s="22"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="22">
+        <v>18</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="22" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D58" s="40">
+        <v>43198</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22">
+        <f ca="1">IF(G58, G58-D58, TODAY()-D58)</f>
+        <v>25</v>
+      </c>
+      <c r="I58" s="22"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="96">
         <v>19</v>
       </c>
-      <c r="B57" s="70" t="s">
+      <c r="B59" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="70" t="str">
+      <c r="C59" s="96" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D57" s="84">
+      <c r="D59" s="98">
         <v>43198</v>
       </c>
-      <c r="E57" s="70" t="s">
+      <c r="E59" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I57" s="70"/>
-      <c r="J57" s="85"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="85"/>
-      <c r="M57" s="85"/>
-      <c r="N57" s="85"/>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="68">
+      <c r="F59" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="98">
+        <v>43223</v>
+      </c>
+      <c r="H59" s="96">
+        <f ca="1">IF(G59, G59-D59, TODAY()-D59)</f>
+        <v>25</v>
+      </c>
+      <c r="I59" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" s="82"/>
+      <c r="K59" s="82"/>
+      <c r="L59" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="M59" s="82"/>
+      <c r="N59" s="82"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="65">
         <v>20</v>
       </c>
-      <c r="B58" s="68" t="s">
+      <c r="B60" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="68" t="str">
+      <c r="C60" s="65" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D58" s="69">
+      <c r="D60" s="66">
         <v>43213</v>
       </c>
-      <c r="E58" s="68" t="s">
+      <c r="E60" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G58" s="69"/>
-      <c r="H58" s="68">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I58" s="68"/>
-      <c r="J58" s="85"/>
-      <c r="K58" s="85"/>
-      <c r="L58" s="85"/>
-      <c r="M58" s="85"/>
-      <c r="N58" s="85"/>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="90">
+      <c r="F60" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="66"/>
+      <c r="H60" s="65">
+        <f ca="1">IF(G60, G60-D60, TODAY()-D60)</f>
+        <v>10</v>
+      </c>
+      <c r="I60" s="65"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="82"/>
+      <c r="L60" s="82"/>
+      <c r="M60" s="82"/>
+      <c r="N60" s="82"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="87">
         <v>21</v>
       </c>
-      <c r="B59" s="90" t="s">
+      <c r="B61" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="90" t="str">
-        <f t="shared" ref="C59:C60" si="5">$T$2</f>
+      <c r="C61" s="87" t="str">
+        <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D59" s="94">
+      <c r="D61" s="91">
         <v>43213</v>
       </c>
-      <c r="E59" s="90" t="s">
+      <c r="E61" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="F59" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" s="90"/>
-      <c r="H59" s="90">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I59" s="90"/>
-      <c r="J59" s="93"/>
-      <c r="K59" s="93"/>
-      <c r="L59" s="93"/>
-      <c r="M59" s="93"/>
-      <c r="N59" s="93"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="91">
+      <c r="F61" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="87"/>
+      <c r="H61" s="87">
+        <f ca="1">IF(G61, G61-D61, TODAY()-D61)</f>
+        <v>10</v>
+      </c>
+      <c r="I61" s="87"/>
+      <c r="J61" s="90"/>
+      <c r="K61" s="90"/>
+      <c r="L61" s="90"/>
+      <c r="M61" s="90"/>
+      <c r="N61" s="90"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="88">
         <v>22</v>
       </c>
-      <c r="B60" s="91" t="s">
+      <c r="B62" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="91" t="str">
-        <f t="shared" si="5"/>
+      <c r="C62" s="88" t="str">
+        <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D60" s="92">
+      <c r="D62" s="89">
         <v>43213</v>
       </c>
-      <c r="E60" s="91" t="s">
+      <c r="E62" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="F60" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="G60" s="91"/>
-      <c r="H60" s="91">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I60" s="91"/>
-      <c r="J60" s="93"/>
-      <c r="K60" s="93"/>
-      <c r="L60" s="93"/>
-      <c r="M60" s="93"/>
-      <c r="N60" s="93"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="68">
+      <c r="F62" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="88"/>
+      <c r="H62" s="88">
+        <f ca="1">IF(G62, G62-D62, TODAY()-D62)</f>
+        <v>10</v>
+      </c>
+      <c r="I62" s="88"/>
+      <c r="J62" s="90"/>
+      <c r="K62" s="90"/>
+      <c r="L62" s="90"/>
+      <c r="M62" s="90"/>
+      <c r="N62" s="90"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="65">
         <v>23</v>
       </c>
-      <c r="B61" s="68" t="s">
+      <c r="B63" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="68" t="str">
+      <c r="C63" s="65" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D61" s="69">
+      <c r="D63" s="66">
         <v>43213</v>
       </c>
-      <c r="E61" s="68" t="s">
+      <c r="E63" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I61" s="68"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="85"/>
-      <c r="M61" s="85"/>
-      <c r="N61" s="85"/>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="71">
+      <c r="F63" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65">
+        <f ca="1">IF(G63, G63-D63, TODAY()-D63)</f>
+        <v>10</v>
+      </c>
+      <c r="I63" s="65"/>
+      <c r="J63" s="82"/>
+      <c r="K63" s="82"/>
+      <c r="L63" s="82"/>
+      <c r="M63" s="82"/>
+      <c r="N63" s="82"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="68">
         <v>24</v>
       </c>
-      <c r="B62" s="71" t="s">
+      <c r="B64" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="30" t="str">
+      <c r="C64" s="30" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D62" s="72">
+      <c r="D64" s="69">
         <v>43213</v>
       </c>
-      <c r="E62" s="71" t="s">
+      <c r="E64" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F62" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I62" s="71"/>
-      <c r="J62" s="86"/>
-      <c r="K62" s="86"/>
-      <c r="L62" s="86"/>
-      <c r="M62" s="86"/>
-      <c r="N62" s="86"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="66">
+      <c r="F64" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="68"/>
+      <c r="H64" s="68">
+        <f ca="1">IF(G64, G64-D64, TODAY()-D64)</f>
+        <v>10</v>
+      </c>
+      <c r="I64" s="68"/>
+      <c r="J64" s="83"/>
+      <c r="K64" s="83"/>
+      <c r="L64" s="83"/>
+      <c r="M64" s="83"/>
+      <c r="N64" s="83"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="63">
         <v>25</v>
       </c>
-      <c r="B63" s="66" t="s">
+      <c r="B65" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="31" t="str">
+      <c r="C65" s="31" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D63" s="73">
+      <c r="D65" s="70">
         <v>43213</v>
       </c>
-      <c r="E63" s="66" t="s">
+      <c r="E65" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I63" s="66"/>
-      <c r="J63" s="86"/>
-      <c r="K63" s="86"/>
-      <c r="L63" s="86"/>
-      <c r="M63" s="86"/>
-      <c r="N63" s="86"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="70">
+      <c r="F65" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63">
+        <f ca="1">IF(G65, G65-D65, TODAY()-D65)</f>
+        <v>10</v>
+      </c>
+      <c r="I65" s="63"/>
+      <c r="J65" s="83"/>
+      <c r="K65" s="83"/>
+      <c r="L65" s="83"/>
+      <c r="M65" s="83"/>
+      <c r="N65" s="83"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="67">
         <v>26</v>
       </c>
-      <c r="B64" s="70" t="s">
+      <c r="B66" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="70" t="str">
+      <c r="C66" s="67" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D64" s="84">
+      <c r="D66" s="81">
         <v>43213</v>
       </c>
-      <c r="E64" s="70" t="s">
+      <c r="E66" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I64" s="70"/>
-      <c r="J64" s="85"/>
-      <c r="K64" s="85"/>
-      <c r="L64" s="85"/>
-      <c r="M64" s="85"/>
-      <c r="N64" s="85"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="86">
+      <c r="F66" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67">
+        <f ca="1">IF(G66, G66-D66, TODAY()-D66)</f>
+        <v>10</v>
+      </c>
+      <c r="I66" s="67"/>
+      <c r="J66" s="82"/>
+      <c r="K66" s="82"/>
+      <c r="L66" s="82"/>
+      <c r="M66" s="82"/>
+      <c r="N66" s="82"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="83">
         <v>27</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="89">
-        <v>43219</v>
-      </c>
-      <c r="E65" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="F65" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I65" s="10"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="8"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="86">
-        <v>28</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="89">
-        <v>43219</v>
-      </c>
-      <c r="E66" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="F66" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I66" s="10"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="8"/>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="86">
-        <v>29</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="89">
+      <c r="D67" s="86">
         <v>43219</v>
       </c>
-      <c r="E67" s="86" t="s">
+      <c r="E67" s="83" t="s">
         <v>38</v>
       </c>
       <c r="F67" s="33" t="s">
@@ -4160,8 +4156,8 @@
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">IF(G67, G67-D67, TODAY()-D67)</f>
+        <v>4</v>
       </c>
       <c r="I67" s="10"/>
       <c r="J67" s="2"/>
@@ -4171,15 +4167,15 @@
       <c r="N67" s="8"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="86">
-        <v>30</v>
+      <c r="A68" s="83">
+        <v>28</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="89">
+      <c r="D68" s="86">
         <v>43219</v>
       </c>
-      <c r="E68" s="86" t="s">
+      <c r="E68" s="83" t="s">
         <v>38</v>
       </c>
       <c r="F68" s="33" t="s">
@@ -4187,8 +4183,8 @@
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">IF(G68, G68-D68, TODAY()-D68)</f>
+        <v>4</v>
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="2"/>
@@ -4198,15 +4194,15 @@
       <c r="N68" s="8"/>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="86">
-        <v>31</v>
+      <c r="A69" s="83">
+        <v>29</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="89">
+      <c r="D69" s="86">
         <v>43219</v>
       </c>
-      <c r="E69" s="86" t="s">
+      <c r="E69" s="83" t="s">
         <v>38</v>
       </c>
       <c r="F69" s="33" t="s">
@@ -4214,8 +4210,8 @@
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">IF(G69, G69-D69, TODAY()-D69)</f>
+        <v>4</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="2"/>
@@ -4225,15 +4221,15 @@
       <c r="N69" s="8"/>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="86">
-        <v>32</v>
+      <c r="A70" s="83">
+        <v>30</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="89">
+      <c r="D70" s="86">
         <v>43219</v>
       </c>
-      <c r="E70" s="86" t="s">
+      <c r="E70" s="83" t="s">
         <v>38</v>
       </c>
       <c r="F70" s="33" t="s">
@@ -4241,8 +4237,8 @@
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">IF(G70, G70-D70, TODAY()-D70)</f>
+        <v>4</v>
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="2"/>
@@ -4252,15 +4248,15 @@
       <c r="N70" s="8"/>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="86">
-        <v>33</v>
+      <c r="A71" s="83">
+        <v>31</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="89">
+      <c r="D71" s="86">
         <v>43219</v>
       </c>
-      <c r="E71" s="86" t="s">
+      <c r="E71" s="83" t="s">
         <v>38</v>
       </c>
       <c r="F71" s="33" t="s">
@@ -4268,8 +4264,8 @@
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">IF(G71, G71-D71, TODAY()-D71)</f>
+        <v>4</v>
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="2"/>
@@ -4279,15 +4275,15 @@
       <c r="N71" s="8"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="86">
-        <v>34</v>
+      <c r="A72" s="83">
+        <v>32</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="89">
+      <c r="D72" s="86">
         <v>43219</v>
       </c>
-      <c r="E72" s="86" t="s">
+      <c r="E72" s="83" t="s">
         <v>38</v>
       </c>
       <c r="F72" s="33" t="s">
@@ -4295,8 +4291,8 @@
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">IF(G72, G72-D72, TODAY()-D72)</f>
+        <v>4</v>
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="2"/>
@@ -4306,15 +4302,15 @@
       <c r="N72" s="8"/>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="86">
-        <v>35</v>
+      <c r="A73" s="83">
+        <v>33</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="89">
+      <c r="D73" s="86">
         <v>43219</v>
       </c>
-      <c r="E73" s="86" t="s">
+      <c r="E73" s="83" t="s">
         <v>38</v>
       </c>
       <c r="F73" s="33" t="s">
@@ -4322,8 +4318,8 @@
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">IF(G73, G73-D73, TODAY()-D73)</f>
+        <v>4</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="2"/>
@@ -4333,15 +4329,15 @@
       <c r="N73" s="8"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="86">
-        <v>36</v>
+      <c r="A74" s="83">
+        <v>34</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="89">
+      <c r="D74" s="86">
         <v>43219</v>
       </c>
-      <c r="E74" s="86" t="s">
+      <c r="E74" s="83" t="s">
         <v>38</v>
       </c>
       <c r="F74" s="33" t="s">
@@ -4349,8 +4345,8 @@
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">IF(G74, G74-D74, TODAY()-D74)</f>
+        <v>4</v>
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="2"/>
@@ -4360,15 +4356,15 @@
       <c r="N74" s="8"/>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="86">
-        <v>37</v>
+      <c r="A75" s="83">
+        <v>35</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="89">
+      <c r="D75" s="86">
         <v>43219</v>
       </c>
-      <c r="E75" s="86" t="s">
+      <c r="E75" s="83" t="s">
         <v>38</v>
       </c>
       <c r="F75" s="33" t="s">
@@ -4376,8 +4372,8 @@
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">IF(G75, G75-D75, TODAY()-D75)</f>
+        <v>4</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="2"/>
@@ -4387,15 +4383,15 @@
       <c r="N75" s="8"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="86">
-        <v>38</v>
+      <c r="A76" s="83">
+        <v>36</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="89">
+      <c r="D76" s="86">
         <v>43219</v>
       </c>
-      <c r="E76" s="86" t="s">
+      <c r="E76" s="83" t="s">
         <v>38</v>
       </c>
       <c r="F76" s="33" t="s">
@@ -4403,8 +4399,8 @@
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">IF(G76, G76-D76, TODAY()-D76)</f>
+        <v>4</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="2"/>
@@ -4414,15 +4410,15 @@
       <c r="N76" s="8"/>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="86">
-        <v>39</v>
+      <c r="A77" s="83">
+        <v>37</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="89">
+      <c r="D77" s="86">
         <v>43219</v>
       </c>
-      <c r="E77" s="86" t="s">
+      <c r="E77" s="83" t="s">
         <v>38</v>
       </c>
       <c r="F77" s="33" t="s">
@@ -4430,8 +4426,8 @@
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">IF(G77, G77-D77, TODAY()-D77)</f>
+        <v>4</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="2"/>
@@ -4441,15 +4437,15 @@
       <c r="N77" s="8"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="86">
-        <v>40</v>
+      <c r="A78" s="83">
+        <v>38</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="89">
+      <c r="D78" s="86">
         <v>43219</v>
       </c>
-      <c r="E78" s="86" t="s">
+      <c r="E78" s="83" t="s">
         <v>38</v>
       </c>
       <c r="F78" s="33" t="s">
@@ -4457,8 +4453,8 @@
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">IF(G78, G78-D78, TODAY()-D78)</f>
+        <v>4</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="2"/>
@@ -4468,15 +4464,15 @@
       <c r="N78" s="8"/>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="86">
-        <v>41</v>
+      <c r="A79" s="83">
+        <v>39</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="89">
+      <c r="D79" s="86">
         <v>43219</v>
       </c>
-      <c r="E79" s="86" t="s">
+      <c r="E79" s="83" t="s">
         <v>38</v>
       </c>
       <c r="F79" s="33" t="s">
@@ -4484,8 +4480,8 @@
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">IF(G79, G79-D79, TODAY()-D79)</f>
+        <v>4</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="2"/>
@@ -4495,15 +4491,15 @@
       <c r="N79" s="8"/>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="86">
-        <v>42</v>
+      <c r="A80" s="83">
+        <v>40</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="89">
+      <c r="D80" s="86">
         <v>43219</v>
       </c>
-      <c r="E80" s="86" t="s">
+      <c r="E80" s="83" t="s">
         <v>38</v>
       </c>
       <c r="F80" s="33" t="s">
@@ -4511,8 +4507,8 @@
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">IF(G80, G80-D80, TODAY()-D80)</f>
+        <v>4</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="2"/>
@@ -4521,14 +4517,68 @@
       <c r="M80" s="2"/>
       <c r="N80" s="8"/>
     </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="83">
+        <v>41</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="86">
+        <v>43219</v>
+      </c>
+      <c r="E81" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="10">
+        <f ca="1">IF(G81, G81-D81, TODAY()-D81)</f>
+        <v>4</v>
+      </c>
+      <c r="I81" s="10"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="8"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="83">
+        <v>42</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="86">
+        <v>43219</v>
+      </c>
+      <c r="E82" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="10">
+        <f ca="1">IF(G82, G82-D82, TODAY()-D82)</f>
+        <v>4</v>
+      </c>
+      <c r="I82" s="10"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="8"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:M57">
-    <sortCondition ref="D2:D57"/>
-    <sortCondition ref="A2:A57"/>
+  <sortState ref="A2:N82">
+    <sortCondition ref="D2:D82"/>
+    <sortCondition ref="A2:A82"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="O14:O15 H29:I30 E28:E30 J1:N1048576 E31:I47 A1:D1048576 E1:I20 E22:I22 E21:H21 E24:I25 E23:H23 E27:I27 E26:H26 H28 E49:I1048576 E48:H48">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="O14:O15 H29:I30 E28:E30 E31:I47 E1:I20 E22:I22 E21:H21 E24:I25 E23:H23 E27:I27 E26:H26 H28 E49:I1048576 E48:H48 A1:D1048576 J1:N1048576">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
       <formula>$C$2="Mut"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="56">
   <si>
     <t>F</t>
   </si>
@@ -424,7 +424,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="117">
+  <cellStyleXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -542,8 +542,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -821,8 +825,35 @@
     <xf numFmtId="14" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="117">
+  <cellStyles count="121">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -881,6 +912,8 @@
     <cellStyle name="Lien hypertexte" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -939,22 +972,11 @@
     <cellStyle name="Lien hypertexte visité" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -1329,11 +1351,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1416,7 +1438,7 @@
       <c r="G2" s="38"/>
       <c r="H2" s="39">
         <f ca="1">IF(G2, G2-D2, TODAY()-D2)</f>
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="21"/>
@@ -1470,7 +1492,7 @@
       <c r="G3" s="40"/>
       <c r="H3" s="41">
         <f ca="1">IF(G3, G3-D3, TODAY()-D3)</f>
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="21"/>
@@ -1492,11 +1514,11 @@
       </c>
       <c r="R3" s="2">
         <f>COUNTIFS(B:B, "F",C:C,R2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S3" s="4">
         <f>SUM(Q3:R3)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T3" s="21">
         <f>COUNTIFS(B:B, "F",C:C,T2)</f>
@@ -1528,7 +1550,7 @@
       <c r="G4" s="38"/>
       <c r="H4" s="39">
         <f ca="1">IF(G4, G4-D4, TODAY()-D4)</f>
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I4" s="39"/>
       <c r="J4" s="21"/>
@@ -1546,7 +1568,7 @@
       </c>
       <c r="Q4" s="2">
         <f>COUNTIFS(B:B, "M",C:C, Q2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R4" s="2">
         <f>COUNTIFS(B:B, "M",C:C,R2)</f>
@@ -1554,7 +1576,7 @@
       </c>
       <c r="S4" s="4">
         <f>SUM(Q4:R4)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T4" s="21">
         <f>COUNTIFS(B:B, "M",C:C, T2)</f>
@@ -1586,7 +1608,7 @@
       <c r="G5" s="40"/>
       <c r="H5" s="41">
         <f ca="1">IF(G5, G5-D5, TODAY()-D5)</f>
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I5" s="41"/>
       <c r="J5" s="21"/>
@@ -1604,15 +1626,15 @@
       </c>
       <c r="Q5" s="4">
         <f>SUM(Q3:Q4)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R5" s="4">
         <f>SUM(R3:R4)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S5" s="4">
         <f>SUM(S3:S4)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T5" s="37">
         <f>SUM(T3:T4)</f>
@@ -1768,11 +1790,11 @@
       </c>
       <c r="R8" s="2">
         <f>COUNTIFS(B:B, "F",C:C,R7,G:G, "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S8" s="4">
         <f>SUM(Q8:R8)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T8" s="94"/>
     </row>
@@ -1821,7 +1843,7 @@
       </c>
       <c r="Q9" s="2">
         <f>COUNTIFS(B:B, "M",C:C, Q7,G:G,"")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R9" s="2">
         <f>COUNTIFS(B:B, "M",C:C,R7,G:G,"")</f>
@@ -1829,7 +1851,7 @@
       </c>
       <c r="S9" s="4">
         <f>SUM(Q9:R9)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T9" s="94"/>
     </row>
@@ -1878,15 +1900,15 @@
       </c>
       <c r="Q10" s="4">
         <f>SUM(Q8:Q9)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R10" s="4">
         <f>SUM(R8:R9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S10" s="4">
         <f>SUM(S8:S9)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T10" s="95"/>
     </row>
@@ -2063,7 +2085,7 @@
       </c>
       <c r="Q14" s="8">
         <f>COUNTIF(A:A, "&lt;&gt;")-1</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -2178,7 +2200,7 @@
       <c r="G17" s="42"/>
       <c r="H17" s="43">
         <f ca="1">IF(G17, G17-D17, TODAY()-D17)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I17" s="43"/>
       <c r="J17" s="4"/>
@@ -2331,7 +2353,7 @@
       <c r="G20" s="38"/>
       <c r="H20" s="39">
         <f ca="1">IF(G20, G20-D20, TODAY()-D20)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="21"/>
@@ -2415,7 +2437,7 @@
       <c r="G22" s="38"/>
       <c r="H22" s="39">
         <f ca="1">IF(G22, G22-D22, TODAY()-D22)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="21"/>
@@ -2568,7 +2590,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="41">
         <f ca="1">IF(G25, G25-D25, TODAY()-D25)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="21"/>
@@ -2652,7 +2674,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="39">
         <f ca="1">IF(G27, G27-D27, TODAY()-D27)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I27" s="39"/>
       <c r="J27" s="21"/>
@@ -3213,7 +3235,7 @@
       <c r="G39" s="22"/>
       <c r="H39" s="41">
         <f ca="1">IF(G39, G39-D39, TODAY()-D39)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I39" s="41"/>
       <c r="J39" s="21"/>
@@ -3302,345 +3324,335 @@
       <c r="N41" s="33"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="68">
-        <v>1000</v>
-      </c>
-      <c r="B42" s="68" t="s">
+      <c r="A42" s="65">
+        <v>463</v>
+      </c>
+      <c r="B42" s="65" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="65" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D42" s="69">
+      <c r="D42" s="66">
         <v>43187</v>
       </c>
-      <c r="E42" s="68" t="s">
+      <c r="E42" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="68">
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="65">
         <f ca="1">IF(G42, G42-D42, TODAY()-D42)</f>
-        <v>36</v>
-      </c>
-      <c r="I42" s="68"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="65"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="63">
-        <v>1001</v>
-      </c>
-      <c r="B43" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="67" t="str">
+      <c r="A43" s="65">
+        <v>465</v>
+      </c>
+      <c r="B43" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="65" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D43" s="70">
+      <c r="D43" s="100">
         <v>43187</v>
       </c>
-      <c r="E43" s="63" t="s">
+      <c r="E43" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="63">
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="101">
         <f ca="1">IF(G43, G43-D43, TODAY()-D43)</f>
-        <v>36</v>
-      </c>
-      <c r="I43" s="63"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="8" t="s">
-        <v>49</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I43" s="101"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="105"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="96">
-        <v>6</v>
-      </c>
-      <c r="B44" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="96" t="str">
+      <c r="A44" s="67">
+        <v>466</v>
+      </c>
+      <c r="B44" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="67" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D44" s="98">
+      <c r="D44" s="81">
+        <v>43187</v>
+      </c>
+      <c r="E44" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="67">
+        <f ca="1">IF(G44, G44-D44, TODAY()-D44)</f>
+        <v>37</v>
+      </c>
+      <c r="I44" s="67"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="63">
+        <v>467</v>
+      </c>
+      <c r="B45" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="31" t="str">
+        <f>$R$2</f>
+        <v>WT</v>
+      </c>
+      <c r="D45" s="103">
+        <v>43187</v>
+      </c>
+      <c r="E45" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="104">
+        <f ca="1">IF(G45, G45-D45, TODAY()-D45)</f>
+        <v>37</v>
+      </c>
+      <c r="I45" s="104"/>
+      <c r="J45" s="106"/>
+      <c r="K45" s="106"/>
+      <c r="L45" s="106"/>
+      <c r="M45" s="106"/>
+      <c r="N45" s="107"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="96">
+        <v>6</v>
+      </c>
+      <c r="B46" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="96" t="str">
+        <f>$Q$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D46" s="98">
         <v>43191</v>
       </c>
-      <c r="E44" s="96" t="s">
+      <c r="E46" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" s="98">
+      <c r="F46" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="98">
         <v>43223</v>
       </c>
-      <c r="H44" s="47">
-        <f ca="1">IF(G44, G44-D44, TODAY()-D44)</f>
+      <c r="H46" s="47">
+        <f ca="1">IF(G46, G46-D46, TODAY()-D46)</f>
         <v>32</v>
       </c>
-      <c r="I44" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-    </row>
-    <row r="45" spans="1:19">
-      <c r="A45" s="20">
-        <v>7</v>
-      </c>
-      <c r="B45" s="20" t="s">
+      <c r="I46" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="20">
+        <v>7</v>
+      </c>
+      <c r="B47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="20" t="str">
+      <c r="C47" s="20" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D47" s="38">
         <v>43191</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E47" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="39">
-        <f ca="1">IF(G45, G45-D45, TODAY()-D45)</f>
-        <v>32</v>
-      </c>
-      <c r="I45" s="39"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-    </row>
-    <row r="46" spans="1:19">
-      <c r="A46" s="71">
+      <c r="F47" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="20"/>
+      <c r="H47" s="39">
+        <f ca="1">IF(G47, G47-D47, TODAY()-D47)</f>
+        <v>33</v>
+      </c>
+      <c r="I47" s="39"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="71">
         <v>108</v>
       </c>
-      <c r="B46" s="71" t="s">
+      <c r="B48" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="71" t="s">
+      <c r="C48" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="55">
+      <c r="D48" s="55">
         <v>43193</v>
       </c>
-      <c r="E46" s="71" t="s">
+      <c r="E48" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="55">
+      <c r="F48" s="55">
         <v>43223</v>
       </c>
-      <c r="G46" s="55">
+      <c r="G48" s="55">
         <v>43223</v>
       </c>
-      <c r="H46" s="71">
-        <f ca="1">IF(G46, G46-D46, TODAY()-D46)</f>
+      <c r="H48" s="71">
+        <f ca="1">IF(G48, G48-D48, TODAY()-D48)</f>
         <v>30</v>
       </c>
-      <c r="I46" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83" t="s">
+      <c r="I48" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="83"/>
+      <c r="K48" s="83"/>
+      <c r="L48" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" s="83"/>
+      <c r="N48" s="83" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
-      <c r="A47" s="71">
+    <row r="49" spans="1:14">
+      <c r="A49" s="71">
         <v>109</v>
       </c>
-      <c r="B47" s="71" t="s">
+      <c r="B49" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="71" t="s">
+      <c r="C49" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="55">
+      <c r="D49" s="55">
         <v>43193</v>
       </c>
-      <c r="E47" s="71" t="s">
+      <c r="E49" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="55">
+      <c r="F49" s="55">
         <v>43223</v>
       </c>
-      <c r="G47" s="55">
+      <c r="G49" s="55">
         <v>43223</v>
       </c>
-      <c r="H47" s="71">
-        <f ca="1">IF(G47, G47-D47, TODAY()-D47)</f>
+      <c r="H49" s="71">
+        <f ca="1">IF(G49, G49-D49, TODAY()-D49)</f>
         <v>30</v>
       </c>
-      <c r="I47" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83" t="s">
+      <c r="I49" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="83"/>
+      <c r="K49" s="83"/>
+      <c r="L49" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="M49" s="83"/>
+      <c r="N49" s="83" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
-      <c r="A48" s="22">
+    <row r="50" spans="1:14">
+      <c r="A50" s="22">
         <v>8</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B50" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="22" t="str">
+      <c r="C50" s="22" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D48" s="40">
+      <c r="D50" s="40">
         <v>43196</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E50" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F48" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22">
-        <f ca="1">IF(G48, G48-D48, TODAY()-D48)</f>
-        <v>27</v>
-      </c>
-      <c r="I48" s="22"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="22">
+      <c r="F50" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22">
+        <f ca="1">IF(G50, G50-D50, TODAY()-D50)</f>
+        <v>28</v>
+      </c>
+      <c r="I50" s="22"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="22">
         <v>9</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B51" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="22" t="str">
+      <c r="C51" s="22" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D49" s="40">
+      <c r="D51" s="40">
         <v>43196</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E51" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22">
-        <f ca="1">IF(G49, G49-D49, TODAY()-D49)</f>
-        <v>27</v>
-      </c>
-      <c r="I49" s="22"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="77">
-        <v>10</v>
-      </c>
-      <c r="B50" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="96" t="str">
-        <f>$Q$2</f>
-        <v>Mut</v>
-      </c>
-      <c r="D50" s="46">
-        <v>43196</v>
-      </c>
-      <c r="E50" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="F50" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="46">
-        <v>43203</v>
-      </c>
-      <c r="H50" s="96">
-        <f ca="1">IF(G50, G50-D50, TODAY()-D50)</f>
-        <v>7</v>
-      </c>
-      <c r="I50" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="20">
-        <v>11</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="20" t="str">
-        <f>$T$2</f>
-        <v>Het</v>
-      </c>
-      <c r="D51" s="38">
-        <v>43196</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20">
+      <c r="F51" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22">
         <f ca="1">IF(G51, G51-D51, TODAY()-D51)</f>
-        <v>27</v>
-      </c>
-      <c r="I51" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="I51" s="22"/>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
@@ -3648,40 +3660,46 @@
       <c r="N51" s="21"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="20">
-        <v>12</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="20" t="str">
-        <f>$T$2</f>
-        <v>Het</v>
-      </c>
-      <c r="D52" s="38">
+      <c r="A52" s="77">
+        <v>10</v>
+      </c>
+      <c r="B52" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="96" t="str">
+        <f>$Q$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D52" s="46">
         <v>43196</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20">
+      <c r="F52" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="46">
+        <v>43203</v>
+      </c>
+      <c r="H52" s="96">
         <f ca="1">IF(G52, G52-D52, TODAY()-D52)</f>
-        <v>27</v>
-      </c>
-      <c r="I52" s="20"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="I52" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>0</v>
@@ -3702,7 +3720,7 @@
       <c r="G53" s="20"/>
       <c r="H53" s="20">
         <f ca="1">IF(G53, G53-D53, TODAY()-D53)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="21"/>
@@ -3713,7 +3731,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>0</v>
@@ -3734,7 +3752,7 @@
       <c r="G54" s="20"/>
       <c r="H54" s="20">
         <f ca="1">IF(G54, G54-D54, TODAY()-D54)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="21"/>
@@ -3744,110 +3762,110 @@
       <c r="N54" s="21"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="77">
+      <c r="A55" s="20">
+        <v>13</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="20" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D55" s="38">
+        <v>43196</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20">
+        <f ca="1">IF(G55, G55-D55, TODAY()-D55)</f>
+        <v>28</v>
+      </c>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="20">
+        <v>14</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="20" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D56" s="38">
+        <v>43196</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20">
+        <f ca="1">IF(G56, G56-D56, TODAY()-D56)</f>
+        <v>28</v>
+      </c>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="77">
         <v>15</v>
       </c>
-      <c r="B55" s="77" t="s">
+      <c r="B57" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="96" t="str">
+      <c r="C57" s="96" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D55" s="46">
+      <c r="D57" s="46">
         <v>43196</v>
       </c>
-      <c r="E55" s="71" t="s">
+      <c r="E57" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="F55" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="46">
+      <c r="F57" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="46">
         <v>43223</v>
       </c>
-      <c r="H55" s="96">
-        <f ca="1">IF(G55, G55-D55, TODAY()-D55)</f>
+      <c r="H57" s="96">
+        <f ca="1">IF(G57, G57-D57, TODAY()-D57)</f>
         <v>27</v>
       </c>
-      <c r="I55" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="22">
-        <v>16</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="22" t="str">
-        <f>$T$2</f>
-        <v>Het</v>
-      </c>
-      <c r="D56" s="40">
-        <v>43198</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22">
-        <f ca="1">IF(G56, G56-D56, TODAY()-D56)</f>
-        <v>25</v>
-      </c>
-      <c r="I56" s="22"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="22">
-        <v>17</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="22" t="str">
-        <f>$T$2</f>
-        <v>Het</v>
-      </c>
-      <c r="D57" s="40">
-        <v>43198</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22">
-        <f ca="1">IF(G57, G57-D57, TODAY()-D57)</f>
-        <v>25</v>
-      </c>
-      <c r="I57" s="22"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="34"/>
+      <c r="I57" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="22">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B58" s="22" t="s">
         <v>1</v>
@@ -3868,7 +3886,7 @@
       <c r="G58" s="22"/>
       <c r="H58" s="22">
         <f ca="1">IF(G58, G58-D58, TODAY()-D58)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I58" s="22"/>
       <c r="J58" s="34"/>
@@ -3878,324 +3896,334 @@
       <c r="N58" s="34"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="96">
+      <c r="A59" s="22">
+        <v>17</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="22" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D59" s="40">
+        <v>43198</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22">
+        <f ca="1">IF(G59, G59-D59, TODAY()-D59)</f>
+        <v>26</v>
+      </c>
+      <c r="I59" s="22"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="34"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="22">
+        <v>18</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="22" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D60" s="40">
+        <v>43198</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22">
+        <f ca="1">IF(G60, G60-D60, TODAY()-D60)</f>
+        <v>26</v>
+      </c>
+      <c r="I60" s="22"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="96">
         <v>19</v>
       </c>
-      <c r="B59" s="96" t="s">
+      <c r="B61" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="96" t="str">
+      <c r="C61" s="96" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D59" s="98">
+      <c r="D61" s="98">
         <v>43198</v>
       </c>
-      <c r="E59" s="96" t="s">
+      <c r="E61" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F59" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" s="98">
+      <c r="F61" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="98">
         <v>43223</v>
       </c>
-      <c r="H59" s="96">
-        <f ca="1">IF(G59, G59-D59, TODAY()-D59)</f>
+      <c r="H61" s="96">
+        <f ca="1">IF(G61, G61-D61, TODAY()-D61)</f>
         <v>25</v>
       </c>
-      <c r="I59" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="J59" s="82"/>
-      <c r="K59" s="82"/>
-      <c r="L59" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="M59" s="82"/>
-      <c r="N59" s="82"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="65">
+      <c r="I61" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61" s="82"/>
+      <c r="K61" s="82"/>
+      <c r="L61" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="M61" s="82"/>
+      <c r="N61" s="82"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="65">
         <v>20</v>
       </c>
-      <c r="B60" s="65" t="s">
+      <c r="B62" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="65" t="str">
+      <c r="C62" s="65" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D60" s="66">
+      <c r="D62" s="66">
         <v>43213</v>
       </c>
-      <c r="E60" s="65" t="s">
+      <c r="E62" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="F60" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G60" s="66"/>
-      <c r="H60" s="65">
-        <f ca="1">IF(G60, G60-D60, TODAY()-D60)</f>
-        <v>10</v>
-      </c>
-      <c r="I60" s="65"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="82"/>
-      <c r="L60" s="82"/>
-      <c r="M60" s="82"/>
-      <c r="N60" s="82"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="87">
+      <c r="F62" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="66"/>
+      <c r="H62" s="65">
+        <f ca="1">IF(G62, G62-D62, TODAY()-D62)</f>
+        <v>11</v>
+      </c>
+      <c r="I62" s="65"/>
+      <c r="J62" s="82"/>
+      <c r="K62" s="82"/>
+      <c r="L62" s="82"/>
+      <c r="M62" s="82"/>
+      <c r="N62" s="82"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="87">
         <v>21</v>
       </c>
-      <c r="B61" s="87" t="s">
+      <c r="B63" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="87" t="str">
+      <c r="C63" s="87" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D61" s="91">
+      <c r="D63" s="91">
         <v>43213</v>
       </c>
-      <c r="E61" s="87" t="s">
+      <c r="E63" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="G61" s="87"/>
-      <c r="H61" s="87">
-        <f ca="1">IF(G61, G61-D61, TODAY()-D61)</f>
-        <v>10</v>
-      </c>
-      <c r="I61" s="87"/>
-      <c r="J61" s="90"/>
-      <c r="K61" s="90"/>
-      <c r="L61" s="90"/>
-      <c r="M61" s="90"/>
-      <c r="N61" s="90"/>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="88">
+      <c r="F63" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="87"/>
+      <c r="H63" s="87">
+        <f ca="1">IF(G63, G63-D63, TODAY()-D63)</f>
+        <v>11</v>
+      </c>
+      <c r="I63" s="87"/>
+      <c r="J63" s="90"/>
+      <c r="K63" s="90"/>
+      <c r="L63" s="90"/>
+      <c r="M63" s="90"/>
+      <c r="N63" s="90"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="88">
         <v>22</v>
       </c>
-      <c r="B62" s="88" t="s">
+      <c r="B64" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="88" t="str">
+      <c r="C64" s="88" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D62" s="89">
+      <c r="D64" s="89">
         <v>43213</v>
       </c>
-      <c r="E62" s="88" t="s">
+      <c r="E64" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="F62" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" s="88"/>
-      <c r="H62" s="88">
-        <f ca="1">IF(G62, G62-D62, TODAY()-D62)</f>
-        <v>10</v>
-      </c>
-      <c r="I62" s="88"/>
-      <c r="J62" s="90"/>
-      <c r="K62" s="90"/>
-      <c r="L62" s="90"/>
-      <c r="M62" s="90"/>
-      <c r="N62" s="90"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="65">
+      <c r="F64" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="88"/>
+      <c r="H64" s="88">
+        <f ca="1">IF(G64, G64-D64, TODAY()-D64)</f>
+        <v>11</v>
+      </c>
+      <c r="I64" s="88"/>
+      <c r="J64" s="90"/>
+      <c r="K64" s="90"/>
+      <c r="L64" s="90"/>
+      <c r="M64" s="90"/>
+      <c r="N64" s="90"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="65">
         <v>23</v>
       </c>
-      <c r="B63" s="65" t="s">
+      <c r="B65" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="65" t="str">
+      <c r="C65" s="65" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D63" s="66">
+      <c r="D65" s="66">
         <v>43213</v>
       </c>
-      <c r="E63" s="65" t="s">
+      <c r="E65" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65">
-        <f ca="1">IF(G63, G63-D63, TODAY()-D63)</f>
-        <v>10</v>
-      </c>
-      <c r="I63" s="65"/>
-      <c r="J63" s="82"/>
-      <c r="K63" s="82"/>
-      <c r="L63" s="82"/>
-      <c r="M63" s="82"/>
-      <c r="N63" s="82"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="68">
+      <c r="F65" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65">
+        <f ca="1">IF(G65, G65-D65, TODAY()-D65)</f>
+        <v>11</v>
+      </c>
+      <c r="I65" s="65"/>
+      <c r="J65" s="82"/>
+      <c r="K65" s="82"/>
+      <c r="L65" s="82"/>
+      <c r="M65" s="82"/>
+      <c r="N65" s="82"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="68">
         <v>24</v>
       </c>
-      <c r="B64" s="68" t="s">
+      <c r="B66" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="30" t="str">
+      <c r="C66" s="30" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D64" s="69">
+      <c r="D66" s="69">
         <v>43213</v>
       </c>
-      <c r="E64" s="68" t="s">
+      <c r="E66" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" s="68"/>
-      <c r="H64" s="68">
-        <f ca="1">IF(G64, G64-D64, TODAY()-D64)</f>
-        <v>10</v>
-      </c>
-      <c r="I64" s="68"/>
-      <c r="J64" s="83"/>
-      <c r="K64" s="83"/>
-      <c r="L64" s="83"/>
-      <c r="M64" s="83"/>
-      <c r="N64" s="83"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="63">
+      <c r="F66" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68">
+        <f ca="1">IF(G66, G66-D66, TODAY()-D66)</f>
+        <v>11</v>
+      </c>
+      <c r="I66" s="68"/>
+      <c r="J66" s="83"/>
+      <c r="K66" s="83"/>
+      <c r="L66" s="83"/>
+      <c r="M66" s="83"/>
+      <c r="N66" s="83"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="63">
         <v>25</v>
       </c>
-      <c r="B65" s="63" t="s">
+      <c r="B67" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C65" s="31" t="str">
+      <c r="C67" s="31" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D65" s="70">
+      <c r="D67" s="70">
         <v>43213</v>
       </c>
-      <c r="E65" s="63" t="s">
+      <c r="E67" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F65" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="G65" s="63"/>
-      <c r="H65" s="63">
-        <f ca="1">IF(G65, G65-D65, TODAY()-D65)</f>
-        <v>10</v>
-      </c>
-      <c r="I65" s="63"/>
-      <c r="J65" s="83"/>
-      <c r="K65" s="83"/>
-      <c r="L65" s="83"/>
-      <c r="M65" s="83"/>
-      <c r="N65" s="83"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="67">
+      <c r="F67" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63">
+        <f ca="1">IF(G67, G67-D67, TODAY()-D67)</f>
+        <v>11</v>
+      </c>
+      <c r="I67" s="63"/>
+      <c r="J67" s="83"/>
+      <c r="K67" s="83"/>
+      <c r="L67" s="83"/>
+      <c r="M67" s="83"/>
+      <c r="N67" s="83"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="67">
         <v>26</v>
       </c>
-      <c r="B66" s="67" t="s">
+      <c r="B68" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="67" t="str">
+      <c r="C68" s="67" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D66" s="81">
+      <c r="D68" s="81">
         <v>43213</v>
       </c>
-      <c r="E66" s="67" t="s">
+      <c r="E68" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67">
-        <f ca="1">IF(G66, G66-D66, TODAY()-D66)</f>
-        <v>10</v>
-      </c>
-      <c r="I66" s="67"/>
-      <c r="J66" s="82"/>
-      <c r="K66" s="82"/>
-      <c r="L66" s="82"/>
-      <c r="M66" s="82"/>
-      <c r="N66" s="82"/>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="83">
-        <v>27</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="86">
-        <v>43219</v>
-      </c>
-      <c r="E67" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="F67" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="10">
-        <f ca="1">IF(G67, G67-D67, TODAY()-D67)</f>
-        <v>4</v>
-      </c>
-      <c r="I67" s="10"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="8"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="83">
-        <v>28</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="86">
-        <v>43219</v>
-      </c>
-      <c r="E68" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="F68" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="10">
+      <c r="F68" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67">
         <f ca="1">IF(G68, G68-D68, TODAY()-D68)</f>
-        <v>4</v>
-      </c>
-      <c r="I68" s="10"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="I68" s="67"/>
+      <c r="J68" s="82"/>
+      <c r="K68" s="82"/>
+      <c r="L68" s="82"/>
+      <c r="M68" s="82"/>
+      <c r="N68" s="82"/>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="83">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4211,7 +4239,7 @@
       <c r="G69" s="2"/>
       <c r="H69" s="10">
         <f ca="1">IF(G69, G69-D69, TODAY()-D69)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="2"/>
@@ -4222,7 +4250,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="83">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4238,7 +4266,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="10">
         <f ca="1">IF(G70, G70-D70, TODAY()-D70)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="2"/>
@@ -4249,7 +4277,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="83">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4265,7 +4293,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="10">
         <f ca="1">IF(G71, G71-D71, TODAY()-D71)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="2"/>
@@ -4276,7 +4304,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="83">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4292,7 +4320,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="10">
         <f ca="1">IF(G72, G72-D72, TODAY()-D72)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="2"/>
@@ -4303,7 +4331,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="83">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4319,7 +4347,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="10">
         <f ca="1">IF(G73, G73-D73, TODAY()-D73)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="2"/>
@@ -4330,7 +4358,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="83">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4346,7 +4374,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="10">
         <f ca="1">IF(G74, G74-D74, TODAY()-D74)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="2"/>
@@ -4357,7 +4385,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="83">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4373,7 +4401,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="10">
         <f ca="1">IF(G75, G75-D75, TODAY()-D75)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="2"/>
@@ -4384,7 +4412,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="83">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4400,7 +4428,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="10">
         <f ca="1">IF(G76, G76-D76, TODAY()-D76)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="2"/>
@@ -4411,7 +4439,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="83">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4427,7 +4455,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="10">
         <f ca="1">IF(G77, G77-D77, TODAY()-D77)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="2"/>
@@ -4438,7 +4466,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="83">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4454,7 +4482,7 @@
       <c r="G78" s="2"/>
       <c r="H78" s="10">
         <f ca="1">IF(G78, G78-D78, TODAY()-D78)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="2"/>
@@ -4465,7 +4493,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="83">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4481,7 +4509,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="10">
         <f ca="1">IF(G79, G79-D79, TODAY()-D79)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="2"/>
@@ -4492,7 +4520,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="83">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4508,7 +4536,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="10">
         <f ca="1">IF(G80, G80-D80, TODAY()-D80)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="2"/>
@@ -4519,7 +4547,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="83">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4535,7 +4563,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="10">
         <f ca="1">IF(G81, G81-D81, TODAY()-D81)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I81" s="10"/>
       <c r="J81" s="2"/>
@@ -4546,7 +4574,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="83">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4562,7 +4590,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="10">
         <f ca="1">IF(G82, G82-D82, TODAY()-D82)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I82" s="10"/>
       <c r="J82" s="2"/>
@@ -4571,14 +4599,68 @@
       <c r="M82" s="2"/>
       <c r="N82" s="8"/>
     </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="83">
+        <v>41</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="86">
+        <v>43219</v>
+      </c>
+      <c r="E83" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="10">
+        <f ca="1">IF(G83, G83-D83, TODAY()-D83)</f>
+        <v>5</v>
+      </c>
+      <c r="I83" s="10"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="8"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="83">
+        <v>42</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="86">
+        <v>43219</v>
+      </c>
+      <c r="E84" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="10">
+        <f ca="1">IF(G84, G84-D84, TODAY()-D84)</f>
+        <v>5</v>
+      </c>
+      <c r="I84" s="10"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="8"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:N82">
-    <sortCondition ref="D2:D82"/>
-    <sortCondition ref="A2:A82"/>
+  <sortState ref="A2:N84">
+    <sortCondition ref="D2:D84"/>
+    <sortCondition ref="A2:A84"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="O14:O15 H29:I30 E28:E30 E31:I47 E1:I20 E22:I22 E21:H21 E24:I25 E23:H23 E27:I27 E26:H26 H28 E49:I1048576 E48:H48 A1:D1048576 J1:N1048576">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="O14:O15 H29:I30 E28:E30 E31:I47 E1:I20 E22:I22 E21:H21 E24:I25 E23:H23 E27:I27 E26:H26 H28 E49:I1048576 E48:H48 J1:N1048576 A1:D1048576">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>$C$2="Mut"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="57">
   <si>
     <t>F</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>C57B6/J Noté M1 sur tube</t>
+  </si>
+  <si>
+    <t>Petit quand reçu. Risque DCD. Fiche laure : naissance 22/04</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -546,8 +549,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -786,9 +791,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -852,8 +854,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="123">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -914,6 +925,7 @@
     <cellStyle name="Lien hypertexte" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -974,9 +986,49 @@
     <cellStyle name="Lien hypertexte visité" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1351,11 +1403,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44:N44"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q81" sqref="Q81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1438,7 +1490,7 @@
       <c r="G2" s="38"/>
       <c r="H2" s="39">
         <f ca="1">IF(G2, G2-D2, TODAY()-D2)</f>
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="21"/>
@@ -1492,7 +1544,7 @@
       <c r="G3" s="40"/>
       <c r="H3" s="41">
         <f ca="1">IF(G3, G3-D3, TODAY()-D3)</f>
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="21"/>
@@ -1550,7 +1602,7 @@
       <c r="G4" s="38"/>
       <c r="H4" s="39">
         <f ca="1">IF(G4, G4-D4, TODAY()-D4)</f>
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="I4" s="39"/>
       <c r="J4" s="21"/>
@@ -1568,7 +1620,7 @@
       </c>
       <c r="Q4" s="2">
         <f>COUNTIFS(B:B, "M",C:C, Q2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R4" s="2">
         <f>COUNTIFS(B:B, "M",C:C,R2)</f>
@@ -1576,7 +1628,7 @@
       </c>
       <c r="S4" s="4">
         <f>SUM(Q4:R4)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T4" s="21">
         <f>COUNTIFS(B:B, "M",C:C, T2)</f>
@@ -1608,7 +1660,7 @@
       <c r="G5" s="40"/>
       <c r="H5" s="41">
         <f ca="1">IF(G5, G5-D5, TODAY()-D5)</f>
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="I5" s="41"/>
       <c r="J5" s="21"/>
@@ -1626,7 +1678,7 @@
       </c>
       <c r="Q5" s="4">
         <f>SUM(Q3:Q4)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R5" s="4">
         <f>SUM(R3:R4)</f>
@@ -1634,7 +1686,7 @@
       </c>
       <c r="S5" s="4">
         <f>SUM(S3:S4)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T5" s="37">
         <f>SUM(T3:T4)</f>
@@ -1737,7 +1789,7 @@
       <c r="S7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="93"/>
+      <c r="T7" s="92"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="77">
@@ -1796,7 +1848,7 @@
         <f>SUM(Q8:R8)</f>
         <v>4</v>
       </c>
-      <c r="T8" s="94"/>
+      <c r="T8" s="93"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="76">
@@ -1843,7 +1895,7 @@
       </c>
       <c r="Q9" s="2">
         <f>COUNTIFS(B:B, "M",C:C, Q7,G:G,"")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R9" s="2">
         <f>COUNTIFS(B:B, "M",C:C,R7,G:G,"")</f>
@@ -1851,9 +1903,9 @@
       </c>
       <c r="S9" s="4">
         <f>SUM(Q9:R9)</f>
-        <v>6</v>
-      </c>
-      <c r="T9" s="94"/>
+        <v>7</v>
+      </c>
+      <c r="T9" s="93"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="78">
@@ -1900,7 +1952,7 @@
       </c>
       <c r="Q10" s="4">
         <f>SUM(Q8:Q9)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R10" s="4">
         <f>SUM(R8:R9)</f>
@@ -1908,9 +1960,9 @@
       </c>
       <c r="S10" s="4">
         <f>SUM(S8:S9)</f>
-        <v>10</v>
-      </c>
-      <c r="T10" s="95"/>
+        <v>11</v>
+      </c>
+      <c r="T10" s="94"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="79">
@@ -1999,7 +2051,7 @@
         <f ca="1">IF(H:H="E", "", AVERAGEIF(G:G,"&lt;&gt;",H:H))</f>
         <v>37.068965517241381</v>
       </c>
-      <c r="R12" s="92"/>
+      <c r="R12" s="91"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="76">
@@ -2085,7 +2137,7 @@
       </c>
       <c r="Q14" s="8">
         <f>COUNTIF(A:A, "&lt;&gt;")-1</f>
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -2200,7 +2252,7 @@
       <c r="G17" s="42"/>
       <c r="H17" s="43">
         <f ca="1">IF(G17, G17-D17, TODAY()-D17)</f>
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I17" s="43"/>
       <c r="J17" s="4"/>
@@ -2353,7 +2405,7 @@
       <c r="G20" s="38"/>
       <c r="H20" s="39">
         <f ca="1">IF(G20, G20-D20, TODAY()-D20)</f>
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="21"/>
@@ -2391,7 +2443,7 @@
         <f ca="1">IF(G21, G21-D21, TODAY()-D21)</f>
         <v>69</v>
       </c>
-      <c r="I21" s="97" t="s">
+      <c r="I21" s="96" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="8"/>
@@ -2437,7 +2489,7 @@
       <c r="G22" s="38"/>
       <c r="H22" s="39">
         <f ca="1">IF(G22, G22-D22, TODAY()-D22)</f>
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="21"/>
@@ -2490,7 +2542,7 @@
         <f ca="1">IF(G23, G23-D23, TODAY()-D23)</f>
         <v>55</v>
       </c>
-      <c r="I23" s="97" t="s">
+      <c r="I23" s="96" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="8"/>
@@ -2590,7 +2642,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="41">
         <f ca="1">IF(G25, G25-D25, TODAY()-D25)</f>
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="21"/>
@@ -2628,7 +2680,7 @@
         <f ca="1">IF(G26, G26-D26, TODAY()-D26)</f>
         <v>36</v>
       </c>
-      <c r="I26" s="97" t="s">
+      <c r="I26" s="96" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="2" t="s">
@@ -2674,7 +2726,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="39">
         <f ca="1">IF(G27, G27-D27, TODAY()-D27)</f>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I27" s="39"/>
       <c r="J27" s="21"/>
@@ -2726,7 +2778,7 @@
         <f ca="1">IF(G28, G28-D28, TODAY()-D28)</f>
         <v>30</v>
       </c>
-      <c r="I28" s="97" t="s">
+      <c r="I28" s="96" t="s">
         <v>7</v>
       </c>
       <c r="J28" s="10"/>
@@ -3235,7 +3287,7 @@
       <c r="G39" s="22"/>
       <c r="H39" s="41">
         <f ca="1">IF(G39, G39-D39, TODAY()-D39)</f>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I39" s="41"/>
       <c r="J39" s="21"/>
@@ -3253,14 +3305,14 @@
       <c r="B40" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="96" t="str">
+      <c r="C40" s="95" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D40" s="46">
         <v>43177</v>
       </c>
-      <c r="E40" s="96" t="s">
+      <c r="E40" s="95" t="s">
         <v>19</v>
       </c>
       <c r="F40" s="46">
@@ -3340,11 +3392,13 @@
       <c r="E42" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="6"/>
+      <c r="F42" s="42">
+        <v>43229</v>
+      </c>
       <c r="G42" s="6"/>
       <c r="H42" s="65">
         <f ca="1">IF(G42, G42-D42, TODAY()-D42)</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I42" s="65"/>
       <c r="J42" s="4"/>
@@ -3359,31 +3413,33 @@
       <c r="A43" s="65">
         <v>465</v>
       </c>
-      <c r="B43" s="99" t="s">
+      <c r="B43" s="98" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="65" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D43" s="100">
+      <c r="D43" s="99">
         <v>43187</v>
       </c>
-      <c r="E43" s="101" t="s">
+      <c r="E43" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="101">
+      <c r="F43" s="42">
+        <v>43229</v>
+      </c>
+      <c r="G43" s="98"/>
+      <c r="H43" s="100">
         <f ca="1">IF(G43, G43-D43, TODAY()-D43)</f>
-        <v>37</v>
-      </c>
-      <c r="I43" s="101"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="105"/>
-      <c r="N43" s="105"/>
+        <v>42</v>
+      </c>
+      <c r="I43" s="100"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="104"/>
+      <c r="M43" s="104"/>
+      <c r="N43" s="104"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="67">
@@ -3402,11 +3458,13 @@
       <c r="E44" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="3"/>
+      <c r="F44" s="107">
+        <v>43229</v>
+      </c>
       <c r="G44" s="3"/>
       <c r="H44" s="67">
         <f ca="1">IF(G44, G44-D44, TODAY()-D44)</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I44" s="67"/>
       <c r="J44" s="7"/>
@@ -3421,53 +3479,55 @@
       <c r="A45" s="63">
         <v>467</v>
       </c>
-      <c r="B45" s="102" t="s">
+      <c r="B45" s="101" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="31" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D45" s="103">
+      <c r="D45" s="102">
         <v>43187</v>
       </c>
-      <c r="E45" s="104" t="s">
+      <c r="E45" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="102"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="104">
+      <c r="F45" s="102">
+        <v>43229</v>
+      </c>
+      <c r="G45" s="101"/>
+      <c r="H45" s="103">
         <f ca="1">IF(G45, G45-D45, TODAY()-D45)</f>
-        <v>37</v>
-      </c>
-      <c r="I45" s="104"/>
-      <c r="J45" s="106"/>
-      <c r="K45" s="106"/>
-      <c r="L45" s="106"/>
-      <c r="M45" s="106"/>
-      <c r="N45" s="107"/>
+        <v>42</v>
+      </c>
+      <c r="I45" s="103"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="105"/>
+      <c r="N45" s="106"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="96">
+      <c r="A46" s="95">
         <v>6</v>
       </c>
-      <c r="B46" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="96" t="str">
+      <c r="B46" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="95" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D46" s="98">
+      <c r="D46" s="97">
         <v>43191</v>
       </c>
-      <c r="E46" s="96" t="s">
+      <c r="E46" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" s="98">
+      <c r="F46" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="97">
         <v>43223</v>
       </c>
       <c r="H46" s="47">
@@ -3508,7 +3568,7 @@
       <c r="G47" s="20"/>
       <c r="H47" s="39">
         <f ca="1">IF(G47, G47-D47, TODAY()-D47)</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I47" s="39"/>
       <c r="J47" s="34"/>
@@ -3618,7 +3678,7 @@
       <c r="G50" s="22"/>
       <c r="H50" s="22">
         <f ca="1">IF(G50, G50-D50, TODAY()-D50)</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I50" s="22"/>
       <c r="J50" s="21"/>
@@ -3650,7 +3710,7 @@
       <c r="G51" s="22"/>
       <c r="H51" s="22">
         <f ca="1">IF(G51, G51-D51, TODAY()-D51)</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I51" s="22"/>
       <c r="J51" s="21"/>
@@ -3666,14 +3726,14 @@
       <c r="B52" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="96" t="str">
+      <c r="C52" s="95" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D52" s="46">
         <v>43196</v>
       </c>
-      <c r="E52" s="96" t="s">
+      <c r="E52" s="95" t="s">
         <v>38</v>
       </c>
       <c r="F52" s="77" t="s">
@@ -3682,11 +3742,11 @@
       <c r="G52" s="46">
         <v>43203</v>
       </c>
-      <c r="H52" s="96">
+      <c r="H52" s="95">
         <f ca="1">IF(G52, G52-D52, TODAY()-D52)</f>
         <v>7</v>
       </c>
-      <c r="I52" s="97" t="s">
+      <c r="I52" s="96" t="s">
         <v>53</v>
       </c>
       <c r="J52" s="4"/>
@@ -3720,7 +3780,7 @@
       <c r="G53" s="20"/>
       <c r="H53" s="20">
         <f ca="1">IF(G53, G53-D53, TODAY()-D53)</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="21"/>
@@ -3752,7 +3812,7 @@
       <c r="G54" s="20"/>
       <c r="H54" s="20">
         <f ca="1">IF(G54, G54-D54, TODAY()-D54)</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="21"/>
@@ -3784,7 +3844,7 @@
       <c r="G55" s="20"/>
       <c r="H55" s="20">
         <f ca="1">IF(G55, G55-D55, TODAY()-D55)</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="21"/>
@@ -3816,7 +3876,7 @@
       <c r="G56" s="20"/>
       <c r="H56" s="20">
         <f ca="1">IF(G56, G56-D56, TODAY()-D56)</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="21"/>
@@ -3832,7 +3892,7 @@
       <c r="B57" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="96" t="str">
+      <c r="C57" s="95" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
@@ -3848,11 +3908,11 @@
       <c r="G57" s="46">
         <v>43223</v>
       </c>
-      <c r="H57" s="96">
+      <c r="H57" s="95">
         <f ca="1">IF(G57, G57-D57, TODAY()-D57)</f>
         <v>27</v>
       </c>
-      <c r="I57" s="96" t="s">
+      <c r="I57" s="95" t="s">
         <v>7</v>
       </c>
       <c r="J57" s="4"/>
@@ -3886,7 +3946,7 @@
       <c r="G58" s="22"/>
       <c r="H58" s="22">
         <f ca="1">IF(G58, G58-D58, TODAY()-D58)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I58" s="22"/>
       <c r="J58" s="34"/>
@@ -3918,7 +3978,7 @@
       <c r="G59" s="22"/>
       <c r="H59" s="22">
         <f ca="1">IF(G59, G59-D59, TODAY()-D59)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I59" s="22"/>
       <c r="J59" s="34"/>
@@ -3950,7 +4010,7 @@
       <c r="G60" s="22"/>
       <c r="H60" s="22">
         <f ca="1">IF(G60, G60-D60, TODAY()-D60)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I60" s="22"/>
       <c r="J60" s="34"/>
@@ -3960,33 +4020,33 @@
       <c r="N60" s="34"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="96">
+      <c r="A61" s="95">
         <v>19</v>
       </c>
-      <c r="B61" s="96" t="s">
+      <c r="B61" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="96" t="str">
+      <c r="C61" s="95" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D61" s="98">
+      <c r="D61" s="97">
         <v>43198</v>
       </c>
-      <c r="E61" s="96" t="s">
+      <c r="E61" s="95" t="s">
         <v>38</v>
       </c>
       <c r="F61" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="G61" s="98">
+      <c r="G61" s="97">
         <v>43223</v>
       </c>
-      <c r="H61" s="96">
+      <c r="H61" s="95">
         <f ca="1">IF(G61, G61-D61, TODAY()-D61)</f>
         <v>25</v>
       </c>
-      <c r="I61" s="96" t="s">
+      <c r="I61" s="95" t="s">
         <v>7</v>
       </c>
       <c r="J61" s="82"/>
@@ -3999,190 +4059,192 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="65">
-        <v>20</v>
-      </c>
-      <c r="B62" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C62" s="65" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D62" s="66">
-        <v>43213</v>
+      <c r="D62" s="42">
+        <v>43209</v>
       </c>
       <c r="E62" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" s="66"/>
+        <v>19</v>
+      </c>
+      <c r="F62" s="42">
+        <v>43229</v>
+      </c>
+      <c r="G62" s="6"/>
       <c r="H62" s="65">
         <f ca="1">IF(G62, G62-D62, TODAY()-D62)</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I62" s="65"/>
-      <c r="J62" s="82"/>
-      <c r="K62" s="82"/>
-      <c r="L62" s="82"/>
-      <c r="M62" s="82"/>
-      <c r="N62" s="82"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="87">
+      <c r="A63" s="65">
+        <v>20</v>
+      </c>
+      <c r="B63" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="65" t="str">
+        <f>$Q$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D63" s="66">
+        <v>43213</v>
+      </c>
+      <c r="E63" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="66"/>
+      <c r="H63" s="65">
+        <f ca="1">IF(G63, G63-D63, TODAY()-D63)</f>
+        <v>16</v>
+      </c>
+      <c r="I63" s="65"/>
+      <c r="J63" s="82"/>
+      <c r="K63" s="82"/>
+      <c r="L63" s="82"/>
+      <c r="M63" s="82"/>
+      <c r="N63" s="82"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="86">
         <v>21</v>
       </c>
-      <c r="B63" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="87" t="str">
+      <c r="B64" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="86" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D63" s="91">
+      <c r="D64" s="90">
         <v>43213</v>
       </c>
-      <c r="E63" s="87" t="s">
+      <c r="E64" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63" s="87"/>
-      <c r="H63" s="87">
-        <f ca="1">IF(G63, G63-D63, TODAY()-D63)</f>
-        <v>11</v>
-      </c>
-      <c r="I63" s="87"/>
-      <c r="J63" s="90"/>
-      <c r="K63" s="90"/>
-      <c r="L63" s="90"/>
-      <c r="M63" s="90"/>
-      <c r="N63" s="90"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="88">
+      <c r="F64" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="86"/>
+      <c r="H64" s="86">
+        <f ca="1">IF(G64, G64-D64, TODAY()-D64)</f>
+        <v>16</v>
+      </c>
+      <c r="I64" s="86"/>
+      <c r="J64" s="89"/>
+      <c r="K64" s="89"/>
+      <c r="L64" s="89"/>
+      <c r="M64" s="89"/>
+      <c r="N64" s="89"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="87">
         <v>22</v>
       </c>
-      <c r="B64" s="88" t="s">
+      <c r="B65" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="88" t="str">
+      <c r="C65" s="87" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D64" s="89">
+      <c r="D65" s="88">
         <v>43213</v>
       </c>
-      <c r="E64" s="88" t="s">
+      <c r="E65" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" s="88"/>
-      <c r="H64" s="88">
-        <f ca="1">IF(G64, G64-D64, TODAY()-D64)</f>
-        <v>11</v>
-      </c>
-      <c r="I64" s="88"/>
-      <c r="J64" s="90"/>
-      <c r="K64" s="90"/>
-      <c r="L64" s="90"/>
-      <c r="M64" s="90"/>
-      <c r="N64" s="90"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="65">
+      <c r="F65" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="87"/>
+      <c r="H65" s="87">
+        <f ca="1">IF(G65, G65-D65, TODAY()-D65)</f>
+        <v>16</v>
+      </c>
+      <c r="I65" s="87"/>
+      <c r="J65" s="89"/>
+      <c r="K65" s="89"/>
+      <c r="L65" s="89"/>
+      <c r="M65" s="89"/>
+      <c r="N65" s="89"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="65">
         <v>23</v>
       </c>
-      <c r="B65" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="65" t="str">
+      <c r="B66" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="65" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D65" s="66">
+      <c r="D66" s="66">
         <v>43213</v>
       </c>
-      <c r="E65" s="65" t="s">
+      <c r="E66" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65">
-        <f ca="1">IF(G65, G65-D65, TODAY()-D65)</f>
-        <v>11</v>
-      </c>
-      <c r="I65" s="65"/>
-      <c r="J65" s="82"/>
-      <c r="K65" s="82"/>
-      <c r="L65" s="82"/>
-      <c r="M65" s="82"/>
-      <c r="N65" s="82"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="68">
+      <c r="F66" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65">
+        <f ca="1">IF(G66, G66-D66, TODAY()-D66)</f>
+        <v>16</v>
+      </c>
+      <c r="I66" s="65"/>
+      <c r="J66" s="82"/>
+      <c r="K66" s="82"/>
+      <c r="L66" s="82"/>
+      <c r="M66" s="82"/>
+      <c r="N66" s="82"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="68">
         <v>24</v>
       </c>
-      <c r="B66" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="30" t="str">
+      <c r="B67" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="30" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D66" s="69">
+      <c r="D67" s="69">
         <v>43213</v>
       </c>
-      <c r="E66" s="68" t="s">
+      <c r="E67" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F66" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68">
-        <f ca="1">IF(G66, G66-D66, TODAY()-D66)</f>
-        <v>11</v>
-      </c>
-      <c r="I66" s="68"/>
-      <c r="J66" s="83"/>
-      <c r="K66" s="83"/>
-      <c r="L66" s="83"/>
-      <c r="M66" s="83"/>
-      <c r="N66" s="83"/>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="63">
-        <v>25</v>
-      </c>
-      <c r="B67" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" s="31" t="str">
-        <f>$R$2</f>
-        <v>WT</v>
-      </c>
-      <c r="D67" s="70">
-        <v>43213</v>
-      </c>
-      <c r="E67" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="F67" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63">
+      <c r="F67" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="68"/>
+      <c r="H67" s="68">
         <f ca="1">IF(G67, G67-D67, TODAY()-D67)</f>
-        <v>11</v>
-      </c>
-      <c r="I67" s="63"/>
+        <v>16</v>
+      </c>
+      <c r="I67" s="68"/>
       <c r="J67" s="83"/>
       <c r="K67" s="83"/>
       <c r="L67" s="83"/>
@@ -4190,85 +4252,92 @@
       <c r="N67" s="83"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="67">
+      <c r="A68" s="63">
+        <v>25</v>
+      </c>
+      <c r="B68" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="31" t="str">
+        <f>$R$2</f>
+        <v>WT</v>
+      </c>
+      <c r="D68" s="70">
+        <v>43213</v>
+      </c>
+      <c r="E68" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63">
+        <f ca="1">IF(G68, G68-D68, TODAY()-D68)</f>
+        <v>16</v>
+      </c>
+      <c r="I68" s="63"/>
+      <c r="J68" s="83"/>
+      <c r="K68" s="83"/>
+      <c r="L68" s="83"/>
+      <c r="M68" s="83"/>
+      <c r="N68" s="83"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="67">
         <v>26</v>
       </c>
-      <c r="B68" s="67" t="s">
+      <c r="B69" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="67" t="str">
+      <c r="C69" s="67" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D68" s="81">
+      <c r="D69" s="81">
         <v>43213</v>
       </c>
-      <c r="E68" s="67" t="s">
+      <c r="E69" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67">
-        <f ca="1">IF(G68, G68-D68, TODAY()-D68)</f>
-        <v>11</v>
-      </c>
-      <c r="I68" s="67"/>
-      <c r="J68" s="82"/>
-      <c r="K68" s="82"/>
-      <c r="L68" s="82"/>
-      <c r="M68" s="82"/>
-      <c r="N68" s="82"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="83">
+      <c r="F69" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67">
+        <f ca="1">IF(G69, G69-D69, TODAY()-D69)</f>
+        <v>16</v>
+      </c>
+      <c r="I69" s="67"/>
+      <c r="J69" s="82"/>
+      <c r="K69" s="82"/>
+      <c r="L69" s="82"/>
+      <c r="M69" s="82"/>
+      <c r="N69" s="82"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="68">
         <v>27</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="86">
+      <c r="B70" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="30"/>
+      <c r="D70" s="108">
         <v>43219</v>
       </c>
-      <c r="E69" s="83" t="s">
+      <c r="E70" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F69" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="10">
-        <f ca="1">IF(G69, G69-D69, TODAY()-D69)</f>
-        <v>5</v>
-      </c>
-      <c r="I69" s="10"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="8"/>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="83">
-        <v>28</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="86">
-        <v>43219</v>
-      </c>
-      <c r="E70" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="F70" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="10">
+      <c r="F70" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="30"/>
+      <c r="H70" s="68">
         <f ca="1">IF(G70, G70-D70, TODAY()-D70)</f>
-        <v>5</v>
-      </c>
-      <c r="I70" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="I70" s="68"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -4276,26 +4345,28 @@
       <c r="N70" s="8"/>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="83">
-        <v>29</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="86">
+      <c r="A71" s="68">
+        <v>28</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="30"/>
+      <c r="D71" s="108">
         <v>43219</v>
       </c>
-      <c r="E71" s="83" t="s">
+      <c r="E71" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F71" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="10">
+      <c r="F71" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="30"/>
+      <c r="H71" s="68">
         <f ca="1">IF(G71, G71-D71, TODAY()-D71)</f>
-        <v>5</v>
-      </c>
-      <c r="I71" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="I71" s="68"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
@@ -4303,26 +4374,28 @@
       <c r="N71" s="8"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="83">
-        <v>30</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="86">
+      <c r="A72" s="68">
+        <v>29</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="30"/>
+      <c r="D72" s="108">
         <v>43219</v>
       </c>
-      <c r="E72" s="83" t="s">
+      <c r="E72" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F72" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="10">
+      <c r="F72" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="30"/>
+      <c r="H72" s="68">
         <f ca="1">IF(G72, G72-D72, TODAY()-D72)</f>
-        <v>5</v>
-      </c>
-      <c r="I72" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="I72" s="68"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -4330,26 +4403,28 @@
       <c r="N72" s="8"/>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="83">
-        <v>31</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="86">
+      <c r="A73" s="68">
+        <v>30</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="30"/>
+      <c r="D73" s="108">
         <v>43219</v>
       </c>
-      <c r="E73" s="83" t="s">
+      <c r="E73" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F73" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="10">
+      <c r="F73" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="30"/>
+      <c r="H73" s="68">
         <f ca="1">IF(G73, G73-D73, TODAY()-D73)</f>
-        <v>5</v>
-      </c>
-      <c r="I73" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="I73" s="68"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -4357,26 +4432,28 @@
       <c r="N73" s="8"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="83">
-        <v>32</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="86">
+      <c r="A74" s="63">
+        <v>31</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="31"/>
+      <c r="D74" s="109">
         <v>43219</v>
       </c>
-      <c r="E74" s="83" t="s">
+      <c r="E74" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F74" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="10">
+      <c r="F74" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="31"/>
+      <c r="H74" s="63">
         <f ca="1">IF(G74, G74-D74, TODAY()-D74)</f>
-        <v>5</v>
-      </c>
-      <c r="I74" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="I74" s="63"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -4384,26 +4461,28 @@
       <c r="N74" s="8"/>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="83">
-        <v>33</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="86">
+      <c r="A75" s="63">
+        <v>32</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="31"/>
+      <c r="D75" s="109">
         <v>43219</v>
       </c>
-      <c r="E75" s="83" t="s">
+      <c r="E75" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F75" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="10">
+      <c r="F75" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="31"/>
+      <c r="H75" s="63">
         <f ca="1">IF(G75, G75-D75, TODAY()-D75)</f>
-        <v>5</v>
-      </c>
-      <c r="I75" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="I75" s="63"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
@@ -4411,26 +4490,28 @@
       <c r="N75" s="8"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="83">
-        <v>34</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="86">
+      <c r="A76" s="63">
+        <v>33</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="31"/>
+      <c r="D76" s="109">
         <v>43219</v>
       </c>
-      <c r="E76" s="83" t="s">
+      <c r="E76" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F76" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="10">
+      <c r="F76" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="31"/>
+      <c r="H76" s="63">
         <f ca="1">IF(G76, G76-D76, TODAY()-D76)</f>
-        <v>5</v>
-      </c>
-      <c r="I76" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="I76" s="63"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
@@ -4438,26 +4519,28 @@
       <c r="N76" s="8"/>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="83">
-        <v>35</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="86">
+      <c r="A77" s="63">
+        <v>34</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="31"/>
+      <c r="D77" s="109">
         <v>43219</v>
       </c>
-      <c r="E77" s="83" t="s">
+      <c r="E77" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F77" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="10">
+      <c r="F77" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="31"/>
+      <c r="H77" s="63">
         <f ca="1">IF(G77, G77-D77, TODAY()-D77)</f>
-        <v>5</v>
-      </c>
-      <c r="I77" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="I77" s="63"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
@@ -4465,26 +4548,28 @@
       <c r="N77" s="8"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="83">
-        <v>36</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="86">
+      <c r="A78" s="63">
+        <v>35</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="31"/>
+      <c r="D78" s="109">
         <v>43219</v>
       </c>
-      <c r="E78" s="83" t="s">
+      <c r="E78" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F78" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="10">
+      <c r="F78" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="31"/>
+      <c r="H78" s="63">
         <f ca="1">IF(G78, G78-D78, TODAY()-D78)</f>
-        <v>5</v>
-      </c>
-      <c r="I78" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="I78" s="63"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
@@ -4492,26 +4577,28 @@
       <c r="N78" s="8"/>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="83">
-        <v>37</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="86">
-        <v>43219</v>
-      </c>
-      <c r="E79" s="83" t="s">
+      <c r="A79" s="68">
+        <v>36</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="30"/>
+      <c r="D79" s="108">
+        <v>43220</v>
+      </c>
+      <c r="E79" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F79" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="10">
+      <c r="F79" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="30"/>
+      <c r="H79" s="68">
         <f ca="1">IF(G79, G79-D79, TODAY()-D79)</f>
-        <v>5</v>
-      </c>
-      <c r="I79" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="I79" s="68"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
@@ -4519,26 +4606,28 @@
       <c r="N79" s="8"/>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="83">
+      <c r="A80" s="68">
+        <v>37</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="30"/>
+      <c r="D80" s="108">
+        <v>43220</v>
+      </c>
+      <c r="E80" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="86">
-        <v>43219</v>
-      </c>
-      <c r="E80" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="F80" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="10">
+      <c r="F80" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" s="30"/>
+      <c r="H80" s="68">
         <f ca="1">IF(G80, G80-D80, TODAY()-D80)</f>
-        <v>5</v>
-      </c>
-      <c r="I80" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="I80" s="68"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
@@ -4546,26 +4635,28 @@
       <c r="N80" s="8"/>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="83">
-        <v>39</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="86">
-        <v>43219</v>
-      </c>
-      <c r="E81" s="83" t="s">
+      <c r="A81" s="63">
         <v>38</v>
       </c>
-      <c r="F81" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="10">
+      <c r="B81" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="31"/>
+      <c r="D81" s="109">
+        <v>43220</v>
+      </c>
+      <c r="E81" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" s="31"/>
+      <c r="H81" s="63">
         <f ca="1">IF(G81, G81-D81, TODAY()-D81)</f>
-        <v>5</v>
-      </c>
-      <c r="I81" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="I81" s="63"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
@@ -4573,26 +4664,28 @@
       <c r="N81" s="8"/>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="83">
-        <v>40</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="86">
-        <v>43219</v>
-      </c>
-      <c r="E82" s="83" t="s">
+      <c r="A82" s="63">
+        <v>39</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="31"/>
+      <c r="D82" s="109">
+        <v>43220</v>
+      </c>
+      <c r="E82" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F82" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="10">
+      <c r="F82" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" s="31"/>
+      <c r="H82" s="63">
         <f ca="1">IF(G82, G82-D82, TODAY()-D82)</f>
-        <v>5</v>
-      </c>
-      <c r="I82" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="I82" s="63"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -4600,67 +4693,42 @@
       <c r="N82" s="8"/>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="83">
-        <v>41</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="86">
-        <v>43219</v>
-      </c>
-      <c r="E83" s="83" t="s">
+      <c r="A83" s="63">
+        <v>40</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="31"/>
+      <c r="D83" s="109">
+        <v>43220</v>
+      </c>
+      <c r="E83" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F83" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="10">
+      <c r="F83" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="31"/>
+      <c r="H83" s="63">
         <f ca="1">IF(G83, G83-D83, TODAY()-D83)</f>
-        <v>5</v>
-      </c>
-      <c r="I83" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="I83" s="63"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="8"/>
     </row>
-    <row r="84" spans="1:14">
-      <c r="A84" s="83">
-        <v>42</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="86">
-        <v>43219</v>
-      </c>
-      <c r="E84" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="F84" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="10">
-        <f ca="1">IF(G84, G84-D84, TODAY()-D84)</f>
-        <v>5</v>
-      </c>
-      <c r="I84" s="10"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="8"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:N84">
-    <sortCondition ref="D2:D84"/>
-    <sortCondition ref="A2:A84"/>
+  <sortState ref="A2:N85">
+    <sortCondition ref="D2:D85"/>
+    <sortCondition ref="A2:A85"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="O14:O15 H29:I30 E28:E30 E31:I47 E1:I20 E22:I22 E21:H21 E24:I25 E23:H23 E27:I27 E26:H26 H28 E49:I1048576 E48:H48 J1:N1048576 A1:D1048576">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="O14:O15 H29:I30 E28:E30 E1:I20 E22:I22 E21:H21 E24:I25 E23:H23 E27:I27 E26:H26 H28 E48:H48 E31:I47 E49:I1048576 J1:N1048576 A1:D1048576">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$C$2="Mut"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -427,7 +427,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="123">
+  <cellStyleXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -551,8 +551,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -791,19 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -857,14 +859,11 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="123">
+  <cellStyles count="137">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -926,6 +925,13 @@
     <cellStyle name="Lien hypertexte" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -987,9 +993,94 @@
     <cellStyle name="Lien hypertexte visité" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1407,7 +1498,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q81" sqref="Q81"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1489,8 +1580,8 @@
       </c>
       <c r="G2" s="38"/>
       <c r="H2" s="39">
-        <f ca="1">IF(G2, G2-D2, TODAY()-D2)</f>
-        <v>322</v>
+        <f t="shared" ref="H2:H30" ca="1" si="0">IF(G2, G2-D2, TODAY()-D2)</f>
+        <v>324</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="21"/>
@@ -1543,8 +1634,8 @@
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="41">
-        <f ca="1">IF(G3, G3-D3, TODAY()-D3)</f>
-        <v>267</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>269</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="21"/>
@@ -1562,7 +1653,7 @@
       </c>
       <c r="Q3" s="2">
         <f>COUNTIFS(B:B, "F",C:C, Q2)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="R3" s="2">
         <f>COUNTIFS(B:B, "F",C:C,R2)</f>
@@ -1570,11 +1661,11 @@
       </c>
       <c r="S3" s="4">
         <f>SUM(Q3:R3)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="T3" s="21">
         <f>COUNTIFS(B:B, "F",C:C,T2)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
@@ -1601,8 +1692,8 @@
       </c>
       <c r="G4" s="38"/>
       <c r="H4" s="39">
-        <f ca="1">IF(G4, G4-D4, TODAY()-D4)</f>
-        <v>267</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>269</v>
       </c>
       <c r="I4" s="39"/>
       <c r="J4" s="21"/>
@@ -1620,7 +1711,7 @@
       </c>
       <c r="Q4" s="2">
         <f>COUNTIFS(B:B, "M",C:C, Q2)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R4" s="2">
         <f>COUNTIFS(B:B, "M",C:C,R2)</f>
@@ -1628,11 +1719,11 @@
       </c>
       <c r="S4" s="4">
         <f>SUM(Q4:R4)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T4" s="21">
         <f>COUNTIFS(B:B, "M",C:C, T2)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
@@ -1659,8 +1750,8 @@
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="41">
-        <f ca="1">IF(G5, G5-D5, TODAY()-D5)</f>
-        <v>265</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>267</v>
       </c>
       <c r="I5" s="41"/>
       <c r="J5" s="21"/>
@@ -1678,7 +1769,7 @@
       </c>
       <c r="Q5" s="4">
         <f>SUM(Q3:Q4)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="R5" s="4">
         <f>SUM(R3:R4)</f>
@@ -1686,11 +1777,11 @@
       </c>
       <c r="S5" s="4">
         <f>SUM(S3:S4)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="T5" s="37">
         <f>SUM(T3:T4)</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
@@ -1719,7 +1810,7 @@
         <v>43124</v>
       </c>
       <c r="H6" s="47">
-        <f ca="1">IF(G6, G6-D6, TODAY()-D6)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
       <c r="I6" s="47" t="s">
@@ -1762,7 +1853,7 @@
         <v>43124</v>
       </c>
       <c r="H7" s="49">
-        <f ca="1">IF(G7, G7-D7, TODAY()-D7)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
       <c r="I7" s="49" t="s">
@@ -1789,7 +1880,7 @@
       <c r="S7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="92"/>
+      <c r="T7" s="88"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="77">
@@ -1815,7 +1906,7 @@
         <v>43146</v>
       </c>
       <c r="H8" s="47">
-        <f ca="1">IF(G8, G8-D8, TODAY()-D8)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="I8" s="47" t="s">
@@ -1838,7 +1929,7 @@
       </c>
       <c r="Q8" s="2">
         <f>COUNTIFS(B:B, "F",C:C, Q7,G:G,"")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R8" s="2">
         <f>COUNTIFS(B:B, "F",C:C,R7,G:G, "")</f>
@@ -1846,9 +1937,9 @@
       </c>
       <c r="S8" s="4">
         <f>SUM(Q8:R8)</f>
-        <v>4</v>
-      </c>
-      <c r="T8" s="93"/>
+        <v>9</v>
+      </c>
+      <c r="T8" s="89"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="76">
@@ -1874,7 +1965,7 @@
         <v>43147</v>
       </c>
       <c r="H9" s="49">
-        <f ca="1">IF(G9, G9-D9, TODAY()-D9)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
       <c r="I9" s="49" t="s">
@@ -1895,7 +1986,7 @@
       </c>
       <c r="Q9" s="2">
         <f>COUNTIFS(B:B, "M",C:C, Q7,G:G,"")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R9" s="2">
         <f>COUNTIFS(B:B, "M",C:C,R7,G:G,"")</f>
@@ -1903,9 +1994,9 @@
       </c>
       <c r="S9" s="4">
         <f>SUM(Q9:R9)</f>
-        <v>7</v>
-      </c>
-      <c r="T9" s="93"/>
+        <v>9</v>
+      </c>
+      <c r="T9" s="89"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="78">
@@ -1931,7 +2022,7 @@
         <v>43146</v>
       </c>
       <c r="H10" s="51">
-        <f ca="1">IF(G10, G10-D10, TODAY()-D10)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="I10" s="51" t="s">
@@ -1952,7 +2043,7 @@
       </c>
       <c r="Q10" s="4">
         <f>SUM(Q8:Q9)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="R10" s="4">
         <f>SUM(R8:R9)</f>
@@ -1960,9 +2051,9 @@
       </c>
       <c r="S10" s="4">
         <f>SUM(S8:S9)</f>
-        <v>11</v>
-      </c>
-      <c r="T10" s="94"/>
+        <v>18</v>
+      </c>
+      <c r="T10" s="90"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="79">
@@ -1988,7 +2079,7 @@
         <v>43146</v>
       </c>
       <c r="H11" s="53">
-        <f ca="1">IF(G11, G11-D11, TODAY()-D11)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
       <c r="I11" s="53" t="s">
@@ -2029,7 +2120,7 @@
         <v>43146</v>
       </c>
       <c r="H12" s="47">
-        <f ca="1">IF(G12, G12-D12, TODAY()-D12)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
       <c r="I12" s="47" t="s">
@@ -2051,7 +2142,7 @@
         <f ca="1">IF(H:H="E", "", AVERAGEIF(G:G,"&lt;&gt;",H:H))</f>
         <v>37.068965517241381</v>
       </c>
-      <c r="R12" s="91"/>
+      <c r="R12" s="87"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="76">
@@ -2076,7 +2167,7 @@
         <v>43165</v>
       </c>
       <c r="H13" s="49">
-        <f ca="1">IF(G13, G13-D13, TODAY()-D13)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="I13" s="49" t="s">
@@ -2116,7 +2207,7 @@
         <v>43165</v>
       </c>
       <c r="H14" s="49">
-        <f ca="1">IF(G14, G14-D14, TODAY()-D14)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="I14" s="49" t="s">
@@ -2163,7 +2254,7 @@
         <v>43165</v>
       </c>
       <c r="H15" s="49">
-        <f ca="1">IF(G15, G15-D15, TODAY()-D15)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="I15" s="49" t="s">
@@ -2203,7 +2294,7 @@
         <v>43165</v>
       </c>
       <c r="H16" s="49">
-        <f ca="1">IF(G16, G16-D16, TODAY()-D16)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="I16" s="49" t="s">
@@ -2251,8 +2342,8 @@
       </c>
       <c r="G17" s="42"/>
       <c r="H17" s="43">
-        <f ca="1">IF(G17, G17-D17, TODAY()-D17)</f>
-        <v>97</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
       </c>
       <c r="I17" s="43"/>
       <c r="J17" s="4"/>
@@ -2300,7 +2391,7 @@
         <v>43201</v>
       </c>
       <c r="H18" s="47">
-        <f ca="1">IF(G18, G18-D18, TODAY()-D18)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
       <c r="I18" s="47" t="s">
@@ -2353,7 +2444,7 @@
         <v>43201</v>
       </c>
       <c r="H19" s="47">
-        <f ca="1">IF(G19, G19-D19, TODAY()-D19)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
       <c r="I19" s="47" t="s">
@@ -2404,8 +2495,8 @@
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="39">
-        <f ca="1">IF(G20, G20-D20, TODAY()-D20)</f>
-        <v>97</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="21"/>
@@ -2440,10 +2531,10 @@
         <v>43201</v>
       </c>
       <c r="H21" s="49">
-        <f ca="1">IF(G21, G21-D21, TODAY()-D21)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
-      <c r="I21" s="96" t="s">
+      <c r="I21" s="92" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="8"/>
@@ -2488,8 +2579,8 @@
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="39">
-        <f ca="1">IF(G22, G22-D22, TODAY()-D22)</f>
-        <v>97</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="21"/>
@@ -2539,10 +2630,10 @@
         <v>43201</v>
       </c>
       <c r="H23" s="49">
-        <f ca="1">IF(G23, G23-D23, TODAY()-D23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="I23" s="96" t="s">
+      <c r="I23" s="92" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="8"/>
@@ -2592,7 +2683,7 @@
         <v>43201</v>
       </c>
       <c r="H24" s="47">
-        <f ca="1">IF(G24, G24-D24, TODAY()-D24)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
       <c r="I24" s="47"/>
@@ -2641,8 +2732,8 @@
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="41">
-        <f ca="1">IF(G25, G25-D25, TODAY()-D25)</f>
-        <v>82</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="21"/>
@@ -2677,10 +2768,10 @@
         <v>43186</v>
       </c>
       <c r="H26" s="49">
-        <f ca="1">IF(G26, G26-D26, TODAY()-D26)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
-      <c r="I26" s="96" t="s">
+      <c r="I26" s="92" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="2" t="s">
@@ -2725,8 +2816,8 @@
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="39">
-        <f ca="1">IF(G27, G27-D27, TODAY()-D27)</f>
-        <v>79</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
       </c>
       <c r="I27" s="39"/>
       <c r="J27" s="21"/>
@@ -2775,10 +2866,10 @@
         <v>43180</v>
       </c>
       <c r="H28" s="49">
-        <f ca="1">IF(G28, G28-D28, TODAY()-D28)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
-      <c r="I28" s="96" t="s">
+      <c r="I28" s="92" t="s">
         <v>7</v>
       </c>
       <c r="J28" s="10"/>
@@ -2829,7 +2920,7 @@
         <v>43180</v>
       </c>
       <c r="H29" s="49">
-        <f ca="1">IF(G29, G29-D29, TODAY()-D29)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
       <c r="I29" s="49" t="s">
@@ -2883,7 +2974,7 @@
         <v>43180</v>
       </c>
       <c r="H30" s="49">
-        <f ca="1">IF(G30, G30-D30, TODAY()-D30)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
       <c r="I30" s="49" t="s">
@@ -3250,7 +3341,7 @@
         <v>43201</v>
       </c>
       <c r="H38" s="47">
-        <f ca="1">IF(G38, G38-D38, TODAY()-D38)</f>
+        <f t="shared" ref="H38:H83" ca="1" si="1">IF(G38, G38-D38, TODAY()-D38)</f>
         <v>33</v>
       </c>
       <c r="I38" s="47" t="s">
@@ -3286,8 +3377,8 @@
       </c>
       <c r="G39" s="22"/>
       <c r="H39" s="41">
-        <f ca="1">IF(G39, G39-D39, TODAY()-D39)</f>
-        <v>61</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
       </c>
       <c r="I39" s="41"/>
       <c r="J39" s="21"/>
@@ -3305,14 +3396,14 @@
       <c r="B40" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="95" t="str">
+      <c r="C40" s="91" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D40" s="46">
         <v>43177</v>
       </c>
-      <c r="E40" s="95" t="s">
+      <c r="E40" s="91" t="s">
         <v>19</v>
       </c>
       <c r="F40" s="46">
@@ -3322,7 +3413,7 @@
         <v>43223</v>
       </c>
       <c r="H40" s="47">
-        <f ca="1">IF(G40, G40-D40, TODAY()-D40)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>46</v>
       </c>
       <c r="I40" s="47" t="s">
@@ -3361,7 +3452,7 @@
         <v>43223</v>
       </c>
       <c r="H41" s="49">
-        <f ca="1">IF(G41, G41-D41, TODAY()-D41)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>46</v>
       </c>
       <c r="I41" s="49" t="s">
@@ -3397,8 +3488,8 @@
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="65">
-        <f ca="1">IF(G42, G42-D42, TODAY()-D42)</f>
-        <v>42</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
       </c>
       <c r="I42" s="65"/>
       <c r="J42" s="4"/>
@@ -3413,33 +3504,33 @@
       <c r="A43" s="65">
         <v>465</v>
       </c>
-      <c r="B43" s="98" t="s">
+      <c r="B43" s="94" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="65" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D43" s="99">
+      <c r="D43" s="95">
         <v>43187</v>
       </c>
-      <c r="E43" s="100" t="s">
+      <c r="E43" s="96" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="42">
         <v>43229</v>
       </c>
-      <c r="G43" s="98"/>
-      <c r="H43" s="100">
-        <f ca="1">IF(G43, G43-D43, TODAY()-D43)</f>
-        <v>42</v>
-      </c>
-      <c r="I43" s="100"/>
-      <c r="J43" s="104"/>
-      <c r="K43" s="104"/>
-      <c r="L43" s="104"/>
-      <c r="M43" s="104"/>
-      <c r="N43" s="104"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="96">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="I43" s="96"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="100"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="67">
@@ -3458,13 +3549,13 @@
       <c r="E44" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="107">
+      <c r="F44" s="103">
         <v>43229</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="67">
-        <f ca="1">IF(G44, G44-D44, TODAY()-D44)</f>
-        <v>42</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
       </c>
       <c r="I44" s="67"/>
       <c r="J44" s="7"/>
@@ -3479,59 +3570,59 @@
       <c r="A45" s="63">
         <v>467</v>
       </c>
-      <c r="B45" s="101" t="s">
+      <c r="B45" s="97" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="31" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D45" s="102">
+      <c r="D45" s="98">
         <v>43187</v>
       </c>
-      <c r="E45" s="103" t="s">
+      <c r="E45" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="102">
+      <c r="F45" s="98">
         <v>43229</v>
       </c>
-      <c r="G45" s="101"/>
-      <c r="H45" s="103">
-        <f ca="1">IF(G45, G45-D45, TODAY()-D45)</f>
-        <v>42</v>
-      </c>
-      <c r="I45" s="103"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="105"/>
-      <c r="L45" s="105"/>
-      <c r="M45" s="105"/>
-      <c r="N45" s="106"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="99">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="I45" s="99"/>
+      <c r="J45" s="101"/>
+      <c r="K45" s="101"/>
+      <c r="L45" s="101"/>
+      <c r="M45" s="101"/>
+      <c r="N45" s="102"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="95">
+      <c r="A46" s="91">
         <v>6</v>
       </c>
-      <c r="B46" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="95" t="str">
+      <c r="B46" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="91" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D46" s="97">
+      <c r="D46" s="93">
         <v>43191</v>
       </c>
-      <c r="E46" s="95" t="s">
+      <c r="E46" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="95" t="s">
+      <c r="F46" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="97">
+      <c r="G46" s="93">
         <v>43223</v>
       </c>
       <c r="H46" s="47">
-        <f ca="1">IF(G46, G46-D46, TODAY()-D46)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>32</v>
       </c>
       <c r="I46" s="47" t="s">
@@ -3567,8 +3658,8 @@
       </c>
       <c r="G47" s="20"/>
       <c r="H47" s="39">
-        <f ca="1">IF(G47, G47-D47, TODAY()-D47)</f>
-        <v>38</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
       </c>
       <c r="I47" s="39"/>
       <c r="J47" s="34"/>
@@ -3600,7 +3691,7 @@
         <v>43223</v>
       </c>
       <c r="H48" s="71">
-        <f ca="1">IF(G48, G48-D48, TODAY()-D48)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>30</v>
       </c>
       <c r="I48" s="71" t="s">
@@ -3639,7 +3730,7 @@
         <v>43223</v>
       </c>
       <c r="H49" s="71">
-        <f ca="1">IF(G49, G49-D49, TODAY()-D49)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>30</v>
       </c>
       <c r="I49" s="71" t="s">
@@ -3677,8 +3768,8 @@
       </c>
       <c r="G50" s="22"/>
       <c r="H50" s="22">
-        <f ca="1">IF(G50, G50-D50, TODAY()-D50)</f>
-        <v>33</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
       </c>
       <c r="I50" s="22"/>
       <c r="J50" s="21"/>
@@ -3709,8 +3800,8 @@
       </c>
       <c r="G51" s="22"/>
       <c r="H51" s="22">
-        <f ca="1">IF(G51, G51-D51, TODAY()-D51)</f>
-        <v>33</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
       </c>
       <c r="I51" s="22"/>
       <c r="J51" s="21"/>
@@ -3726,14 +3817,14 @@
       <c r="B52" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="95" t="str">
+      <c r="C52" s="91" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D52" s="46">
         <v>43196</v>
       </c>
-      <c r="E52" s="95" t="s">
+      <c r="E52" s="91" t="s">
         <v>38</v>
       </c>
       <c r="F52" s="77" t="s">
@@ -3742,11 +3833,11 @@
       <c r="G52" s="46">
         <v>43203</v>
       </c>
-      <c r="H52" s="95">
-        <f ca="1">IF(G52, G52-D52, TODAY()-D52)</f>
-        <v>7</v>
-      </c>
-      <c r="I52" s="96" t="s">
+      <c r="H52" s="91">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I52" s="92" t="s">
         <v>53</v>
       </c>
       <c r="J52" s="4"/>
@@ -3779,8 +3870,8 @@
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="20">
-        <f ca="1">IF(G53, G53-D53, TODAY()-D53)</f>
-        <v>33</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="21"/>
@@ -3811,8 +3902,8 @@
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="20">
-        <f ca="1">IF(G54, G54-D54, TODAY()-D54)</f>
-        <v>33</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="21"/>
@@ -3843,8 +3934,8 @@
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="20">
-        <f ca="1">IF(G55, G55-D55, TODAY()-D55)</f>
-        <v>33</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="21"/>
@@ -3875,8 +3966,8 @@
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="20">
-        <f ca="1">IF(G56, G56-D56, TODAY()-D56)</f>
-        <v>33</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="21"/>
@@ -3892,7 +3983,7 @@
       <c r="B57" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="95" t="str">
+      <c r="C57" s="91" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
@@ -3908,11 +3999,11 @@
       <c r="G57" s="46">
         <v>43223</v>
       </c>
-      <c r="H57" s="95">
-        <f ca="1">IF(G57, G57-D57, TODAY()-D57)</f>
+      <c r="H57" s="91">
+        <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
-      <c r="I57" s="95" t="s">
+      <c r="I57" s="91" t="s">
         <v>7</v>
       </c>
       <c r="J57" s="4"/>
@@ -3945,8 +4036,8 @@
       </c>
       <c r="G58" s="22"/>
       <c r="H58" s="22">
-        <f ca="1">IF(G58, G58-D58, TODAY()-D58)</f>
-        <v>31</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
       </c>
       <c r="I58" s="22"/>
       <c r="J58" s="34"/>
@@ -3977,8 +4068,8 @@
       </c>
       <c r="G59" s="22"/>
       <c r="H59" s="22">
-        <f ca="1">IF(G59, G59-D59, TODAY()-D59)</f>
-        <v>31</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
       </c>
       <c r="I59" s="22"/>
       <c r="J59" s="34"/>
@@ -4009,8 +4100,8 @@
       </c>
       <c r="G60" s="22"/>
       <c r="H60" s="22">
-        <f ca="1">IF(G60, G60-D60, TODAY()-D60)</f>
-        <v>31</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
       </c>
       <c r="I60" s="22"/>
       <c r="J60" s="34"/>
@@ -4020,33 +4111,33 @@
       <c r="N60" s="34"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="95">
+      <c r="A61" s="91">
         <v>19</v>
       </c>
-      <c r="B61" s="95" t="s">
+      <c r="B61" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="95" t="str">
+      <c r="C61" s="91" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D61" s="97">
+      <c r="D61" s="93">
         <v>43198</v>
       </c>
-      <c r="E61" s="95" t="s">
+      <c r="E61" s="91" t="s">
         <v>38</v>
       </c>
       <c r="F61" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="G61" s="97">
+      <c r="G61" s="93">
         <v>43223</v>
       </c>
-      <c r="H61" s="95">
-        <f ca="1">IF(G61, G61-D61, TODAY()-D61)</f>
+      <c r="H61" s="91">
+        <f t="shared" ca="1" si="1"/>
         <v>25</v>
       </c>
-      <c r="I61" s="95" t="s">
+      <c r="I61" s="91" t="s">
         <v>7</v>
       </c>
       <c r="J61" s="82"/>
@@ -4079,8 +4170,8 @@
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="65">
-        <f ca="1">IF(G62, G62-D62, TODAY()-D62)</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
       </c>
       <c r="I62" s="65"/>
       <c r="J62" s="4"/>
@@ -4113,8 +4204,8 @@
       </c>
       <c r="G63" s="66"/>
       <c r="H63" s="65">
-        <f ca="1">IF(G63, G63-D63, TODAY()-D63)</f>
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
       </c>
       <c r="I63" s="65"/>
       <c r="J63" s="82"/>
@@ -4124,68 +4215,68 @@
       <c r="N63" s="82"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="86">
+      <c r="A64" s="22">
         <v>21</v>
       </c>
-      <c r="B64" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="86" t="str">
+      <c r="B64" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="22" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D64" s="90">
+      <c r="D64" s="40">
         <v>43213</v>
       </c>
-      <c r="E64" s="86" t="s">
+      <c r="E64" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="86" t="s">
+      <c r="F64" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G64" s="86"/>
-      <c r="H64" s="86">
-        <f ca="1">IF(G64, G64-D64, TODAY()-D64)</f>
-        <v>16</v>
-      </c>
-      <c r="I64" s="86"/>
-      <c r="J64" s="89"/>
-      <c r="K64" s="89"/>
-      <c r="L64" s="89"/>
-      <c r="M64" s="89"/>
-      <c r="N64" s="89"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I64" s="22"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="87">
+      <c r="A65" s="20">
         <v>22</v>
       </c>
-      <c r="B65" s="87" t="s">
+      <c r="B65" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C65" s="87" t="str">
+      <c r="C65" s="20" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D65" s="88">
+      <c r="D65" s="38">
         <v>43213</v>
       </c>
-      <c r="E65" s="87" t="s">
+      <c r="E65" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F65" s="87" t="s">
+      <c r="F65" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G65" s="87"/>
-      <c r="H65" s="87">
-        <f ca="1">IF(G65, G65-D65, TODAY()-D65)</f>
-        <v>16</v>
-      </c>
-      <c r="I65" s="87"/>
-      <c r="J65" s="89"/>
-      <c r="K65" s="89"/>
-      <c r="L65" s="89"/>
-      <c r="M65" s="89"/>
-      <c r="N65" s="89"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I65" s="20"/>
+      <c r="J65" s="86"/>
+      <c r="K65" s="86"/>
+      <c r="L65" s="86"/>
+      <c r="M65" s="86"/>
+      <c r="N65" s="86"/>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="65">
@@ -4209,8 +4300,8 @@
       </c>
       <c r="G66" s="65"/>
       <c r="H66" s="65">
-        <f ca="1">IF(G66, G66-D66, TODAY()-D66)</f>
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
       </c>
       <c r="I66" s="65"/>
       <c r="J66" s="82"/>
@@ -4241,8 +4332,8 @@
       </c>
       <c r="G67" s="68"/>
       <c r="H67" s="68">
-        <f ca="1">IF(G67, G67-D67, TODAY()-D67)</f>
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
       </c>
       <c r="I67" s="68"/>
       <c r="J67" s="83"/>
@@ -4273,8 +4364,8 @@
       </c>
       <c r="G68" s="63"/>
       <c r="H68" s="63">
-        <f ca="1">IF(G68, G68-D68, TODAY()-D68)</f>
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="83"/>
@@ -4305,8 +4396,8 @@
       </c>
       <c r="G69" s="67"/>
       <c r="H69" s="67">
-        <f ca="1">IF(G69, G69-D69, TODAY()-D69)</f>
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
       </c>
       <c r="I69" s="67"/>
       <c r="J69" s="82"/>
@@ -4316,149 +4407,164 @@
       <c r="N69" s="82"/>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="68">
+      <c r="A70" s="65">
         <v>27</v>
       </c>
-      <c r="B70" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="30"/>
-      <c r="D70" s="108">
+      <c r="B70" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="65" t="str">
+        <f>$Q$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D70" s="42">
         <v>43219</v>
       </c>
-      <c r="E70" s="68" t="s">
+      <c r="E70" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="F70" s="84" t="s">
+      <c r="F70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G70" s="30"/>
-      <c r="H70" s="68">
-        <f ca="1">IF(G70, G70-D70, TODAY()-D70)</f>
-        <v>10</v>
-      </c>
-      <c r="I70" s="68"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="8"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I70" s="65"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="68">
+      <c r="A71" s="22">
         <v>28</v>
       </c>
-      <c r="B71" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="30"/>
-      <c r="D71" s="108">
+      <c r="B71" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="22" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D71" s="40">
         <v>43219</v>
       </c>
-      <c r="E71" s="68" t="s">
+      <c r="E71" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F71" s="84" t="s">
+      <c r="F71" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G71" s="30"/>
-      <c r="H71" s="68">
-        <f ca="1">IF(G71, G71-D71, TODAY()-D71)</f>
-        <v>10</v>
-      </c>
-      <c r="I71" s="68"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="8"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I71" s="22"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="68">
+      <c r="A72" s="22">
         <v>29</v>
       </c>
-      <c r="B72" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="30"/>
-      <c r="D72" s="108">
+      <c r="B72" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="22" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D72" s="40">
         <v>43219</v>
       </c>
-      <c r="E72" s="68" t="s">
+      <c r="E72" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F72" s="84" t="s">
+      <c r="F72" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G72" s="30"/>
-      <c r="H72" s="68">
-        <f ca="1">IF(G72, G72-D72, TODAY()-D72)</f>
-        <v>10</v>
-      </c>
-      <c r="I72" s="68"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="8"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I72" s="22"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="68">
+      <c r="A73" s="22">
         <v>30</v>
       </c>
-      <c r="B73" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="30"/>
-      <c r="D73" s="108">
+      <c r="B73" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="22" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D73" s="40">
         <v>43219</v>
       </c>
-      <c r="E73" s="68" t="s">
+      <c r="E73" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F73" s="84" t="s">
+      <c r="F73" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G73" s="30"/>
-      <c r="H73" s="68">
-        <f ca="1">IF(G73, G73-D73, TODAY()-D73)</f>
-        <v>10</v>
-      </c>
-      <c r="I73" s="68"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="8"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I73" s="22"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="63">
+      <c r="A74" s="67">
         <v>31</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="109">
+      <c r="C74" s="67" t="str">
+        <f>$Q$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D74" s="103">
         <v>43219</v>
       </c>
-      <c r="E74" s="63" t="s">
+      <c r="E74" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="F74" s="85" t="s">
+      <c r="F74" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G74" s="31"/>
-      <c r="H74" s="63">
-        <f ca="1">IF(G74, G74-D74, TODAY()-D74)</f>
-        <v>10</v>
-      </c>
-      <c r="I74" s="63"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="8"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="67">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I74" s="67"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="63">
@@ -4468,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="31"/>
-      <c r="D75" s="109">
+      <c r="D75" s="104">
         <v>43219</v>
       </c>
       <c r="E75" s="63" t="s">
@@ -4479,8 +4585,8 @@
       </c>
       <c r="G75" s="31"/>
       <c r="H75" s="63">
-        <f ca="1">IF(G75, G75-D75, TODAY()-D75)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
       </c>
       <c r="I75" s="63"/>
       <c r="J75" s="2"/>
@@ -4490,149 +4596,164 @@
       <c r="N75" s="8"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="63">
+      <c r="A76" s="67">
         <v>33</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C76" s="31"/>
-      <c r="D76" s="109">
+      <c r="C76" s="67" t="str">
+        <f>$Q$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D76" s="103">
         <v>43219</v>
       </c>
-      <c r="E76" s="63" t="s">
+      <c r="E76" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="F76" s="85" t="s">
+      <c r="F76" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G76" s="31"/>
-      <c r="H76" s="63">
-        <f ca="1">IF(G76, G76-D76, TODAY()-D76)</f>
-        <v>10</v>
-      </c>
-      <c r="I76" s="63"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="8"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="67">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I76" s="67"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="63">
+      <c r="A77" s="20">
         <v>34</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="109">
+      <c r="C77" s="20" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D77" s="38">
         <v>43219</v>
       </c>
-      <c r="E77" s="63" t="s">
+      <c r="E77" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F77" s="85" t="s">
+      <c r="F77" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G77" s="31"/>
-      <c r="H77" s="63">
-        <f ca="1">IF(G77, G77-D77, TODAY()-D77)</f>
-        <v>10</v>
-      </c>
-      <c r="I77" s="63"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="8"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="63">
+      <c r="A78" s="67">
         <v>35</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="109">
+      <c r="C78" s="67" t="str">
+        <f>$Q$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D78" s="103">
         <v>43219</v>
       </c>
-      <c r="E78" s="63" t="s">
+      <c r="E78" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="F78" s="85" t="s">
+      <c r="F78" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G78" s="31"/>
-      <c r="H78" s="63">
-        <f ca="1">IF(G78, G78-D78, TODAY()-D78)</f>
-        <v>10</v>
-      </c>
-      <c r="I78" s="63"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="8"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="67">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I78" s="67"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="68">
+      <c r="A79" s="22">
         <v>36</v>
       </c>
-      <c r="B79" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="30"/>
-      <c r="D79" s="108">
+      <c r="B79" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="22" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D79" s="40">
         <v>43220</v>
       </c>
-      <c r="E79" s="68" t="s">
+      <c r="E79" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F79" s="84" t="s">
+      <c r="F79" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G79" s="30"/>
-      <c r="H79" s="68">
-        <f ca="1">IF(G79, G79-D79, TODAY()-D79)</f>
-        <v>9</v>
-      </c>
-      <c r="I79" s="68"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="8"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I79" s="22"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="68">
+      <c r="A80" s="65">
         <v>37</v>
       </c>
-      <c r="B80" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="30"/>
-      <c r="D80" s="108">
+      <c r="B80" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="65" t="str">
+        <f>$Q$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D80" s="42">
         <v>43220</v>
       </c>
-      <c r="E80" s="68" t="s">
+      <c r="E80" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="F80" s="84" t="s">
+      <c r="F80" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G80" s="30"/>
-      <c r="H80" s="68">
-        <f ca="1">IF(G80, G80-D80, TODAY()-D80)</f>
-        <v>9</v>
-      </c>
-      <c r="I80" s="68"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="8"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I80" s="65"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="63">
@@ -4641,8 +4762,11 @@
       <c r="B81" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="109">
+      <c r="C81" s="67" t="str">
+        <f>$Q$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D81" s="104">
         <v>43220</v>
       </c>
       <c r="E81" s="63" t="s">
@@ -4653,8 +4777,8 @@
       </c>
       <c r="G81" s="31"/>
       <c r="H81" s="63">
-        <f ca="1">IF(G81, G81-D81, TODAY()-D81)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
       </c>
       <c r="I81" s="63"/>
       <c r="J81" s="2"/>
@@ -4664,28 +4788,31 @@
       <c r="N81" s="8"/>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="63">
+      <c r="A82" s="67">
         <v>39</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C82" s="31"/>
-      <c r="D82" s="109">
+      <c r="C82" s="67" t="str">
+        <f>$Q$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D82" s="103">
         <v>43220</v>
       </c>
-      <c r="E82" s="63" t="s">
+      <c r="E82" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="F82" s="85" t="s">
+      <c r="F82" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G82" s="31"/>
-      <c r="H82" s="63">
-        <f ca="1">IF(G82, G82-D82, TODAY()-D82)</f>
-        <v>9</v>
-      </c>
-      <c r="I82" s="63"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="67">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I82" s="67"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -4693,28 +4820,31 @@
       <c r="N82" s="8"/>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="63">
+      <c r="A83" s="20">
         <v>40</v>
       </c>
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="31"/>
-      <c r="D83" s="109">
+      <c r="C83" s="20" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D83" s="38">
         <v>43220</v>
       </c>
-      <c r="E83" s="63" t="s">
+      <c r="E83" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F83" s="85" t="s">
+      <c r="F83" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G83" s="31"/>
-      <c r="H83" s="63">
-        <f ca="1">IF(G83, G83-D83, TODAY()-D83)</f>
-        <v>9</v>
-      </c>
-      <c r="I83" s="63"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I83" s="20"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
@@ -4728,7 +4858,7 @@
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="O14:O15 H29:I30 E28:E30 E1:I20 E22:I22 E21:H21 E24:I25 E23:H23 E27:I27 E26:H26 H28 E48:H48 E31:I47 E49:I1048576 J1:N1048576 A1:D1048576">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="2" stopIfTrue="1">
       <formula>$C$2="Mut"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29660" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32060" windowHeight="18180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="137">
+  <cellStyleXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -863,7 +865,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="137">
+  <cellStyles count="139">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -932,6 +934,7 @@
     <cellStyle name="Lien hypertexte" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -1000,139 +1003,10 @@
     <cellStyle name="Lien hypertexte visité" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -1497,8 +1371,8 @@
   <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1581,7 +1455,7 @@
       <c r="G2" s="38"/>
       <c r="H2" s="39">
         <f t="shared" ref="H2:H30" ca="1" si="0">IF(G2, G2-D2, TODAY()-D2)</f>
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="21"/>
@@ -1635,7 +1509,7 @@
       <c r="G3" s="40"/>
       <c r="H3" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="21"/>
@@ -1653,7 +1527,7 @@
       </c>
       <c r="Q3" s="2">
         <f>COUNTIFS(B:B, "F",C:C, Q2)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R3" s="2">
         <f>COUNTIFS(B:B, "F",C:C,R2)</f>
@@ -1661,7 +1535,7 @@
       </c>
       <c r="S3" s="4">
         <f>SUM(Q3:R3)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T3" s="21">
         <f>COUNTIFS(B:B, "F",C:C,T2)</f>
@@ -1693,7 +1567,7 @@
       <c r="G4" s="38"/>
       <c r="H4" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I4" s="39"/>
       <c r="J4" s="21"/>
@@ -1751,7 +1625,7 @@
       <c r="G5" s="40"/>
       <c r="H5" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I5" s="41"/>
       <c r="J5" s="21"/>
@@ -1769,7 +1643,7 @@
       </c>
       <c r="Q5" s="4">
         <f>SUM(Q3:Q4)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R5" s="4">
         <f>SUM(R3:R4)</f>
@@ -1777,7 +1651,7 @@
       </c>
       <c r="S5" s="4">
         <f>SUM(S3:S4)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T5" s="37">
         <f>SUM(T3:T4)</f>
@@ -1929,7 +1803,7 @@
       </c>
       <c r="Q8" s="2">
         <f>COUNTIFS(B:B, "F",C:C, Q7,G:G,"")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R8" s="2">
         <f>COUNTIFS(B:B, "F",C:C,R7,G:G, "")</f>
@@ -1937,7 +1811,7 @@
       </c>
       <c r="S8" s="4">
         <f>SUM(Q8:R8)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T8" s="89"/>
     </row>
@@ -2043,7 +1917,7 @@
       </c>
       <c r="Q10" s="4">
         <f>SUM(Q8:Q9)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R10" s="4">
         <f>SUM(R8:R9)</f>
@@ -2051,7 +1925,7 @@
       </c>
       <c r="S10" s="4">
         <f>SUM(S8:S9)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T10" s="90"/>
     </row>
@@ -2343,7 +2217,7 @@
       <c r="G17" s="42"/>
       <c r="H17" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I17" s="43"/>
       <c r="J17" s="4"/>
@@ -2496,7 +2370,7 @@
       <c r="G20" s="38"/>
       <c r="H20" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="21"/>
@@ -2580,7 +2454,7 @@
       <c r="G22" s="38"/>
       <c r="H22" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="21"/>
@@ -2733,7 +2607,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="21"/>
@@ -2817,7 +2691,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I27" s="39"/>
       <c r="J27" s="21"/>
@@ -3378,7 +3252,7 @@
       <c r="G39" s="22"/>
       <c r="H39" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I39" s="41"/>
       <c r="J39" s="21"/>
@@ -3489,7 +3363,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I42" s="65"/>
       <c r="J42" s="4"/>
@@ -3523,7 +3397,7 @@
       <c r="G43" s="94"/>
       <c r="H43" s="96">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I43" s="96"/>
       <c r="J43" s="100"/>
@@ -3555,7 +3429,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I44" s="67"/>
       <c r="J44" s="7"/>
@@ -3589,7 +3463,7 @@
       <c r="G45" s="97"/>
       <c r="H45" s="99">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I45" s="99"/>
       <c r="J45" s="101"/>
@@ -3659,7 +3533,7 @@
       <c r="G47" s="20"/>
       <c r="H47" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I47" s="39"/>
       <c r="J47" s="34"/>
@@ -3769,7 +3643,7 @@
       <c r="G50" s="22"/>
       <c r="H50" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I50" s="22"/>
       <c r="J50" s="21"/>
@@ -3801,7 +3675,7 @@
       <c r="G51" s="22"/>
       <c r="H51" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I51" s="22"/>
       <c r="J51" s="21"/>
@@ -3871,7 +3745,7 @@
       <c r="G53" s="20"/>
       <c r="H53" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="21"/>
@@ -3903,7 +3777,7 @@
       <c r="G54" s="20"/>
       <c r="H54" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="21"/>
@@ -3935,7 +3809,7 @@
       <c r="G55" s="20"/>
       <c r="H55" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="21"/>
@@ -3967,7 +3841,7 @@
       <c r="G56" s="20"/>
       <c r="H56" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="21"/>
@@ -4037,7 +3911,7 @@
       <c r="G58" s="22"/>
       <c r="H58" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I58" s="22"/>
       <c r="J58" s="34"/>
@@ -4069,7 +3943,7 @@
       <c r="G59" s="22"/>
       <c r="H59" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I59" s="22"/>
       <c r="J59" s="34"/>
@@ -4101,7 +3975,7 @@
       <c r="G60" s="22"/>
       <c r="H60" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I60" s="22"/>
       <c r="J60" s="34"/>
@@ -4171,7 +4045,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I62" s="65"/>
       <c r="J62" s="4"/>
@@ -4205,7 +4079,7 @@
       <c r="G63" s="66"/>
       <c r="H63" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I63" s="65"/>
       <c r="J63" s="82"/>
@@ -4237,7 +4111,7 @@
       <c r="G64" s="22"/>
       <c r="H64" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I64" s="22"/>
       <c r="J64" s="34"/>
@@ -4269,7 +4143,7 @@
       <c r="G65" s="20"/>
       <c r="H65" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I65" s="20"/>
       <c r="J65" s="86"/>
@@ -4301,7 +4175,7 @@
       <c r="G66" s="65"/>
       <c r="H66" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I66" s="65"/>
       <c r="J66" s="82"/>
@@ -4333,7 +4207,7 @@
       <c r="G67" s="68"/>
       <c r="H67" s="68">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I67" s="68"/>
       <c r="J67" s="83"/>
@@ -4365,7 +4239,7 @@
       <c r="G68" s="63"/>
       <c r="H68" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="83"/>
@@ -4397,7 +4271,7 @@
       <c r="G69" s="67"/>
       <c r="H69" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I69" s="67"/>
       <c r="J69" s="82"/>
@@ -4429,7 +4303,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I70" s="65"/>
       <c r="J70" s="4"/>
@@ -4461,7 +4335,7 @@
       <c r="G71" s="22"/>
       <c r="H71" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I71" s="22"/>
       <c r="J71" s="21"/>
@@ -4493,7 +4367,7 @@
       <c r="G72" s="22"/>
       <c r="H72" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I72" s="22"/>
       <c r="J72" s="21"/>
@@ -4525,7 +4399,7 @@
       <c r="G73" s="22"/>
       <c r="H73" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I73" s="22"/>
       <c r="J73" s="21"/>
@@ -4557,7 +4431,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I74" s="67"/>
       <c r="J74" s="4"/>
@@ -4567,33 +4441,36 @@
       <c r="N74" s="4"/>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="63">
+      <c r="A75" s="67">
         <v>32</v>
       </c>
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="104">
+      <c r="C75" s="67" t="str">
+        <f>$Q$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D75" s="103">
         <v>43219</v>
       </c>
-      <c r="E75" s="63" t="s">
+      <c r="E75" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="F75" s="85" t="s">
+      <c r="F75" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G75" s="31"/>
-      <c r="H75" s="63">
+      <c r="G75" s="3"/>
+      <c r="H75" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="I75" s="63"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="I75" s="67"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="67">
@@ -4618,7 +4495,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I76" s="67"/>
       <c r="J76" s="4"/>
@@ -4650,7 +4527,7 @@
       <c r="G77" s="20"/>
       <c r="H77" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="21"/>
@@ -4682,7 +4559,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I78" s="67"/>
       <c r="J78" s="4"/>
@@ -4714,7 +4591,7 @@
       <c r="G79" s="22"/>
       <c r="H79" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I79" s="22"/>
       <c r="J79" s="21"/>
@@ -4746,7 +4623,7 @@
       <c r="G80" s="6"/>
       <c r="H80" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I80" s="65"/>
       <c r="J80" s="4"/>
@@ -4778,7 +4655,7 @@
       <c r="G81" s="31"/>
       <c r="H81" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I81" s="63"/>
       <c r="J81" s="2"/>
@@ -4810,7 +4687,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I82" s="67"/>
       <c r="J82" s="2"/>
@@ -4842,7 +4719,7 @@
       <c r="G83" s="20"/>
       <c r="H83" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I83" s="20"/>
       <c r="J83" s="2"/>
@@ -4858,7 +4735,7 @@
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="O14:O15 H29:I30 E28:E30 E1:I20 E22:I22 E21:H21 E24:I25 E23:H23 E27:I27 E26:H26 H28 E48:H48 E31:I47 E49:I1048576 J1:N1048576 A1:D1048576">
-    <cfRule type="expression" dxfId="11" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$C$2="Mut"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32060" windowHeight="18180" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="32060" windowHeight="18180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -568,7 +568,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -864,6 +864,9 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="139">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -1368,11 +1371,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84:N94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1455,7 +1458,7 @@
       <c r="G2" s="38"/>
       <c r="H2" s="39">
         <f t="shared" ref="H2:H30" ca="1" si="0">IF(G2, G2-D2, TODAY()-D2)</f>
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="21"/>
@@ -1509,7 +1512,7 @@
       <c r="G3" s="40"/>
       <c r="H3" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="21"/>
@@ -1567,7 +1570,7 @@
       <c r="G4" s="38"/>
       <c r="H4" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="I4" s="39"/>
       <c r="J4" s="21"/>
@@ -1625,7 +1628,7 @@
       <c r="G5" s="40"/>
       <c r="H5" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="I5" s="41"/>
       <c r="J5" s="21"/>
@@ -2217,7 +2220,7 @@
       <c r="G17" s="42"/>
       <c r="H17" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="I17" s="43"/>
       <c r="J17" s="4"/>
@@ -2370,7 +2373,7 @@
       <c r="G20" s="38"/>
       <c r="H20" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="21"/>
@@ -2454,7 +2457,7 @@
       <c r="G22" s="38"/>
       <c r="H22" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="21"/>
@@ -2607,7 +2610,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="21"/>
@@ -2691,7 +2694,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I27" s="39"/>
       <c r="J27" s="21"/>
@@ -3252,7 +3255,7 @@
       <c r="G39" s="22"/>
       <c r="H39" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I39" s="41"/>
       <c r="J39" s="21"/>
@@ -3363,7 +3366,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I42" s="65"/>
       <c r="J42" s="4"/>
@@ -3397,7 +3400,7 @@
       <c r="G43" s="94"/>
       <c r="H43" s="96">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I43" s="96"/>
       <c r="J43" s="100"/>
@@ -3429,7 +3432,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I44" s="67"/>
       <c r="J44" s="7"/>
@@ -3463,7 +3466,7 @@
       <c r="G45" s="97"/>
       <c r="H45" s="99">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I45" s="99"/>
       <c r="J45" s="101"/>
@@ -3533,7 +3536,7 @@
       <c r="G47" s="20"/>
       <c r="H47" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I47" s="39"/>
       <c r="J47" s="34"/>
@@ -3643,7 +3646,7 @@
       <c r="G50" s="22"/>
       <c r="H50" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I50" s="22"/>
       <c r="J50" s="21"/>
@@ -3675,7 +3678,7 @@
       <c r="G51" s="22"/>
       <c r="H51" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I51" s="22"/>
       <c r="J51" s="21"/>
@@ -3745,7 +3748,7 @@
       <c r="G53" s="20"/>
       <c r="H53" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="21"/>
@@ -3777,7 +3780,7 @@
       <c r="G54" s="20"/>
       <c r="H54" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="21"/>
@@ -3809,7 +3812,7 @@
       <c r="G55" s="20"/>
       <c r="H55" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="21"/>
@@ -3841,7 +3844,7 @@
       <c r="G56" s="20"/>
       <c r="H56" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="21"/>
@@ -3911,7 +3914,7 @@
       <c r="G58" s="22"/>
       <c r="H58" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I58" s="22"/>
       <c r="J58" s="34"/>
@@ -3943,7 +3946,7 @@
       <c r="G59" s="22"/>
       <c r="H59" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I59" s="22"/>
       <c r="J59" s="34"/>
@@ -3975,7 +3978,7 @@
       <c r="G60" s="22"/>
       <c r="H60" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I60" s="22"/>
       <c r="J60" s="34"/>
@@ -4045,7 +4048,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I62" s="65"/>
       <c r="J62" s="4"/>
@@ -4079,7 +4082,7 @@
       <c r="G63" s="66"/>
       <c r="H63" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I63" s="65"/>
       <c r="J63" s="82"/>
@@ -4111,7 +4114,7 @@
       <c r="G64" s="22"/>
       <c r="H64" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I64" s="22"/>
       <c r="J64" s="34"/>
@@ -4143,7 +4146,7 @@
       <c r="G65" s="20"/>
       <c r="H65" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I65" s="20"/>
       <c r="J65" s="86"/>
@@ -4175,7 +4178,7 @@
       <c r="G66" s="65"/>
       <c r="H66" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I66" s="65"/>
       <c r="J66" s="82"/>
@@ -4207,7 +4210,7 @@
       <c r="G67" s="68"/>
       <c r="H67" s="68">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I67" s="68"/>
       <c r="J67" s="83"/>
@@ -4239,7 +4242,7 @@
       <c r="G68" s="63"/>
       <c r="H68" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="83"/>
@@ -4271,7 +4274,7 @@
       <c r="G69" s="67"/>
       <c r="H69" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I69" s="67"/>
       <c r="J69" s="82"/>
@@ -4303,7 +4306,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I70" s="65"/>
       <c r="J70" s="4"/>
@@ -4335,7 +4338,7 @@
       <c r="G71" s="22"/>
       <c r="H71" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I71" s="22"/>
       <c r="J71" s="21"/>
@@ -4367,7 +4370,7 @@
       <c r="G72" s="22"/>
       <c r="H72" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I72" s="22"/>
       <c r="J72" s="21"/>
@@ -4399,7 +4402,7 @@
       <c r="G73" s="22"/>
       <c r="H73" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I73" s="22"/>
       <c r="J73" s="21"/>
@@ -4431,7 +4434,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I74" s="67"/>
       <c r="J74" s="4"/>
@@ -4463,7 +4466,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I75" s="67"/>
       <c r="J75" s="4"/>
@@ -4495,7 +4498,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I76" s="67"/>
       <c r="J76" s="4"/>
@@ -4527,7 +4530,7 @@
       <c r="G77" s="20"/>
       <c r="H77" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="21"/>
@@ -4559,7 +4562,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I78" s="67"/>
       <c r="J78" s="4"/>
@@ -4591,7 +4594,7 @@
       <c r="G79" s="22"/>
       <c r="H79" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I79" s="22"/>
       <c r="J79" s="21"/>
@@ -4623,7 +4626,7 @@
       <c r="G80" s="6"/>
       <c r="H80" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I80" s="65"/>
       <c r="J80" s="4"/>
@@ -4655,7 +4658,7 @@
       <c r="G81" s="31"/>
       <c r="H81" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I81" s="63"/>
       <c r="J81" s="2"/>
@@ -4687,7 +4690,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I82" s="67"/>
       <c r="J82" s="2"/>
@@ -4719,7 +4722,7 @@
       <c r="G83" s="20"/>
       <c r="H83" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I83" s="20"/>
       <c r="J83" s="2"/>
@@ -4727,6 +4730,182 @@
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="8"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="105"/>
+      <c r="B84" s="105"/>
+      <c r="C84" s="105"/>
+      <c r="D84" s="105"/>
+      <c r="E84" s="106"/>
+      <c r="F84" s="105"/>
+      <c r="G84" s="105"/>
+      <c r="H84" s="106"/>
+      <c r="I84" s="106"/>
+      <c r="J84" s="105"/>
+      <c r="K84" s="105"/>
+      <c r="L84" s="105"/>
+      <c r="M84" s="105"/>
+      <c r="N84" s="107"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="105"/>
+      <c r="B85" s="105"/>
+      <c r="C85" s="105"/>
+      <c r="D85" s="105"/>
+      <c r="E85" s="106"/>
+      <c r="F85" s="105"/>
+      <c r="G85" s="105"/>
+      <c r="H85" s="106"/>
+      <c r="I85" s="106"/>
+      <c r="J85" s="105"/>
+      <c r="K85" s="105"/>
+      <c r="L85" s="105"/>
+      <c r="M85" s="105"/>
+      <c r="N85" s="107"/>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="105"/>
+      <c r="B86" s="105"/>
+      <c r="C86" s="105"/>
+      <c r="D86" s="105"/>
+      <c r="E86" s="106"/>
+      <c r="F86" s="105"/>
+      <c r="G86" s="105"/>
+      <c r="H86" s="106"/>
+      <c r="I86" s="106"/>
+      <c r="J86" s="105"/>
+      <c r="K86" s="105"/>
+      <c r="L86" s="105"/>
+      <c r="M86" s="105"/>
+      <c r="N86" s="107"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="105"/>
+      <c r="B87" s="105"/>
+      <c r="C87" s="105"/>
+      <c r="D87" s="105"/>
+      <c r="E87" s="106"/>
+      <c r="F87" s="105"/>
+      <c r="G87" s="105"/>
+      <c r="H87" s="106"/>
+      <c r="I87" s="106"/>
+      <c r="J87" s="105"/>
+      <c r="K87" s="105"/>
+      <c r="L87" s="105"/>
+      <c r="M87" s="105"/>
+      <c r="N87" s="107"/>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="105"/>
+      <c r="B88" s="105"/>
+      <c r="C88" s="105"/>
+      <c r="D88" s="105"/>
+      <c r="E88" s="106"/>
+      <c r="F88" s="105"/>
+      <c r="G88" s="105"/>
+      <c r="H88" s="106"/>
+      <c r="I88" s="106"/>
+      <c r="J88" s="105"/>
+      <c r="K88" s="105"/>
+      <c r="L88" s="105"/>
+      <c r="M88" s="105"/>
+      <c r="N88" s="107"/>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="105"/>
+      <c r="B89" s="105"/>
+      <c r="C89" s="105"/>
+      <c r="D89" s="105"/>
+      <c r="E89" s="106"/>
+      <c r="F89" s="105"/>
+      <c r="G89" s="105"/>
+      <c r="H89" s="106"/>
+      <c r="I89" s="106"/>
+      <c r="J89" s="105"/>
+      <c r="K89" s="105"/>
+      <c r="L89" s="105"/>
+      <c r="M89" s="105"/>
+      <c r="N89" s="107"/>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="105"/>
+      <c r="B90" s="105"/>
+      <c r="C90" s="105"/>
+      <c r="D90" s="105"/>
+      <c r="E90" s="106"/>
+      <c r="F90" s="105"/>
+      <c r="G90" s="105"/>
+      <c r="H90" s="106"/>
+      <c r="I90" s="106"/>
+      <c r="J90" s="105"/>
+      <c r="K90" s="105"/>
+      <c r="L90" s="105"/>
+      <c r="M90" s="105"/>
+      <c r="N90" s="107"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="105"/>
+      <c r="B91" s="105"/>
+      <c r="C91" s="105"/>
+      <c r="D91" s="105"/>
+      <c r="E91" s="106"/>
+      <c r="F91" s="105"/>
+      <c r="G91" s="105"/>
+      <c r="H91" s="106"/>
+      <c r="I91" s="106"/>
+      <c r="J91" s="105"/>
+      <c r="K91" s="105"/>
+      <c r="L91" s="105"/>
+      <c r="M91" s="105"/>
+      <c r="N91" s="107"/>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="105"/>
+      <c r="B92" s="105"/>
+      <c r="C92" s="105"/>
+      <c r="D92" s="105"/>
+      <c r="E92" s="106"/>
+      <c r="F92" s="105"/>
+      <c r="G92" s="105"/>
+      <c r="H92" s="106"/>
+      <c r="I92" s="106"/>
+      <c r="J92" s="105"/>
+      <c r="K92" s="105"/>
+      <c r="L92" s="105"/>
+      <c r="M92" s="105"/>
+      <c r="N92" s="107"/>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="105"/>
+      <c r="B93" s="105"/>
+      <c r="C93" s="105"/>
+      <c r="D93" s="105"/>
+      <c r="E93" s="106"/>
+      <c r="F93" s="105"/>
+      <c r="G93" s="105"/>
+      <c r="H93" s="106"/>
+      <c r="I93" s="106"/>
+      <c r="J93" s="105"/>
+      <c r="K93" s="105"/>
+      <c r="L93" s="105"/>
+      <c r="M93" s="105"/>
+      <c r="N93" s="107"/>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="105"/>
+      <c r="B94" s="105"/>
+      <c r="C94" s="105"/>
+      <c r="D94" s="105"/>
+      <c r="E94" s="106"/>
+      <c r="F94" s="105"/>
+      <c r="G94" s="105"/>
+      <c r="H94" s="106"/>
+      <c r="I94" s="106"/>
+      <c r="J94" s="105"/>
+      <c r="K94" s="105"/>
+      <c r="L94" s="105"/>
+      <c r="M94" s="105"/>
+      <c r="N94" s="107"/>
     </row>
   </sheetData>
   <sortState ref="A2:N85">

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="32060" windowHeight="18180" tabRatio="500"/>
+    <workbookView xWindow="3420" yWindow="160" windowWidth="32060" windowHeight="18180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="57">
   <si>
     <t>F</t>
   </si>
@@ -196,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -326,6 +326,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -377,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -426,8 +433,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="139">
+  <cellStyleXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -567,8 +583,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -864,11 +892,71 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="139">
+  <cellStyles count="151">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -938,6 +1026,12 @@
     <cellStyle name="Lien hypertexte" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -1007,9 +1101,171 @@
     <cellStyle name="Lien hypertexte visité" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1371,11 +1627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V94"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84:N94"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1458,7 +1714,7 @@
       <c r="G2" s="38"/>
       <c r="H2" s="39">
         <f t="shared" ref="H2:H30" ca="1" si="0">IF(G2, G2-D2, TODAY()-D2)</f>
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="21"/>
@@ -1512,7 +1768,7 @@
       <c r="G3" s="40"/>
       <c r="H3" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="21"/>
@@ -1534,15 +1790,15 @@
       </c>
       <c r="R3" s="2">
         <f>COUNTIFS(B:B, "F",C:C,R2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S3" s="4">
         <f>SUM(Q3:R3)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T3" s="21">
         <f>COUNTIFS(B:B, "F",C:C,T2)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
@@ -1570,7 +1826,7 @@
       <c r="G4" s="38"/>
       <c r="H4" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I4" s="39"/>
       <c r="J4" s="21"/>
@@ -1588,19 +1844,19 @@
       </c>
       <c r="Q4" s="2">
         <f>COUNTIFS(B:B, "M",C:C, Q2)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R4" s="2">
         <f>COUNTIFS(B:B, "M",C:C,R2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S4" s="4">
         <f>SUM(Q4:R4)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T4" s="21">
         <f>COUNTIFS(B:B, "M",C:C, T2)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
@@ -1628,7 +1884,7 @@
       <c r="G5" s="40"/>
       <c r="H5" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I5" s="41"/>
       <c r="J5" s="21"/>
@@ -1646,19 +1902,19 @@
       </c>
       <c r="Q5" s="4">
         <f>SUM(Q3:Q4)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R5" s="4">
         <f>SUM(R3:R4)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S5" s="4">
         <f>SUM(S3:S4)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T5" s="37">
         <f>SUM(T3:T4)</f>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
@@ -1810,11 +2066,11 @@
       </c>
       <c r="R8" s="2">
         <f>COUNTIFS(B:B, "F",C:C,R7,G:G, "")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S8" s="4">
         <f>SUM(Q8:R8)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T8" s="89"/>
     </row>
@@ -1863,7 +2119,7 @@
       </c>
       <c r="Q9" s="2">
         <f>COUNTIFS(B:B, "M",C:C, Q7,G:G,"")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R9" s="2">
         <f>COUNTIFS(B:B, "M",C:C,R7,G:G,"")</f>
@@ -1871,7 +2127,7 @@
       </c>
       <c r="S9" s="4">
         <f>SUM(Q9:R9)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T9" s="89"/>
     </row>
@@ -1920,11 +2176,11 @@
       </c>
       <c r="Q10" s="4">
         <f>SUM(Q8:Q9)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R10" s="4">
         <f>SUM(R8:R9)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S10" s="4">
         <f>SUM(S8:S9)</f>
@@ -2017,7 +2273,7 @@
       </c>
       <c r="Q12" s="12">
         <f ca="1">IF(H:H="E", "", AVERAGEIF(G:G,"&lt;&gt;",H:H))</f>
-        <v>37.068965517241381</v>
+        <v>37.3125</v>
       </c>
       <c r="R12" s="87"/>
     </row>
@@ -2105,7 +2361,7 @@
       </c>
       <c r="Q14" s="8">
         <f>COUNTIF(A:A, "&lt;&gt;")-1</f>
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -2220,7 +2476,7 @@
       <c r="G17" s="42"/>
       <c r="H17" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I17" s="43"/>
       <c r="J17" s="4"/>
@@ -2373,7 +2629,7 @@
       <c r="G20" s="38"/>
       <c r="H20" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="21"/>
@@ -2457,7 +2713,7 @@
       <c r="G22" s="38"/>
       <c r="H22" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="21"/>
@@ -2610,7 +2866,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="21"/>
@@ -2694,7 +2950,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I27" s="39"/>
       <c r="J27" s="21"/>
@@ -3218,7 +3474,7 @@
         <v>43201</v>
       </c>
       <c r="H38" s="47">
-        <f t="shared" ref="H38:H83" ca="1" si="1">IF(G38, G38-D38, TODAY()-D38)</f>
+        <f t="shared" ref="H38:H93" ca="1" si="1">IF(G38, G38-D38, TODAY()-D38)</f>
         <v>33</v>
       </c>
       <c r="I38" s="47" t="s">
@@ -3255,7 +3511,7 @@
       <c r="G39" s="22"/>
       <c r="H39" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I39" s="41"/>
       <c r="J39" s="21"/>
@@ -3366,7 +3622,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I42" s="65"/>
       <c r="J42" s="4"/>
@@ -3400,7 +3656,7 @@
       <c r="G43" s="94"/>
       <c r="H43" s="96">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I43" s="96"/>
       <c r="J43" s="100"/>
@@ -3432,7 +3688,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I44" s="67"/>
       <c r="J44" s="7"/>
@@ -3463,10 +3719,12 @@
       <c r="F45" s="98">
         <v>43229</v>
       </c>
-      <c r="G45" s="97"/>
+      <c r="G45" s="98">
+        <v>43244</v>
+      </c>
       <c r="H45" s="99">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I45" s="99"/>
       <c r="J45" s="101"/>
@@ -3536,7 +3794,7 @@
       <c r="G47" s="20"/>
       <c r="H47" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I47" s="39"/>
       <c r="J47" s="34"/>
@@ -3646,7 +3904,7 @@
       <c r="G50" s="22"/>
       <c r="H50" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" s="22"/>
       <c r="J50" s="21"/>
@@ -3678,7 +3936,7 @@
       <c r="G51" s="22"/>
       <c r="H51" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" s="22"/>
       <c r="J51" s="21"/>
@@ -3748,7 +4006,7 @@
       <c r="G53" s="20"/>
       <c r="H53" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="21"/>
@@ -3780,7 +4038,7 @@
       <c r="G54" s="20"/>
       <c r="H54" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="21"/>
@@ -3812,7 +4070,7 @@
       <c r="G55" s="20"/>
       <c r="H55" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="21"/>
@@ -3844,7 +4102,7 @@
       <c r="G56" s="20"/>
       <c r="H56" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="21"/>
@@ -3914,7 +4172,7 @@
       <c r="G58" s="22"/>
       <c r="H58" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I58" s="22"/>
       <c r="J58" s="34"/>
@@ -3946,7 +4204,7 @@
       <c r="G59" s="22"/>
       <c r="H59" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I59" s="22"/>
       <c r="J59" s="34"/>
@@ -3978,7 +4236,7 @@
       <c r="G60" s="22"/>
       <c r="H60" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I60" s="22"/>
       <c r="J60" s="34"/>
@@ -4048,7 +4306,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I62" s="65"/>
       <c r="J62" s="4"/>
@@ -4082,7 +4340,7 @@
       <c r="G63" s="66"/>
       <c r="H63" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I63" s="65"/>
       <c r="J63" s="82"/>
@@ -4114,7 +4372,7 @@
       <c r="G64" s="22"/>
       <c r="H64" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I64" s="22"/>
       <c r="J64" s="34"/>
@@ -4146,7 +4404,7 @@
       <c r="G65" s="20"/>
       <c r="H65" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I65" s="20"/>
       <c r="J65" s="86"/>
@@ -4178,7 +4436,7 @@
       <c r="G66" s="65"/>
       <c r="H66" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I66" s="65"/>
       <c r="J66" s="82"/>
@@ -4207,10 +4465,12 @@
       <c r="F67" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="G67" s="68"/>
+      <c r="G67" s="69">
+        <v>43244</v>
+      </c>
       <c r="H67" s="68">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I67" s="68"/>
       <c r="J67" s="83"/>
@@ -4239,10 +4499,12 @@
       <c r="F68" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="G68" s="63"/>
+      <c r="G68" s="70">
+        <v>43244</v>
+      </c>
       <c r="H68" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I68" s="63"/>
       <c r="J68" s="83"/>
@@ -4274,7 +4536,7 @@
       <c r="G69" s="67"/>
       <c r="H69" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I69" s="67"/>
       <c r="J69" s="82"/>
@@ -4306,7 +4568,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I70" s="65"/>
       <c r="J70" s="4"/>
@@ -4338,7 +4600,7 @@
       <c r="G71" s="22"/>
       <c r="H71" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I71" s="22"/>
       <c r="J71" s="21"/>
@@ -4370,7 +4632,7 @@
       <c r="G72" s="22"/>
       <c r="H72" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I72" s="22"/>
       <c r="J72" s="21"/>
@@ -4402,7 +4664,7 @@
       <c r="G73" s="22"/>
       <c r="H73" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I73" s="22"/>
       <c r="J73" s="21"/>
@@ -4434,7 +4696,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I74" s="67"/>
       <c r="J74" s="4"/>
@@ -4466,7 +4728,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I75" s="67"/>
       <c r="J75" s="4"/>
@@ -4498,7 +4760,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I76" s="67"/>
       <c r="J76" s="4"/>
@@ -4530,7 +4792,7 @@
       <c r="G77" s="20"/>
       <c r="H77" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="21"/>
@@ -4562,7 +4824,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I78" s="67"/>
       <c r="J78" s="4"/>
@@ -4594,7 +4856,7 @@
       <c r="G79" s="22"/>
       <c r="H79" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I79" s="22"/>
       <c r="J79" s="21"/>
@@ -4626,7 +4888,7 @@
       <c r="G80" s="6"/>
       <c r="H80" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I80" s="65"/>
       <c r="J80" s="4"/>
@@ -4658,7 +4920,7 @@
       <c r="G81" s="31"/>
       <c r="H81" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I81" s="63"/>
       <c r="J81" s="2"/>
@@ -4690,7 +4952,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I82" s="67"/>
       <c r="J82" s="2"/>
@@ -4722,7 +4984,7 @@
       <c r="G83" s="20"/>
       <c r="H83" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I83" s="20"/>
       <c r="J83" s="2"/>
@@ -4732,180 +4994,356 @@
       <c r="N83" s="8"/>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="105"/>
-      <c r="B84" s="105"/>
-      <c r="C84" s="105"/>
-      <c r="D84" s="105"/>
-      <c r="E84" s="106"/>
-      <c r="F84" s="105"/>
-      <c r="G84" s="105"/>
-      <c r="H84" s="106"/>
-      <c r="I84" s="106"/>
-      <c r="J84" s="105"/>
-      <c r="K84" s="105"/>
-      <c r="L84" s="105"/>
-      <c r="M84" s="105"/>
-      <c r="N84" s="107"/>
+      <c r="A84" s="123">
+        <v>42</v>
+      </c>
+      <c r="B84" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="120" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D84" s="124">
+        <v>43233</v>
+      </c>
+      <c r="E84" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" s="123"/>
+      <c r="H84" s="123">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I84" s="123"/>
+      <c r="J84" s="121"/>
+      <c r="K84" s="121"/>
+      <c r="L84" s="121"/>
+      <c r="M84" s="121"/>
+      <c r="N84" s="121"/>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="105"/>
-      <c r="B85" s="105"/>
-      <c r="C85" s="105"/>
-      <c r="D85" s="105"/>
-      <c r="E85" s="106"/>
-      <c r="F85" s="105"/>
-      <c r="G85" s="105"/>
-      <c r="H85" s="106"/>
-      <c r="I85" s="106"/>
-      <c r="J85" s="105"/>
-      <c r="K85" s="105"/>
-      <c r="L85" s="105"/>
-      <c r="M85" s="105"/>
-      <c r="N85" s="107"/>
+      <c r="A85" s="123">
+        <v>43</v>
+      </c>
+      <c r="B85" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="120" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D85" s="124">
+        <v>43233</v>
+      </c>
+      <c r="E85" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="G85" s="123"/>
+      <c r="H85" s="123">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I85" s="123"/>
+      <c r="J85" s="121"/>
+      <c r="K85" s="121"/>
+      <c r="L85" s="121"/>
+      <c r="M85" s="121"/>
+      <c r="N85" s="121"/>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="105"/>
-      <c r="B86" s="105"/>
-      <c r="C86" s="105"/>
-      <c r="D86" s="105"/>
-      <c r="E86" s="106"/>
-      <c r="F86" s="105"/>
-      <c r="G86" s="105"/>
-      <c r="H86" s="106"/>
-      <c r="I86" s="106"/>
-      <c r="J86" s="105"/>
-      <c r="K86" s="105"/>
-      <c r="L86" s="105"/>
-      <c r="M86" s="105"/>
-      <c r="N86" s="107"/>
+      <c r="A86" s="123">
+        <v>44</v>
+      </c>
+      <c r="B86" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="120" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D86" s="124">
+        <v>43233</v>
+      </c>
+      <c r="E86" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" s="123"/>
+      <c r="H86" s="123">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I86" s="123"/>
+      <c r="J86" s="121"/>
+      <c r="K86" s="121"/>
+      <c r="L86" s="121"/>
+      <c r="M86" s="121"/>
+      <c r="N86" s="121"/>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="105"/>
-      <c r="B87" s="105"/>
-      <c r="C87" s="105"/>
-      <c r="D87" s="105"/>
-      <c r="E87" s="106"/>
-      <c r="F87" s="105"/>
-      <c r="G87" s="105"/>
-      <c r="H87" s="106"/>
-      <c r="I87" s="106"/>
+      <c r="A87" s="110">
+        <v>45</v>
+      </c>
+      <c r="B87" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="30" t="str">
+        <f>$R$2</f>
+        <v>WT</v>
+      </c>
+      <c r="D87" s="115">
+        <v>43233</v>
+      </c>
+      <c r="E87" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" s="110" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="110"/>
+      <c r="H87" s="111">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I87" s="111"/>
       <c r="J87" s="105"/>
       <c r="K87" s="105"/>
       <c r="L87" s="105"/>
       <c r="M87" s="105"/>
-      <c r="N87" s="107"/>
+      <c r="N87" s="106"/>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="105"/>
-      <c r="B88" s="105"/>
-      <c r="C88" s="105"/>
-      <c r="D88" s="105"/>
-      <c r="E88" s="106"/>
-      <c r="F88" s="105"/>
-      <c r="G88" s="105"/>
-      <c r="H88" s="106"/>
-      <c r="I88" s="106"/>
-      <c r="J88" s="105"/>
-      <c r="K88" s="105"/>
-      <c r="L88" s="105"/>
-      <c r="M88" s="105"/>
-      <c r="N88" s="107"/>
+      <c r="A88" s="123">
+        <v>46</v>
+      </c>
+      <c r="B88" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="120" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D88" s="124">
+        <v>43233</v>
+      </c>
+      <c r="E88" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="123"/>
+      <c r="H88" s="123">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I88" s="123"/>
+      <c r="J88" s="121"/>
+      <c r="K88" s="121"/>
+      <c r="L88" s="121"/>
+      <c r="M88" s="121"/>
+      <c r="N88" s="121"/>
     </row>
     <row r="89" spans="1:14">
-      <c r="A89" s="105"/>
-      <c r="B89" s="105"/>
-      <c r="C89" s="105"/>
-      <c r="D89" s="105"/>
-      <c r="E89" s="106"/>
-      <c r="F89" s="105"/>
-      <c r="G89" s="105"/>
-      <c r="H89" s="106"/>
-      <c r="I89" s="106"/>
-      <c r="J89" s="105"/>
-      <c r="K89" s="105"/>
-      <c r="L89" s="105"/>
-      <c r="M89" s="105"/>
-      <c r="N89" s="107"/>
+      <c r="A89" s="94">
+        <v>47</v>
+      </c>
+      <c r="B89" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="65" t="str">
+        <f>$Q$2</f>
+        <v>Mut</v>
+      </c>
+      <c r="D89" s="95">
+        <v>43233</v>
+      </c>
+      <c r="E89" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="F89" s="94" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="94"/>
+      <c r="H89" s="96">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I89" s="96"/>
+      <c r="J89" s="125"/>
+      <c r="K89" s="125"/>
+      <c r="L89" s="125"/>
+      <c r="M89" s="125"/>
+      <c r="N89" s="125"/>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="105"/>
-      <c r="B90" s="105"/>
-      <c r="C90" s="105"/>
-      <c r="D90" s="105"/>
-      <c r="E90" s="106"/>
-      <c r="F90" s="105"/>
-      <c r="G90" s="105"/>
-      <c r="H90" s="106"/>
-      <c r="I90" s="106"/>
+      <c r="A90" s="97">
+        <v>48</v>
+      </c>
+      <c r="B90" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="97" t="str">
+        <f>$R$2</f>
+        <v>WT</v>
+      </c>
+      <c r="D90" s="98">
+        <v>43233</v>
+      </c>
+      <c r="E90" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="F90" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" s="97"/>
+      <c r="H90" s="99">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I90" s="99"/>
       <c r="J90" s="105"/>
       <c r="K90" s="105"/>
       <c r="L90" s="105"/>
       <c r="M90" s="105"/>
-      <c r="N90" s="107"/>
+      <c r="N90" s="106"/>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="105"/>
-      <c r="B91" s="105"/>
-      <c r="C91" s="105"/>
-      <c r="D91" s="105"/>
-      <c r="E91" s="106"/>
-      <c r="F91" s="105"/>
-      <c r="G91" s="105"/>
-      <c r="H91" s="106"/>
-      <c r="I91" s="106"/>
-      <c r="J91" s="105"/>
-      <c r="K91" s="105"/>
-      <c r="L91" s="105"/>
-      <c r="M91" s="105"/>
-      <c r="N91" s="107"/>
+      <c r="A91" s="116">
+        <v>49</v>
+      </c>
+      <c r="B91" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="117" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D91" s="118">
+        <v>43233</v>
+      </c>
+      <c r="E91" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" s="116"/>
+      <c r="H91" s="116">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I91" s="116"/>
+      <c r="J91" s="121"/>
+      <c r="K91" s="121"/>
+      <c r="L91" s="121"/>
+      <c r="M91" s="121"/>
+      <c r="N91" s="121"/>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="105"/>
-      <c r="B92" s="105"/>
-      <c r="C92" s="105"/>
-      <c r="D92" s="105"/>
-      <c r="E92" s="106"/>
-      <c r="F92" s="105"/>
-      <c r="G92" s="105"/>
-      <c r="H92" s="106"/>
-      <c r="I92" s="106"/>
-      <c r="J92" s="105"/>
-      <c r="K92" s="105"/>
-      <c r="L92" s="105"/>
-      <c r="M92" s="105"/>
-      <c r="N92" s="107"/>
+      <c r="A92" s="116">
+        <v>50</v>
+      </c>
+      <c r="B92" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="117" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D92" s="118">
+        <v>43233</v>
+      </c>
+      <c r="E92" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="G92" s="116"/>
+      <c r="H92" s="116">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I92" s="116"/>
+      <c r="J92" s="121"/>
+      <c r="K92" s="121"/>
+      <c r="L92" s="121"/>
+      <c r="M92" s="121"/>
+      <c r="N92" s="121"/>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="105"/>
-      <c r="B93" s="105"/>
-      <c r="C93" s="105"/>
-      <c r="D93" s="105"/>
-      <c r="E93" s="106"/>
-      <c r="F93" s="105"/>
-      <c r="G93" s="105"/>
-      <c r="H93" s="106"/>
-      <c r="I93" s="106"/>
-      <c r="J93" s="105"/>
-      <c r="K93" s="105"/>
-      <c r="L93" s="105"/>
-      <c r="M93" s="105"/>
-      <c r="N93" s="107"/>
+      <c r="A93" s="119">
+        <v>51</v>
+      </c>
+      <c r="B93" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="117" t="str">
+        <f>$T$2</f>
+        <v>Het</v>
+      </c>
+      <c r="D93" s="118">
+        <v>43233</v>
+      </c>
+      <c r="E93" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="F93" s="119" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" s="119"/>
+      <c r="H93" s="119">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I93" s="119"/>
+      <c r="J93" s="122"/>
+      <c r="K93" s="122"/>
+      <c r="L93" s="122"/>
+      <c r="M93" s="122"/>
+      <c r="N93" s="122"/>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="105"/>
-      <c r="B94" s="105"/>
-      <c r="C94" s="105"/>
-      <c r="D94" s="105"/>
-      <c r="E94" s="106"/>
-      <c r="F94" s="105"/>
-      <c r="G94" s="105"/>
-      <c r="H94" s="106"/>
-      <c r="I94" s="106"/>
-      <c r="J94" s="105"/>
-      <c r="K94" s="105"/>
-      <c r="L94" s="105"/>
-      <c r="M94" s="105"/>
-      <c r="N94" s="107"/>
+      <c r="A94" s="112"/>
+      <c r="B94" s="112"/>
+      <c r="C94" s="112"/>
+      <c r="D94" s="112"/>
+      <c r="E94" s="113"/>
+      <c r="F94" s="112"/>
+      <c r="G94" s="112"/>
+      <c r="H94" s="113"/>
+      <c r="I94" s="113"/>
+      <c r="J94" s="112"/>
+      <c r="K94" s="112"/>
+      <c r="L94" s="112"/>
+      <c r="M94" s="112"/>
+      <c r="N94" s="114"/>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="107"/>
+      <c r="B95" s="107"/>
+      <c r="C95" s="107"/>
+      <c r="D95" s="107"/>
+      <c r="E95" s="108"/>
+      <c r="F95" s="107"/>
+      <c r="G95" s="107"/>
+      <c r="H95" s="108"/>
+      <c r="I95" s="108"/>
+      <c r="J95" s="107"/>
+      <c r="K95" s="107"/>
+      <c r="L95" s="107"/>
+      <c r="M95" s="107"/>
+      <c r="N95" s="109"/>
     </row>
   </sheetData>
   <sortState ref="A2:N85">
@@ -4913,8 +5351,13 @@
     <sortCondition ref="A2:A85"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="O14:O15 H29:I30 E28:E30 E1:I20 E22:I22 E21:H21 E24:I25 E23:H23 E27:I27 E26:H26 H28 E48:H48 E31:I47 E49:I1048576 J1:N1048576 A1:D1048576">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="O14:O15 H29:I30 E28:E30 E1:I20 E22:I22 E21:H21 E24:I25 E23:H23 E27:I27 E26:H26 H28 E48:H48 E31:I47 J1:N1048576 E49:I1048576 A1:D83 A84:B84 D84 A85:D1048576">
+    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
+      <formula>$C$2="Mut"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>$C$2="Mut"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -596,7 +596,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -781,15 +781,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -827,9 +818,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,6 +941,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1109,163 +1106,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -1630,8 +1471,8 @@
   <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1714,7 +1555,7 @@
       <c r="G2" s="38"/>
       <c r="H2" s="39">
         <f t="shared" ref="H2:H30" ca="1" si="0">IF(G2, G2-D2, TODAY()-D2)</f>
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="21"/>
@@ -1768,7 +1609,7 @@
       <c r="G3" s="40"/>
       <c r="H3" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="21"/>
@@ -1826,7 +1667,7 @@
       <c r="G4" s="38"/>
       <c r="H4" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I4" s="39"/>
       <c r="J4" s="21"/>
@@ -1884,7 +1725,7 @@
       <c r="G5" s="40"/>
       <c r="H5" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I5" s="41"/>
       <c r="J5" s="21"/>
@@ -1920,13 +1761,13 @@
       <c r="V5" s="16"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="77">
+      <c r="A6" s="74">
         <v>435</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="77" t="str">
+      <c r="C6" s="74" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
@@ -1963,13 +1804,13 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="76">
+      <c r="A7" s="73">
         <v>437</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="76" t="str">
+      <c r="C7" s="73" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
@@ -2013,16 +1854,16 @@
       <c r="S7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="88"/>
+      <c r="T7" s="84"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="77">
+      <c r="A8" s="74">
         <v>439</v>
       </c>
-      <c r="B8" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="77" t="str">
+      <c r="B8" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="74" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
@@ -2072,16 +1913,16 @@
         <f>SUM(Q8:R8)</f>
         <v>9</v>
       </c>
-      <c r="T8" s="89"/>
+      <c r="T8" s="85"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="76">
+      <c r="A9" s="73">
         <v>440</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="76" t="str">
+      <c r="C9" s="73" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
@@ -2129,16 +1970,16 @@
         <f>SUM(Q9:R9)</f>
         <v>10</v>
       </c>
-      <c r="T9" s="89"/>
+      <c r="T9" s="85"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="78">
+      <c r="A10" s="75">
         <v>441</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="76" t="str">
+      <c r="C10" s="73" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
@@ -2186,16 +2027,16 @@
         <f>SUM(S8:S9)</f>
         <v>19</v>
       </c>
-      <c r="T10" s="90"/>
+      <c r="T10" s="86"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="79">
+      <c r="A11" s="76">
         <v>442</v>
       </c>
-      <c r="B11" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="77" t="str">
+      <c r="B11" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="74" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
@@ -2230,13 +2071,13 @@
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="77">
+      <c r="A12" s="74">
         <v>443</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="77" t="str">
+      <c r="C12" s="74" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
@@ -2275,22 +2116,22 @@
         <f ca="1">IF(H:H="E", "", AVERAGEIF(G:G,"&lt;&gt;",H:H))</f>
         <v>37.3125</v>
       </c>
-      <c r="R12" s="87"/>
+      <c r="R12" s="83"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="76">
+      <c r="A13" s="73">
         <v>101</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="73" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="48">
         <v>43130</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="68" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="48">
@@ -2318,19 +2159,19 @@
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="76">
+      <c r="A14" s="73">
         <v>102</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="73" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="48">
         <v>43130</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="68" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="48">
@@ -2365,19 +2206,19 @@
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="76">
+      <c r="A15" s="73">
         <v>103</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="73" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="48">
         <v>43130</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="68" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="48">
@@ -2405,19 +2246,19 @@
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="76">
+      <c r="A16" s="73">
         <v>104</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="73" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="48">
         <v>43130</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="68" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="48">
@@ -2476,7 +2317,7 @@
       <c r="G17" s="42"/>
       <c r="H17" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I17" s="43"/>
       <c r="J17" s="4"/>
@@ -2501,13 +2342,13 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="77">
+      <c r="A18" s="74">
         <v>445</v>
       </c>
-      <c r="B18" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="77" t="str">
+      <c r="B18" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="74" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
@@ -2554,13 +2395,13 @@
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="77">
+      <c r="A19" s="74">
         <v>448</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="77" t="str">
+      <c r="C19" s="74" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
@@ -2629,7 +2470,7 @@
       <c r="G20" s="38"/>
       <c r="H20" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="21"/>
@@ -2641,13 +2482,13 @@
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="76">
+      <c r="A21" s="73">
         <v>450</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="76" t="str">
+      <c r="C21" s="73" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
@@ -2667,7 +2508,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
-      <c r="I21" s="92" t="s">
+      <c r="I21" s="88" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="8"/>
@@ -2713,7 +2554,7 @@
       <c r="G22" s="38"/>
       <c r="H22" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="21"/>
@@ -2740,13 +2581,13 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="76">
+      <c r="A23" s="73">
         <v>455</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="76" t="str">
+      <c r="C23" s="73" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
@@ -2766,7 +2607,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="I23" s="92" t="s">
+      <c r="I23" s="88" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="8"/>
@@ -2793,13 +2634,13 @@
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="77">
+      <c r="A24" s="74">
         <v>457</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="77" t="str">
+      <c r="C24" s="74" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
@@ -2866,7 +2707,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="21"/>
@@ -2878,23 +2719,23 @@
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="75">
+      <c r="A26" s="72">
         <v>2</v>
       </c>
-      <c r="B26" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="75" t="str">
+      <c r="B26" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="72" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
       <c r="D26" s="54">
         <v>43150</v>
       </c>
-      <c r="E26" s="75" t="s">
+      <c r="E26" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="75" t="s">
+      <c r="F26" s="72" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="54">
@@ -2904,7 +2745,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
-      <c r="I26" s="92" t="s">
+      <c r="I26" s="88" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="2" t="s">
@@ -2950,7 +2791,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I27" s="39"/>
       <c r="J27" s="21"/>
@@ -2977,19 +2818,19 @@
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="71">
+      <c r="A28" s="68">
         <v>105</v>
       </c>
-      <c r="B28" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="71" t="s">
+      <c r="B28" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="68" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="55">
         <v>43150</v>
       </c>
-      <c r="E28" s="71" t="s">
+      <c r="E28" s="68" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="55">
@@ -3002,7 +2843,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
-      <c r="I28" s="92" t="s">
+      <c r="I28" s="88" t="s">
         <v>7</v>
       </c>
       <c r="J28" s="10"/>
@@ -3031,19 +2872,19 @@
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="71">
+      <c r="A29" s="68">
         <v>106</v>
       </c>
-      <c r="B29" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="71" t="s">
+      <c r="B29" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="68" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="55">
         <v>43150</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="68" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="55">
@@ -3085,19 +2926,19 @@
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="71">
+      <c r="A30" s="68">
         <v>107</v>
       </c>
-      <c r="B30" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="71" t="s">
+      <c r="B30" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="68" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="55">
         <v>43150</v>
       </c>
-      <c r="E30" s="71" t="s">
+      <c r="E30" s="68" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="55">
@@ -3127,10 +2968,10 @@
       <c r="A31" s="57">
         <v>201</v>
       </c>
-      <c r="B31" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="72" t="str">
+      <c r="B31" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="69" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
@@ -3176,10 +3017,10 @@
       <c r="A32" s="59">
         <v>202</v>
       </c>
-      <c r="B32" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="73" t="str">
+      <c r="B32" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="70" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
@@ -3228,10 +3069,10 @@
       <c r="A33" s="59">
         <v>203</v>
       </c>
-      <c r="B33" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="73" t="str">
+      <c r="B33" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="70" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
@@ -3280,10 +3121,10 @@
       <c r="A34" s="59">
         <v>204</v>
       </c>
-      <c r="B34" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="73" t="str">
+      <c r="B34" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="70" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
@@ -3332,10 +3173,10 @@
       <c r="A35" s="61">
         <v>205</v>
       </c>
-      <c r="B35" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="74" t="str">
+      <c r="B35" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="71" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
@@ -3369,10 +3210,10 @@
       <c r="A36" s="59">
         <v>206</v>
       </c>
-      <c r="B36" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="73" t="str">
+      <c r="B36" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="70" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
@@ -3417,10 +3258,10 @@
       <c r="A37" s="57">
         <v>207</v>
       </c>
-      <c r="B37" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="72" t="str">
+      <c r="B37" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="69" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
@@ -3451,23 +3292,23 @@
       </c>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="75">
+      <c r="A38" s="72">
         <v>4</v>
       </c>
-      <c r="B38" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="75" t="str">
+      <c r="B38" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="72" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
       <c r="D38" s="54">
         <v>43168</v>
       </c>
-      <c r="E38" s="75" t="s">
+      <c r="E38" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="75" t="s">
+      <c r="F38" s="72" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="54">
@@ -3511,7 +3352,7 @@
       <c r="G39" s="22"/>
       <c r="H39" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I39" s="41"/>
       <c r="J39" s="21"/>
@@ -3523,20 +3364,20 @@
       </c>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="77">
+      <c r="A40" s="74">
         <v>459</v>
       </c>
-      <c r="B40" s="77" t="s">
+      <c r="B40" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="91" t="str">
+      <c r="C40" s="87" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D40" s="46">
         <v>43177</v>
       </c>
-      <c r="E40" s="91" t="s">
+      <c r="E40" s="87" t="s">
         <v>19</v>
       </c>
       <c r="F40" s="46">
@@ -3562,20 +3403,20 @@
       <c r="P40" s="62"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="75">
+      <c r="A41" s="72">
         <v>460</v>
       </c>
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="75" t="str">
+      <c r="C41" s="72" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
       <c r="D41" s="54">
         <v>43177</v>
       </c>
-      <c r="E41" s="71" t="s">
+      <c r="E41" s="68" t="s">
         <v>19</v>
       </c>
       <c r="F41" s="54">
@@ -3622,7 +3463,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I42" s="65"/>
       <c r="J42" s="4"/>
@@ -3637,33 +3478,33 @@
       <c r="A43" s="65">
         <v>465</v>
       </c>
-      <c r="B43" s="94" t="s">
+      <c r="B43" s="90" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="65" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D43" s="95">
+      <c r="D43" s="91">
         <v>43187</v>
       </c>
-      <c r="E43" s="96" t="s">
+      <c r="E43" s="92" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="42">
         <v>43229</v>
       </c>
-      <c r="G43" s="94"/>
-      <c r="H43" s="96">
-        <f t="shared" ca="1" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="I43" s="96"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="100"/>
-      <c r="N43" s="100"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="92">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="I43" s="92"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="96"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="67">
@@ -3676,19 +3517,19 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D44" s="81">
+      <c r="D44" s="78">
         <v>43187</v>
       </c>
       <c r="E44" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="103">
+      <c r="F44" s="99">
         <v>43229</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I44" s="67"/>
       <c r="J44" s="7"/>
@@ -3700,60 +3541,60 @@
       </c>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="63">
-        <v>467</v>
-      </c>
-      <c r="B45" s="97" t="s">
+      <c r="A45" s="68">
         <v>0</v>
       </c>
-      <c r="C45" s="31" t="str">
+      <c r="B45" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="72" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D45" s="98">
+      <c r="D45" s="123">
         <v>43187</v>
       </c>
-      <c r="E45" s="99" t="s">
+      <c r="E45" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="98">
+      <c r="F45" s="123">
         <v>43229</v>
       </c>
-      <c r="G45" s="98">
+      <c r="G45" s="123">
         <v>43244</v>
       </c>
-      <c r="H45" s="99">
+      <c r="H45" s="124">
         <f t="shared" ca="1" si="1"/>
         <v>57</v>
       </c>
-      <c r="I45" s="99"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="101"/>
-      <c r="M45" s="101"/>
-      <c r="N45" s="102"/>
+      <c r="I45" s="124"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="98"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="91">
+      <c r="A46" s="87">
         <v>6</v>
       </c>
-      <c r="B46" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="91" t="str">
+      <c r="B46" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="87" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D46" s="93">
+      <c r="D46" s="89">
         <v>43191</v>
       </c>
-      <c r="E46" s="91" t="s">
+      <c r="E46" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" s="93">
+      <c r="F46" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="89">
         <v>43223</v>
       </c>
       <c r="H46" s="47">
@@ -3794,7 +3635,7 @@
       <c r="G47" s="20"/>
       <c r="H47" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I47" s="39"/>
       <c r="J47" s="34"/>
@@ -3804,19 +3645,19 @@
       <c r="N47" s="34"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="71">
+      <c r="A48" s="68">
         <v>108</v>
       </c>
-      <c r="B48" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="71" t="s">
+      <c r="B48" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="68" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="55">
         <v>43193</v>
       </c>
-      <c r="E48" s="71" t="s">
+      <c r="E48" s="68" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="55">
@@ -3825,37 +3666,37 @@
       <c r="G48" s="55">
         <v>43223</v>
       </c>
-      <c r="H48" s="71">
+      <c r="H48" s="68">
         <f t="shared" ca="1" si="1"/>
         <v>30</v>
       </c>
-      <c r="I48" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="M48" s="83"/>
-      <c r="N48" s="83" t="s">
+      <c r="I48" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="80"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" s="80"/>
+      <c r="N48" s="80" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="71">
+      <c r="A49" s="68">
         <v>109</v>
       </c>
-      <c r="B49" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="71" t="s">
+      <c r="B49" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="68" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="55">
         <v>43193</v>
       </c>
-      <c r="E49" s="71" t="s">
+      <c r="E49" s="68" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="55">
@@ -3864,20 +3705,20 @@
       <c r="G49" s="55">
         <v>43223</v>
       </c>
-      <c r="H49" s="71">
+      <c r="H49" s="68">
         <f t="shared" ca="1" si="1"/>
         <v>30</v>
       </c>
-      <c r="I49" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="J49" s="83"/>
-      <c r="K49" s="83"/>
-      <c r="L49" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="M49" s="83"/>
-      <c r="N49" s="83" t="s">
+      <c r="I49" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="M49" s="80"/>
+      <c r="N49" s="80" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3904,7 +3745,7 @@
       <c r="G50" s="22"/>
       <c r="H50" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" s="22"/>
       <c r="J50" s="21"/>
@@ -3936,7 +3777,7 @@
       <c r="G51" s="22"/>
       <c r="H51" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" s="22"/>
       <c r="J51" s="21"/>
@@ -3946,33 +3787,33 @@
       <c r="N51" s="21"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="77">
+      <c r="A52" s="74">
         <v>10</v>
       </c>
-      <c r="B52" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="91" t="str">
+      <c r="B52" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="87" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D52" s="46">
         <v>43196</v>
       </c>
-      <c r="E52" s="91" t="s">
+      <c r="E52" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="77" t="s">
+      <c r="F52" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G52" s="46">
         <v>43203</v>
       </c>
-      <c r="H52" s="91">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="I52" s="92" t="s">
+      <c r="H52" s="87">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I52" s="88" t="s">
         <v>53</v>
       </c>
       <c r="J52" s="4"/>
@@ -4006,7 +3847,7 @@
       <c r="G53" s="20"/>
       <c r="H53" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="21"/>
@@ -4038,7 +3879,7 @@
       <c r="G54" s="20"/>
       <c r="H54" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="21"/>
@@ -4070,7 +3911,7 @@
       <c r="G55" s="20"/>
       <c r="H55" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="21"/>
@@ -4102,7 +3943,7 @@
       <c r="G56" s="20"/>
       <c r="H56" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="21"/>
@@ -4112,33 +3953,33 @@
       <c r="N56" s="21"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="77">
+      <c r="A57" s="74">
         <v>15</v>
       </c>
-      <c r="B57" s="77" t="s">
+      <c r="B57" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="91" t="str">
+      <c r="C57" s="87" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
       <c r="D57" s="46">
         <v>43196</v>
       </c>
-      <c r="E57" s="71" t="s">
+      <c r="E57" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F57" s="77" t="s">
+      <c r="F57" s="74" t="s">
         <v>31</v>
       </c>
       <c r="G57" s="46">
         <v>43223</v>
       </c>
-      <c r="H57" s="91">
+      <c r="H57" s="87">
         <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
-      <c r="I57" s="91" t="s">
+      <c r="I57" s="87" t="s">
         <v>7</v>
       </c>
       <c r="J57" s="4"/>
@@ -4172,7 +4013,7 @@
       <c r="G58" s="22"/>
       <c r="H58" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I58" s="22"/>
       <c r="J58" s="34"/>
@@ -4204,7 +4045,7 @@
       <c r="G59" s="22"/>
       <c r="H59" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I59" s="22"/>
       <c r="J59" s="34"/>
@@ -4236,7 +4077,7 @@
       <c r="G60" s="22"/>
       <c r="H60" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I60" s="22"/>
       <c r="J60" s="34"/>
@@ -4246,42 +4087,42 @@
       <c r="N60" s="34"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="91">
+      <c r="A61" s="87">
         <v>19</v>
       </c>
-      <c r="B61" s="91" t="s">
+      <c r="B61" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="91" t="str">
+      <c r="C61" s="87" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D61" s="93">
+      <c r="D61" s="89">
         <v>43198</v>
       </c>
-      <c r="E61" s="91" t="s">
+      <c r="E61" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="G61" s="93">
+      <c r="F61" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="89">
         <v>43223</v>
       </c>
-      <c r="H61" s="91">
+      <c r="H61" s="87">
         <f t="shared" ca="1" si="1"/>
         <v>25</v>
       </c>
-      <c r="I61" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="J61" s="82"/>
-      <c r="K61" s="82"/>
-      <c r="L61" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="M61" s="82"/>
-      <c r="N61" s="82"/>
+      <c r="I61" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61" s="79"/>
+      <c r="K61" s="79"/>
+      <c r="L61" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="M61" s="79"/>
+      <c r="N61" s="79"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="65">
@@ -4306,7 +4147,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I62" s="65"/>
       <c r="J62" s="4"/>
@@ -4340,14 +4181,14 @@
       <c r="G63" s="66"/>
       <c r="H63" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I63" s="65"/>
-      <c r="J63" s="82"/>
-      <c r="K63" s="82"/>
-      <c r="L63" s="82"/>
-      <c r="M63" s="82"/>
-      <c r="N63" s="82"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="79"/>
+      <c r="L63" s="79"/>
+      <c r="M63" s="79"/>
+      <c r="N63" s="79"/>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="22">
@@ -4372,7 +4213,7 @@
       <c r="G64" s="22"/>
       <c r="H64" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I64" s="22"/>
       <c r="J64" s="34"/>
@@ -4404,14 +4245,14 @@
       <c r="G65" s="20"/>
       <c r="H65" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I65" s="20"/>
-      <c r="J65" s="86"/>
-      <c r="K65" s="86"/>
-      <c r="L65" s="86"/>
-      <c r="M65" s="86"/>
-      <c r="N65" s="86"/>
+      <c r="J65" s="82"/>
+      <c r="K65" s="82"/>
+      <c r="L65" s="82"/>
+      <c r="M65" s="82"/>
+      <c r="N65" s="82"/>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="65">
@@ -4436,14 +4277,14 @@
       <c r="G66" s="65"/>
       <c r="H66" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I66" s="65"/>
-      <c r="J66" s="82"/>
-      <c r="K66" s="82"/>
-      <c r="L66" s="82"/>
-      <c r="M66" s="82"/>
-      <c r="N66" s="82"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="79"/>
+      <c r="L66" s="79"/>
+      <c r="M66" s="79"/>
+      <c r="N66" s="79"/>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="68">
@@ -4452,20 +4293,20 @@
       <c r="B67" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="30" t="str">
+      <c r="C67" s="72" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D67" s="69">
+      <c r="D67" s="55">
         <v>43213</v>
       </c>
       <c r="E67" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F67" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" s="69">
+      <c r="F67" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="55">
         <v>43244</v>
       </c>
       <c r="H67" s="68">
@@ -4473,45 +4314,45 @@
         <v>31</v>
       </c>
       <c r="I67" s="68"/>
-      <c r="J67" s="83"/>
-      <c r="K67" s="83"/>
-      <c r="L67" s="83"/>
-      <c r="M67" s="83"/>
-      <c r="N67" s="83"/>
+      <c r="J67" s="80"/>
+      <c r="K67" s="80"/>
+      <c r="L67" s="80"/>
+      <c r="M67" s="80"/>
+      <c r="N67" s="80"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="63">
+      <c r="A68" s="68">
         <v>25</v>
       </c>
-      <c r="B68" s="63" t="s">
+      <c r="B68" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="31" t="str">
+      <c r="C68" s="72" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D68" s="70">
+      <c r="D68" s="55">
         <v>43213</v>
       </c>
-      <c r="E68" s="63" t="s">
+      <c r="E68" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F68" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="G68" s="70">
+      <c r="F68" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="55">
         <v>43244</v>
       </c>
-      <c r="H68" s="63">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="I68" s="63"/>
-      <c r="J68" s="83"/>
-      <c r="K68" s="83"/>
-      <c r="L68" s="83"/>
-      <c r="M68" s="83"/>
-      <c r="N68" s="83"/>
+      <c r="H68" s="68">
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I68" s="68"/>
+      <c r="J68" s="80"/>
+      <c r="K68" s="80"/>
+      <c r="L68" s="80"/>
+      <c r="M68" s="80"/>
+      <c r="N68" s="80"/>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="67">
@@ -4524,7 +4365,7 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D69" s="81">
+      <c r="D69" s="78">
         <v>43213</v>
       </c>
       <c r="E69" s="67" t="s">
@@ -4536,14 +4377,14 @@
       <c r="G69" s="67"/>
       <c r="H69" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I69" s="67"/>
-      <c r="J69" s="82"/>
-      <c r="K69" s="82"/>
-      <c r="L69" s="82"/>
-      <c r="M69" s="82"/>
-      <c r="N69" s="82"/>
+      <c r="J69" s="79"/>
+      <c r="K69" s="79"/>
+      <c r="L69" s="79"/>
+      <c r="M69" s="79"/>
+      <c r="N69" s="79"/>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="65">
@@ -4568,7 +4409,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I70" s="65"/>
       <c r="J70" s="4"/>
@@ -4600,7 +4441,7 @@
       <c r="G71" s="22"/>
       <c r="H71" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I71" s="22"/>
       <c r="J71" s="21"/>
@@ -4632,7 +4473,7 @@
       <c r="G72" s="22"/>
       <c r="H72" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I72" s="22"/>
       <c r="J72" s="21"/>
@@ -4664,7 +4505,7 @@
       <c r="G73" s="22"/>
       <c r="H73" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I73" s="22"/>
       <c r="J73" s="21"/>
@@ -4684,7 +4525,7 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D74" s="103">
+      <c r="D74" s="99">
         <v>43219</v>
       </c>
       <c r="E74" s="67" t="s">
@@ -4696,7 +4537,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I74" s="67"/>
       <c r="J74" s="4"/>
@@ -4716,7 +4557,7 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D75" s="103">
+      <c r="D75" s="99">
         <v>43219</v>
       </c>
       <c r="E75" s="67" t="s">
@@ -4728,7 +4569,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I75" s="67"/>
       <c r="J75" s="4"/>
@@ -4748,7 +4589,7 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D76" s="103">
+      <c r="D76" s="99">
         <v>43219</v>
       </c>
       <c r="E76" s="67" t="s">
@@ -4760,7 +4601,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I76" s="67"/>
       <c r="J76" s="4"/>
@@ -4792,7 +4633,7 @@
       <c r="G77" s="20"/>
       <c r="H77" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="21"/>
@@ -4812,7 +4653,7 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D78" s="103">
+      <c r="D78" s="99">
         <v>43219</v>
       </c>
       <c r="E78" s="67" t="s">
@@ -4824,7 +4665,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I78" s="67"/>
       <c r="J78" s="4"/>
@@ -4856,7 +4697,7 @@
       <c r="G79" s="22"/>
       <c r="H79" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I79" s="22"/>
       <c r="J79" s="21"/>
@@ -4888,7 +4729,7 @@
       <c r="G80" s="6"/>
       <c r="H80" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I80" s="65"/>
       <c r="J80" s="4"/>
@@ -4908,19 +4749,19 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D81" s="104">
+      <c r="D81" s="100">
         <v>43220</v>
       </c>
       <c r="E81" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F81" s="85" t="s">
+      <c r="F81" s="81" t="s">
         <v>31</v>
       </c>
       <c r="G81" s="31"/>
       <c r="H81" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I81" s="63"/>
       <c r="J81" s="2"/>
@@ -4940,7 +4781,7 @@
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D82" s="103">
+      <c r="D82" s="99">
         <v>43220</v>
       </c>
       <c r="E82" s="67" t="s">
@@ -4952,7 +4793,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I82" s="67"/>
       <c r="J82" s="2"/>
@@ -4984,7 +4825,7 @@
       <c r="G83" s="20"/>
       <c r="H83" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I83" s="20"/>
       <c r="J83" s="2"/>
@@ -4994,356 +4835,356 @@
       <c r="N83" s="8"/>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="123">
+      <c r="A84" s="119">
         <v>42</v>
       </c>
-      <c r="B84" s="123" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="120" t="str">
+      <c r="B84" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="116" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D84" s="124">
+      <c r="D84" s="120">
         <v>43233</v>
       </c>
-      <c r="E84" s="123" t="s">
+      <c r="E84" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="F84" s="123" t="s">
-        <v>31</v>
-      </c>
-      <c r="G84" s="123"/>
-      <c r="H84" s="123">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I84" s="123"/>
-      <c r="J84" s="121"/>
-      <c r="K84" s="121"/>
-      <c r="L84" s="121"/>
-      <c r="M84" s="121"/>
-      <c r="N84" s="121"/>
+      <c r="F84" s="119" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" s="119"/>
+      <c r="H84" s="119">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I84" s="119"/>
+      <c r="J84" s="117"/>
+      <c r="K84" s="117"/>
+      <c r="L84" s="117"/>
+      <c r="M84" s="117"/>
+      <c r="N84" s="117"/>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="123">
+      <c r="A85" s="119">
         <v>43</v>
       </c>
-      <c r="B85" s="123" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="120" t="str">
+      <c r="B85" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="116" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D85" s="124">
+      <c r="D85" s="120">
         <v>43233</v>
       </c>
-      <c r="E85" s="123" t="s">
+      <c r="E85" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="F85" s="123" t="s">
-        <v>31</v>
-      </c>
-      <c r="G85" s="123"/>
-      <c r="H85" s="123">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I85" s="123"/>
-      <c r="J85" s="121"/>
-      <c r="K85" s="121"/>
-      <c r="L85" s="121"/>
-      <c r="M85" s="121"/>
-      <c r="N85" s="121"/>
+      <c r="F85" s="119" t="s">
+        <v>31</v>
+      </c>
+      <c r="G85" s="119"/>
+      <c r="H85" s="119">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I85" s="119"/>
+      <c r="J85" s="117"/>
+      <c r="K85" s="117"/>
+      <c r="L85" s="117"/>
+      <c r="M85" s="117"/>
+      <c r="N85" s="117"/>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="123">
+      <c r="A86" s="119">
         <v>44</v>
       </c>
-      <c r="B86" s="123" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="120" t="str">
+      <c r="B86" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="116" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D86" s="124">
+      <c r="D86" s="120">
         <v>43233</v>
       </c>
-      <c r="E86" s="123" t="s">
+      <c r="E86" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="F86" s="123" t="s">
-        <v>31</v>
-      </c>
-      <c r="G86" s="123"/>
-      <c r="H86" s="123">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I86" s="123"/>
-      <c r="J86" s="121"/>
-      <c r="K86" s="121"/>
-      <c r="L86" s="121"/>
-      <c r="M86" s="121"/>
-      <c r="N86" s="121"/>
+      <c r="F86" s="119" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" s="119"/>
+      <c r="H86" s="119">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I86" s="119"/>
+      <c r="J86" s="117"/>
+      <c r="K86" s="117"/>
+      <c r="L86" s="117"/>
+      <c r="M86" s="117"/>
+      <c r="N86" s="117"/>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="110">
+      <c r="A87" s="106">
         <v>45</v>
       </c>
-      <c r="B87" s="110" t="s">
+      <c r="B87" s="106" t="s">
         <v>1</v>
       </c>
       <c r="C87" s="30" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D87" s="115">
+      <c r="D87" s="111">
         <v>43233</v>
       </c>
-      <c r="E87" s="111" t="s">
+      <c r="E87" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="F87" s="110" t="s">
-        <v>31</v>
-      </c>
-      <c r="G87" s="110"/>
-      <c r="H87" s="111">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I87" s="111"/>
-      <c r="J87" s="105"/>
-      <c r="K87" s="105"/>
-      <c r="L87" s="105"/>
-      <c r="M87" s="105"/>
-      <c r="N87" s="106"/>
+      <c r="F87" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="106"/>
+      <c r="H87" s="107">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I87" s="107"/>
+      <c r="J87" s="101"/>
+      <c r="K87" s="101"/>
+      <c r="L87" s="101"/>
+      <c r="M87" s="101"/>
+      <c r="N87" s="102"/>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="123">
+      <c r="A88" s="119">
         <v>46</v>
       </c>
-      <c r="B88" s="123" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="120" t="str">
+      <c r="B88" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="116" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D88" s="124">
+      <c r="D88" s="120">
         <v>43233</v>
       </c>
-      <c r="E88" s="123" t="s">
+      <c r="E88" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="F88" s="123" t="s">
-        <v>31</v>
-      </c>
-      <c r="G88" s="123"/>
-      <c r="H88" s="123">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I88" s="123"/>
-      <c r="J88" s="121"/>
-      <c r="K88" s="121"/>
-      <c r="L88" s="121"/>
-      <c r="M88" s="121"/>
-      <c r="N88" s="121"/>
+      <c r="F88" s="119" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="119"/>
+      <c r="H88" s="119">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I88" s="119"/>
+      <c r="J88" s="117"/>
+      <c r="K88" s="117"/>
+      <c r="L88" s="117"/>
+      <c r="M88" s="117"/>
+      <c r="N88" s="117"/>
     </row>
     <row r="89" spans="1:14">
-      <c r="A89" s="94">
+      <c r="A89" s="90">
         <v>47</v>
       </c>
-      <c r="B89" s="94" t="s">
+      <c r="B89" s="90" t="s">
         <v>1</v>
       </c>
       <c r="C89" s="65" t="str">
         <f>$Q$2</f>
         <v>Mut</v>
       </c>
-      <c r="D89" s="95">
+      <c r="D89" s="91">
         <v>43233</v>
       </c>
-      <c r="E89" s="96" t="s">
+      <c r="E89" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="F89" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="G89" s="94"/>
-      <c r="H89" s="96">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I89" s="96"/>
-      <c r="J89" s="125"/>
-      <c r="K89" s="125"/>
-      <c r="L89" s="125"/>
-      <c r="M89" s="125"/>
-      <c r="N89" s="125"/>
+      <c r="F89" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="90"/>
+      <c r="H89" s="92">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I89" s="92"/>
+      <c r="J89" s="121"/>
+      <c r="K89" s="121"/>
+      <c r="L89" s="121"/>
+      <c r="M89" s="121"/>
+      <c r="N89" s="121"/>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="97">
+      <c r="A90" s="93">
         <v>48</v>
       </c>
-      <c r="B90" s="97" t="s">
+      <c r="B90" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="97" t="str">
+      <c r="C90" s="93" t="str">
         <f>$R$2</f>
         <v>WT</v>
       </c>
-      <c r="D90" s="98">
+      <c r="D90" s="94">
         <v>43233</v>
       </c>
-      <c r="E90" s="99" t="s">
+      <c r="E90" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="F90" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="G90" s="97"/>
-      <c r="H90" s="99">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I90" s="99"/>
-      <c r="J90" s="105"/>
-      <c r="K90" s="105"/>
-      <c r="L90" s="105"/>
-      <c r="M90" s="105"/>
-      <c r="N90" s="106"/>
+      <c r="F90" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" s="93"/>
+      <c r="H90" s="95">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I90" s="95"/>
+      <c r="J90" s="101"/>
+      <c r="K90" s="101"/>
+      <c r="L90" s="101"/>
+      <c r="M90" s="101"/>
+      <c r="N90" s="102"/>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="116">
+      <c r="A91" s="112">
         <v>49</v>
       </c>
-      <c r="B91" s="116" t="s">
+      <c r="B91" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="C91" s="117" t="str">
+      <c r="C91" s="113" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D91" s="118">
+      <c r="D91" s="114">
         <v>43233</v>
       </c>
-      <c r="E91" s="116" t="s">
+      <c r="E91" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="F91" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="G91" s="116"/>
-      <c r="H91" s="116">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I91" s="116"/>
-      <c r="J91" s="121"/>
-      <c r="K91" s="121"/>
-      <c r="L91" s="121"/>
-      <c r="M91" s="121"/>
-      <c r="N91" s="121"/>
+      <c r="F91" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" s="112"/>
+      <c r="H91" s="112">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I91" s="112"/>
+      <c r="J91" s="117"/>
+      <c r="K91" s="117"/>
+      <c r="L91" s="117"/>
+      <c r="M91" s="117"/>
+      <c r="N91" s="117"/>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="116">
+      <c r="A92" s="112">
         <v>50</v>
       </c>
-      <c r="B92" s="116" t="s">
+      <c r="B92" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="117" t="str">
+      <c r="C92" s="113" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D92" s="118">
+      <c r="D92" s="114">
         <v>43233</v>
       </c>
-      <c r="E92" s="116" t="s">
+      <c r="E92" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="F92" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="G92" s="116"/>
-      <c r="H92" s="116">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I92" s="116"/>
-      <c r="J92" s="121"/>
-      <c r="K92" s="121"/>
-      <c r="L92" s="121"/>
-      <c r="M92" s="121"/>
-      <c r="N92" s="121"/>
+      <c r="F92" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="G92" s="112"/>
+      <c r="H92" s="112">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I92" s="112"/>
+      <c r="J92" s="117"/>
+      <c r="K92" s="117"/>
+      <c r="L92" s="117"/>
+      <c r="M92" s="117"/>
+      <c r="N92" s="117"/>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="119">
+      <c r="A93" s="115">
         <v>51</v>
       </c>
-      <c r="B93" s="119" t="s">
+      <c r="B93" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="117" t="str">
+      <c r="C93" s="113" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D93" s="118">
+      <c r="D93" s="114">
         <v>43233</v>
       </c>
-      <c r="E93" s="116" t="s">
+      <c r="E93" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="F93" s="119" t="s">
-        <v>31</v>
-      </c>
-      <c r="G93" s="119"/>
-      <c r="H93" s="119">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I93" s="119"/>
-      <c r="J93" s="122"/>
-      <c r="K93" s="122"/>
-      <c r="L93" s="122"/>
-      <c r="M93" s="122"/>
-      <c r="N93" s="122"/>
+      <c r="F93" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" s="115"/>
+      <c r="H93" s="115">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I93" s="115"/>
+      <c r="J93" s="118"/>
+      <c r="K93" s="118"/>
+      <c r="L93" s="118"/>
+      <c r="M93" s="118"/>
+      <c r="N93" s="118"/>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="112"/>
-      <c r="B94" s="112"/>
-      <c r="C94" s="112"/>
-      <c r="D94" s="112"/>
-      <c r="E94" s="113"/>
-      <c r="F94" s="112"/>
-      <c r="G94" s="112"/>
-      <c r="H94" s="113"/>
-      <c r="I94" s="113"/>
-      <c r="J94" s="112"/>
-      <c r="K94" s="112"/>
-      <c r="L94" s="112"/>
-      <c r="M94" s="112"/>
-      <c r="N94" s="114"/>
+      <c r="A94" s="108"/>
+      <c r="B94" s="108"/>
+      <c r="C94" s="108"/>
+      <c r="D94" s="108"/>
+      <c r="E94" s="109"/>
+      <c r="F94" s="108"/>
+      <c r="G94" s="108"/>
+      <c r="H94" s="109"/>
+      <c r="I94" s="109"/>
+      <c r="J94" s="108"/>
+      <c r="K94" s="108"/>
+      <c r="L94" s="108"/>
+      <c r="M94" s="108"/>
+      <c r="N94" s="110"/>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="107"/>
-      <c r="B95" s="107"/>
-      <c r="C95" s="107"/>
-      <c r="D95" s="107"/>
-      <c r="E95" s="108"/>
-      <c r="F95" s="107"/>
-      <c r="G95" s="107"/>
-      <c r="H95" s="108"/>
-      <c r="I95" s="108"/>
-      <c r="J95" s="107"/>
-      <c r="K95" s="107"/>
-      <c r="L95" s="107"/>
-      <c r="M95" s="107"/>
-      <c r="N95" s="109"/>
+      <c r="A95" s="103"/>
+      <c r="B95" s="103"/>
+      <c r="C95" s="103"/>
+      <c r="D95" s="103"/>
+      <c r="E95" s="104"/>
+      <c r="F95" s="103"/>
+      <c r="G95" s="103"/>
+      <c r="H95" s="104"/>
+      <c r="I95" s="104"/>
+      <c r="J95" s="103"/>
+      <c r="K95" s="103"/>
+      <c r="L95" s="103"/>
+      <c r="M95" s="103"/>
+      <c r="N95" s="105"/>
     </row>
   </sheetData>
   <sortState ref="A2:N85">
@@ -5352,12 +5193,12 @@
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="O14:O15 H29:I30 E28:E30 E1:I20 E22:I22 E21:H21 E24:I25 E23:H23 E27:I27 E26:H26 H28 E48:H48 E31:I47 J1:N1048576 E49:I1048576 A1:D83 A84:B84 D84 A85:D1048576">
-    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$C$2="Mut"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$C$2="Mut"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Recap Souris.xlsx
+++ b/Recap Souris.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="160" windowWidth="32060" windowHeight="18180" tabRatio="500"/>
+    <workbookView xWindow="-2080" yWindow="1720" windowWidth="32060" windowHeight="18180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="58">
   <si>
     <t>F</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Petit quand reçu. Risque DCD. Fiche laure : naissance 22/04</t>
+  </si>
+  <si>
+    <t>Décédé, trouvé mort dans sa cage</t>
   </si>
 </sst>
 </file>
@@ -334,7 +337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +384,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -596,7 +605,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -951,6 +960,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="151">
@@ -1471,8 +1486,8 @@
   <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45:I45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1555,7 +1570,7 @@
       <c r="G2" s="38"/>
       <c r="H2" s="39">
         <f t="shared" ref="H2:H30" ca="1" si="0">IF(G2, G2-D2, TODAY()-D2)</f>
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="21"/>
@@ -1609,7 +1624,7 @@
       <c r="G3" s="40"/>
       <c r="H3" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="21"/>
@@ -1667,7 +1682,7 @@
       <c r="G4" s="38"/>
       <c r="H4" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="I4" s="39"/>
       <c r="J4" s="21"/>
@@ -1725,7 +1740,7 @@
       <c r="G5" s="40"/>
       <c r="H5" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="I5" s="41"/>
       <c r="J5" s="21"/>
@@ -2114,7 +2129,7 @@
       </c>
       <c r="Q12" s="12">
         <f ca="1">IF(H:H="E", "", AVERAGEIF(G:G,"&lt;&gt;",H:H))</f>
-        <v>37.3125</v>
+        <v>37.787878787878789</v>
       </c>
       <c r="R12" s="83"/>
     </row>
@@ -2317,7 +2332,7 @@
       <c r="G17" s="42"/>
       <c r="H17" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I17" s="43"/>
       <c r="J17" s="4"/>
@@ -2470,7 +2485,7 @@
       <c r="G20" s="38"/>
       <c r="H20" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="21"/>
@@ -2554,7 +2569,7 @@
       <c r="G22" s="38"/>
       <c r="H22" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="21"/>
@@ -2707,7 +2722,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="21"/>
@@ -2791,7 +2806,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I27" s="39"/>
       <c r="J27" s="21"/>
@@ -3352,7 +3367,7 @@
       <c r="G39" s="22"/>
       <c r="H39" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I39" s="41"/>
       <c r="J39" s="21"/>
@@ -3463,7 +3478,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I42" s="65"/>
       <c r="J42" s="4"/>
@@ -3497,7 +3512,7 @@
       <c r="G43" s="90"/>
       <c r="H43" s="92">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I43" s="92"/>
       <c r="J43" s="96"/>
@@ -3529,7 +3544,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I44" s="67"/>
       <c r="J44" s="7"/>
@@ -3635,7 +3650,7 @@
       <c r="G47" s="20"/>
       <c r="H47" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I47" s="39"/>
       <c r="J47" s="34"/>
@@ -3723,36 +3738,40 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="22">
+      <c r="A50" s="125">
         <v>8</v>
       </c>
-      <c r="B50" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="22" t="str">
+      <c r="B50" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="125" t="str">
         <f>$T$2</f>
         <v>Het</v>
       </c>
-      <c r="D50" s="40">
+      <c r="D50" s="126">
         <v>43196</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="F50" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="I50" s="22"/>
+      <c r="F50" s="125" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="126">
+        <v>43249</v>
+      </c>
+      <c r="H50" s="125">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="I50" s="125"/>
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
+      <c r="N50" s="21" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="22">
@@ -3777,7 +3796,7 @@
       <c r="G51" s="22"/>
       <c r="H51" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I51" s="22"/>
       <c r="J51" s="21"/>
@@ -3847,7 +3866,7 @@
       <c r="G53" s="20"/>
       <c r="H53" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="21"/>
@@ -3879,7 +3898,7 @@
       <c r="G54" s="20"/>
       <c r="H54" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="21"/>
@@ -3911,7 +3930,7 @@
       <c r="G55" s="20"/>
       <c r="H55" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="21"/>
@@ -3943,7 +3962,7 @@
       <c r="G56" s="20"/>
       <c r="H56" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="21"/>
@@ -4013,7 +4032,7 @@
       <c r="G58" s="22"/>
       <c r="H58" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I58" s="22"/>
       <c r="J58" s="34"/>
@@ -4045,7 +4064,7 @@
       <c r="G59" s="22"/>
       <c r="H59" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I59" s="22"/>
       <c r="J59" s="34"/>
@@ -4077,7 +4096,7 @@
       <c r="G60" s="22"/>
       <c r="H60" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I60" s="22"/>
       <c r="J60" s="34"/>
@@ -4147,7 +4166,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I62" s="65"/>
       <c r="J62" s="4"/>
@@ -4181,7 +4200,7 @@
       <c r="G63" s="66"/>
       <c r="H63" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I63" s="65"/>
       <c r="J63" s="79"/>
@@ -4213,7 +4232,7 @@
       <c r="G64" s="22"/>
       <c r="H64" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I64" s="22"/>
       <c r="J64" s="34"/>
@@ -4245,7 +4264,7 @@
       <c r="G65" s="20"/>
       <c r="H65" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I65" s="20"/>
       <c r="J65" s="82"/>
@@ -4277,7 +4296,7 @@
       <c r="G66" s="65"/>
       <c r="H66" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I66" s="65"/>
       <c r="J66" s="79"/>
@@ -4377,7 +4396,7 @@
       <c r="G69" s="67"/>
       <c r="H69" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I69" s="67"/>
       <c r="J69" s="79"/>
@@ -4409,7 +4428,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I70" s="65"/>
       <c r="J70" s="4"/>
@@ -4441,7 +4460,7 @@
       <c r="G71" s="22"/>
       <c r="H71" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I71" s="22"/>
       <c r="J71" s="21"/>
@@ -4473,7 +4492,7 @@
       <c r="G72" s="22"/>
       <c r="H72" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I72" s="22"/>
       <c r="J72" s="21"/>
@@ -4505,7 +4524,7 @@
       <c r="G73" s="22"/>
       <c r="H73" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I73" s="22"/>
       <c r="J73" s="21"/>
@@ -4537,7 +4556,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I74" s="67"/>
       <c r="J74" s="4"/>
@@ -4569,7 +4588,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I75" s="67"/>
       <c r="J75" s="4"/>
@@ -4601,7 +4620,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I76" s="67"/>
       <c r="J76" s="4"/>
@@ -4633,7 +4652,7 @@
       <c r="G77" s="20"/>
       <c r="H77" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="21"/>
@@ -4665,7 +4684,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I78" s="67"/>
       <c r="J78" s="4"/>
@@ -4697,7 +4716,7 @@
       <c r="G79" s="22"/>
       <c r="H79" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I79" s="22"/>
       <c r="J79" s="21"/>
@@ -4729,7 +4748,7 @@
       <c r="G80" s="6"/>
       <c r="H80" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I80" s="65"/>
       <c r="J80" s="4"/>
@@ -4761,7 +4780,7 @@
       <c r="G81" s="31"/>
       <c r="H81" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I81" s="63"/>
       <c r="J81" s="2"/>
@@ -4793,7 +4812,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="67">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I82" s="67"/>
       <c r="J82" s="2"/>
@@ -4825,7 +4844,7 @@
       <c r="G83" s="20"/>
       <c r="H83" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I83" s="20"/>
       <c r="J83" s="2"/>
@@ -4857,7 +4876,7 @@
       <c r="G84" s="119"/>
       <c r="H84" s="119">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I84" s="119"/>
       <c r="J84" s="117"/>
@@ -4889,7 +4908,7 @@
       <c r="G85" s="119"/>
       <c r="H85" s="119">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I85" s="119"/>
       <c r="J85" s="117"/>
@@ -4921,7 +4940,7 @@
       <c r="G86" s="119"/>
       <c r="H86" s="119">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I86" s="119"/>
       <c r="J86" s="117"/>
@@ -4953,7 +4972,7 @@
       <c r="G87" s="106"/>
       <c r="H87" s="107">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I87" s="107"/>
       <c r="J87" s="101"/>
@@ -4985,7 +5004,7 @@
       <c r="G88" s="119"/>
       <c r="H88" s="119">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I88" s="119"/>
       <c r="J88" s="117"/>
@@ -5017,7 +5036,7 @@
       <c r="G89" s="90"/>
       <c r="H89" s="92">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I89" s="92"/>
       <c r="J89" s="121"/>
@@ -5049,7 +5068,7 @@
       <c r="G90" s="93"/>
       <c r="H90" s="95">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I90" s="95"/>
       <c r="J90" s="101"/>
@@ -5081,7 +5100,7 @@
       <c r="G91" s="112"/>
       <c r="H91" s="112">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I91" s="112"/>
       <c r="J91" s="117"/>
@@ -5113,7 +5132,7 @@
       <c r="G92" s="112"/>
       <c r="H92" s="112">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I92" s="112"/>
       <c r="J92" s="117"/>
@@ -5145,7 +5164,7 @@
       <c r="G93" s="115"/>
       <c r="H93" s="115">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I93" s="115"/>
       <c r="J93" s="118"/>
